--- a/BD-TE/6-RESUMEN.xlsx
+++ b/BD-TE/6-RESUMEN.xlsx
@@ -34,12 +34,2157 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">102/334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre los legados que deja la crisis financiera de los Estados Unidos y países de Europa está la implantación de políticas macroprudenciales en estos países y en un número creciente de otros países del mundo, incluidos algunos de la América Latina, con el fin de evitar nuevas crisis financieras. Esta reforma ha significado el establecimiento de nuevas bases institucionales, el uso de modelos e indicadores que permitan anticipar y prevenir que dichas crisis ocurran y el uso de instrumentos correctivos de la acumulación de vulnerabilidades financieras. Este estudio examina los aspectos institucionales de la política macroprudencial en la América Latina, las decisiones que se han tomado, y sus fortalezas y debilidades. En particular, analiza el alcance de estas reformas en los dos modelos institucionales que existen en esta región para la aplicación de las políticas monetarias y financieras: el modelo “Pacífico” que incluye a países como Chile, Colombia, Perú, Costa Rica y México, y el modelo “Atlántico”, que incluye a países como Argentina, Brasil y Uruguay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103/335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta un modelo de economía pequeña y abierta para estudiar la importancia de los choques a la tasa de interés real en México. La tasa de interés se descompone en dos términos: la tasa de interés internacional y la prima de riesgo país. Las simulaciones muestran que el modelo con prima de riesgo país endógena es capaz de explicar varios hechos estilizados del ciclo económico. El análisis contrafactual sugiere que la eliminación de los choques a la tasa de interés real reduciría la volatilidad del PIB en alrededor de una tercera parte, debido principalmente a la eliminación de los choques a la prima de riesgo país. En ausencia de dichos choques, las caídas del componente cíclico del PIB y del consumo durante la recesión de 1994-1995 habrían sido sólo de 2 y 4.5%, en contraste con las caídas de 12 y 16% observadas en los datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104/337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estima de forma semiparamétrica pautas de ciclo de vida de ingreso y de consumo en México durante los pasados 26 años. El análisis de consumo se realiza considerando clasificaciones de bienes duraderos y no duraderos para jefes de hogar con distintas características, por ejemplo, educación o zona en donde habitan. Los hallazgos indican que el consumo muestra una pauta de U invertida, contrario a los modelos tradicionales de consumo. La pauta de U invertida no puede ser explicada por los cambios en la composición del hogar ni por complementariedades con la oferta laboral del hogar a lo largo del ciclo de vida. Además, se encuentra que los hogares en México tienen un consumo relativamente bajo en bienes duraderos en comparación con países desarrollados. Los resultados del artículo sugieren que las restricciones de crédito son importantes para los hogares mexicanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105/338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo se basa en la hipótesis de que la estructura de capital de las PyME está afectada por la ubicación territorial de las empresas. Este comportamiento podría estar motivado por las similitudes en las políticas financieras de las empresas vecinas, ya que comparten características financieras, jurídicas y de entorno económico, y debido a los vínculos comerciales y financieros que existen entre ellas. Para contrastar esta idea, aplicamos una metodología econométrica espacial a una muestra de 23 279 empresas manufactureras españolas. Nuestros hallazgos confirman que las proporciones de endeudamiento total no se distribuyen aleatoriamente en el territorio español, sino que hay regiones con un endeudamiento alto (bajo) que tienden a estar rodeadas de zonas con una deuda alta (baja). Por otra parte, los determinantes tradicionales de la estructura de capital cambian un poco cuando se considera el efecto . Por tanto, resulta necesario considerar estos efectos de interacción regional entre unidades productivas en los modelos financieros de estructura de capital para evitar estimaciones erróneas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106/339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo arroja nueva luz sobre el proceso de polarización del ingreso observado entre Bogotá y el resto de los departamentos de Colombia al señalar el papel decisivo que desempeña el acceso a los mercados al evitar que se reduzcan las disparidades del ingreso entre departamentos y, por consiguiente, como obstáculo al proceso de convergencia en los ingresos. Los resultados de nuestras estimaciones econométricas con datos de los departamentos colombianos durante el periodo 1975-2000 muestran que el acceso a los mercados surge como una variable clave en la explicación de la distribución espacial del ingreso en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107/340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo identifica y analiza los choques estructurales fundamentales que explican las fluctuaciones de corto plazo de la economía venezolana en su historia reciente. Para ello, se realiza la estimación de un modelo aproximado de factores dinámicos (MAFD), el cual sirve de base para captar el efecto de los choques de política monetaria, política fiscal y choque petrolero en el componente común de un panel de 115 variables macroeconómicas. Estos choques estructurales son identificados por medio de la técnica de restricciones de signo desarrollada recientemente en la bibliografía. Los principales resultados indican que un choque de política monetaria no es efectivo para modificar la actividad económica, mientras que un choque expansivo de política fiscal financiado con endeudamiento interno logra incrementar el consumo privado y la construcción, pero sin afectar la producción agregada de la economía. Finalmente, un choque petrolero expansivo se comporta de manera idéntica a un choque de oferta agregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108/341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los clientes del sistema bancario mexicano son aquellos que tienen al menos una cuenta de ahorro o crédito, en alguno de los bancos del país. Con el fin de evaluar el avance de bancarización, este artículo propone un método para calcular el número de usuarios con tenencia de productos de captación y/o crédito en alguna de las instituciones bancarias. Al no haber cifras publicadas del número de clientes de cada banco, por parte de las autoridades o de las propias instituciones bancarias, la metodología que se presenta es resultado de hacer uso de saldos de captación y saldos de crédito que las instituciones financieras informan. En la medida en que no se cuente con información precisa de cuántos usuarios hay en cada banco y el número de ellos que pertenecen a dos o más bancos, existe la posibilidad de aplicar la metodología que se describe en este documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109/343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo analiza los efectos de los cambios en los precios de los alimentos en la pobreza alimentaria en México. Las principales aportaciones del estudio son la estimación por primera vez para el caso mexicano de la elasticidad precio de la demanda para los 22 productos incluidos en la canasta alimentaria para el periodo 1992-2010, y la identificación de las diferencias en elasticidades entre la población pobre y no pobre usando el método quadratic almost ideal demand system (QUAIDS) de Banks, Blundell y Lewbel (1997). El análisis incluye la construcción de una serie de pobreza alimentaria para 1950-2010, la descomposición de los cambios en la pobreza que identifica la importancia del efecto del incremento en los precios, el análisis de las variaciones en la estructura de consumo de los hogares en pobreza alimentaria. De nuestros resultados se infiere propuestas concretas para amortiguar el efecto de aumentos en los precios sobre el consumo de los hogares, así como opciones para motivar la producción de bienes alimentarios críticos para los pobres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110/344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se determina expresiones para el beneficio tributario de endeudarse y para el rendimiento que exige un accionista, si la empresa y la deuda crecen, en un sistema tributario no integrado como el de los Estados Unidos. Luego se determina expresiones equivalentes para un sistema tributario totalmente integrado. La principal aportación de este artículo es la extensión y generalización de las fórmulas de valoración de empresas y de costo del patrimonio a un sistema tributario distinto del estadunidense, pero que prevalece en muchos otros países del mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111/346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el decenio de los 2000 la desigualdad del ingreso en la América Latina se redujo. Este artículo aplica una variante de la metodología de descomposición no paramétrica propuesta por Barros et al (2006, 2007) para evaluar la importancia de las fuentes de ingreso de los hogares, en particular la aportación de las transferencias públicas, en los cambios en la desigualdad de ingresos en los años 2000 en los países del Cono Sur: Argentina, Brasil, Chile y Uruguay. Los resultados sugieren que los ingresos no laborales tuvieron una contribución significativa en los cambios en la desigualdad y que este efecto fue explicado principalmente por la consecuencia igualadora que tuvieron las fuentes públicas en los cuatro países analizados. La dinámica de los cambios en esta fuente de ingreso y su efecto en la desigualdad estuvo fuertemente asociada con la instrumentación o expansión de programas de transferencia no contributivos en el pasado decenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112/347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La falta de series macroeconómicas históricas para las economías regionales dificulta la profundización en el conocimiento de los factores explicativos de su evolución económica. En este artículo se utiliza una serie anual del producto interno bruto, estimada por la vía de la oferta, para Andalucía a lo largo del siglo XX. A partir de estas cifras se establece los cortes estructurales que se producen en esa etapa y que contribuyen a explicar el atraso económico relativo andaluz. Se encuentran tres fechas significativas de corte y los resultados obtenidos permiten establecer que la tasa de crecimiento económico medio anual del producto interno bruto al costo de los factores (PIBcf) per capita fue igual a 1.64%, lo que supone un diferencial de más de medio punto porcentual respecto al 2.20% de España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113/348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es el de analizar la rentabilidad de una fusión horizontal de empresas que compiten en cantidades, en el supuesto de que puede haber tanto asimetrías de información entre las diferentes empresas del mercado como que se pueden realizar pagos colaterales entre las mismas. En este contexto, se prueba que una fusión entre dos empresas seguidoras puede ser beneficiosa. Por otra parte, se prueba que el número mínimo de empresas necesario para garantizar la sustentabilidad de la fusión es menor si existen asimetrías informativas que en un contexto de información simétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114/349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La curva de Kuznets de carbono ha sido un tema ampliamente estudiado por la economía ambiental empírica y altamente controversial debido sobre todo a sus consecuencias para la elaboración política contra el cambio climático. Este trabajo está dirigido a analizar la relación entre emisiones de dióxido de carbono y producto para un conjunto de países de la América Latina y el Caribe utilizando un enfoque semiparamétrico. Los resultados confirman la inexistencia de una curva de Kuznets de carbono en la región y ofrecen pruebas en favor de un proceso de relocalización de emisiones, verificando la hipótesis del paraíso de contaminadores en los países de menores ingresos. En este contexto, “esperar y crecer” es una solución totalmente inviable para la situación ambiental en la América Latina y el Caribe. En su lugar, surge con urgencia la necesidad de crear una política climática dirigida a adaptar y mitigar los efectos del cambio climático en la región</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115/351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir de una definición de clase media que incluye a personas con baja probabilidad de caer en pobreza, este artículo presenta algunas tendencias para América Latina. El porcentaje de personas en clase media ha aumentado de 21.9% en 2000 a 34.3% en 2012, y desde el 2009 el tamaño de la clase media es mayor que el porcentaje de personas en pobreza. No obstante, formar parte de la clase media en América Latina sigue siendo una posición privilegiada. Los grupos en pobreza y vulnerabilidad concentran aún alrededor de dos terceras partes de la población total de la región. En este sentido, la región no se puede considerar una sociedad de clase media, al menos no por el momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116/352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se presenta un indicador de expectativas de los consumidores sobre la inflación en México y se evalúa su poder de predicción de sobre inflación general y la de canastas de consumo más restringidas del INPC, para horizontes de 1 hasta 12 meses. El análisis estadístico realizado reveló que en el periodo enero de 2003-septiembre de 2010 las expectativas de inflación de los consumidores exhibieron un poder predictivo débil.A partir de octubre de 2010 se modificó el cuestionario de la Encuesta Nacional sobre Confianza del Consumidor, cuya información se utiliza para construir el indicador de expectativas de inflación; dicha modificación produjo un cambio importante en el patrón de respuestas y en el comportamiento del indicador. Puede considerarse que a partir de octubre de 2010 la mayor utilidad del indicador es servir como referente de la credibilidad que manifiesta la población en la estabilidad de precios en la economía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117/353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examinamos la eficacia de los cambios voluntarios y obligatorios en el gobierno corporativo de las empresas mexicanas, los cuales formaron parte de un conjunto integral de reformas de gobierno corporativo que buscaba mejorar su rendición de cuentas ante los inversionistas externos. Dicha reforma se inició con la promulgación del Código de Mejores Prácticas Corporativas y estuvo seguida de disposiciones legales que requerían cambios fundamentales en la estructura de los consejos de administración. Primero investigamos el grado de adhesión tanto al Código como a las disposiciones legales para determinar si las empresas cambiaron o no sus sistemas de administración. Posteriormente analizamos si los cambios positivos en el gobierno corporativo (si es que ocurrieron) se relacionan con un mejor desempeño empresarial y evaluaciones más altas. Nuestros resultados indican que la adhesión al Código y las disposiciones legales mejoró acusadamente con el tiempo. Sin embargo, dichos cambios positivos en el gobierno no se relacionan con un mejor desempeño (mayores rendimientos sobre activos, o RSA) ni con mejores evaluaciones (Q de Tobin) de todas las empresas. Las empresas que tienen una menor concentración de accionistas internos efectivamente presentan algunas mejoras en su desempeño. Atribuimos estos hallazgos en gran parte a la complejidad inherente de la estructura accionaria de las empresas y al entorno jurídico que impera en México. Nuestra opinión es que la alta concentración de accionistas internos y la endeble protección jurídica de la que gozan los accionistas minoritarios son los principales obstáculos a la eficacia de cualquier reforma. Sin un compromiso denodado de hacer cambios sustanciales en cualquiera de estos obstáculos, es poco probable que se dé alguna mejora perceptible en el gobierno corporativo o en el ambiente de inversión en México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118/354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Nueva Geografía Económica (NGE) pregunta si el comercio conduce a una mayor concentración de la actividad económica. Sin embargo, pocos trabajos empíricos han evaluado los efectos regionales del comercio. Este artículo estudia la distribución regional de los beneficios del comercio en México después del Tratado de Libre Comercio de América del Norte (TLCAN). A diferencia de estudios anteriores, el presente estudio trabaja con datos municipales, lo que permite observar mejor las pautas de crecimiento espacial e identificar el efecto del TLCAN.  Los resultados muestran que después del TLCAN, la producción por trabajador en las regiones cercanas a la frontera entre México y los Estados Unidos creció más rápidamente que en aquellas más lejanas. Además, el acuerdo comercial aumentó la desigualdad, lo que implicó una mayor concentración económica comercial e hizo que las ciudades crecieran más rápidamente que otras regiones. Asimismo, las regiones con una fuerza laboral más escolarizada pudieron beneficiarse más del TLCAN y crecer más rápidamente que otras áreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119/355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza la brecha salarial de género entre los universitarios recién titulados que tienen un empleo formal en Colombia, haciendo hincapié en el papel que desempeña el tipo de carrera universitaria en la explicación de la brecha salarial de género en las primeras etapas de la experiencia del mercado laboral. Para realizar este análisis, aprovechamos un conjunto de datos único que contiene los registros administrativos de individuos observados en el empleo formal un año después de titularse, así como información pormenorizada de los distintos tipos de carrera universitaria que estudiaron. Los resultados sugieren que, en promedio, la brecha salarial contra las mujeres es de aproximadamente 11% del cual 40% se explica por las diferencias de género en el tipo de carrera universitaria elegida. Mediante el uso de una descomposición distributiva de la brecha salarial de género hallamos pruebas no sólo de una brecha creciente en distintos niveles de la distribución salarial sino también de que tan sólo 30% de esta brecha se puede explicar con base en el tipo de carrera universitaria. Este resultado también apoya la existencia de un fenómeno de techo de cristal desde las primeras etapas de la experiencia del mercado laboral, lo cual es de particular interés para los encargados de formular políticas dado que algunas de las explicaciones que se ofrecen acerca del efecto de techo de cristal están relacionadas con la experiencia y los ascensos, características que no son significativamente diferentes para los universitarios recién titulados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120/356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estiman las elasticidades intertemporal y no compensada de la oferta laboral femenina y masculina para Uruguay. Se basa en la metodología propuesta por Pencavel (2002) que permite considerar el comportamiento a lo largo del ciclo de vida para los distintos perfiles salariales y distinguir la magnitud de ambas elasticidades. Se evalúan las posibles diferencias en la magnitud de las elasticidades entre ambos sexos y se analizan los cambios intergeneracionales de la oferta femenina. Los hallazgos confirman las ventajas de la metodología propuesta para distinguir ambas elasticidades y muestran que las magnitudes de las elasticidades femeninas son estadísticamente mayores o iguales que las de los hombres. Para las mujeres se encuentra un comportamiento congruente con la lógica del ciclo de vida y pruebas contrarias a la hipótesis del trabajador añadido, mientras se verifican cambios intergeneracionales en su conducta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121/357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es investigar la distribución espacial de las industrias en el sector de la innovación en México. Mediante el análisis exploratorio de datos espaciales (AEDE), se presenta un estudio original en un contexto espacial en que el análisis empírico emplea datos georreferenciados recientemente disponibles, por empresa, así como datos de los Censos Económicos de 2009. Se utilizan estadísticas espaciales globales y locales para identificar, cuantificar y localizar clusters espaciales de empresas y su correspondiente composición del empleo. Con esto se muestra la existencia de “puntos calientes”, es decir, zonas en donde se presenta una fuerte dinámica de actividades de innovación. Este análisis identifica las regiones más innovadoras con base en siete clusters espaciales de grandes empresas distribuidos por todo el país, principalmente en zonas urbanas y metropolitanas. El estudio contribuye a una mejor comprensión de las condiciones de los clusters de innovación que imperan en el país y quizás ayude en la formulación de políticas específicas de innovación basadas en el tamaño de las empresas y para sectores específicos, esto con el objetivo de acelerar el proceso de innovación regional. También aporta lineamientos para los encargados de formular políticas ansiosos por promover el desarrollo de las economías locales e identificar en dónde se requiere desarrollar, financiar y elaborar sistemas de innovación regionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122/358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde hace tiempo existe una señalada preocupación entre académicos y autoridades en muchos países sobre si los individuos están realizando el ahorro necesario para su fase de retiro. La evidencia empírica muestra que en los países desarrollados no es así, y lo mismo indica la poca evidencia disponible para países en desarrollo. En este trabajo se hace una revisión de la literatura teórica sobre este tema, en particular del modelo de ciclo de vida, así como de otros planteamientos que contribuyen a explicar el fenómeno. Se hace hincapié en el caso mexicano y para ello se ofrece la escasa evidencia disponible sobre el ahorro para el retiro de su población y se muestra que éste no es adecuado en la mayoría de los casos. Se concluye con algunas reflexiones útiles para diseñar políticas públicas que permitan enfrentar este problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123/359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se presenta un modelo en que los agentes deben tomar decisiones acerca de la formalización de los derechos de propiedad sobre la tierra. En el modelo se muestra la existencia de un equilibrio en el que coexisten agentes que producen en tierras de libre acceso y agentes que producen en tierras de propiedad privada. Este equilibrio es ineficiente porque el esfuerzo para formalizar la tierra es menor de lo necesario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124/360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo investigamos si los instrumentos de análisis técnico son útiles en periodos de crisis financieras. Considerando cuatro de los principales índices latinoamericanos —Bovespa (Brasil), IGBLV (Perú), IPC (México) e IPSA (Chile)— no encontramos evidencia a favor del uso de análisis técnico en periodos de crisis financiera. Las técnicas que otorgan rentabilidades más altas no son las mismas que reportan rendimientos más bajos. En general, los instrumentos de mediano plazo son los que reportan un mayor rendimiento, mientras que los de corto plazo reportan un menor rendimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125/361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo analiza la brecha salarial de género en México entre 1990 y 2010 utilizando los censos de población. En promedio, la brecha salarial ha disminuido en el periodo. En 2010 la brecha salarial de género fue de 6%. El promedio no describe el comportamiento de la brecha en la distribución. Hallamos un patrón estable de “piso pegajoso” y un patrón decreciente de “techo de cristal” a lo largo de la distribución en este periodo. Utilizamos un método semiparamétrico para descomponer la brecha salarial en características y precios, y corregimos por la selección de las mujeres al mercado laboral. La mayor parte de la brecha salarial se debe al efecto de precios y no de características. Al corregir por selección la brecha salarial resulta mayor, lo cual sugiere que existe selección positiva de las mujeres; ésta se acentúa en el caso de las mujeres de baja educación y en cuantiles bajos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126/362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pesar de ser el más usual, el método Datt-Ravallion de descomposición de las variaciones en la pobreza en dos efectos —el de redistribución y el de crecimiento—, ha dejado muchas insatisfacciones a causa de su inexactitud y asimetría. El artículo propone un procedimiento alternativo que repara estas fallas sin recurrir a los promedios interanuales que utilizan otras técnicas. Al aplicarlo a México, los resultados satisfacen estas expectativas metodológicas y revelan el carácter conflictivo entre ambos efectos, lo que explica por qué el descenso de la pobreza es tan lento en las fases expansivas del ciclo y por qué la redistribución del ingreso amortigua las repercusiones de las crisis, especialmente de las más profundas, sobre la pobreza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127/363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo define y evalúa un nuevo método fiscal basado en la combinación de un esquema de tipo único imponible y mínimos personales incrementados sobre la base imponible, al que denominaremos el Método Fiscal basado en Renta Discrecional (MFRD), a comparación del tradicional impuesto sobre la renta de las personas físicas basado en una tarifa impositiva progresiva. Los resultados muestran, desde una perspectiva teórica, que nuestra propuesta es más progresiva y superior en términos de bienestar social. Para la comprobación empírica de nuestros resultados, hemos llevado a cabo un ejercicio en donde se compara el IRPF (Impuesto sobre la Renta de las Personas Físicas) español con nuestro método fiscal teórico alternativo (MFRD). Los resultados de nuestro ejercicio empírico coinciden con las predicciones teóricas de la “imposición objetiva” aquí descrita y derivada de la comparación de los dos métodos fiscales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128/364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mientras que la distribución de error general (GED) ha sido usada extensamente en aplicaciones de series de tiempo y ha demostrado una gran flexibilidad en la estimación de series de tiempo financieras, no se ha intentado utilizarla en la construcción de cópulas. Las cópulas son funciones de probabilidad que unen una función de distribución multivariada a funciones de distribución univariadas llamadas marginales. Se parte del supuesto de que las marginales son continuas y uniformes en el intervalo [0,1]. En este artículo proponemos la cópula GED bivariada, la cual, de acuerdo con nuestra revisión, no ha sido usada en la bibliografía. Esta función abarca otras funciones de distribución, como la gaussiana o la doble exponencial, empleadas frecuentemente en el análisis de fenómenos financieros. Con el fin de probar el desempeño de esta nueva cópula investigamos el contagio financiero en la crisis de 2008 empleando tipos de cambio, acciones, bonos y mercados de deuda soberana en América Latina. Los criterios usuales de decisión proveen fuerte evidencia a favor de la cópula GED sobre otras alternativas elípticas o arquimideanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estima economías de escala, a nivel de planta y de firma, para cinco categorías de instituciones microfinancieras (IMF) peruanas utilizando información panel de frecuencia mensual para el periodo 2003-2010. Además, evalúa posibles determinantes de las economías de escala a nivel de firma para cada categoría de IMF. Los resultados sugieren que mientras la categoría de cajas (bancos) rurales goza de economías de escala a nivel de planta y de firma, la categoría de financieras especializadas en microfinanzas experimenta deseconomías de escala a ambos niveles y los bancos especializados en microfinanzas enfrentan deseconomías a escala a nivel de planta y, en algunos casos, retornos constantes a nivel de firma. Se encuentra que la habilidad y capacidad del personal para el desarrollo del negocio microfinanciero es un determinante de las economías de escala, en la mayoría de las categorías de IMF, con un efecto positivo sobre éstas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130/366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En las últimas dos décadas, la investigación de la economía política en México ha transitado de estudios amplios y comprensivos hacia investigaciones sobre temas cada vez más específicos. Este documento presenta las principales aportaciones al tema que en años recientes han hecho economistas y politólogos, y que se destacan por haber producido un rico debate a nivel nacional e internacional. La observación de esta reseña se dirige a los patrones políticos en regímenes democráticos, la dependencia y el desarrollo, la formación del Estado y el Estado de derecho, desigualdad y política social, recaudación y gasto, y vínculos internacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131/367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde que en 1931 Tibbits publicó un estudio sobre la relación entre el ciclo económico y los resultados electorales, el análisis del voto económico ha ido perfilando una teoría que explica la decisión de los electores. A diferencia de otras investigaciones, en este artículo se plantea un modelo de voto económico en el que suponemos que los electores son racionales, neutrales ante el riesgo y poseen incertidumbre ante la situación económica prospectiva del país. El objetivo último del elector es votar por el candidato que le permita maximizar la utilidad esperada de su decisión. De las estimaciones realizadas a partir de la matriz de microdatos agrupados de las elecciones presidenciales celebradas en Chile en 1993, 1999-2000 y 2005-2006, se concluye que el liderazgo y el contexto electoral son los factores que más condicionan el comportamiento de los electores. También comprobamos que el voto económico de los chilenos es sofisticado, racional y heterogéneo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132/368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cobertura de pensiones contributivas en México es baja, y la alta movilidad entre el mercado laboral formal e informal conduce a bajas densidades de cotización que no garantizan acceder a una pensión mínima. El Estado ha creado programas de transferencias, pero cuyo diseño puede desincentivar la formalidad. Este trabajo propone una pensión proporcional y condicionada a la participación en empleos formales reemplazando las transferencias de monto fijo de estos programas, siguiendo la experiencia reciente en Chile. Utilizamos el diseño propuesto por Valdés-Prieto (2008), el cual minimiza las distorsiones en el mercado laboral. Bajo el supuesto de trayectoria lineal de ingresos, nuestra estimación arroja incrementos promedio en el valor total de las pensiones de 45.6% y un ahorro fiscal de 14.8% con respecto a otorgar la transferencia no contributiva como el programa “65 y más”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133/369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El “no sistema” financiero mundial vigente se caracteriza por la inestabilidad. A falta de soluciones globales, ha surgido una serie de convenios regionales de cooperación monetaria para hacer frente a esta inestabilidad. Este artículo se centra en sistemas regionales de pagos como primer paso de cooperación monetaria regional. A fin de evaluar sus posibles contribuciones para lograr una mayor estabilidad macroeconómica de los países miembros, desarrollamos una tipología de los sistemas de pagos y comparamos de manera sistemática iniciativas históricas y actuales de Europa, Asia y América Latina, utilizando como referencia el Plan Keynes original. Mostramos que los sistemas regionales de pagos implican efectos benéficos en la medida en que reducen los costos de transacción del comercio intrarregional y crean incentivos para una mayor cooperación macroeconómica. Sin embargo, su contribución a la estabilización macroeconómica depende del diseño específico de cada acuerdo regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134/370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo caracteriza la competitividad económica de las 32 entidades del país, destacando las actividades principales por lo que respecta al producto interno bruto, la productividad, el empleo y los salarios. El principal resultado es que hay dos tipos de entidades en cuanto a condiciones de competitividad. Aquellas más competitivas cuentan con una economía más productiva y diversificada, además de tener mayores niveles de productividad y mejor capital humano, estimado a través de mayores salarios. Se trata de entidades económicamente más maduras como el Distrito Federal, Querétaro, el Estado de México, Jalisco y los estados de la frontera norte. Las de menor competitividad dependen de pocas actividades que alcanzan una mayor importancia local e intentan compensar la falta de productividad con bajos salarios, perjudicando aún más su situación al no disponer de capital humano para revertir las tendencias. Las medidas de productividad y salarios por estado se mantienen en el mismo orden entre 2003 y 2008. En otras palabras, las ganancias de productividad y mejores salarios se consolidan y transmiten en ambientes más modernos y homogéneos, creando un mejor escenario prospectivo para las entidades competitivas muy por encima de los avances moderados de los otros estados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135/371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta investigación propone una metodología para estimar los parámetros del modelo de volatilidad estocástica de Heston (1993) por medio de funciones cuadráticas de pérdida, las cuales minimizan el error entre precios de mercado y precios teóricos. Para ello se plantean tres clases de funciones de pérdida, de las cuales dos están asociadas a precios y otra a volatilidades implícitas. La metodología propuesta se aplica a un conjunto de precios de opciones sobre AMX-L, WALMEX-V y GMEXICO-B. Los resultados indican que para opciones de compra sobre AMX-L se generan volatilidades implícitas consistentes con las observadas con base en el criterio de la raíz de la pérdida del error cuadrático medio, mientras que para opciones de compra sobre WALMEX-V y GMEXICO-B se generan volatilidades implícitas consistentes con las observadas con base en el criterio de la raíz de la pérdida relativa del error cuadrático medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136/372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las participaciones del ingreso laboral en México que se estiman a partir del Sistema de Cuentas Nacionales son excepcionalmente reducidas —entre 0.25 y 0.33— comparadas con la evidencia internacional. En el presente artículo argumentamos que existe un severo problema de subregistro de los ingresos laborales debido al autoempleo y al nulo registro de ingresos laborales de los empleadores y los no remunerados. Proponemos tres criterios para corregir las participaciones, que van desde asignar el salario promedio de los remunerados hasta hacer estimaciones de ecuaciones mincerianas para predecir el costo de oportunidad de los individuos de acuerdo con sus atributos. Encontramos que, una vez hechos los ajustes, el peso de los ingresos laborales se encuentra entre 42 y 47% del valor agregado, y que las correcciones son especialmente grandes en la agricultura, construcción, comercio, restaurantes y servicios, sectores con alta incidencia de informalidad y de empresas pequeñas y micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137/373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A principios de 2012 la Organización para la Cooperación y el Desarrollo Económico (OCDE) publicó un estudio sobre las políticas y la regulación de las telecomunicaciones en México, estudio que fue severamente criticado por diversos consultores de América Móvil. La OCDE no respondió las objeciones, solamente señaló que su estudio se había realizado de acuerdo con los procedimientos usuales y que había sido aprobado por sus Estados miembro. El año pasado, EL TRIMESTRE ECONÓMICO dedicó un número especial a la controversia pendiente. Aparte de publicar traducciones de dos artículos de los consultores de América Móvil EL TRIMESTRE invitó a algunos expertos académicos a expresarse sobre el tema. El propósito de este artículo es demostrar que los autores invitados complicaron la materia innecesariamente y que los hallazgos del estudio de la OCDE son simplemente erróneos e inconsistentes. Para verlo no se requieren ejercicios econométricos sofisticados; una simple revisión de las cifras, algo de rigor analítico y una mirada escéptica a una gráfica de equilibrio parcial son suficientes para llegar a la conclusión de que los resultados de la OCDE están fuera de la realidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138/374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139/907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El producto potencial es un factor clave para el análisis de sustentabilidad de la deuda y para desarrollar estrategias de crecimiento. Sin embargo, es una variable inobservable. A través de tres metodologías (función de producción, cambio de régimen y estado-espacio), este documento calcula el potencial de producción en los países CAPRD (Centroamérica, Panamá y la República Dominicana) utilizando datos anuales. Los resultados principales son: i) el potencial de crecimiento de CAPRD es de alrededor de 4.4% mientras que la volatilidad de la brecha de producción asciende a 1.9% aproximadamente; ii) el país con mayor potencial de crecimiento es Panamá (6.5%), mientras que el país con menor crecimiento es El Salvador (2.6%); iii) el ciclo económico en CAPRD es de cerca de ocho años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140/908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudia el impacto de programas de masificación del uso de Tecnologías de la Información y la Comunicación (TIC) con fines pedagógicos en Chile. En particular, se mide el impacto de dos iniciativas del Ministerio de Educación (Mineduc), Fondos para Banda Ancha (2006-2010) y TIC en Aula (2007-2011), sobre el rendimiento de estudiantes del ciclo básico en las pruebas nacionales estandarizadas de lenguaje  y matemáticas, establecidas por el Sistema de Medición de la Calidad de la Educación (SIMCE) y disponibles desde 1998. Los resultados muestran que estos programas no han tenido efectos significativos en el rendimiento, ni individual ni conjuntamente, pero si fue posible identificar efectos positivos y significativos de TIC en Aula sobre grupos específicos en lenguaje, no así en matemáticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141/909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo del presente artículo es estudiar la estructura de la industria de telefonía móvil en los países latinoamericanos, identificando la existencia de grupos estratégicos así como analizando las diferencias de desempeño empresarial entre los mismos. El propósito final es identificar las ventajas competitivas de los grupos con mejor desempeño, así como las estrategias que les han llevado a conseguirlo. El análisis empírico se ha llevado a cabo utilizando datos de una muestra de las 22 empresas latinoamericanas con mayor capitalización bursátil de la industria en el año 2013. Los resultados revelan la existencia de cinco grupos estratégicos y la presencia de diferencias significativas en el desempeño empresarial intergrupal. Las variables determinantes de las ventajas competitivas de los grupos con mejor desempeño son la cuota de mercado, el número de suscriptores y la fidelidad de los clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142/910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es realizar una imputación de ingresos a observaciones con ingresos faltantes en la Encuesta Nacional de Ocupaciones y Empleo (ENOE) y, posteriormente, analizar el posible sesgo en estimaciones de capital humano derivadas de ignorar esas observaciones. Se presenta una imputación por dos métodos y también una corrección de estimaciones por remuestreo para observaciones de ingreso reportado. Los resultados muestran diferencias en parámetros de capital humano sobre salarios y determinantes de pobreza laboral al no considerar las observaciones con ingreso faltante. Las diferencias son más significativas cuando se mide pobreza laboral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143/911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo estudiamos la relación entre la extensión de las unidades de producción de caña de azúcar en México y sus rendimientos. Mostramos, teórica y empíricamente, una asociación en forma de U entre estas variables. Presentamos evidencia que sugiere que dicha relación está determinada por el uso más intensivo de insumos en los predios de menor y mayor superficie relativos a los de tamaño medio: los de aproximadamente ocho hectáreas. Estos resultados contribuyen al debate sobre la relación entre el tamaño de las unidades de producción agrícola y su productividad; en el caso del campo mexicano, esta literatura es prácticamente inexistente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144/912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estudio de la adaptación de los inmigrantes al país de destino es una tarea compleja, que exige considerar multitud de aspectos expresados desde la perspectiva socioeconómica en el concepto de aculturación. Frente a esto, la tenencia de vivienda en propiedad supone decisiones a largo plazo, vinculadas con un amplio conjunto de factores que para los inmigrantes expresan el éxito de sus proyectos de inmigración. Por ello, el artículo analiza los procesos de aculturación de los inmigrantes residentes en España mediante el estudio de sus decisiones de tenencia de vivienda en propiedad. Se concluye que ser extranjero reduce notablemente la probabilidad de ser propietario, siendo la variable central que explica las menores tasas de propiedad de este grupo de personas en comparación con los españoles nativos. Los procesos de aculturación de los inmigrantes, aproximados de esta forma, se basarían en los procesos de adquisición de información, que presentarían diferencias relevantes en función de la etnia a la que pertenecen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145/913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo se analiza, mediante el uso del concepto de información mutua, la relación existente entre el tipo de cambio nominal y los distintos componentes de la inflación. La medida de información propuesta capta la estructura de dependencia entre estas dos variables, lo que conlleva a nueva evidencia empírica no explorada por estudios previos. Entre estos resultados se encuentran: i) existencia de distribuciones bivariadas bimodales útiles para examinar cambios de régimen, y ii) aumento en la dependencia de las variables en periodos de poca volatilidad y caídas en su dependencia en ambientes de incertidumbre, previamente medido como pass-through. Asimismo, dichas distribuciones permiten estudiar las distintas velocidades de transmisión para cada componente de la inflación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146/291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo utiliza el enfoque de bienestar subjetivo para evaluar el costo personal de una enfermedad. El enfoque constituye una opción a metodologías basadas en preferencias reveladas y enunciadas. Parte de que la presencia de enfermedad deteriora la satisfacción con la salud de las personas, mientras que aumentos en el ingreso mejoran esa satisfacción. Por tanto, es posible calcular el ingreso compensatorio ante la presencia de enfermedad de manera que la satisfacción con la salud permanezca constante. Este cálculo indica el valor monetario de la enfermedad, y puede interpretarse también como el valor monetario de los beneficios provenientes de programas que corrigen o evitan un problema de salud. La ilustración empírica se basa en datos de encuestas representativas nacionales realizadas en Costa Rica. La aplicación del enfoque se ilustra con base en la evaluación de cuatro enfermedades diagnosticadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147/282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza un conjunto de consorcios tecnológicos apoyados con recursos públicos en Argentina, Chile, Colombia y Uruguay. Estos programas buscan facilitar la interacción entre empresas e instituciones dedicadas a la producción de ciencia y tecnología. Los resultados, basados en datos recabados para un subconjunto de los grupos apoyados, ponen en relieve las dificultades y los largos tiempos que se requieren para lograr resultados concretos, en particular, en innovación tecnológica. El trabajo cuantitativo muestra una evaluación relativamente baja de las empresas respecto al efecto de estos instrumentos en la generación de innovaciones de productos y procesos y la obtención de patentes, aunque existen aspectos relativamente mejor evaluados, como el mejoramiento del acceso a conocimiento tecnológico, en ámbitos como el mercadeo y los recursos humanos. Esto puede deberse a que varios de los consorcios llevan poco tiempo en funcionamiento y necesitan un plazo más largo para ser evaluados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148/272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta los resultados de la simulación de un modelo de equilibrio general computable construido para Venezuela. El uso de este modelo se ejemplifica mediante la calibración y simulación de una economía abierta con tres agentes institucionales (hogares, empresas y gobierno) y tres sectores productivos (petróleo, manufactura y resto), para una economía abierta. Se considera diferentes reglas de política. En cada caso se muestra el proceso de calibración y los resultados de las simulaciones utilizando información proveniente de la serie de matrices de contabilidad social para Venezuela entre 1997 y 2005. Se aporta simulaciones de la economía hasta 2009, tanto en los parámetros pertinentes y como algunos  ejercicios de sensibilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149/274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde hace algunos años tenemos una línea de investigación en justicia distributiva y trasplante renal en el campo de la bioética y los resultados de nuestras investigaciones nos permiten considerar que este tema es de interés para distintos ámbitos académicos (véase referencias bibliográficas). El artículo publicado por Calderón y Elbittar es una muestra de ello, ya que contribuye al análisis del tema; sin embargo, desde nuestro punto de vista dicho trabajo hace aportaciones parciales ya que está basado en información disponible en registros médicos, que no forzosamente reflejan las percepciones de los médicos que toman las decisiones respecto a la asignación de los órganos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151/342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento presenta los elementos teóricos y criterios operativos seguidos por el Consejo Nacional de Evaluación de la Política de Desarrollo Social (Coneval) para definir la metodología de medición multidimensional de la pobreza. La metodología multidimensional se constituyó, a partir de 2009, en la forma como oficialmente se identifica y mide la pobreza en México. La metodología es ilustrada con resultados para 2010 y 2012. Esta manera de medición tiene tres características que la hacen diferente respecto a otros métodos. Primero, este enfoque utiliza una aproximación multidimensional basada en derechos sociales universales. Segundo, a diferencia de otros paradigmas teórico metodológicos para la medición multidimensional de la pobreza que combinan en un solo índice todas las dimensiones, la identificación de las personas en pobreza, según esta perspectiva, utiliza una medida bidimensional. En una dimensión se presenta el ingreso y, en la otra, se cuantifican las carencias sociales. Tercero, la metodología clasifica la población en distintos grupos de acuerdo con su condición de pobreza o vulnerabilidad, lo que ayuda a que se recomienden instrumentos de políticas públicas diferenciados en materia económica y social dirigidos a cada dimensión específica. Esto permite ser más eficiente no sólo para focalizar y atender a la población pobre sino también para distribuir el gasto social. Existe un cuarto elemento, compartido con otros enfoques, que se refiere a la posibilidad de desagregar la información de pobreza para diferentes grupos de población, por ejemplo, según edad, sexo, condición étnica y a nivel territorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152/345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo consiste en modelar las estrategias utilizadas por las Afore para retener el mayor número de afiliados con diferentes rangos de ingreso en un esquema de competencia por costos. Para tal efecto simulamos un juego estático no cooperativo de dos etapas, en el que se formaliza la competencia establecida por las M ≥ 1 administradoras líderes y las N seguidoras en un equilibrio generalizado de Nash-Cournot-Stackelberg (EGNCS). Los resultados indican que: i) la competencia entre las Afore es heterogénea por segmentos de salarios; ii) mientras que en rangos intermedios de salarios el EGNCS es adecuado para explicar el comportamiento de las Afore, en los rangos extremos la conjetura más razonable es que los agentes actúan como competidores por precios —salarios bajos— o como oligopolistas con un liderazgo no basado en cantidades y precios —salarios altos—, y iii) no es posible asegurar que, en una estructura de competencia como la que prevalece en las Afore, un mayor número de competidores redunde siempre en un mayor beneficio para los afiliados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153/350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta reseña resume y comenta las principales tesis del libroEl enigmático sistema bancario mexicanode Alejandro Villagómez y Fausto Hernández.  Se trata de un diagnóstico bien sustentado de la situación actual y las oportunidades de desarrollo de la banca mexicana. En este análisis se señala que, pese a los avances normativos y operativos logrados tras la crisis de 1995, México aún enfrenta retos para consolidar un sistema financiero más profundo y eficiente.  Para lograr este objetivo, entre otros aspectos, los autores mencionan la necesidad de clarificar y proteger los derechos de propiedad, así como promover una mayor competencia entre los intermediarios.  De acuerdo a esta reseña, un gran mérito del libro es que, sin dejar de ser riguroso, utiliza un lenguaje accesible y contribuye a brindar elementos de juicio, no solo para el especialista, sino para el conjunto de la sociedad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154/328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 1990 se llevó a cabo la privatización de la compañía Teléfonos de México (Telmex) como un monopolio vertical y horizontalmente integrado, que podía ofrecer todos los servicios posibles de telecomunicaciones, menos video. Asimismo, su venta incluyó importantes derechos de exclusividad, como el servicio de larga distancia, en el cual no se permitió la competencia por los siguientes seis años. Finalmente, se realizó un ajuste anticipado de sus tarifas al alza, con objeto de incrementar su potencial valor antes de su ofrecimiento a la venta. El equilibrio de las finanzas públicas era, por tanto, el tema fundamental de política económica del Estado mexicano, y los temas de competencia y regulación de las telecomunicaciones no se consideraban relevantes al momento de la privatización de la principal empresa de telecomunicaciones del país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155/329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refutamos la conclusión de la OCDE que sostiene que el sector de las telecomunicaciones en México ha experimentado una falta de competencia. La conclusión de la OCDE se basa en sus cálculos que indican que los precios altos en los servicios de telecomunicaciones en México han ocasionado una pérdida del excedente del consumidor de 129 mil millones de dólares. En realidad, los consumidores mexicanos han obtenido beneficios de miles de millones de dólares debido a precios más bajos y mayores compras de servicios de telecomunicaciones. Las conclusiones opuestas de la OCDE provienen de errores, del uso incorrecto de hechos y datos y de la aplicación del análisis económico erróneo. Un análisis econométrico correcto revela que no existen pruebas de una falla del mercado en México. Los precios de la telefonía celular en México están muy por debajo de los precios promedio de otros países comparables (incluyendo nueve países de la OCDE). El sector de la telefonía fija tiene un mejor desempeño que una muestra comprable de sus pares. Los consumidores mexicanos están obteniendo miles de millones de dólares en beneficios gracias a estos precios más bajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156/248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo comenta cada uno de los dos informes de la falta de competitividad en el sector de telecomunicaciones en México: el primero es el de la OCDE que fue encargado por la Comisión Federal de Telecomunicaciones en México, y el segundo es el de Hausman y Ros [publicado en este número de la revista] que fue comisionado por América Móvil para comentar y revisar el primero. Los comentarios se centran en aspectos técnicos de los estudios con propósitos estrictamente académicos. Los dos estudios usan datos agregados, lo que motiva el uso de modelos de oferta y demanda que corresponderían más a un mercado competitivo, no al de competencia monopolística como es el caso de la industria de telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157/330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El régimen propuesto por la OCDE de instrumentar regulación asimétrica ex ante para el mercado de las telecomunicaciones en México reduciría la competencia, contrariamente a los objetivos de la OCDE. Las propuestas de la OCDE perjudicarían a los consumidores mexicanos e impondrían un aumento en los precios que se pagan por los servicios de telecomunicaciones. Crearían un cártel de precios sancionado por el gobierno entre los operadores de telecomunicaciones. Premiarían a los competidores ineficientes y penalizarían a los operadores eficientes, todo en detrimento de los consumidores. En lugar de agregar nueva regulación contraproducente o ineficaz, el gobierno mexicano debería eliminar las barreras regulatorias a la entrada entre los servicios de video y telefonía, con lo cual se crearía una competencia duradera basada en la infraestructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158/331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El reciente estudio de la Organización para la Cooperación y el Desarrollo Económicos (OCDE) de las telecomunicaciones en México (OCDE, 2012a) establece dos puntos principales. Primero, el desempeño del sector, que si bien ha mejorado se mantiene por debajo de las metas alcanzables. Segundo, las causas del déficit de desempeño son la competencia insuficiente y la regulación ineficaz. El presente artículo se enfoca en dos cuestiones. La primera es el desempeño relativo de la industria de las telecomunicaciones en México. La segunda es si la regulación de las telecomunicaciones en México se aparta o no de las mejores prácticas internacionales y si las recomendaciones de la OCDE son o no sensatas. Las principales conclusiones del presente artículo son las siguientes. En cuanto al desempeño, el análisis de la OCDE es correcto en términos generales y las críticas al estudio de la OCDE que hacen Hausman y Ros son mayormente infundadas. En cuanto a las políticas, el análisis de la OCDE de la regulación en México refleja las conclusiones de la investigación académica y las prácticas de países pares en los que el desempeño de la industria de las telecomunicaciones es superior al de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159/332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Europa las tarifas de terminación móvil (TTM) están siendo reducidas en magnitud para reflejar los costos reales, ya sean marginales o incrementales, de terminación de llamadas en redes celulares, lo que se está considerando en términos generales como un paso intermedio a la adopción del sistema bill-and-keep (es decir, que no existan TTM para las llamadas de celular a celular y de fijo a celular). Otros países alrededor del mundo, como Nueva Zelanda, también están siguiendo este ejemplo. En México, las TTM aún son lo que crea una barrera para la fijación de precios eficientes en redes celulares y fijas, y para una competencia de largo plazo más efectiva. En este artículo revisaremos en primer lugar los debates recientes sobre tarifas de terminación celular en Europa, y luego presentaremos los resultados de un modelo de bienestar calibrado del mercado celular mexicano, que incluye tres redes de telefonía celular; llamadas desde y hacia redes fijas; discriminación de precios basada en la red, y externalidades de las llamadas. Nuestras simulaciones muestran que la reducción de las tarifas de terminación celular para las llamadas tanto de celular a celular como de fijo a celular, ya sean a costo incremental de largo plazo; tarifas recíprocas de terminación en redes fijas, o al sistema bill-and-keep puede aumentar el bienestar social por más de mil millones de dólares por año en ausencia de externalidades de llamada, y por más de 2.25 mil millones de dólares por año cuando las externalidades de llamada son fuertes. Nuestro análisis ofrece apoyo a un cambio desde el sistema de fijación de precios basado en costos completamente asignados (o completamente distribuidos), como se practica actualmente en México, hacia tarifas de terminación celular mucho más bajas, con el sistema bill-and-keep, que con frecuencia conducirá al mayor incremento en el bienestar. La reducción de las TTM a costo incremental, o la adopción del bill-and-keep, deberá dar lugar a una estructura de precios más eficiente tanto al mayoreo como al menudeo, ayudar a eliminar las barreras de entrada causadas por los efectos de red derivados del monto de tarifas, y aumentar el bienestar y la competencia a largo plazo en el mercado celular mexicano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160/333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2010 la Comisión Federal de Telecomunicaciones realizó las Licitaciones 20 (30MHz en la banda de 1.9GHz) y 21 (90MHz en la banda de 1.7-2.1GHz) con el objetivo de afectar positivamente la cobertura, la calidad, la competencia y la inversión en el sector. Estas licitaciones se instrumentaron simultáneamente mediante el inicio de un procedimiento de audiencias comparadas, seguidas por una subasta de precio ascendente, con topes de acumulación de espectro. Las ganancias fueron i) incremento de 55.0% en el promedio de tenencia de espectro; ii) reducción de 14.3% en las asimetrías entre operadores por región; iii) el total pagado en la subasta más las obligaciones de pagos futuros asciende a 28 871 millones de pesos (2 309 millones de dólares), y iv) por cada peso que ingresa al Estado se genera una ganancia de 8.8 pesos en excedente del consumidor. Finalmente, si se revierte la decisión, se genera una pérdida en bienestar entre 24 170 y 35 001 millones de pesos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161/301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizamos las decisiones de oferta laboral de los hogares en Argentina, Brasil, Paraguay y Uruguay. Presentamos un modelo conjunto de elección discreta y, de acuerdo con éste, postulamos y estimamos una función de utilidad cuadrática. A partir de los parámetros estimados calculamos las elasticidades de la oferta laboral respecto al ingreso no laboral. También simulamos una política de bienestar común inspirada en el “Plan jefe de hogar” de Argentina. Entre los resultados obtenidos destaca un rendimiento de la educación de entre el 6.6 y el 10.7% para las mujeres casadas, así como un variado efecto de las mejoras en los ingresos no laborales en las decisiones de oferta laboral. Esta diversidad es un reflejo de la heterogeneidad de estos países desde el punto de vista de la polarización de las condiciones socioeconómicas y laborales. La instrumentación de un “Plan común jefe de hogar” confirma la diversidad de respuestas y destaca por la mejora significativa que supondría para la cohesión social en el Mercosur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162/276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo procura lecciones de política macroeconómica contrastando la experiencia de los países en desarrollo durante los años 2000, incluyendo su desempeño durante la crisis reciente, con los tres decenios anteriores de globalización financiera. La principal lección es el papel decisivo de dichas políticas macroeconómicas para impulsar el crecimiento, la estabilidad financiera y un desempeño sólido frente a los choques externos, reales y financieros. Además, el contraste sugiere un conjunto de orientaciones de política macroeconómica que contribuyen a alcanzar el cumplimiento simultáneo de los tres objetivos mencionados. El análisis se presenta en dos partes. La primera se dedica a fundamentar la lección principal e identificar las orientaciones de política. En la segunda parte esas políticas macroeconómicas son expuestas sintéticamente y se analiza algunos aspectos de su instrumentación, particularmente de las políticas monetaria y cambiaria. Cierra el trabajo una sección de reflexiones finales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163/275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de la presente réplica es intentar responder algunas de las interrogantes planteadas por los investigadores G. Cantú y A. Reyes a nuestro trabajo acerca de la estimación de un sistema de puntaje para trasplantes renales en México. Entre nuestros propósitos está igualmente destacar algunos aspectos que consideramos pertinentes para futuras investigaciones en este ámbito sensible de la salud pública en México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165/897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los servicios de cuidado infantil para niños menores de cuatro años de edad han expandido su cobertura de forma importante en América Latina y el Caribe. Esta expansión ha buscado primordialmente facilitar el acceso de las mujeres al mercado laboral. El énfasis en la calidad de los servicios de cuidado durante los primeros años de la vida es fundamental. Este artículo sistematiza información sobre el diseño, la gestión, el financiamiento y la calidad de los servicios de cuidado infantil en la región. Entre sus principales hallazgos se encuentran los siguientes: i) existe evidencia de una inconsistencia entre el objetivo que mayoritariamente declaran perseguir estos programas —el desarrollo infantil integral— y el diseño de los servicios que brindan; ii) los programas que dependen de los municipios se destacan por tener mejores variables estructurales (asociadas, en general, con una mejor calidad del servicio), en comparación con aquellos de escala nacional, así como por un mayor nivel de inversión por niño atendido; y iii) existe variabilidad en el costo unitario de atención, lo cual es consistente no sólo con una considerable heterogeneidad en el servicio sino también con diferencias en el costo-efectividad de distintos modelos de provisión y de gestión. Asegurar servicios de cuidado de calidad para todos los niños que acuden a ellos y garantizar que la oferta pública de estos servicios alcance a los niños de las familias más pobres son dos prioridades importantes y todavía pendientes en la agenda de la política social regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166/898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza empíricamente la influencia de las Administradoras de Fondos de Pensión (AFP) como principales accionistas institucionales, sobre las decisiones de estructura de capital de la empresa chilena. Estos inversionistas pueden influir en la estructura de capital mediante distintos papeles como los de monitoreo a la gestión y de recopilación y transferencia de información al mercado. El análisis es desarrollado durante el periodo 2009-2011 para una muestra de 109 empresas chilenas que cotizan en la bolsa. Las AFP no sólo participan en el mercado accionario sino que también compiten por la deuda pública, por lo que nuestros resultados son relevantes al indicar la positiva influencia de este tipo de inversionistas en la contratación y emisión de deuda, particularmente la pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167/899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo ofrece una propuesta para conciliar el debate sobre la relación que existe entre la desigualdad en el ingreso y el crecimiento económico al proponer que las disparidades presentes en la mayoría de los estudios empíricos anteriores se derivan del hecho de que no se han tomado en cuenta los niveles de desigualdad como un factor que puede determinar el signo de la relación. Se demuestra una relación con forma de U invertida, lo cual indica que bajos niveles de desigualdad ejercen una correlación positiva con el crecimiento económico, mientras que altos niveles de desigualdad ejercen un efecto negativo sobre el mismo. Además, se demuestra la existencia de una Tasa Óptima de Desigualdad (TOD) que maximiza las tasas de crecimiento en comparación con otros niveles de desigualdad y libera a la economía de cualquier distorsión generada por los altos niveles de desigualdad o por los altos niveles de redistribución y los niveles de tributación conexos. Para fundamentar estas proposiciones, se presenta evidencia empírica tomada de un extenso panel de países, así como un análisis bibliométrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168/900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La desigualdad espacial de ingresos en los países de América Latina es un tema que ha despertado un reciente interés académico. En particular, Chile se destaca mundialmente por sus elevadas tasas de desigualdad espacial e individual. En este artículo se analiza la desigualdad espacial de ingresos en Chile durante 1992-2011 evaluando el papel de la localización espacial del capital humano (o spatial labor sorting). Los resultados confirman que el capital humano no se distribuye aleatoriamente en el espacio sino que su concentración en los grandes centros urbanos afecta significativamente en la desigualdad de ingresos entre comunas. Estos resultados motivan al análisis sobre la dimensión espacial de la desigualdad de ingresos y sugiere políticas de equidad espacial orientadas a reducir la concentración espacial de capital humano avanzado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169/901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estudia el impacto del sabotaje en el acceso a la red de Telmex sobre la competencia en el mercado mexicano de larga distancia nacional. Para ello, se desarrolla y calibra un modelo que analiza y determina la existencia de dicho impacto. Se encuentra que el sabotaje tuvo un impacto negativo y significativo sobre la competencia. Sin embargo, se estima que su magnitud fue baja, pues el sabotaje afectó solamente a una pequeña parte del mercado y su duración fue corta. Además, la intervención del regulador sectorial fue suficiente para detenerlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170/902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo evalúa el impacto en competencia de los acuerdos de distribución exclusiva. La literatura económica identifica estos acuerdos como un instrumento para alinear incentivos entre fabricantes y distribuidores, y optimizar las actividades de venta. También los identifica como un medio para reducir la competencia, pero esta posibilidad se observa sólo bajo condiciones específicas de mercado. Por su parte, la legislación mexicana prohíbe la distribución exclusiva cuando la establece una empresa dominante con el objeto o efecto de desplazar competidores, pero no señala criterios para identificar cuándo puede ocurrir. Lo anterior introduce incertidumbre de cuándo se considera ilegal y puede inhibir la conducta incluso cuando sea eficiente, o alentarla cuando sea anticompetitiva. Este artículo propone criterios para minimizar estos riesgos con base en una revisión de la literatura económica y de la experiencia internacional relevante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se argumenta que la corriente dominante en economía no es un bloque monolítico sino que, más bien, se compone de un núcleo ortodoxo en el que prevalece el pensamiento neoclásico y un conjunto de enfoques de vanguardia que comparten con la ortodoxia su interés por la modelación formal (matemática, computacional o estadística) y por el análisis del comportamiento micro para describir fenómenos agregados. Al revisar las fichas bibliográficas de la base de datos de RePEc (Research Papers in Economics) se encuentra, por un lado, que las investigaciones que se realizaron a nivel mundial con enfoques de vanguardia tuvieron un gran crecimiento en el periodo 2000-2012 y, por otro, que las investigaciones económicas de índole vanguardista en México son relativamente escasas. Esta falta de pluralidad también se refleja en los programas de licenciatura y posgrado de las universidades mexicanas, en donde la estructura curricular se limita la mayoría de las veces a planteamientos ortodoxos y en unos cuantos casos a tratamientos heterodoxos (es decir, que se ubican fuera de la corriente dominante)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176/889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se argumenta que, dada la fuerte concentración del ingreso en México y la estrechez de la base tributaria del ingreso, resulta muy difícil realizar una reforma tributaria que sea recaudatoria y redistributiva. Para ello se construyó un modelo de equilibrio general aplicado que incluye, entre otras cosas, una desagregación de los hogares en 10 niveles de ingreso, la estructura tributaria y de transferencias del país y las esferas productivas y de consumo. Los escenarios confirman que, lograr una recaudación adicional significativa, y mejorar al mismo tiempo la desigualdad del ingreso (medida por el coeficiente de Gini), implica aumentos de tasas o bases difíciles de lograr en las condiciones actuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177/890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La penetración bancaria en México es de las más bajas de América Latina. Asimismo, la importancia relativa del crédito comercial es muy alta. Estos dos hechos llevan a muchos a interpretar que el desproporcionado peso del crédito de proveedores es reflejo de una banca que presta muy poco. Al mismo tiempo se considera que es ésta la razón por la cual los principales usuarios del crédito de proveedores son las empresas pequeñas, informales y con bajo acceso al financiamiento bancario. Con base en los datos de una encuesta nacional se muestra que estos estereotipos no necesariamente son los correctos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178/891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza el efecto del Tratado de Libre Comercio de América del Norte (TLCAN) sobre los márgenes de precio a costos marginales (MPCM) del sector manufacturero en México durante el periodo 1994-2003. Tomando en consideración la sensibilidad de cada industria a la rapidez con la que se eliminan los aranceles bajo el TLCAN, los resultados muestran que los MPCM cayeron inmediatamente después de que comenzó en México la segunda ronda de liberalización comercial en 1994. Sin embargo, en años subsecuentes, no emerge un patrón claro para estos MPCM. Adicionalmente, el estudio toma en cuenta la sensibilidad de cada industria al nivel inicial de su arancel y presenta evidencia que muestra que mientras que el TLCAN sí tuvo un efecto sobre los MPCM de aquellas industrias que liberalizaron en 10 años, no se encontró un efecto robusto sobre los MPCM de las industrias que liberalizaron en cinco años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179/892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analizan estrategias de ajuste para hacer frente a choques hipotéticos de oferta y demanda utilizadas por 1 138 empresas mexicanas encuestadas por el Banco de México en 2012. Los resultados del análisis muestran que la respuesta de las empresas ante los dos tipos de choque en general no es simétrica y que éstas reaccionan combinando estrategias (principalmente eligen reducir costos), con lo cual moderan los ajustes a precios y producción. Más competencia hace que las empresas utilicen con más intensidad las estrategias de ajuste y favorece la flexibilidad de los precios. Ante cualquier choque, los costos que más se reducen son los no laborales y los que genera el empleo temporal. Una alta competencia y un mayor porcentaje de costos laborales intensifican el traspaso de los choques al empleo; por el contrario, los acuerdos colectivos de trabajo mitigan dicho traspaso. No se observa un traspaso de los choques a las percepciones salariales, lo cual, aunado a la baja incidencia de la reducción del salario base, evidencia rigidez en los salarios nominales de las empresas entrevistadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180/893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza la relación entre la inversión extranjera directa (IED), el crecimiento económico y la desigualdad de ingresos en América Latina. Con un panel de datos para 18 economías durante el periodo 1980-2009, se estiman dos ecuaciones que recogen la relación entre la IED y el crecimiento económico y la desigualdad de ingresos, respectivamente. Los principales resultados obtenidos confirman el impacto positivo de la IED sobre el crecimiento económico, y evidencian impactos significativos no lineales sobre la desigualdad de ingresos: si bien la IED provoca un incremento en la desigualdad, a partir de determinados niveles de IED (en porcentaje del PIB) induce a una mayor equidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181/894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudian las implicaciones de permitir la sustitución entre bienes de mercado y tiempo en el problema del impuesto óptimo. Se observa que cuanto mayor sea la elasticidad de sustitución entre bienes de mercado y tiempo en una determinada actividad, menor debería ser la tasa de impuesto óptima sobre los bienes de mercado. Este artículo contribuye con la literatura existente en dos dimensiones. En primer lugar, expresa la regla de Ramsey en términos de elasticidades de sustitución, que son más fáciles de estimar. Esto amplía el ámbito de aplicaciones de la regla de Ramsey en cuestiones de política. En segundo lugar, ilustra la regla de impuesto óptimo propuesta estimando las elasticidades de sustitución correspondientes utilizando datos de México. De acuerdo con el modelo y los datos, el impuesto al valor agregado óptimo de México en el año 2002 habría sido una tasa impositiva de 7% en los alimentos y de 5.5% en el resto de los bienes de mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182/895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta reseña aborda el libroRespuestas propias. 80 años del Trimestre Económico , una antología conmemorativa del aniversario de esta revista, realizada por Gustavo A. del Ángel Mobarak y Graciela Márquez. La reseña divide la historia de la revista, desde 1934 a la fecha, en cuatro periodos. Primero, desde su fundación hasta los años cincuenta, cuando todavía no era común la formación académica en economía aunque los colaboradores suplían esa carencia con intuición y sentido común. Segundo, hacia los años cincuenta, cuando proliferan perspectivas totalizadoras desde el subdesarrollo, como la teoría de la dependencia y otros modelos maximalistas que, pese a sus buenas intenciones, generaron errores de diagnóstico. Tercero, hacia los años setenta, cuando se privilegia la historia económica. Cuarto, desde mediados de los ochenta, cuando hay una actualización de los cuadros editoriales y la revista se inserta con mayor rigor y oportunidad en las corrientes de pensamiento y análisis económico global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183/881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo aporta evidencia sobre el empleo público en América Latina durante el periodo 1992-2012, explotando una base de datos estandarizados de las encuestas de hogares de todos los países de la región. Estas encuestas constituyen una buena herramienta por su representatividad nacional, su frecuencia y su amplia cobertura sobre cuestiones de empleo y salarios, tanto en el sector público como en el privado, formal e informal. El trabajo documenta y analiza los cambios en los niveles de empleo y salarios de los empleados públicos latinoamericanos vis-à-vis el resto de los trabajadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184/882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este modelo, si bien las empresas exhiben rendimientos constantes a escala, la economía entera exhibe también crecientes rendimientos a escala debido a las externalidades positivas de la mano de obra calificada. Esto hace factible la existencia de estados estacionarios múltiples que pueden ordenarse en el sentido de Pareto, lo cual es útil para reflexionar sobre los problemas del desarrollo. Este modelo, al predecir que la productividad marginal del capital es igual en todos los países, resuelve el problema de asignación de capital (Lucas, 1990). Otra predicción del modelo es que la productividad de la mano de obra calificada es mayor en los países desarrollados que en los países subdesarrollados, lo cual aporta un factor importante para explicar la migración de la mano de obra calificada a los países ricos. También explica cómo es que un país que tiene agentes que no experimentan asimetrías de información, conductas irracionales ni restricciones crediticias puede estar atrapado en un punto fijo donde únicamente se invierten pequeñas cantidades de capital, se pagan bajos salarios, la productividad de la mano de obra calificada es baja y la mayoría de la fuerza laboral es no calificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185/883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo examina el impacto del Seguro Popular (SP) en la utilización de servicios de salud, en el gasto de los hogares en salud y en el mercado laboral. El análisis se realiza por género y origen de la población (urbano y rural) utilizando datos longitudinales de la Encuesta Nacional sobre Niveles de Vida de los Hogares (ENNViH), y el método de emparejamiento de marcadores de propensión. En general, se observa que el SP no ha tenido un impacto en el número de hospitalizaciones y consultas externas, con excepción de las mujeres de origen urbano. El análisis por institución muestra que el SP ha provocado un incremento en la consulta ofrecida en establecimientos de la Secretaría de Salud (SSA) en poblaciones urbanas. Adicionalmente, se observa que el SP ha tenido un impacto negativo en la cobertura del Instituto Mexicano del Seguro Social (IMSS) y en el empleo formal de las mujeres de origen urbano, y de los hombres de origen rural. En el ámbito del hogar, no se encuentra ningún impacto en el gasto en salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186/884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se revisa la regulación sobre transferencias de control vigente en el mundo y encontramos evidencia de que a nivel global la legislación está convergiendo desde la regla de mercado (MR, por sus siglas en inglés) hacia la regla de igualdad de oportunidad (EOR, por sus siglas en inglés). La literatura sobre la racionalidad económica de estas reglas muestra que los beneficios privados del control (BPC) afectan los cambios de control; en particular, la EOR tiene el potencial de bloquear transferencias ineficientes aunque también de ralentizar la actividad del mercado del control. Jurfest, Paredes y Riutort (2015) proponen un modelo que permite estimar los BPC bajo las distintas regulaciones, tomando como caso especial el conocido modelo del Block Premium de Barclay y Holderness (1989) y Dyck y Zingales (2004). Asimismo, se ilustra la aplicabilidad y consistencia de este modelo para estimar los BPC en los diferentes regímenes regulatorios vigentes y bajo distribuciones alternativas del poder de negociación del vendedor del control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187/885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es analizar los determinantes de las decisiones de participación laboral, convivencia en pareja y no maternidad de las mujeres en España. Para alcanzar este objetivo se ha explotado la Encuesta de Condiciones de Vida (EU-SILC, por sus siglas en inglés) (2005-2011) de la Oficina Europea de Estadística (Eurostat, por sus siglas en inglés). La estrategia empírica ha consistido en un modeloprobit trivariante,lo que permite estimar las tres variables dependientes de manera simultánea. Los resultados muestran, entre otros datos, que las mujeres con mayor nivel educativo tienen mayor probabilidad de participar en el mercado de trabajo y no tener hijos, así como una menor probabilidad de cohabitar en pareja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188/886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizando una base de microdatos para el área metropolitana de Buenos Aires, se analiza la reacción del consumo de electricidad de los hogares según sus características socioeconómicas, de equipamiento y de localización. Esto se estudia aplicando el método de regresión cuantílica a lo largo de todo el espectro de la distribución de consumo, lo que permite examinar las características mejor asociadas con niveles altos de consumo (condicionales a un modelo bien especificado) en donde potencialmente se encuentran hogares con niveles elevados de ineficiencia energética. Los dos principales resultados son la baja importancia del nivel de ingreso y la mayor importancia de la ausencia de acceso al gas natural, lo que indica que la falta de acceso a un energético (gas natural) deriva en ineficiencias en el consumo de otro (electricidad) y sugiere programas de eficiencia dirigidos a ese tipo de hogares. Otros resultados interesantes son la importancia de los equipos de aire acondicionado y la evidencia preliminar de que un movimiento desde casas a departamentos conlleva un menor consumo (y posiblemente una mejor eficiencia energética)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189/887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo tiene como objetivo dar evidencia de cómo las posiciones netas de los especuladores(order flow)transmiten información al tipo de cambio (peso mexicano/dólar) en el corto y largo plazo. Se utiliza un modelo SVAR cointegrado para demostrar que las posiciones netas de los especuladores aumentan el poder explicativo y la precisión del pronóstico del tipo de cambio, pero lo más importante es que éstas tienen información sobre los fundamentos y además se asocian con movimientos transitorios del tipo de cambio que se generan por noticias de política monetaria. Nuestros resultados, tanto en el largo como en el corto plazo, son coherentes con la visión monetaria de Bilson para la determinación del tipo de cambio, ya que los choques monetarios transitorios, en cierta medida, se transmiten mediante las posiciones netas de los especuladores en México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190/874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se examinan las políticas económicas y sus efectos en los cuatro gobiernos de la Concertación de Partidos por la Democracia, en 1990-2009. Se comprueba que en esos dos decenios se logró reducir significativamente la brecha de ingreso por habitante con las economías más desarrolladas y reducir, moderadamente, la desigualdad del ingreso heredadas de la dictadura. Sin embargo, la fuerte velocidad del progreso en los primeros años de retorno a la democracia (un crecimiento per cápita de 5.4% anual en 1990-1998), disminuyó de manera significativa en los años siguientes (a 2.3% en 1999-2009). La causa principal se sitúa en un cambio fundamental en las políticas macroeconómicas y en la persistente ausencia de políticas de desarrollo productivo, crecientemente relevantes al avanzar a través de etapas intermedias de desarrollo. Con todo, durante los dos decenios, el crecimiento per cápita fue notablemente superior al registrado durante la dictadura (1.3% en 1974-1989 con acrecentada desigualdad, versus 3.7% y cierta reducción de la desigualdad en 1990-2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191/875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principal objetivo de este artículo es estudiar la heterogeneidad regional en las restricciones financieras sufridas por la pequeña y mediana empresas (pyme). Para ello, se desarrolló una aplicación empírica con una muestra de pyme españolas, proponiendo un modelo de acceso financiero y diferenciando entre dos regiones. Las estimaciones se realizan mediante modelos probit dinámicos con datos de panel. Los resultados confirman la importancia de incluir esa diferenciación regional. En concreto, se encontró que en la región menos desarrollada, las características específicas de las empresas de reducido tamaño no son tan importantes para determinar la probabilidad de tener restricciones financieras como las propias condiciones regionales donde la empresa tenga su sede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192/876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es explicar el comportamiento de la inflación en Uruguay durante el largo plazo (1870-2010). Se utiliza un modelo de inflación monetaria, pues se entiende que la trayectoria de largo plazo de la inflación debería estar determinada por las condiciones de equilibrio en el mercado de dinero. Se estima una curva de Phillips del tipo forward-looking, que incluye como variable explicativa de las expectativas de inflación el crecimiento del núcleo monetario (definido como la tasa de crecimiento tendencial de la oferta nominal de dinero que excede al crecimiento de largo plazo de la demanda real de dinero, el que es guiado por la evolución del producto potencial (output adjusted core money, OACM). Se encuentra que el impacto del OACM en la inflación es positivo y significativo, aunque no se rechaza que en el corto plazo sea igual que otros efectos. Sin embargo, en el largo plazo, el OACM tiene un impacto unitario en la tasa de inflación. A partir de la comparación del OACM con la inflación, se construye un indicador de monetización que permite indagar sobre los procesos de desmonetización y remonetización que experimentó esta economía en los últimos 140 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193/877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza las distintas metodologías usadas en algunos países para estimar la tasa de descuento a largo plazo utilizada en proyectos públicos. Adicionalmente, estima, para Chile, la tasa de descuento, con base en dos metodologías: la primera es una variación del método de descuento gamma, propuesto por Weitzman (2001); la segunda usa la fórmula de Ramsey que se deriva de un modelo de crecimiento para estimar la tasa social de preferencia por el tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195/879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la actualidad existe un reconocimiento generalizado de que la inversión en formación inicial genera rendimientos para el individuo y la sociedad. Sin embargo, poco se sabe de los beneficios económicos de la formación en la edad adulta (adult learning o lifelong learning). El objetivo de este artículo es estimar el impacto del aprendizaje (formal o no formal) en la edad adulta sobre la empleabilidad de los individuos aplicando técnicas de emparejamiento (propensity score matching) a los datos de la Encuesta sobre la Participación de la Población Adulta en las Actividades de Aprendizaje (EADA). Los resultados muestran que el aprendizaje no formal tiene un impacto positivo, tanto para desempleados como para empleados. No obstante, este impacto no es homogéneo, y se han detectado diferencias significativas por sexo, edad y nivel de estudios inicial. Otros factores relacionados con la formación, como quién la financia y el motivo por el cual se realiza, también han mostrado ser muy significativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196/880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo examina la relación entre el potencial de mercado y los salarios de los trabajadores manufactureros en las entidades federativas de México, utilizando un modelo estándar de Nueva Geografía Económica (NGE). En la evaluación se considera un aspecto relevante en países en desarrollo, como lo es la distinción entre trabajadores formales e informales. Las estimaciones arrojan que, en general, la elasticidad del potencial de mercado sobre los salarios es de 0.082, la cual es robusta a diversas medidas relacionadas con las teorías de aglomeración urbana y a problemas de endogeneidad y autocorrelación espacial. También se encuentra que los salarios de los trabajadores informales son menos sensibles a cambios en el potencial de mercado en comparación con los salarios de los empleados formales y se benefician de externalidades generadas por la presencia de firmas extranjeras. Una simulación sugiere que hasta 10.7% de la diferencia salarial entre trabajadores de los estados fronterizos con los Estados Unidos y los localizados en el sur de México, puede atribuirse a la geografía económica; este efecto es menor para los trabajadores informales y para el caso de los formales se duplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197/888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principal objetivo de este artículo es captar la influencia del cambio climático en la selección endógena de cultivos de los agricultores y los impactos sobre su ingreso esperado. El modelo se aplica a 110 227 productores en Perú. Los resultados muestran que la elección de cultivos se ve afectada por el clima. Se estima una caída de entre 8 y 13% de los ingresos esperados por hectárea. El cambio climático provocará una reducción de los ingresos condicionales para la alfalfa, el arroz, el café y el maíz amarillo duro y aumentos para la papa, el maíz amiláceo, el plátano y la uva; se presentan resultados mixtos para la yuca, dependiendo del modelo climático. El arroz y el café muestran las mayores pérdidas, mientras que la papa nativa obtiene la mayor ganancia. Se muestra que la probabilidad de elegir la cosecha de maíz y de plátano aumenta con los incrementos de temperatura y precipitación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198/878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo busca caracterizar los flujos de comercio internacional de México durante el periodo de vigencia del Tratado de Libre Comercio de América del Norte(TLCAN). Las ecuaciones de importaciones y exportaciones se basan en el modelo debienes sustitutos imperfectos y son estimadas utilizando el enfoque de cointegración de Johansen, con datos mensuales para el periodo 1994-2014. De esta manera, se encuentra que todas las variables pueden describirse como procesos de tendencia estocástica y que existe una relación de cointegración para cada ecuación de comercio. En ambos casos, las elasticidades precio e ingreso de largo plazo estimadas son significativas y sus signos son consistentes con la teoría económica. En particular, ambos flujos de comercio son inelásticos respecto a los precios relativos, y parecen satisfacer la condición Marshall-Lerner. Por otra parte, las importaciones mexicanas son elásticas respecto al producto, lo cual es indicativo de la alta dependencia de insumos importados de la actividad económica mexicana. A diferencia de la literatura previa, se encuentra que las exportaciones son inelásticas respecto a la producción industrial de los Estados Unidos en este periodo, lo cual implica una mayor estabilidad de éstas ante fluctuaciones en el desempeño de la economía estadunidense.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199/864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo brindamos una interpretación del desempeño económico argentino entre 1930 y 2015, en la que el conflicto distributivo desempeña un papel protagónico. Nuestro argumento sostiene que el conflicto surge de la inconsistencia entre las aspiraciones económicas arraigadas en la sociedad y las posibilidades productivas de la economía. Presentamos dicha inconsistencia de un modo preciso: como una divergencia entre dos niveles de equilibrio del tipo de cambio real. El tipo de cambio real de equilibrio macroeconómico es aquel que permite a la economía mantener simultáneamente el pleno empleo y un balance de pagos sostenible. El tipo de cambio real de equilibrio social es aquel que emerge cuando los trabajadores plenamente ocupados alcanzan el salario real al que aspiran. Estos niveles de tipo de cambio real pueden no coincidir. De esta manera, existe un conflicto distributivo estructural cuando el tipo de cambio real de equilibrio macroeconómico es significativamente mayor al de equilibrio social. Asimismo, desarrollamos un modelo formal que representa de modo estilizado la estructura de la economía argentina y que permite brindar una definición precisa de los dos niveles de equilibrio del tipo de cambio real y del conflicto estructural. Posteriormente, utilizamos el modelo para caracterizar sintéticamente elperformancey la política económica en el periodo 1930-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200/865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo el principal objetivo es analizar tanto cualitativa como cuantitativamente el impacto del momento de una reforma tributaria, es decir, el aumento progresivo y avisado (en fases) de los impuestos en contraposición con una reforma de una sola vez. Los resultados indican que una reforma en fase debiera producir dos efectos: un efecto sustitución que impulsa a las empresas a adelantar inversión y con ello debiera aumentar el Producto Interno Bruto (PIB) y la inflación. La reacción del banco central debiera ser subir la tasa de interés. El otro efecto es negativo y consiste en un efecto riqueza que reduce el precio de las acciones y aumenta el tipo de cambio, Tomando como ejemplo el caso de Chile, que realizó una reforma en base recientemente (2014): se tiene que un aumento de 1% de los impuestos debería producir, producto de la distorsión intertemporal, un aumento de 0.17% en el PIB dentro del primer año del anuncio. No obstante, pueden existir otros elementos de naturaleza muy heterogénea que pueden influenciar negativamente la implementación de la reforma y, por tanto, cancelar por completo este efecto de sustitución intertemporal. Entre estos elementos negativos se tiene la falta de claridad de la reforma por parte del gobierno, al grado de virulencia de las discusiones en el Congreso y su influencia en las expectativas de los empresarios, la falta de credibilidad, por ejemplo, la incertidumbre de nuevas alzas de impuestos, etcétera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201/866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza la demanda de vivienda en México a través del gasto en servicios de vivienda y el costo de uso del capital residencial de cada hogar representativo por percentil de ingreso. La hipótesis de ingreso permanente se considera como función de las características sociodemográficas y el grado de educación del jefe del hogar. Asimismo, se obtienen las elasticidades de ingreso, riqueza, edad del jefe de familia, tamaño del hogar y número de empleados, así como la semielasticidad del costo de uso de capital residencial. El gasto en vivienda es inelástico, aunque es más sensible al ingreso corriente que al permanente. También demostramos que existe una estructura regresiva en este mercado y se realiza un análisis de sensibilidad con el fin de medir el impacto en el gasto de vivienda ante ciertas variaciones del costo de uso residencial de largo plazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202/867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es analizar la distribución laboral femenina en el año 2012 en el mercado de trabajo español, planteada desde una doble perspectiva: el grado de expulsión o rechazo que padecen las mujeres en las ocupaciones masculinizadas, y el grado de atracción o concentración de dicho colectivo en las ocupaciones feminizadas. Para ello —utilizando como base de datos la Encuesta de Población Activa (EPA)—, la metodología utilizada se basa en la descomposición de Oaxaca-Blinder sobre las probabilidades que tienen hombres y mujeres de pertenecer a una ocupación masculinizada o feminizada. La conclusión principal es que el nivel de concentración de las mujeres en las ocupaciones femeninas supera notablemente el grado de expulsión o rechazo de las ocupaciones masculinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203/868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudia el efecto del aumento del empleo femenino sobre la distribución del ingreso en Uruguay entre 1991 y 2012; en particular se analizan los efectos sobre la desigualdad y la pobreza. Asimismo, se aplica la metodología de microdescomposición propuesta por Bourguignonet al.(1998), la cual permite capturar parcialmente el efecto del aumento de la tasa de empleo femenino. Esta metodología permite distinguir el efecto generado por cambios en la condición de empleo y el producido por modificaciones en las horas trabajadas. Los resultados obtenidos muestran que, a pesar de no ocupar un lugar central cuando se busca explicar la evolución de la distribución del ingreso, el aumento del empleo femenino ha tenido efectos significativos desde el punto de vista estadístico. Si bien algunos resultados sobre la distribución del ingreso son modestos, los cambios en el empleo femenino contribuyeron en todo momento a reducir los niveles de pobreza y la desigualdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204/869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo reportamos los resultados de una encuesta representativa realizada a los estudiantes de economía de Chile, de pre y posgrado de cinco universidades sobre temas de pensamiento económico. Una comparación entre estudiantes de las universidades chilenas que imparten economía permite concluir diferencias entre éstos, con características propias que se estarían imprimiendo como un sello en los estudiantes de las distintas casas de estudio. Por último, una comparación entre los estudiantes de posgrado chilenos, europeos y estadunidenses permite verificar en varios sentidos las particularidades del pensamiento económico en los estudiantes de economía del país</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205/870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gravísimo problema de caída de la actividad económica y desempleo en España encuentra un fiel reflejo en el círculo vicioso que genera el cierre de empresas, aproximado en este trabajo por la figura legal del concurso de acreedores. Este artículo se propone examinar el fenómeno desde un punto de vista geográfico para analizar el posible contagio entre provincias. Los resultados muestran que no hay efecto contagio del fracaso en el sector de la construcción, pero sí en el industrial. Es en este sector donde se contagia a la economía vista en su conjunto, pero sólo para los años anteriores a la crisis. En el periodo de recesión parece que tienen más fuerza los factores macroeconómicos negativos que afectan a la totalidad de las empresas que el contagio, que es un efecto particular que ejercen sobre cada compañía las empresas próximas con las que tiene relación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206/794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El riesgo de longevidad, que es la posibilidad de que las personas sobrevivan más allá de lo esperado, puede dañar a los sistemas gubernamentales de pensiones de beneficio definido, ya que se traduce en una potencial subestimación de las reservas para cumplir las obligaciones de pago futuro. Este fenómeno tiene una connotación positiva para los proveedores de seguros de vida, ya que de realizarse el riesgo de longevidad, habría un diferimiento en sus obligaciones financieras. En este artículo se analiza, estructura y se simula un swap de longevidad como mecanismo para reducir la exposición del gobierno federal mexicano al riesgo de longevidad, usando elhedgenatural de las posiciones respecto a la longevidad entre las dos instituciones mencionadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207/854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2008, la Comisión Federal de Competencia (CFC) comisionó un estudio de los efectos distributivos del poder de mercado que ha influenciado la discusión nacional respecto a la política de competencia. En este artículo, intentamos reproducir sus resultados, los extendemos a años posteriores, identificamos y corregimos deficiencias en su análisis, y evaluamos su marco conceptual y metodológico. Documentamos que el método utilizado no produce resultados confiables. Además, usando el mismo método, estimamos una pérdida en bienestar de entre 0.8 y 2.1% del gasto total, dependiendo del decil de ingreso. Aunque se sostiene la conclusión de que los hogares de menores ingresos se ven más afectados por el ejercicio de poder de mercado, encontramos que, para los hogares de ingresos más bajos, este efecto es mayor en zonas urbanas que en zonas rurales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208/855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se presenta una crítica de la metodología utilizada en investigaciones previas que intentaron evaluar los efectos sobre el bienestar social derivados de la existencia de empresas con poder de mercado en México. Como resultado de la revisión metodológica, se estima el efecto provocado por una colusión hipotética de los principales competidores de diversos mercados de bienes de consumo, concluyendo que si bien las estimaciones que se obtienen de la pérdida social son significativamente inferiores a las obtenidas en esas otras investigaciones, no por ello se demerita la necesidad de fortalecer la aplicación de la política de competencia. Por el contrario, al sustentar esta política en un análisis económico más objetivo y riguroso, es posible aumentar su confiabilidad y efectividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209/856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo evalúa dos críticas recientes a los trabajos del autor sobre los efectos distributivos del poder de mercado en México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210/857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es verificar la presencia de asimetrías en la actuación del Banco Central Europeo (BCE) desde el inicio de su mandato hasta finales de 2014. La metodología utilizada es doble: la estimación, mediante el método de los momentos generalizado (MMG), de una regla de política monetaria óptima y de una regla que incluye variables ficticias multiplicativas capaces de detectar la presencia de comportamientos asimétricos. La crisis de crecimiento en la eurozona y los problemas de liquidez provocaron la puesta en marcha de medidas no convencionales de política monetaria después de 2008. Nuestros resultados muestran presencia de asimetría en la determinación de los tipos de interés por parte del BCE durante el periodo analizado, así como una reorientación de las decisiones de política monetaria más favorables al crecimiento económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211/858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo describe el diseño de la regulación ambiental óptima cuando tanto firmas nacionales como multinacionales coexisten en una industria determinada. Para tal efecto, trabajamos en un modelo de equilibrio parcial e introducimos un contexto de país pequeño en el cual la inversión extranjera directa (IED) tiene lugar. Nuestros resultados muestran que, cuando las firmas nacionales actúan bajo condiciones no-competitivas y las firmas extranjeras bajo condiciones de competencia, respectivamente, tal regulación representa un impuesto-subsidio sobre el nivel de emisiones. Esto es el resultado de un “efecto producción”, el cual refleja la caída en bienestar asociada a una disminución en el nivel de producción de las firmas nacionales, y de un “efecto polución”, el cual refleja el incremento en bienestar relacionado a un nivel más bajo de emisiones. Además, cuando permitimos la posibilidad de que las firmas extranjeras experimenten un cambio tecnológico exógeno, generado por medio de sus casas matrices, con spillovers en favor de las firmas nacionales, encontramos que la nueva política óptima (con cambio tecnológico) podría ser mayor, igual, o menor que la política anterior (sin cambio tecnológico); por lo tanto, podemos concluir que el efecto de un cambio tecnológico exógeno sobre la regulación ambiental óptima es incierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212/859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo se estudian diversas estructuras interindustriales nacionales aplicando medidas tradicionales input-output y análisis de redes. Su principal objetivo es avanzar en la comprensión de los procesos económicos centrándose en las estructuras interindustriales como un factor explicativo de las disparidades internacionales de desarrollo. El estudio de las relaciones intersectoriales muestra la existencia de una estructura fundamental o común y de diferencias estructurales entre grupos de países, de acuerdo con  sus niveles de desarrollo, en la especialización y en la posición de determinadas ramas, teniendo un impacto en sus desiguales procesos de des-arrollo. En este trabajo se muestra que ambas metodologías,input-outputy redes, son complementarias y permiten alcanzar explicaciones más ricas de los procesos de desarrollo. La aplicación de la teoría de redes permite una mejor comprensión de las diferencias estructurales, que puede ser relacionada con el crecimiento económico y el desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213/861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estudia las propiedades estocásticas de las tasas regionales de desempleo español usando datos trimestrales del periodo 1976(1)-2013(2). Para ello, se emplean los métodos Panel Analysis of Nonstationarity in Idiosyncratic and Common components (PANIC) de Bai y Ng (2004 y 2010), que permiten la descomposición de las series observadas de tasas de desempleo en un componente común y un componente idiosincrásico. Esto nos permite identificar con precisión la fuente subyacente en el comportamiento no estacionario del desempleo regional español. Nuestro análisis ofrece evidencia clara de la hipótesis de histéresis, que parece estar causada por una tendencia estocástica común que impulsa a las series de desempleo regionales. Estos resultados están respaldados por los obtenidos de la estimación insesgada en la mediana del parámetro de persistencia, que arroja un valor unitario para el factor común, y en menor medida por la estimación de la vida media obtenida a partir de funciones impulso-respuesta, que arroja un valor de 12.5 para el caso de las perturbaciones que afectan a la tendencia común. Este análisis de persistencia también ofrece evidencia de estacionariedad para la mayoría de las series idiosincrásicas (salvo para dos regiones), en la línea del análisis PANIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214/862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se reporta el impacto de sorpresas económicas y anuncios de política monetaria no convencional en los factores de la estructura de tasas nominales en Brasil, Chile y México. Se evidencia que sorpresas locales de inflación y de política monetaria tienen mayor efecto en la forma de la estructura de tasas, además, se registran efectos asimétricos de dichas sorpresas en la estructura de tasas de las economías analizadas. Por otro lado, sorpresas externas tienen un impacto asimétrico, mientras que el efecto de anuncios de política no convencionales, tanto el Quantitative Easing como el Twist Operation son los anuncios que presentan mayor impacto en la estructura de tasas de interés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215/863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo medimos los niveles de alfabetismo financiero en estudiantes preparatorianos entre 15 y 18 años de edad, utilizando una encuesta basada en las metodologías de la Organización para la Cooperación y el Desarrollo (OCDE) y de Lusardi y Mitchell, aplicada a estudiantes en la Zona Metropolitana del Valle de México. Nuestros resultados muestran bajos niveles de alfabetismo financiero. Utilizando las preguntas “L&amp;amp;M”, encontramos que 60% de los estudiantes encuestados entienden el concepto de inflación, 45.3% respondió de manera correcta a la pregunta sobre diversificación del riesgo y sólo 22.2% contestó correctamente la pregunta sobre interés compuesto. Resultados similares se obtuvieron cuando usamos la metodología de la OCDE. Finalmente, las diferencias en género fueron pequeñas, pero en favor de los hombres, mientras que las diferencias por tipo de escuela fueron mayores, favoreciendo a las escuelas privadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218/266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta nota reseña la versión castellana de uno de los libros más importantes en materia de las llamadas microfinanzas o finanzas populares. El libro fue originalmente publicado en inglés por MIT press.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219/871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta reseña sobre el libro de Enrique Cárdenas El largo curso de la economía mexicana. De 1780 a nuestros días, resume un acercamiento a más de dos siglos de historia económica de México y destaca su ambición, alcance y utilidad.  De acuerdo a esta reseña, la visión panorámica de Cárdenas permite observar las distintas etapas de la economía mexicana a partir de las reformas borbónicas, continuando con los episodios de inestabilidad durante buena parte del sigo XIX, el periodo de paz y crecimiento porfirista, el estallido de la Revolución Mexicana, la etapa de construcción de instituciones y crecimiento con estabilidad, las crisis sucesivas de los años setenta, ochenta y noventa y hasta los procesos más recientes de modernización y reformas.  El libro de Cárdenas permite identificar constantes que han significado crisis y precariedad económica y contribuye a aprender del pasado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231/846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El incremento en la concentración de gases de efecto invernadero es tal que parece inevitable que se presenten cambios en el clima, los cuales forzarán al sector agrícola a tomar medidas de adaptación. Sin embargo, las capacidades de adaptación son limitadas y por lo tanto es muy probable que el cambio climático afecte la disponibilidad y acceso a alimentos e incremente la volatilidad de los precios. En este artículo se presenta una síntesis de la evidencia de los efectos del cambio climático sobre el sector, con énfasis en América Latina. La revisión deja en claro que los efectos serán heterogéneos y que además pueden ser sumamente cuantiosos. Resulta entonces necesario contar con políticas públicas enfocadas en la mitigación de los gases de efecto invernadero, promoviendo al mismo tiempo la adaptación ante el cambio climático. El artículo concluye con algunas consideraciones sobre temas para investigación futura que puedan contribuir al diseño de dichas políticas públicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232/847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es la relación entre escolaridad e informalidad laboral? Con las encuestas de hogares de México y otros 17 países de América Latina, separamos la evolución de la tasa de informalidad laboral en tres efectos: i) diferencias en los años de escolaridad de sucesivas generaciones de trabajadores, ii) tránsitos entre formalidad e informalidad durante el ciclo de vida laboral de cada generación, y iii) características del mercado de trabajo. Encontramos que en América Latina se ha observado una ligera reducción de la informalidad, asociada fundamentalmente al primer efecto: generaciones más recientes de trabajadores con más escolaridad experimentan menores tasas de informalidad que las anteriores. En el caso de México, también observamos que generaciones más recientes de trabajadores tienen más años de escolaridad que las previas; sin embargo, este efecto ha sido contrarrestado por el mercado laboral. Así, a pesar de que en México se han observado mayores avances en años de escolaridad que en el promedio de América Latina, el progreso para reducir la informalidad laboral ha sido nulo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233/848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los aumentos de precio de un recurso natural pueden generar renta, cuyo valor debiese ser recuperado por el Estado para minimizar ineficiencias en la economía, evitar discriminaciones arbitrarias entre ciudadanos y mantener una trayectoria sostenible. Como tema de estudio sobre apropiación privada de renta de recursos naturales, este artículo explora el caso del cobre en Chile desde 1990, analizando empíricamente si las principales mineras privadas han recuperado en valor presente más que su inversión. Los resultados del ejercicio, aplicable a otros recursos naturales, indican que algunas mineras sí lo han hecho, captando unos 40 000 millones de dólares hasta 2012. Elaborar una institucionalidad idónea para futuros yacimientos es un importante desafío para que Chile aproveche su potencial minero, así como para que cualquier país con una abundante base de recursos goce plenamente de su riqueza natural. Para tal efecto, se propone la concesión conocida como Mínimo Valor Presente de Ingresos (MVPI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234/849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estudia la competencia en el mercado mexicano de tarjetas de crédito. Deriva funciones de demanda de un modelo de elección discreta, y de tasas de interés de un modelo de competencia imperfecta, ambos con productos diferenciados. Estas funciones se estiman utilizando un panel de datos con 23 segmentos de límite de crédito y 18 bancos emisores entre junio del 2011 y junio del 2015. Los resultados indican que hay competencia imperfecta con productos diferenciados y que las tarjetas son sustitutas más cercanas cuando pertenecen a segmentos similares. Asimismo, revelan que las tasas responden a costos, aunque también reflejan márgenes supracompetitivos. El análisis asocia el poder de mercado con la antigüedad de la cuenta, lo que muestra posibles asimetrías de información o costos de traspaso. En general, menores límites de crédito tienen mayores tasas de interés, pero también mayores costos y menores márgenes. Los resultados también permiten evaluar posibles efectos de concentraciones entre bancos emisores. Finalmente, se hacen algunas recomendaciones de política con base en esta evidencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235/850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es definir si los productos internos brutos per cápita (PIBPC) de 145 economías tienen una raíz unitaria con rompimientos o si son estacionarios en tendencia con rompimientos durante el periodo 1950-2000, para, a partir de ello, establecer una relación con los modelos de crecimiento (endógenos y exógenos) y con los cambios, tanto en los fundamentos económicos como en el progreso tecnológico; situaciones que rompen las tendencias (intersecciones y pendientes) bajo la guía de Lau (1997). Adicionalmente, se identifican los cambios en las tendencias de crecimiento de largo plazo en una forma similar a lo hecho por Ben-David y Papell (1998) para 74 países, pero mediante la prueba panel de estacionariedad con rompimientos múltiples de Carrion-i-Silvestre et al. (2005). Con esto en mente, se definen doce diferentes tipos de rompimientos al comparar la tasa de crecimiento promedio prerrompimiento con la tasa de crecimiento promedio posrompimiento. Derivado de esta clasificación, se examina si la desaceleración en las economías de la Organización para la Cooperación y el Desarrollo Económicos (OCDE) ocurrió antes, durante o después de la desaceleración de las Economías Menos Desarrolladas (EMD). Asimismo, se plantean algunas de las causas de las desaceleraciones y las crisis en las Economías de América Latina (EAL), ya sea por factores internos, externos, comunes a varias economías o por factores particulares a alguna de ellas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236/851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta investigación presenta y aplica un nuevo procedimiento para jerarquizar espacialmente la pobreza. El método propuesto combina simultáneamente variables de magnitud e intensidad utilizando técnicas estadísticas recientes (remuestreo y autocorrelación espacial) y tradicionales, así como rutinas de superposición espacial de los Sistemas de Información Geográfica. Mientras magnitud e intensidad se refieren a datos absolutos y relativos, respectivamente, cada variable puede estar concentrada o aglomerada en el espacio. En este estudio, concentración es la presencia de valores globales altos, independientemente de su localización, y aglomeración es la concentración de valores locales altos espacialmente contiguos. Ambas, aglomeración y concentración, son fusionadas mediante un procedimiento de superposición geográfica para crear conglomerados de magnitud o intensidad de pobreza. Los casos al interior de estos conglomerados son clasificados por procedimientos gaussianos (discontinuidades naturales) o paretianos (puntas y colas) para crear una jerarquía espacial. Por primera vez en el estudio de la pobreza, la jerarquía espacial resultante es producto de la combinación simultánea de los procesos de concentración y aglomeración medidos en términos absolutos y relativos. Los beneficios del procedimiento en una política pública espacialmente orientada son ilustrados abordando la focalización espacial de la pobreza en los 2 456 municipios mexicanos en el 2010. La metodología propuesta en esta investigación puede adaptarse fácilmente para identificar los patrones espaciales de otros problemas sociales, tales como crimen, industria, enfermedades, contaminación o justicia ambiental en diferentes áreas o países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237/852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo desarrolla un modelo estocástico macroeconómico útil para explicar los efectos que tienen los saltos inesperados en el gasto de gobierno per cápita y en variables demográficas en el crecimiento económico per cápita. Para ello se supone que las dinámicas estocásticas del gasto público y de la población son conducidas por procesos de difusión con saltos modulados por una cadena de Markov. Los resultados más importantes son que los saltos bruscos e inesperados en el gasto público per cápita y en el crecimiento de la población impactan negativamente la tasa de crecimiento per cápita del producto. En particular, si hay un salto brusco y repentino en la tasa de crecimiento de la población, entonces el capital per cápita disminuye repentinamente impactando con ello negativamente el producto per cápita. Por último, los resultados teóricos encontrados se complementan con evidencia empírica del caso mexicano obtenida mediante un modelo que toma en cuenta tanto la volatilidad de las tasas de crecimiento de la población y del gasto público per cápita así como las sorpresas en la intensidad de los saltos en esas variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238/853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente trabajo estima las externalidades del capital humano en México empleando los enfoques más utilizados en la literatura. Con el propósito de reducir el potencial sesgo de endogenedidad de la escolaridad individual y promedio realizamos estimaciones con variables instrumentales. Para lo cual empleamos como instrumento de la primera la reforma educativa de 1993 que promulgó la obligatoriedad de la educación secundaria. Para la segunda utilizamos la proporción de egresados de educación media superior y superior y la estructura de la población de los estados en un periodo previo. Los resultados muestran que existe una fuerte relación positiva y estadísticamente significativa entre experiencia, educación individual y educación promedio estatal con los salarios individuales. Asimismo, confirmamos por medio de la aplicación de los diversos enfoques a través de la coincidencia en los resultados encontrados que existen externalidades significativas del capital humano a nivel estatal en México para el periodo 2000-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259/1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:la cadena de valor global (GVC, por sus siglas en inglés) es un enfoque muy recurrido para analizar los cambios en la geografía productiva en el sector de autopartes. Con este enfoque, determinadas regiones tienen poder de decisión en la coordinación de actividades productivas y de innovación tecnológica. Como este modelo espacial es dinámico, es posible cambiar el estatus inicial de una región dentro de la GVC. Este artículo tiene como objetivo analizar las claves de la evolución de México en el sector de autopartes bajo la perspectiva de la GVC y pone el foco en el desarrollo de las empresas domésticas y en el papel de las instituciones.Metodología:se combina un análisis cuantitativo y cualitativo para comparar variables clave de las empresas domésticas e instituciones de una región mexicana (el Bajío) con las de una región de España, con un estatus intermedio dentro de la GVC (región noroeste).Resultados:el grado de multinacionalización de las empresas mexicanas, entendido como la presencia de multinacionales domésticas líderes en el sector, es muy bajo comparado con el de las empresas españolas. Además, las empresas mexicanas presentan actividades con menor valor añadido y complejidad, y son mayoritariamente proveedores simples de componentes o materias primas no posicionadas en los primeros niveles de suministro de la GVC. Esto merma la innovación tecnológica y repercute en una escasa diversificación en conocimiento de la región mexicana, con competencias y capacidades comparativamente más simples.Conclusiones:la multinacionalización y la capacidad de innovación tecnológica de las empresas domésticas son clave para que México evolucione en la GVC del sector. En la medida en que las instituciones públicas mejoren el desempeño de algunas de las infraestructuras de innovación y el fomento de las políticas públicas hacia la multinacionalización y la innovación tecnológica de las empresas domésticas, se favorecerá la evolución de México dentro de la GVC del sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo examina el comportamiento del PIB real (montos y tasas de crecimiento), el desempleo, la inflación, el crédito bancario y los precios de los bienes raíces a lo largo de un periodo de 21 años en torno de una serie de importantes sucesos y choques adversos, tanto globales como específicos por país. Entre estos episodios se encuentran la caída del mercado accionario de 1929, la crisis petrolera de 1973, el colapso de los créditos subprime de 2007 en los Estados Unidos y 15 crisis financieras severas posteriores a la segunda Guerra Mundial. Se hace hincapié no en los antecedentes inmediatos y las repercusiones de estos sucesos, sino en horizontes más amplios que comparan decenios y no años. Si bien la evidencia de décadas perdidas, como es el caso de la depresión del decenio de los treinta, el decenio de los ochenta en la América Latina y de los noventa en Japón no es omnipresente, el crecimiento del PIB y los precios de la vivienda son significativamente más bajos y el desempleo es mayor en el periodo de 10 años posteriores a la crisis cuando se comparan estos datos con los del decenio precedente. La inflación es menor después de 1929 y en los episodios posteriores a las crisis financieras, pero claramente mayor después de la crisis petrolera. Presentamos pruebas de que el decenio de relativa prosperidad que antecedió al colapso estuvo importantemente impulsado por un periodo de expansión del crédito y apalancamiento creciente que se extiende a lo largo de 10 años. Después del colapso se presenta un largo periodo de recortes económicos que en la mayoría de los casos no comienza sino hasta pasada la crisis y se prolonga casi tanto como el aumento repentino del crédito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261/615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Recientemente, los agregados monetarios han desempeñado un papel menor en las deliberaciones de política monetaria en la mayoría de los bancos centrales. Esto es debido a que los modelos utilizados se concentran en las desviaciones de la inflación respecto a un nivel de estado estacionario dado exógenamente. La cantidad de dinero en la economía determina el nivel de precios en el largo plazo, pero no necesariamente influye en las desviaciones respecto a dicho nivel. Por lo tanto, los agregados monetarios han perdido relevancia en el análisis de corto plazo. Métodos: Se realiza un extenso análisis econométrico de la demanda de dinero a largo plazo para México utilizando el agregado monetario M1. Se estima la demanda del agregado monetario M1 mediante un modelo autorregresivo de rezagos distribuidos, con datos trimestrales para México para el periodo 2001-2014. El modelo se somete a una variedad de pruebas de especificación y diagnóstico, además se realiza un profundo análisis de la estabilidad de los parámetros. Con base en dicha demanda se calculan dos indicadores de presiones inflacionarias: la brecha del dinero y el indicador m*. Resultados: Este artículo muestra cómo se puede utilizar a los agregados monetarios como indicadores de presiones inflacionarias. Esto es posible ya que existe una relación a largo plazo entre dichos agregados y los precios. Específicamente, se obtienen dos indicadores. Por un lado, la brecha del dinero, la cual mide la desviación de M1 real de su relación con sus determinantes a largo plazo. Por otro lado, el indicador m* se basa en la estimación del índice de precios que es congruente con la cantidad de M1 en la economía, una vez que ésta se ajusta por la tendencia de largo plazo de sus determinantes tomando en cuenta sus coeficientes de largo plazo. Así, respecto a la tendencia a largo plazo de la inflación, el indicador m* sugiere que el crecimiento del dinero durante el régimen de metas de inflación: fue congruente con un importante esfuerzo de desinflación, y posteriormente converger a un crecimiento aproximado de 3%; esto es, hacia condiciones inflacionarias congruentes con la meta de inflación. Conclusiones: La política monetaria ha sido congruente con el objetivo de inflación del Banco de México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262/653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Estudiamos cómo el nivel de empleo agregado se ajustó en la economía chilena, posterior a la llamada crisis asiática. Contrastamos distintas hipótesis que se han esgrimido en el debate público, y que no han sido probadas formalmente, sobre las razones por las cuales el nivel de empleo tardó tanto tiempo en recuperar los niveles precrisis. Métodos: Especificamos y estimamos un modelo de vectores autorregresivos con series de tiempo para el trimestre 1995.1-2007.4 y aplicamos el método de Johansen para identificar vectores de cointegración. Resultados: Estimamos un vector de cointegración que representa la función de demanda laboral. Realizamos las siguientes pruebas de hipótesis sobre esta función: homogeneidad de grado cero en precios, elasticidad producto de la demanda unitaria; quiebre estructural en el intercepto de esta función; cambio en la elasticidad producto de la demanda laboral de largo plazo entre subperiodos y existencia de costos de ajuste. Conclusiones: Inestabilidad en la elasticidad demanda del ingreso en la función de demanda por trabajo en Chile posterior a la crisis asiática, pero no en la dirección sugerida por el debate previo. Adicionalmente, el factor que contribuyó en forma más decisiva a la lenta recuperación del empleo posterior a la crisis fue el costo de ajuste presentes en la economía chilena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263/654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: La economía regional y el crecimiento económico se enfocan en la pregunta de si el comercio conlleva a una mayor concentración de la actividad económica. No obstante, pocos trabajos empíricos han evaluado los impactos del comercio en la convergencia regional. Por lo tanto, este trabajo estudia la convergencia derivada del comercio de México después del Tratado de Libre Comercio de América Norte (TLCAN). A diferencia de trabajos previos, los datos a nivel municipal permiten observar mejor los patrones de convergencia en el espacio e identificar el efecto del TLCAN. Métodos: Se diseñaron un modelo de convergencia β condicional y un modelo de convergencia β condicional de clubes. Sin embargo, a diferencia de estudios empíricos anteriores, se utilizan datos municipales de panel para identificar con mayor claridad la relación entre el comercio y la convergencia regional, además se incluyen datos de los censos económicos de 2009 para observar si, después de 15 años de la entrada en vigor del TLCAN, la actividad económica se ha descentralizado y se ha trasladado de la Ciudad de México a las regiones fronterizas con los Estados Unidos. Resultados: Los resultados muestran que, después de la implementación del TLCAN, la convergencia entre regiones cercanas a la frontera con los Estados Unidos creció más rápidamente que en aquéllas cuya posición geográfica es más lejana. Sin embargo, hay una reducción significativa de los coeficientes β después del TLCAN, lo que indica una ralentización de la tasa de convergencia. Asimismo, se halla que los municipios del sur no se han integrado a los mercados del mundo; por el contrario, se han quedado rezagados con respecto a sus contrapartes después de la implementación del TLCAN.Conclusiones: A pesar de que las fuerzas centrífugas están empezando a funcionar, hay una reducción significativa del coeficiente β después de la entrada en vigor del TLCAN. Esto indica que se necesitan mejores políticas para controlar el aumento de las disparidades regionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264/655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: La búsqueda de las tasas impositivas óptimas ha sido recurrente en las discusiones de política fiscal. En particular, la relación entre la estructura tributaria y el crecimiento económico ha hecho resurgir la hipótesis de Laffer que implica la existencia de una relación parabólica entre el nivel de impuestos y los ingresos obtenidos. Nuestra hipótesis es que las zonas urbanas tienen un impacto igualmente significativo sobre la disposición a pagar impuestos y puede existir igual o más heterogeneidad entre los tamaños urbanos que entre los diferentes territorios. Metodología: En este artículo se contrasta la hipótesis de Laffer para el caso español utilizando microdatos del Instituto de Estudios Fiscales (IEF) para el año 2009 en diferentes escenarios espaciales. Para ello, se utiliza una muestra de declarantes de corte transversal estimada con mínimos cuadrados ordinarios. Resultados: La presencia de una relación parabólica entre la carga tributaria y la recaudación de impuestos permite obtener una tasa impositiva que maximiza los ingresos fiscales en torno a 30%, el doble del promedio aplicado. Por regiones, hemos observado variaciones importantes que justifican la existencia de un alto grado de descentralización fiscal. Pero esta variabilidad es también importante según el tamaño de las ciudades. Los ingresos fiscales máximos de las dos principales ciudades, Madrid y Barcelona, se obtienen con una tasa impositiva de 34%, mientras que todas las demás ciudades alcanzan el máximo de ingresos fiscales a tasas similares.Conclusiones: Cuanto menor es el tamaño de la ciudad, menor es la tasa impositiva que maximiza los ingresos fiscales, abriendo una brecha más grande cuanto más pequeña es la ciudad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265/656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: La reforma energética del 2008 promueve la generación y el uso de las energías renovables. Métodos: El objetivo de este trabajo es evaluar la efectividad de una política ambiental que promueva la sustitución de energías fósiles, por energías renovables a través de una política fiscal, para ello se utiliza un modelo de equilibrio general. Resultados: Los resultados muestran que la eficacia de una política ambiental depende de la elasticidad de sustitución existente en la economía. Conclusiones: Resulta crucial invertir en la investigación y el desarrollo de tecnología que promueva el cambio tecnológico y propicie un mayor uso de las energías renovables, sobre todo en los sectores productivos más contaminantes en México. Asimismo, se muestra que es necesario acelerar una transición energética, que utilice fuentes de energía limpia, como parte de las políticas y estrategias de mitigación de gases de efecto invernadero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266/657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Para brindar herramientas que permitan a las personas desarrollar todo su potencial, la educación debería no sólo proveer conocimientos y aptitudes, sino también contribuir a la formación de actitudes, valores y disposiciones positivas. Los sistemas educativos deberían ser evaluados en función de este carácter multifacético de la educación, y la información disponible indica que los países difieren en la medida en que sus estudiantes adquieren tanto competencias cognitivas como no cognitivas. Interesa por ello comprender mejor el desarrollo de ambos tipos de logros, proceso complejo que depende de factores personales, familiares, escolares y contextuales. Mientras que la mayoría de las investigaciones empíricas orientadas a explicar la calidad educativa ha considerado únicamente los logros cognitivos, el presente trabajo pone el foco en los no cognitivos. Métodos: Se estima un modelo de regresión multinivel multivariado que analiza simultáneamente los determinantes de dos resultados alcanzados por los alumnos argentinos participantes del Programa para la Evaluación Internacional de Alumnos (PISA) 2012: uno cognitivo —la nota obtenida en la prueba de matemáticas— y uno no cognitivo —la apertura hacia la resolución de problemas—. Resultados: Se hallan diferencias en los factores explicativos entre los dos tipos de logros: los colegios parecen cumplir un papel más relevante en la determinación del desempeño escolar cognitivo que en la formación de resultados no cognitivos. No obstante, factores como el género o el nivel socioeconómico del hogar inciden significativamente en ambos casos. Asimismo, si bien los atributos escolares resultan menos relevantes que los individuales en la explicación de los dos resultados, se aprecia un margen para mejorar su desarrollo desde la escuela. Conclusiones: La inexistencia de homogeneidad respecto a las variables que determinan las dos clases de resultados estudiados sugiere que las políticas tendientes a mejorar unos u otros deberían ser diferentes. De todas formas, el desarrollo de ambos tipos de logros requiere principalmente que se mejoren las condiciones socioeducativas de los alumnos en sus hogares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267/661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: La desigualdad ha aumentado en los últimos años. Los avances recientes en las tecnologías de la información y la comunicación tienen un papel dominante entre las fuerzas explicativas. La razón es que tales avances facilitan ciertas formas de cooperación entre los agentes que cambian la división del excedente económico. Métodos: Para poder estudiar la manera en que diferentes formas de cooperación afectan la desigualdad se elaboró un modelo de cooperación entre agentes de talentos heterogéneos que permiten dos tipos de cooperación: entre tareas y dentro de tareas. La primera refleja la asignación de diferentes agentes para diferentes tareas. La segunda representa la reasignación de tareas en caso de que algún agente no cumpla. Los costos de esta forma de cooperación disminuyeron de manera sustancial debido a la difusión de Internet, el correo electrónico, los teléfonos celulares y la tecnología inalámbrica. La asignación del equilibrio es caracterizada, en particular la clasificación del equilibrio de agentes en cooperaciones y la concordancia entre agentes. Resultados: La cooperación lleva a una mayor desigualdad en la parte superior y a una menor desigualdad en la parte inferior de la distribución del talento en comparación con una situación hipotética sin ninguna división del trabajo. Además, se ha demostrado que la cooperación dentro de las tareas tiende a aumentar más la desigualdad que la cooperación entre las tareas. Por lo tanto, el modelo es capaz de generar el reciente incremento en la desigualdad de ingresos debido a la revolución de las TIC en los últimos años. Además, el modelo implica una correlación positiva entre los momentos más altos de la distribución del talento y la prima por cualificaciones que es coherente con la evidencia empírica y esclarece algunas evoluciones potenciales en la desigualdad debido a cambios en la distribución de la dificultad de las tareas a lo largo del tiempo.Conclusiones: Es probable que los recientes avances en las tecnologías de la información y la comunicación causen nuevos incrementos en la desigualdad. La sociedad debe estar consciente de esas tendencias para luchar contra la pobreza y la exclusión de sectores amplios de la sociedad cuando se trata de desarrollo económico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268/662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: La creación de la Asociación Transatlántica para el Comercio y la Inversión (TTIP, por sus siglas en inglés) que actualmente negocian los Estados Unidos y la Unión Europea tendrá importantes repercusiones en el comercio mundial, especialmente para aquellas economías con una elevada dependencia comercial de alguno de los bloques firmantes, como es el caso de México. Métodos: Este trabajo analiza los efectos de este acuerdo comercial para las exportaciones de los sectores manufactureros mexicanos dirigidas a los Estados Unidos por medio de un modelo múltiple de ecuaciones gravitatorias en dos posibles escenarios, ambicioso y limitado. Resultados: Los resultados muestran una caída significativa de las exportaciones manufactureras de México y un debilitamiento de su posición en las cadenas globales de valor, especialmente en aquellos sectores donde la Unión Europea presenta ventajas competitivas en su comercio con los Estados Unidos. Asimismo, los resultados muestran que los efectos de desviación de comercio se vivirían especialmente en aquellas industrias con una elevada dependencia de sus exportaciones con el mercado estadunidense, de entre las que destacan la maquinaria y los equipos de transporte. Conclusiones: La actualización de los acuerdos que México tiene con los Estados Unidos  y con la Unión Europea podría mitigar los potenciales efectos negativos del TTIP, siempre y cuando ésta suponga una aproximación a los estándares de las exportaciones europeas acordados en este nuevo acuerdo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo se basa en los postulados fundamentales de la economía de la innovación para destacar las carencias de México como un sistema de innovación trabado por las condiciones de los mercados. México ha puesto en práctica los estímulos fiscales a la investigación y desarrollo (ID) para promover la innovación, pero sus resultados han sido muy limitados y el programa fue derogado. Los beneficios se concentraron en muy pocas empresas, grandes y de sectores maduros, cuyos esfuerzos van hacia mejoras graduales de productos y procesos. Los estímulos funcionaron como recuperación de costos hundidos de estas competidoras globales, que internalizan la ID sin crear derramas hacia otros participantes. Muy pocos proyectos favorables son de base tecnológica, en actividades más comprometidas con ID, y con sinergias al paso del tiempo. Las consecuencias apuntan a resultados muy limitados en cuanto a los objetivos de innovación más ambiciosos, complejos y sistémicos que guardarían relación con la economía del conocimiento y también con el desarrollo de conglomerados (clusters) o derramas regionales. El desafío de política al futuro es dar prioridad a las externalidades positivas del aprendizaje en otras partes del sistema: proveedores, laboratorios u otras instituciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277/790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta resultados sobre el impacto de la política fiscal en la desigualdad y la pobreza en dieciséispaíses de América Latina para alrededor del año 2010.Los países que más redistribuyen son Argentina, Brasil, Costa Rica y Uruguay, y los que menos, Guatemala, Honduras y Perú. A mayor gasto social, mayor redistribución pero países con un nivel de gasto social similar muestran diferentes niveles de redistribución lo cual sugiere que otros factores tales como la composición y focalización del gasto intervienen en determinar el efecto redistributivo más allá del tamaño. La política fiscal reduce la pobreza extrema en doce países.. Sin embargo, la incidencia de la pobreza después de impuestos, subsidios y transferencias monetarias es mayor que la incidencia para el ingreso de mercado en Bolivia, Guatemala, Honduras y Nicaragua, aun cuando la política fiscal reduce la desigualdad.Además, aun cuando la incidencia de la pobreza y la desigualdad se reducen, con la nueva medida de Empobrecimiento Fiscal se puede observar que en Brasil y México un tercio de la población pobre medida con el ingreso consumible fue empobrecida: es decir, pasó de pobre a ser más pobre o de no pobre a ser pobre.El gasto en educación pre-escolar y primaria es igualador y pro-pobre en todos los países. El gasto en educación secundaria es igualador en todos los países y también pro-pobre en algunos pero no en todos. El gasto en educación terciaria nunca es pro-pobre pero es igualador a excepción de Guatemala, donde es regresivo y desigualador y en Venezuela, donde su efecto redistributivo es cero.El gasto en salud siempre es igualador pero es pro-pobre solamente en Argentina, Brasil, Chile, Costa Rica, Ecuador, República Dominicana, Uruguay y Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279/1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Este trabajo estudia el efecto de la variabilidad de los ingresos fiscales —inducidos por volatilidad en precios de productos relacionados con recursos naturales— sobre el ahorro público en el caso de economías dependientes de recursos naturales.Metodología:Se utiliza un modelo teórico que extiende el trabajo de Van der Ploeg y Venables (2011). Posteriormente, se realiza un estudio econométrico con datos de paneles de dos muestras de datos distintas. Se encuentra evidencia a favor de la hipótesis planteada.Resultados:Se encuentra que a mayor varianza en ingresos fiscales mayor debe ser el nivel de activos netos del fisco, debido a razones de ahorro precautorio.Conclusiones:La volatilidad de ingresos fiscales en países expuestos acommoditieslleva a los gobiernos a realizar ahorro precautorio y a tener mayores niveles de ahorros fiscales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo analiza la relación entre los cambios de regulación en los sectores y la aparición de casos de prácticas prohibidas por la legislación en materia de defensa de la competencia. Se estudia el caso de España en el periodo comprendido de 1993 a 2005, durante el que se promulgaron intensas reformas desreguladoras en diversos sectores y al mismo tiempo existió una cierta estabilidad en el marco de la defensa de competencia. El análisis permite demostrar, a partir de un modelo econométrico, la influencia que las medidas desreguladoras tienen en el incremento de prácticas contrarias a la ley. También se comprueba que al mismo tiempo y gracias a la labor de los órganos de defensa de la competencia, se produce un efecto de aprendizaje en aquellos sectores en los que se instruyen expedientes sancionadores. Finalmente, se observa que los organismos reguladores sectoriales son complementarios al órgano de defensa de la competencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La incidencia de sobrepeso y obesidad está aumentando en todo el mundo, lo que estimula un programa de investigación enfocado en comprender sus causas, consecuencias y las mejores políticas públicas para hacer frente al problema. Desafortunadamente, en la actualidad se conoce muy poco acerca de la relación entre sobrepeso-obesidad y el rendimiento escolar e intelectual. Esto es muy problemático ya que, en ausencia de datos adecuados, las políticas públicas no pueden adaptarse con éxito a situaciones específicas. Este artículo contribuye a cerrar la brecha en la investigación al analizar la asociación entre el peso y las tasas de deserción escolar, la repetición del año y el rezago escolar en niños de 12 a 14 años y adolescentes de 15 a 18 años. Como tal, es el primer estudio que trata este tema en México. Los hallazgos sugieren que no existe una relación clara entre sobrepeso-obesidad y el rendimiento escolar, ya que el sobrepeso y la obesidad no tienen efectos en algunas variables y tienen efectos negativos en otras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292/1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:la evaluación de habilidades de selectividad,market timingy liderazgo en inversiones ejercido por los multifondos dependientes de las Administradoras de Fondos de Pensiones (AFP) es un tema de particular interés para los trabajadores en Chile, en especial luego de la implementación del primer proceso de licitación de cartera de nuevos afiliados.Metodología:haciendo uso del modelo de mercado cuadrático, con ventanas móviles de tiempo, junto con pruebas de causalidad de Granger, este artículo analiza el desempeño y liderazgo en políticas de inversión de seisAFPen los cinco multifondos existentes en Chile, durante el periodo que va desde septiembre de 2010 hasta marzo de 2016.Resultados:se indica que los multifondos muestran habilidades que no alcanzan a compensar las comisiones cobradas. Sin embargo, en términos de desempeño neto de comisiones, en comparación con el promedio de la industria destacan en todos los multifondos lasAFPModelo y Habitat, respectivamente. Además, no se detecta relación entre liderazgo en inversiones y desempeño.Conclusiones:el artículo finaliza destacando la importancia de las comisiones en el desempeño neto de los multifondos y en el potencial efecto que una mayor cantidad de competidores tendría en la industria. En este sentido, destaca la AFP Modelo, la cual muestra aproximadamente 1.63% de mejor desempeño que el promedio de la industria, debido a su más baja comisión detectada en el periodo completo de análisis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la actual etapa de crisis financiera global la mejora de la eficacia de la ayuda se ha convertido en una prioridad tanto para los donantes como para los países receptores. En este contexto, comprender la manera en la que los gobiernos receptores utilizan la ayuda es una cuestión decisiva para valorar su eficacia. Este artículo desarrolla y estima un modelo de respuesta fiscal con ayuda anticipada. Costa Rica y Nicaragua son los países seleccionados como estudios de caso. El supuesto principal del modelo teórico es que parte de la ayuda puede ser anticipada por los gobiernos y, por tanto, puede influir en su programación presupuestaria. La estimación de este modelo revela una respuesta fiscal diferente en cada país, pero con un resultado común en ambos: la ayuda se destina fundamentalmente a apoyar la función de estabilización de la política fiscal, aliviando las necesidades de financiación pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302/663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: El objetivo de este artículo es analizar el crecimiento económico, la productividad y sus determinantes en cinco países de América Latina (Argentina, Brasil, Chile, Colombia y México) durante el periodo 1990-2010. Este análisis se aplica tanto a la economía agregada como a nueve sectores de actividad económica. Metodología: Se utiliza una nueva base de datos, LA-KLEMS, que servirá como herramienta fundamental para la investigación empírica y teórica en el área de crecimiento económico y productividad para América Latina. Las variables se organizan en torno a la metodología de contabilidad del crecimiento, que proporciona un marco conceptual claro para el análisis coherente de la interacción entre las variables. Las cifras de LA-KLEMS ponen de relieve las discrepancias entre los países y dan una nueva perspectiva para entender cómo evolucionan las series con el tiempo. Resultados: Los resultados muestran que el lento crecimiento económico se debe básicamente a la contribución negativa de la productividad total de los factores (PTF) en todos los países y en casi todos los sectores, a pesar de los esfuerzos de inversión realizados en los últimos 20 años. Los países latinoamericanos se enfrentan a un auténtico problema de productividad, como muestra el shift-share análisis. Conclusiones: Los problemas de la PTF son comunes a todos los sectores de actividad económica y no parecen estar impulsados por el cambio estructural, es decir, la reasignación de recursos de industrias de baja a alta productividad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303/664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Los sistemas de vales en educación se basan fundamentalmente en la capacidad de los padres para elegir la escuela de sus hijos. Sin embargo, esta capacidad se reduce cuando enfrentan costos de cambio. Método: Se identificaron los datos de los estudiantes que cursaban cuarto grado en 2000 y octavo grado en 2004, y se verificó si estos, habían cambiado de escuela. Además, comparamos la utilidad que reporta la escuela elegida con respecto a otras, no disponibles en 2000, determinando así la existencia de costos de cambio. Resultados: Encontramos que los costos de cambios son estadísticamente significativos y económicamente relevantes, además, afectan la decisión de cambiar de escuela. También mostramos qué cambios marginales en niveles de utilidad no son suficientemente significativos para cambiar de escuela identificando un eventual umbral. Conclusiones: La preocupación natural de los padres con respecto a la capacidad de reacción está condicionada por la existencia de costos de cambio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304/666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: El Buen Fin es un evento comercial de periodicidad anual que consiste en cuatro días de promoción y rebajas de productos y servicios durante la tercera semana del mes de noviembre en México. El evento ha incrementado su relevancia desde su primera edición en 2011. Sin embargo, no existe un análisis formal que evalúe el efecto del Buen Fin sobre los precios y las políticas de fijación de precios de las empresas, principalmente debido a la falta de información relevante. Métodos: Este artículo analiza la fijación de precios durante el Buen Fin para una muestra de establecimientos ubicados en áreas urbanas del país. Empleando la base de datos ¿Quién es quién en los precios? de la Procuraduría Federal del Consumidor (Profeco) se construye un panel no balanceado de precios semanales de productos electrónicos para 525 establecimientos durante 2010-2015. Posteriormente, se utiliza la metodología de estudio de eventos para analizar los efectos del Buen Fin en el nivel de precios promedio y en los precios específicos por producto y por cadena. Adicionalmente, se analizan las políticas de fijación estratégica de precios para las empresas participantes. Resultados: El Buen Fin reduce en promedio 7% los precios con respecto al precio observado en septiembre antes del evento. Sólo 52% de los productos analizados reduce efectivamente su precio en el Buen Fin. Restringiendo el análisis a productos descontados, se obtiene un descuento promedio de 15%. El aumento promedio de precios antes del evento es de 2%, evidencia de que algunos establecimientos han adoptado prácticas para hacer más evidentes las ofertas del Buen Fin. Conclusión: El Buen Fin no puede ser considerado como un evento de baja generalizada de precios. Los descuentos ofrecidos por distintas cadenas tienen diferencias considerables. En algunos casos, diversos establecimientos han adoptadoCAMPOS Y MEDINA, ¿Realmente bajan los precios en el Buen Fin? 339 prácticas estratégicas que permiten hacer más evidentes las ofertas ofrecidas durante el evento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305/667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: En los últimos años muchos países han realizado inversiones sustanciales en los programas Una Laptop por Niño (OLPC, por sus siglas en inglés), en tanto que otros están por implementar este tipo de intervenciones. Este artículo contribuye al estudio del efecto que tienen los programas OLPC en el desempeño de los estudiantes en lectura y matemáticas y, para ello, utiliza un diseño cuasi experimental basado en datos de Uruguay, el primer país en implementar un programa OLPC a escala nacional: el Plan CEIBAL. Métodos: Empleamos una estrategia de diferencias en diferencias (DiD) para estimar el impacto del Plan CEIBAL en el desempeño educativo. El análisis explota especialmente el hecho de que el despliegue del programa se basó en criterios geográficos y no en el rendimiento escolar de los estudiantes. Se cuenta con la fecha exacta en que se le entregó la laptop a cada estudiante de la muestra. Ello nos permite hacer una medición continua y sin margen de error del tratamiento con base en el número de días en que cada estudiante ha estado expuesto al Plan CEIBAL al llegar la fecha de seguimiento (normalizado a años). Se controla por las diferencias sistemáticas que se dan potencialmente a lo largo del tiempo respecto a un mejor aprovechamiento escolar entre las escuelas en la capital, Montevideo, y el resto de Uruguay. Resultados: Nuestros resultados sugieren que el programa no tuvo impacto en las calificaciones en lectura y matemáticas. Tampoco encontramos efectos heterogéneos entre alumnos cuyas madres poseen distintos niveles de educación. Al analizar la evidencia descriptiva sobre la frecuencia de uso de la laptop en clase, observamos que su uso diario no está generalizado en todas las escuelas públicas. Además, su principal uso en clase consiste en la búsqueda de información en internet y no en la capacitación mediante ejercicios o prácticas de repetición. Una característica particularmente importante del programa es que la capacitación a los docentes ha sido opcional hasta el momento. Conclusiones: Nuestros resultados sugieren que, en los primeros dos años de su implementación, el Plan CEIBAL no tuvo efecto en los puntajes de matemáticas y lectura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306/668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: El objetivo de este artículo es proveer un análisis empírico de los determinantes de la madurez de la deuda con plazo mayor a un año. La deuda analizada es aquella emitida como renta fija por empresas chilenas cotizadas en la Bolsa de Valores de Santiago, en Chile. La investigación se contextualiza en el marco de la teoría de costos de agencia, hipótesis fiscal y señalización por medio de la emisión de deuda. Métodos: Para llevar a cabo el análisis utilizaremos un panel de datos construido a partir de información financiera obtenida de Bloomberg, para un periodo comprendido entre los años 2002 y 2012. Con estos datos llevaremos a cabo una regresión agrupada, un modelo de datos de panel con efectos fijos y otro con efectos aleatorios. Resultados: Después de analizar una muestra de 434 observaciones para 50 empresas con 52.8% de su deuda con una madurez mayor a un año, una madurez de sus activos de 29.26 años y una tasa efectiva de impuestos de 18.2%, encontramos los siguientes resultados. La razón entre el valor de mercado y el valor en libros de la empresa es estadísticamente significativa y tiene el signo negativo esperado. También encontramos que tanto el tamaño como la regulación son estadísticamente significativos y tienen signo positivo. Los resultados obtenidos para la variable “Tasa efectiva de impuestos” no son estadísticamente significativos, lo que coincide con la evidencia internacional. Por otra parte, el coeficiente estimado para la madurez de los activos no es estadísticamente significativo, lo que contradice las ideas propuestas por Myers (1977). En cambio, la variable “calidad” es estadísticamente significativa a 5% de significancia en todas las regresiones; sin embargo, ésta no tiene el signo negativo que se esperaba. Finalmente, en su mayoría los resultados son consecuentes con la evidencia internacional, por lo que los determinantes de la madurez de la deuda en Chile son similares a aquellos que se encuentran en otros países como los Estados Unidos, Reino Unido y España. Conclusiones: Las empresas grandes con pocas oportunidades de crecimiento tienen una mayor proporción de deuda con un plazo de vencimiento mayor a un año. La evidencia también sugiere que las empresas expuestas a grandes asimetrías de información emiten proporcionalmente más deuda a corto plazo. Además, no encontramos evidencia de que las empresas busquen hacer coincidir la madurez de sus activos con la de sus pasivos, ni de que busquen emitir deuda con un vencimiento mayor a un año para aprovechar los beneficios fiscales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307/669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Este artículo presenta nueva evidencia sobre la frontera de posibilidades de desigualdad y la tasa de extracción (cuánto de la desigualdad potencial se convierte en desigualdad real) para América Latina (AL) en las últimas dos décadas. Asimismo, se explora la relevancia de la tasa de extracción (TE) en el análisis del conflicto social y la estabilidad institucional. Métodos: Cómputo de la TE y del coeficiente de Gini, para 18 países de AL en el periodo 1990-2013, usando encuestas de hogares. Se estiman modelos econométricos multivariados con efectos fijos para analizar la relación entre la distribución del ingreso e indicadores de conflicto social. Resultados: AL mejora dos posiciones en el ranking de desigualdad mundial al usar la TE en lugar del Gini. Dentro de AL existe un proceso de convergencia en niveles de desigualdad, aunque las medidas se comportan diferente: mientras que el Gini aumenta en los 90 y disminuye en los 2000, la TE mantiene una tendencia decreciente a lo largo de todo el periodo. Adicionalmente, se encuentra que la TE está positivamente relacionada con las situaciones de conflicto e inestabilidad política. Conclusiones: Según la TE, América Latina no es tan desigual como con el Gini. Asimismo, mayor TE está asociada a mayores niveles de conflicto social en AL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308/670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Durante el siglo XVIII surgió un estilo distintivo de arte, el Rococó, expresión de frivolidad y juicio “conocedor”, donde hubo pocos avances en materia visual. El principal objetivo de este trabajo es establecer un modelo teórico que relacione la caída en el mecenazgo real para las artes con una disminución en la creatividad impregnada a las obras. Métodos: Se presenta un modelo teórico sobre la interacción entre artistas plásticos y galeristas del siglo XVIII, el cual permite estudiar el nivel de creatividad óptimo que los artistas impregnaban a sus obras de arte. Resultado: El modelo predice una relación positiva entre patronazgo real y nivel de creatividad. Conclusiones: La muerte del Rey Luis XIV y la consecuente reducción en el mecenazgo real podrían explicar la caída, documentada por los historiadores del arte, en el nivel de complejidad de las obras producidas durante el periodo Rococó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se desarrolla una tipología de arquitectura y gobierno corporativos con el fin de analizar a los grupos económicos mexicanos. La tipología ayuda a comprender la evolución de las redes de negocios mexicanas hacia una coordinación centralizada de las empresas; también ayuda a entender cómo los cambios en el gobierno corporativo han tendido a preservar un estado de pocos contrapesos en las decisiones de los accionistas mayoritarios. Asimismo, el artículo presenta una revisión teórica que proporciona un conjunto de posibles explicaciones de la formación y funcionamiento de los grupos económicos. Esta revisión permite valorar las ventajas analíticas de un enfoque socioeconómico que interpreta a estas redes de negocios a partir de la interacción entre factores socioculturales, institucionales y económicos, lo que aporta una base teórica para comprender la persistencia histórica de este sistema de negocios en México y otros países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310/1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:El presente artículo calcula la productividad laboral al nivel más desagregado posible para 150 actividades industriales de 28 países de diferentes ámbitos geográficos y niveles de desarrollo para periodos recientes. Se plantea responder dos interrogantes centrales: ¿existe un bono estructural en el crecimiento de la productividad laboral en la industria a nivel global? y, en caso de haberlo, ¿en qué países o sectores se produce?Método:Mediante una técnica de tiposhift-share,utilizada por otros estudios empíricos similares, se descompone la evolución del indicador en efectos estructurales de reubicación del empleo y en un componente intrínseco asociado al cambio tecnológico y organizativo en el interior de cada actividad.Resultados:El principal resultado es confirmar la inexistencia de forma agregada de un bono estructural en el crecimiento de la productividad laboral en la industria a nivel global. Cuando los efectos estructurales tienen un peso significativo en la evolución del indicador, el hecho parece estar relacionado con el desarrollo de estructuras atrasadas o con patrones productivos sumamente especializados. Asimismo, la evidencia estadística muestra el mayor dinamismo internacional en términos de eficiencia de las actividades químicas y automotrices.Conclusiones:La innovación y la emergencia de nuevos sectores han desencadenado una transformación estructural cuyas posibilidades se han visto parcialmente bloqueadas, en especial en países en vías de desarrollo, tanto por la escasa difusión de las innovaciones como por la incapacidad de los sectores más dinámicos para incrementar su participación en el empleo total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311/1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:como estrategia encaminada a conservar la energía y reducir las emisiones de gases de efecto invernadero (GEI), se ha utilizado de manera intensiva la política de cambio de horario de verano (DST por sus siglas en inglés). En lo que respecta a Argentina, las experiencias más recientes con el horario de verano tuvieron lugar durante el periodo de verano austral de 2007-2008 y de 2008-2009, al término del cual se optó finalmente por desechar la política. Sin embargo, los beneficios que trajo el horario de verano y la proporción de los ahorros energéticos (potenciales) aún constituyen factores por considerar en el marco de la discusión en curso que se sostiene en un país donde los subsidios al consumo de energía implican una pesada carga fiscal.Metodología:por medio de la técnica de diferencia en diferencias (DID), la cual aprovecha a fondo los elementos inherentes a la naturaleza cuasiexperimental del programa implementado, empleamos datos obtenidos en intervalos de una hora para el periodo 2005-2010, ubicándonos a nivel provincial, y estimamos el impacto del DST sobre el consumo de electricidad y la demanda pico.Resultados:la aplicación del cambio de horario de verano significó un incremento del consumo total de electricidad de 0.4 a 0.6%, aunque a la vez trajo consigo un descenso a escala nacional de la demanda pico de 2.4 a 2.9%. En términos monetarios, representó costos de generación extra que ascendieron a 10.9 millonesUSD y 18 millones USD durante los veranos de 2007-2008 y 2008-2009, respectivamente. Por último, la aplicación del cambio de horario de verano provocó en dichos periodos un aumento en las emisiones de agentes contaminantes del aire.Conclusión:no deja de ser cuestionable el fundamento para la aplicación del DST. Considerados en términos del consumo energético y la demanda pico, los frutos obtenidos por esta política parecen ser de lo más dispares, al menos a juzgar por las últimas experiencias registradas en Argentina. En ese sentido, lo más razonable parece ser un estudio caso por caso, y este trabajo representa una pieza más de evidencia empírica que contribuye al debate aún abierto sobre este tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316/1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Chile ha sido un caso paradójico en su cometido económico en las últimas décadas. Aunque este país implementó importantes reformas de modernización pro mercado, tiene una tasa de participación femenina inesperadamente baja, por lo que se desaprovecha una fuente importante del crecimiento económico. Diversos estudios indican que la causa de esta baja participación laboral femenina en Chile es una baja conciliación entre familias y el mercado laboral. Esta es una lección importante para otras economías en desarrollo que deseen implementar reformas similares.Metodología:en este artículo estimamos un modelo de equilibrio general con econometría bayesiana para cuantificar los efectos de la conciliación familiar y el trabajo a nivel agregado, por el efecto de los jardines infantiles.Resultados:las estimaciones econométricas indican que hay importantes ganancias si aumenta la conciliación, debido a un aumento en la productividad más que a un aumento en la oferta laboral.Conclusiones:la principal consecuencia en política económica para otras economías en desarrollo o emergentes es que aumentar los niveles de conciliación tiene importantes efectos sobre la actividad, pues se superan los costos de su financiamiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322/1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:La incertidumbre que enfrentan las familias mexicanas sobre sus ingresos futuros y las expectativas sobre la política de inclusión financiera mantienen el foco de atención en los estudios del financiamiento del consumo. Caracterizar el comportamiento del ahorro y el crédito de los hogares es fundamental en la estrategia de desarrollo financiero.Método:Apoyado en un panel sintético, este artículo modela en forma semiparamétrica los perfiles de ahorro y pago de deuda de las familias a lo largo del ciclo de vida.Resultados:Se muestra que el inicio de la vida familiar depende en mayor proporción del crédito, mientras que al final existe un perfil de ahorro elevado, sostenido y distinto a la reducción predicha por el modelo del ciclo de vida. Capital humano e ingresos explican las principales disimilitudes en los patrones de financiamiento de los hogares.Conclusiones:Los resultados evidencian la persistencia de grandes desigualdades en el proceso de financiamiento; con ello, se plantea la urgencia de la educación financiera e incentivos efectivos para la promoción del ahorro en la estrategia de inclusión del país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329/392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo analiza los episodios de crecimiento de los pasados cincuenta años en la economía de Guatemala, con particular hincapié en la desaceleración post 1999. Los resultados presentan dos importantes matices. El primero es de carácter positivo y alude al hecho de que este fenómeno sería más bien temporal. Segundo, la desaceleración económica post 1999 tiene un componente interno relacionado a la falta de competitividad y a la menor eficiencia. De esto último se desprende que reformas importantes deben realizarse en áreas relacionadas a la absorción de tecnologías, regulación económica, sector público, sector financiero, apertura, mercado laboral y pobreza, con el fin de promover mayor productividad y crecimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33/311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El rendimiento del sector financiero español ha sido objeto de diversos estudios a lo largo del decenio de los novena del siglo XX como consecuencia de los importantes cambios a los que ha estado sometido. Las cajas de ahorros españolas no han sido ajenas a este tipo de estudios, si bien circunscritos de manera exclusiva al examen de su eficiencia y productividad, relegando a un segundo plano el análisis del cumplimiento de su fin social, materializado económicamente en el gasto anual destinado a obra social. En este contexto, la principal aportación de nuestro estudio es la obtención de evidencia empírica de la existencia de una relación de causalidad entre la creación de valor social de las cajas de ahorro españolas, medida por medio del establecimiento de un ratio de gasto social, y sus cambios en productividad, cuantificados mediante el cálculo del índice de productividad de Malmquist basado en el trazado de fronteras eficientes a partir de la técnica no paramétrica del análisis envolvente de datos (AED) (Data Envelopment Analysis, DEA). Para el censo de cajas de ahorro españolas en el periodo 2003-2007, nuestros resultados revelan que las entidades que presentan mayor productividad alcanzan cotas superiores en el ratio de gasto social, incluso después de controlar por medidas tradicionales como la rentabilidad económica y el tamaño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330/386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si el sistema financiero es importante para el crecimiento como se ha demostrado en la bibliografía, entonces es pertinente preguntarse por qué hay una gran varianza en el desarrollo financiero entre los países. En otras palabras, ¿por qué los gobiernos no han impulsado las políticas públicas apropiadas para desarrollar el sector financiero y con ello el crecimiento? El artículo intenta responder estas preguntas explorando el desarrollo del sistema financiero mexicano desde 1880 hasta el presente. El argumento es que las instituciones que motivan a impulsar este desarrollo no pueden ser creadas de la noche a la mañana. La creación de esas instituciones depende en gran medida de otras instituciones que limitan la autoridad y discreción del propio gobierno. En suma, las instituciones políticas que limitan el accionar discrecional del gobierno son una condición necesaria para impulsar el desarrollo financiero y por ende el crecimiento económico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331/393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uno de los enfoques más utilizados en comparaciones internacionales de la productividad y el cambio tecnológico agrícola utiliza funciones de producción de tipo Cobb-Douglas. Igualmente, el nivel tecnológico por lo común es representado mediante tendencias temporales lineales. En este trabajo se propone utilizar especificaciones menos restrictivas. En particular, se propone utilizar una función de producción translogarítmica junto con una representación estocástica dinámica del nivel tecnológico, lo cual produce un modelo panel dinámico no lineal. El modelo es estimado para un grupo de 104 países y varios subgrupos durante el periodo 1961-1991. Se encuentra que el modelo propuesto es mejor que otras especificaciones consideradas y se utilizan sus resultados para caracterizar los procesos tecnológicos y hacer comparaciones entre grupos de países. Uno de los resultados más destacables del estudio es que la brecha tecnológica entre países desarrollados y en desarrollo ha aumentado de manera considerable durante ese periodo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332/394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema de pensiones chileno es de capitalización individual con contribución definida y, en consecuencia, el monto futuro de la pensión no es conocido por el afiliadoex ante . En este trabajo estudiamos dos factores de riesgo que afectan las pensiones por recibir de los afiliados al sistema de pensiones chileno: desempleo temporal (y por tanto interrupciones en las cotizaciones) y riesgo de la rentabilidad del fondo. Para ello, desarrollamos un modelo en que los salarios dependen explícitamente de la edad del afiliado. En el modelo el riesgo de desempleo que afecta al afiliado se modela como un proceso de Markov con dos estados: empleado y desempleado; el riesgo de inversión se modela suponiendo que los fondos siguen un proceso browniano geométrico. Usamos este modelo para estimar la distribución de probabilidades de las pensiones de vejez futuras que el afiliado obtendría después de 35 a 40 años de vida laboral. Ello nos permite estimar el efecto probable de cambios en la tasa agregada de desempleo y de la rentabilidad esperada y riesgo de los activos financieros en la distribución de pensiones futuras. Partiendo de un panorama base estimado razonable para la economía chilena, encontramos que, en orden decreciente de importancia, los parámetros que más afectan las pensiones futuras son: la tasa de interés libre de riesgo, que repercute en la rentabilidad promedio de los fondos, el premio por riesgo de mercado, definido como el excedente de rendimiento de acciones respecto al título libre de riesgo, y el desempleo. Es decir, el riesgo de inversión es más importante que el riesgo de desempleo. Además, las mujeres son más vulnerables a estos riesgos que los hombres, y los hombres casados más que los solteros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333/395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es cuantificar para la economía española la evolución futura del gasto en pensiones de jubilación contributivas en el horizonte 2002-2050. Para ello se especifica un modelo en el que dicho gasto es función de la pensión media de las altas, de las bajas, de los pensionistas comunes, del número de pensionistas en cada uno de estos colectivos y del complemento de garantía de mínimos. La descomposición del gasto total en pensiones de jubilación en estos tres grupos permite analizar con más detalle cuál de ellos contribuirá en mayor medida a determinar la evolución futura del gasto, así como simular con mayor precisión el efecto de cambios legislativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334/396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las reglas que organizan la estructura del legislativo afectan al comportamiento de sus miembros, la elección pública y los fundamentos políticos de una economía. El estudio de los mercados legislativos ha sido una constante en la investigación en economía política a lo largo de los decenios recientes. Este artículo analiza la organización industrial del Congreso de Diputados en España desde un enfoque propio de la nueva economía institucional. De este modo, se realiza un análisis de economía política madisoniana que estudia el papel de los derechos de propiedad, las jerarquías, los diputados individuales, los grupos parlamentarios, las transacciones y las comisiones en el Congreso español. En particular, este análisis, heredero de la tradición coaseana de “abrir la caja negra” de las organizaciones, evidencia las grandes caracteristicas que diferencian al sistema español del existente en el Congreso de Estados Unidos, el cual aparece en la bibliografía especializada como prototipo de Congreso de Comisiones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335/397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo presentamos una valoración empírica de la evolución de las relaciones comerciales entre Iberoamérica y el Caribe y la Unión Europea entre 1992 y 2003, de acuerdo con los datos disponibles recientes, centrándonos en su volumen, la concentración por países y áreas y las fases por las que ha atravesado, en el marco de los principales acuerdos intrarregionales y la creciente liberación de sus economías. Se intenta detectar si los esfuerzos realizados por ambas partes, concretados en cambios en las políticas económicas en muchos países iberoamericanos, los acuerdos para incrementar los intercambios y la intensificación del diálogo político entre ambas orillas del Atlántico, se han materializado en resultados positivos. Las características generales, la intensidad de los mismos y su concentración en zonas determinadas se han abordado utilizando una serie de indicadores que permiten obtener conclusiones de estas transformaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337/398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo examina una ecuación de Euler para el consumoper capitaa fin de investigar si la seguridad social aumenta el consumoceteris paribusen 17 países. Con base en el trabajo seminal de Feldstein, la bibliografía ha estimado funciones de consumo para resolver este interrogante. Desafortunadamente, las funciones de consumo confunden los parámetros estructurales y los de expectativas, lo que torna problemática su interpretación. Además, si sus variables son estacionarias en las diferencias, el método de mínimos cuadrados podría producir estimaciones paramétricas incongruentes y en la virtual totalidad de los casos debe producir errores estándares inconsistentes para los parámetros estimados. En cambio, con supuestos razonables, el método generalizado de los momentos estima congruentemente los parámetros y los errores estándares de las ecuaciones de Euler. Además, los parámetros son interpretables con más facilidad. El ensayo encuentra grandes pruebas de que la seguridad social aumenta el consumoceteris paribus . Además, las estimaciones de coeficientes implican grandes efectos negativos en las tasas de crecimiento del acervo de capital, la producción y el consumo a lo largo de sus tasas de crecimientoequilibrado, o bien en sus niveles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338/399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre 1979 y 1999 las condiciones de salud variaron notoriamente en Chile: la tasa de mortalidad general se redujo de 6.8 a 5.4 por mil y la de mortalidad infantil de 75 a 38 por mil nacidos vivos. Este trabajo presenta una metodología para valorizar dichas reducciones de tasas de mortalidad. El valor de la vida se mide a partir de un modelo en que los agentes eligen sus pautas de consumo y ocio óptimas enfrentando probabilidades exógenas de supervivencia. Las condiciones de primer orden, así como algunos supuestos simplificadores relacionados a la función de utilidad, nos permiten calibrar el modelo utilizando datos de la economía chilena durante los años noventa del siglo XX. Los resultados indican que los cambios en la mortalidad general entre 1980 y 1997 representan mas de 270% del PIB de Chile de 1998.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339/400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analiza los cambios en la pauta de especialización de la economía chilena en su periodo de más rápido crecimiento y tomando en consideración su abundancia de factores productivos. Existen tres resultados importantes que son de interés para economías que crecen rápidamente y tiene una dotación de factores similar a la chilena. Primero, aun cuando existe un alto grado de heterogeneidad en la tasa de crecimiento del producto y la productividad de los distintos sectores, se encuentra que los más dinámicos son los vinculados a recursos naturales. En cambio, sectores comerciables intensivos en mano de obra tienden experimentar contracciones. Segundo, congruente con la evidencia internacional, cambios significativos en el pauta de especialización de la economía chilena, por ejemplo hacia manufacturas más elaboradas, sólo serían posibles en la medida en que mejore considerablemente la inversión en capital físico y humano. Tercero, no existe evidencia de que el sector comerciable sea por sí mismo el “motor del crecimiento”. En efecto, durante parte importante del periodo el sector no comerciable ha experimentado tasas de crecimiento del producto y la productividad superiores al del comerciable. Esto es congruente con una serie de reformas estructurales (privatización, liberación a la inversión extranjera) que han generado un gran dinamismo del sector servicios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34/309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analiza mediante la matriz de insumo-producto de México, de 2003, las consecuencias de las emisiones de gases de efecto invernadero en precios y cantidades de la producción de cada una de las ramas económicas que la integran. Estas emisiones son vistas como externalidades negativas asociadas a la actividad productiva. El estudio comprende el cálculo de emisiones de gases contaminantes por rama, la estimación del costo, en cantidad y en valor, de la emisión de estos gases y la identificación de sectores estratégicos en la estructura actual de la economía. La conclusión es que las ramas del sector energético, y las que están muy vinculadas a él, son las que más contaminan y resultan importantes por su efecto en las demás. Estas ramas requieren supervisión para incrementar su eficiencia y reducir las emisiones de gases contaminantes, en tanto se desarrollan y adoptan tecnologías limpias para producir energía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342/1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducción:Esta investigación examina la relación entre el uso de energía (UEN) y la formación bruta de capital (FBC) fijo con la tasa de crecimiento del producto interno bruto (PIB) en 73 países. Los países se agrupan con la clasificación del Banco Mundial sobre el ingreso: alto (30 países), medio alto (21 países) y medio bajo (22 países); se excluyen los países con nivel de ingreso bajo dado que no existen datos suficientes. La razón por la que se incluye la FBC es para ver cómo influye ésta en conjunción con el UEN en el crecimiento del PIB, ya que la FBC considera maquinaria y bienes de equipo que requieren energía.Métodos : Se realizan pruebas de raíz unitaria y de cointegración de datos de panel, así como estimaciones de mínimos cuadrados ordinarios totalmente modificados (FMOLS) y mínimos cuadrados ordinarios dinámicos (DOLS) de datos de panel.Resultados:Los hallazgos empíricos son que el crecimiento del PIB es explicado por el UEN y la FBC a corto y largo plazos, excepto para el grupo con ingreso medio-alto, en el que a corto plazo el UEN no es significativo, mientras que la FBC sí lo es. También, en todos los grupos, a largo plazo, la FBC es explicada por el crecimiento del PIB y el UEN. Se destaca que en todos los grupos, a corto plazo, no existe relación causal entre el UEN y la FBC. Sorprendentemente, las economías con ingreso alto y medio-bajo presentan resultados similares. Por último, con una reclasificación como productores y no de petróleo para los primeros, a corto plazo, el crecimiento económico tiene una relación unidireccional hacia el UEN y la FBC, mientras que a largo plazo no hay relación alguna. Por el contrario, para los países no productores de petróleo, a corto y largo plazos, el crecimiento del PIB tiene una relación bidireccional con la FBC; sin embargo, a corto plazo sólo el UEN es explicado por el crecimiento económico.Conclusiones:Las diversas relaciones, a corto y largo plazos, obtenidas entre el UEN, la FBC y el crecimiento económico que empíricamente se encontraron proporcionan elementos sustanciales para el diseño de la política energética en 73 países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344/401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudia los cambios experimentados por la distribución personal de la renta en España a lo largo del período 1973-2000 utilizando las estimaciones de los parámetros del modelo de Dagum para el conjunto del Estado y sus diferentes comunidades autónomas. Con este fin, se realiza, en primer lugar, una aproximación teórica a los parámetros del modelo de Dagum que permite obtener una nueva caracterización de cada uno de ellos, en relación con su interpretación económica. Los datos utilizados para el ajuste de las distribuciones de rentas personales proceden de las Encuestas Básicas de Presupuestos Familiares para el periodo y del Panel de Hogares de la Unión Europea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347/404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo presenta datos experimentales de los determinantes del cumplimiento del pago de impuestos en México, y los compara con los resultados de un experimento realizado en los Estados Unidos presentado por Alm, Jackson y McKee (1992). Los resultados de ambos países son comparados con las predicciones del modelo de Alligham-Sandmo, cuyo supuesto principal es que la probabilidad enfrentar una auditoría es exógena e independiente del monto y tipo de ingreso informado. Específicamente, en ambos experimentos, el aumento en la probabilidad de enfrentar una auditoria incrementa el pago de los impuestos; mayores multas son inefectivas; existe una relación negativa entre las tasas impositivas y el pago de los impuestos; pero el problema del gorrón (free rider) se presenta en México en las sesiones de bienes públicos aun cuando el gobierno es eficiente en la provisión de estos bienes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348/405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El modelo de insumo-producto supone que cuando se desarrolla el sistema económico los coeficientes técnicos de la matriz cambian de acuerdo con dos tendencias contradictorias: i) las entradas de la matriz menguan debido a que la eficiencia en la línea de producción se incrementa, disminuyendo la demanda de insumos, o ii) los coeficientes se expanden, cuando los incrementos en la productividad se concentran en los factores empleados (insumos no producidos). En seguida, se espera que la estructura económica se torne crecientemente más compleja a medida que las industrias se integran de manera vertical y se produzca el proceso de desarrollo mismo. Sin embargo pocas veces se han analizado ambos fenómenos al mismo tiempo, a pesar de que están muy vinculados entre sí, y también con la evolución de la estructura productiva de la economía, así como con las oportunidades de desarrollo que se presentan a los distintos países. Este documento intenta examinar algunas consecuencias de estas tendencias en la evolución del sistema económico en relación con la dinámica que pudiera adoptar el proceso de crecimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349/1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:El modelo canónico del mercado de trabajo (Acemoglu, 2002), con dos grupos de mano de obra cualificada que realizan dos tareas distintas e imperfectamente sustituibles, ha demostrado ser incapaz de explicar algunas características del mercado de trabajo. Se evalúa si hay suficientes evidencias que respalden la hipótesis de que existe una polarización en el caso del mercado laboral colombiano.Métodos:Se utilizan descripciones de ocupaciones para construir intensidades de tareas relacionadas con el uso de la tecnología y se las pone en correspondencia con series de secciones representativas de encuestas aplicadas en los hogares para evaluar hasta qué grado la reasignación de trabajadores por medio de ocupaciones que requieren diferentes intensidades de tareas es consistente con la hipótesis de la polarización.Resultados:Se encontró un incremento del empleo en los extremos de la distribución de los salarios y/o las ocupaciones cualificadas, particularmente pronunciado en el periodo en el que aumentó la disponibilidad de tecnologías, y los precios de éstas disminuyeron considerablemente.Conclusiones:En general, los resultados aportan evidencia a favor de la hipótesis de la polarización del mercado laboral en Colombia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35/297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo analiza algunas cosas que hemos aprendido acerca de los mercados durante el proceso de diseñar mercados para subsanar sus fallas. Para poder funcionar bien los mercados deben ofrecer densidad, es decir, necesitan atraer una proporción suficientemente grande de los participantes potenciales en el mercado; tienen que superar la congestión que la densidad puede traer consigo, al hacer posible que se consideren suficientes transacciones distintas para llegar a las más atinadas, y necesitan hacer que participar en el mercado sea algo seguro y suficientemente sencillo, comparado con realizar transacciones fuera del mercado o tener que implicarse en comportamientos estratégicos costosos y riesgosos. Me basaré en ejemplos recientes del diseño de mercados que van desde los mercados laborales para médicos y economistas recién egresados, hasta el intercambio de donantes de riñón y la elección de escuelas en Nueva York y Boston.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350/406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de la crisis de 1995 el sistema bancario mexicano experimentó cambios considerables en sus normas contables. La mayoría de estos cambios ocurrió entre 1996 y 2001, y tuvo un gran efecto en la estructura y la interpretación de la información financiera de los bancos. Este documento explica los cambios principales en la contabilidad bancaria, su propósito y estructura, y analiza su efecto en la información financiera presentada por los bancos mexicanos. También proporciona el equivalente en inglés de los principales términos contables utilizados por los bancos mexicanos. El propósito principal de este documento es ofrecer una guía estandarizada para entender mejor la información financiera producida antes y después de la crisis, en el contexto actual de la internacionalización de la propiedad de los bancos mexicanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352/408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este libro hace varias contribuciones importantes a la bibliografía de la medición de la pobreza y la política pública. Primero, es una relación de un capítulo fundamental de la historia política y económica de México --el proceso de adopción e implantación de la metodología oficial de la pobreza en México--, que aporta pruebas documentales de un enfoque progresista y práctico para la elaboración de políticas. Segundo, es una rica fuente de información respecto a los problemas conceptuales de la medición de la pobreza y los obstáculos prácticos para la aplicación de una metodología en el México del siglo XXI. Tercero, proporciona un marco o una guía para otros países que deseen seguir la vía de México hacia una transparencia mayor en la elaboración de políticas y una mayor responsabilidad gubernamental. Por último, el volumen mismo es una manifestación de este espíritu de transparencia, y su existencia misma hace una contribución importante hacia esta meta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355/1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:España es un país altamente descentralizado. Recientemente, el debate sobre la descentralización se ha visto reforzado por la reclamación de independencia liderada por las autoridades del gobierno de Cataluña. Además, las declaraciones de algunos políticos a favor y en contra de avanzar en el proceso de descentralización han contribuido a la polémica del debate. La asignación de infraestructura pública no es ajena a este discurso.Metodología:se especifica una ecuación no lineal que permite controlar por los criterios tradicionales para la asignación de infraestructura pública: el desarrollo regional, las necesidades especiales de infraestructura, la eficiencia o la productividad delstockde capital público y efectos políticos.Resultados:la autonomía financiera y las competencias traspasadas afectan positivamente la acumulación de infraestructura pública regional. No obstante, sus contribuciones marginales son decrecientes.Conclusiones:la evidencia empírica podría sugerir umbrales en el proceso de descentralización. Por un lado, los resultados relacionados con la autonomía financiera son mucho más fuertes para las comunidades autónomas consideradas como las más rezagadas en el proceso de descentralización fiscal. Por otro lado, el resto de las comunidades presentan resultados más fuertes respecto de la descentralización administrativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357/403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante los dos pasados decenios México ha modificado su estructura fiscal intergubernamental, de un sistema muy centralizado a un panorama distorsionado en el que los gobiernos estatales han obtenido considerables funciones de gasto y la mayor parte de las responsabilidades impositivas ha permanecido en el gobierno federal. Se afirma que, a fin de pasar a un sistema fiscal más responsable, se requiere cierta descentralización de la tributación. En este contexto, construyendo un sistema fiscal representativo (SFR), este ensayo evalúa el esfuerzo fiscal y la potencialidad fiscal en México. El resultado es un insumo útil para la decisión política, no sólo para los futuros intentos de descentralización fiscal sino también para la elaboración de un nuevo programa de transferencias. Se obtiene también el primer SFR construido para el caso mexicano, en el que se demuestra que los datos regionales en México están mejorando gradualmente. Además, aunque los resultados arrojan alguna luz sobre los impuestos que potencialmente podrían descentralizarse, el artículo previene que las disparidades regionales podrían constituir una limitación para la extensión de tal descentralización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359/486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La evaluación tradicional de proyectos por lo general evita el importante proceso de análisis del riesgo porque se basa en el supuesto de mercados completos. En un mercado completo se pueden encontrar activos gemelos o elaborar una cartera de inversiones dinámica para replicar el riesgo del proyecto en todo estado de la naturaleza y momento futuro. Además, dado que se supone que los inversionistas están bien diversificados, lo que importa es el valor del proyecto como si éste se negociara en el mercado de capitales. Desafortunadamente, el supuesto de mercados completo se satisface con dificultad en la realidad, sobre todo en los mercados emergentes llenos de títulos ilíquidos y donde los mecanismos financieros, como las ventas en corto o las compras en el margen, están prohibidos o son inexistentes en la práctica. En este trabajo se suponen mercados incompletos y se sugiere un procedimiento de análisis del riego que puede aplicarse toda vez que no sea posible replicar el riesgo del proyecto a partir de títulos comerciados en el mercado bursátil, específicamente en dos situaciones: cuando los inversionistas mantienen una cartera de inversiones diversificada y cuando los inversionistas son empresarios no diversificados. El primer caso es importante porque durante el pasado decenio se ha observado un aumento en la inversión extranjera directa hacia los países emergentes, de modo que algunos empresarios globales bien diversificados han colocado su dinero en estos mercados. El segundo caso es de particular importancia para los mercados emergentes, donde una porción grande del total de empresas está integrada por negocios familiares o que son propiedad de un solo empresario no diversificado. En ambos casos se puede emplear una regla de inversión clara, como el valor presente neto, pero no existe un valor de mercado único para el proyecto. En el caso de los inversionistas globales bien diversificados se puede encontrar el proyecto dentro de un rango de posibles valores; mientras que para los empresarios no diversificados lo que importa es el valor del proyecto dado en el riesgo total del mismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36/298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El automóvil como bien de consumo duradero se difunde en la América Latina en el primer tercio del siglo XX. El comercio exterior determina su consumo en la región, a excepción de algunos países que en el decenio de los veinte consiguen instrumentar plantas de ensamblaje de automóviles con piezas importadas, lo que ocurre solamente allí donde coincide una cierta dimensión del mercado con una renta alta (Argentina, Brasil, México y Uruguay). Otros factores explicativos, aunque en un claro segundo plano, son la extensión de medidas proteccionistas y una mayor desigualdad en la distribución de la renta. Al respecto proponemos que hubo un efecto negativo en el consumo final cuando el consumo se sesgó hacia los automóviles de gama más cara; en tanto que en los países donde el consumo por habitante es alto se consumen cantidades proporcionalmente altas de vehículos de la gama de precios bajos. Las importaciones de automóviles muestran buena parte del consumo de automóviles y nos permiten calcular los vehículos en circulación, además de indicar cuales fueron los países en los que se desarrollaron experiencias propias en la producción de autos. El papel que en ellas desempeña los Estados Unidos es casi absoluto a partir de 1920, después de la primera Guerra Mundial, aunque anteriormente tiene que compartir buena parte del, aún reducido mercado, con varios países europeos (Francia, Italia, Alemania y Gran Bretaña).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360/546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo evalúa el efecto del Programa de Reforzamiento Escolar que Un Techo Para Chile aplica en campamentos de la región metropolitana. Los datos utilizados son extraídos de una encuesta especialmente elaborada por los autores para el desarrollo de este estudio. Se estima el efecto del programa en alumnos de bajos ingresos que asisten a la escuela primaria. Dichos efectos corresponden a un aumento en las calificaciones de matemáticas y castellano en el periodo académico 2004-2003. El efecto del programa es estimado mediante técnicas paramétricas. Posteriormente, la solidez de los resultados se examina por medio de estimaciones no paramétricas con distintos grupos de control. Los principales resultados sugieren que existe suficiente prueba estadística para determinar que el programa tiene un efecto positivo en las calificaciones de los alumnos. Este efecto se encuentra en un intervalo de 1.8 y 5.3 décimas para matemáticas; para castellano, en un rango que fluctúa entre 2.2 a 9.7 décimas. Además, el estudio muestra que las calificaciones que obtuvieron los alumnos en 2003 no determinaron su participación en el programa durante 2004.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361/547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo analiza los determinantes de la estructura de capital para una muestra de 113 empresas registradas en la Bolsa de Comercio de Santiago de Chile. El período de estudio comprende de 1990 a 1998. A diferencia de trabajos anteriores para el caso de Chile, se utiliza Lisrel (Linear Structural Relations) para analizar los determinantes y se encuentran diferencias importantes al momento de comparar los resultados obtenidos por mínimos cuadrados ordinarios (MCO). En el primer caso sólo la rentabilidad y la tangibilidad de los activos surgen como variables significativas, esto es, cuanto mayor rentabilidad de la empresa menor endeudamiento y cuanto mayor proporción de activos colaterales (tangibilidad) mayor endeudamiento. Finalmente, al usar MCO se encuentra fuerte apoyo a los siguientes determinantes: tangibilidad, rentabilidad, regulación y calidad y un apoyo menos significativo al crecimiento, tamaño y clasificación industrial. Por lo tanto los errores de medición pueden ser importantes al estimar modelos, es decir los indicadores pueden no capturar bien o completamente el constructor de interés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362/555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El modelo de Brander y Spencer (1985), con algunas extensiones como la diferenciación de productos, se aplica empíricamente a las importaciones de los Estados Unidos de textiles y confecciones desde Colombia y México. Se calcula los precios y las cantidades de equilibrio, como la política comercial óptima, a partir de los resultados del modelo teórico y de las estimaciones de las elasticidades precio de estos productos en el mercado de los Estados Unidos. Por último, se mide las pérdidas potenciales en bienestar que tuvieron Colombia y México como consecuencia de exportar esos bienes con precios y cantidades no óptimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363/556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo se examina los efectos de la política monetaria de Estados Unidos, mirada a través de la tasa de interés, en el desempleo y la tasa de inflación en una economía con características particulares: el caso de Puerto Rico. Se analiza un modelo teórico que fundamenta la construcción de un sistema de vectores autorregresivos con las tres variables mencionadas. Los resultados de la estimación revelan que las acciones de política monetaria de Estados Unidos anteceden y afectan significativamente los movimientos de las dos variables económicas de la isla consideradas. Cualquier implantación de política monetaria estadounidense, por medio de la tasa de interés, se trasmite a corto plazo a los precios y a largo plazo al sector real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">364/558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta nota se argumenta que en México y más generalmente en la América Latina, algunos sectores de la sociedad todavía consideran, sin una evaluación previa y sin cuidar la efectividad de los recursos, que a mayor gasto público corresponde un mayor bienestar y un crecimiento más alto. En realidad, la experiencia muestra que el gasto público sólo puede promover y detonar temporalmente el crecimiento de algunas actividades productivas, pero no ser su motor permanente. Esta misma experiencia demuestra que sólo encauzando el gasto público a regiones y grupos sociales adecuadamente seleccionados se obtienen mayores frutos en crecimiento y bienestar social. Varias lecciones pueden aprenderse en materia de gasto público con base en lo ocurrido en el pasado reciente. La primera de ellas, y quizá la más importante, es el valor de la disciplina fiscal. Una disciplina fiscal de primera generación significa que el gasto público debe de corresponder a los ingresos esperados, mientras que una disciplina fiscal de segunda y tercera generación implica, además de lo alcanzado en la primera, respetar la asignación funcional y programática del gasto derivada de una planeación cuidadosa que redunde en altas tasas de rentabilidad social. En consecuencia, para corregir el déficit es imperativo emprender una reforma presupuestaria integral. Dicha reforma debe estar orientada, entre otros aspectos, a revertir el uso de los ingresos petroleros, que no son recurrentes, a la financiación de la operación de los servicios públicos básicos y a reorientar la asignación de los recursos a la acumulación de capital público de alta productividad y rentabilidad social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365/559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace algunos lustros Albert O. Hirschman —entre otros— escribía el obituario de la economía del desarrollo, habida cuenta de:i ) la crisis del keynesianismo yii ) la dificultad epistemológica de demostrar que el análisis del subdesarrollo ameritaba una teoría específica, distinta de la empleada en el escrutinio de las economías desarrolladas y, finalmente, la “ausencia” de nuevas ideas en la disciplina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366/561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo resume las consecuencias que tiene para la política económica el debate creciente acerca de las relaciones entre la tributación y la calidad de la gobernación en los países en desarrollo. La tributación –o su ausencia – afecta la calidad de la gobernación por dos canales principales. El primero es el grado de la dependencia de los gobiernos de la tributación general para obtener sus recursos financieros. Muchos gobiernos no necesitan hacer un gran esfuerzo fiscal porque disponen de grandes ingresos no fiscales provenientes de las exportaciones de petróleo, gas y minerales, o de la ayuda externa. Las élites estatales son entonces financieramente independientes de los contribuyentes ciudadanos. Esto cambia los incentivos políticos y los modos en que intentan obtener,usar y retener el poder. Las consecuencias de largo plazo para la gobernación son malignas: las élites estatales son menos sensibles y responsables ante los ciudadanos y, dependiendo de las fuentes de recaudación no tributarias, podrían tener incentivos menores para fortalecer las capacidades políticas y organizacionales del Estado. Los Estados tenderán a ser arbitrarios y débiles al mismo tiempo. En igualdad de todo lo demás, la dependencia de los gobiernos de la tributación general tiene efectos positivos en la calidad de la gobernación. Pero esa relación no es automática, es importante también la manera como los gobiernos graven. No podemos suponer que, porque dependen totalmente de la tributación para obtener sus recaudaciones, los gobiernos serán capaces, controlables o responsables. Podrían recaudar impuestos coercitivamente, dañar así las relaciones entre el Estado y la sociedad y reforzar la mala gobernación. Las autoridades públicas de los países pobres contemporáneos tienen ciertos incentivos para gravar coercitivamente. El establecimiento de prácticas de tributación más consensuales es una vía importante para mejorar la gobernación. Los donantes de ayuda podrían desempeñar un papel más constructivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">367/562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construimos un modelo de opciones reales condicionales (MORC) para la evaluación de proyectos cuando sus flujos esperados son probabilísticos y contingentes al estado promedio de una variable exógena. Aplicamos el modelo al caso de proyectos de inversión en infraestructura petrolera tomando la base -la diferencia entre el precio del contrato a futuro respecto a un bien subyacente y el precio para entrega inmediata (o precio spot) del bien- como variable de estado. Nuestro resultado fundamental es que el MORC resulta un criterio de inversión más confiable cuando se valúan proyectos de inversión con flujos condicionales y estocásticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368/563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo encuentra que el acervo de inversión extranjera directa (IED) afecta negativamente el crecimiento. El resultado se fundamenta en un modelo que incorpora el efecto contractivo de la repatriación del excedente de las empresas extranjeras que a mediano plazo contribuye a desalentar la inversión y el crecimiento. El modelo capta tanto el hincapié keynesiano en el estímulo de la demanda, como el de la tradición neoclásica en la aportación financiera inicial de la IED. La hipótesis se comprobó empíricamente para la economía argentina examinando la relación de causalidad en el sentido de Granger entre el crecimiento y una variable sencilla, la proporción de la economía controlada por empresas extranjeras. Esta variable permite percibir los cambios estructurales inducidos por la IED, que trascienden el impulso financiero inicial. Se sugiere que la dificultad que enfrenta la bibliografía del tema para comprobar empíricamente una correlación significativa entre IED y crecimiento, puede deberse a que examina los flujos en lugar de concentrase en el acervo IED. Asimismo, los resultados muestran que la IED desplaza la inversión nacional, sugiriendo que éste puede ser un canal que explique el efecto negativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369/702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasta la aparición de los primeros estudios centrados en la hipótesis de la claridad, la teoría del voto económico asumía implícitamente que el gobierno es responsable de la situación económica del país. A diferencia de los trabajos basados en la hipótesis de la claridad en la responsabilidad, en este artículo suponemos que los electores racionales tienen incertidumbre al momento de responsabilizar al Ejecutivo y son neutrales ante el riesgo. A partir de ahí, definimos una función de utilidad con dos argumentos: la valoración sociotrópica prospectiva y la distancia ideológica entre el votante y las diferentes opciones políticas entre las que puede elegir. De este modo, la decisión de voto económico consta de dos etapas: por una parte, el elector atribuye subjetivamente la responsabilidad al gobierno, y por otra, decide su opción de voto en función de la valoración sociotrópica prospectiva y la distancia ideológica. De los contrastes y estimaciones realizadas en este estudio se extraen tres grandes conclusiones: i) que no se puede seguir asumiendo que la atribución de la responsabilidad es un supuesto implícito al voto económico, ii) existe una probabilidad subjetiva de que el elector responsabilice al Ejecutivo de la situación económica del país, que afecta a su decisión individual y también condiciona el efecto de los factores explicativos del comportamiento electoral, y iii) que la ideología es un argumento de la función de utilidad, que no podemos obviar tal y como tradicionalmente ha hecho la teoría del voto económico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37/299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo descompone la participación en la fuerza laboral, la tasa de desempleo y la composición sectorial del empleo (autoempleo, empleo asalariado en el sector informal y empleo asalariado en el sector formal) en efectos de edad, cohorte y tiempo. La participación en la fuerza laboral y el empleo formal siguen un perfil de U invertida a lo largo del ciclo de vida. Los trabajadores más jóvenes son más proclives a participar en el sector informal asalariado, mientras que el autoempleo crece monotónicamente con la edad. Sin embargo, también se observa una partici¬pación significativa de personas poco calificadas de edad avanzada y mujeres en el sector del trabajo informal asalariado. Se observan importantes fluctuaciones con¬tracíclicas del empleo asalariado informal, mientras que ocurre lo opuesto con el empleo formal. Las fluctuaciones del autoempleo son contracíclicas con un rezago. Encontramos un efecto de “trabajador añadido” entre las mujeres poco calificadas sólo durante receciones severas. Los efectos generacionales de largo plazo muestran un incremento paulatino en la participación laboral en el sector informal asalariado, con un correspondiente declive en el sector formal entre las generaciones más jóve¬nes. Se analiza algunas explicaciones preliminares de este fenómeno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370/569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este estudio analiza la capacidad de las redes neuronales para predecir la dirección de las economías de los Estados Unidos y México, con los índices rezagados de los mercados de capitales de cada país como insumos y el índice compuesto de indicadores adelantados de cada país (LEI, aquí tratado como índice coincidente) como salida resultante. La capacidad predictiva estable y significativa de las redes neuronales utilizadas fue establecida y su superioridad predictiva respecto a la de una regresión múltiple comparable fue medida con el método estadístico de medición de la precisión predictiva elaborado por Anatolyev y Gerko.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371/570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo estudia los niveles mexicanos de pobreza por estado, durante el periodo 1992-2002, con el fin de evaluar el efecto que el ciclo económico y las políticas gubernamentales han tenido en ella. Encontramos que el ciclo economico y la pobreza urbana están inversamente relacionados y que las transferencias institucionales disminuyen la pobreza tanto en las áreas urbanas como en las rurales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372/571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo se pretende establecer si las elecciones en México han tenido algún efecto sobre la tasa de crecimiento del PIB, el desempleo, la inflación y el gasto público. Los resultados de un ejercicio econométrico indican que las elecciones no tienen efecto alguno en estas variables, exceptuando en el gasto público. El gasto público crece de manera extraordinaria justo antes de las elecciones presidenciales sin alterar el ciclo económico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374/572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los programas sociales pueden disminuir la productividad y el crecimiento económico al generar inadvertidamente incentivos perversos para los trabajadores y las empresas. La hipótesis central es que estos programas segmentan el mercado de trabajo, gravan al empleo formal asalariado y no asalariado. El autoempleo y el empleo de empresas informales que son mayores del óptimo disminuyen la productividad agregada del trabajo. A su vez, las diferencias en el costo del trabajo producen diferencias en los rendimientos del capital entre empresas: algunas de las empresas formales contratan legalmente trabajadores asalariados y algunas de las empresas informales contratan ilegalmente trabajadores asalariados. Dado el costo del crédito, los mayores costos del trabajo para las empresas formales distorsionan la asignación de la inversión en favor del sector informal; esta inversión se distribuye entre muchas empresas pequeñas que podrían desaprovechar las ventajas del tamaño como resultado de sus estrategias para evadir las contribuciones a la seguridad social. Esto disminuye la productividad media del capital, provocando pérdidas de la productividad dinámica. El argumento analítico se vincula, por una parte, a los datos empíricos indicativos de que las diferencias de la productividad del trabajo y del capital, entre sectores y empresas, contribuyen a explicar las diferencias observadas entre los países respecto al crecimiento de la productividad y por otra parte, a datos que sugieren una asociación negativa entre la productividad y la informalidad. Una hipótesis subsidiaria es que los programas sociales se financian en parte por la disminución de la inversión pública, en lugar de aumentar los impuestos, lo que limita la expansión de la infraestructura pública promotora del crecimiento económico. El ensayo sugiere que los programas sociales que disminuyen la productividad total de los factores, lo que se suma a los efectos de la menor inversión pública, explica en parte el crecimiento económico mediocre y el desempeño de la productividad en México en el contexto de la intensificada competencia internacional y la erosión de las ventajas del Tratado de Libre Comercio de América del Norte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375/573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El desarrollo humano, entendido como un sinergismo a largo plazo entre los avances tecnológicos, fisiológicos y culturales, es un factor decisivo y de largo alcance en el crecimiento económico. Sin embargo, su proceso se caracteriza por trampas intergeneracionales que retardan el crecimiento económico y que deben tomarse en cuenta en el análisis de los efectos de las reformas pro-mercado en los pobres. Verificamos empíricamente la presencia de estas trampas intergeneracionales en el caso de México, al mostrar la existencia de los siguientes elementos constitutivos. La educación presenta rendimientos crecientes que no son aprovechados por la mayoría de la población (estimadores mincerianos que incluyen estatura y escolaridad). La nutrición y la salud infantiles están fuertemente asociadas a la probabilidad de continuar en las etapas escolares sucesivas (estimadores probit para la continuación escolar tres años más, una vez controlada la educación, el ingreso y la situación económica de los padres). La población se clasifica en dos niveles sociales: con secundaria completa o menos, y con 15 o más años de escolaridad. Los avances en la escolaridad del grupo más bajo responden principalmente a la educación pública. Se analizan las fallas de mercado que podrían causar la trampa intergeneracional de acumulación de capital humano. Aun cuando las reformas pro-mercado recientes en México aumentaron los rendimientos de la educación, la presencia de la trampa impidió la inversión necesaria en capital humano, y los beneficios de la reforma fueron menores que lo esperado. Para promover el crecimiento económico a largo plazo de una manera efectiva, las reformas pro-mercado deben complementarse con políticas que apoyen la nutrición, la salud y el desarrollo infantil, así como también la educación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377/574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente trabajo analiza las notas estructuradas más comunes en el mercado. Se presenta una descripción detallada de dichos instrumentos financieros destacando sus características particulares y dificultades técnicas en el proceso de evaluación. Debido a que la mayoría de las notas estructuradas que se negocian en el mercado financiero mexicano son certificados de depósito con garantía del capital inicial, este trabajo proporciona los elementos básicos que se requieren para su evaluación, como son los bonos cuponados flotantes y los productos de las tasas de interés. Asimismo, para la mayoría de las notas estructuradas estudiadas aquí se desarrollan modelos teóricos de evaluación. Por último, con fines ilustrativos, varios ejemplos numéricos acerca de las notas son presentados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378/575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo realiza una evaluación del desempeño de un amplio grupo de fondos de inversión españoles, tanto en términos globales como mediante una descomposición del mismo en sus dos componentes; capacidades de sincronización con el mercado y selección de valores. Ambos análisis se efectúan a partir de medidas tradicionales y de medidas que consideran la variación en el tiempo de la rentabilidad y riesgo mediante la incorporación de variables macroeconómicas representativas del ciclo económico en España. La incorporación de estas variables supone una mejora del desempeño global y un empeoramiento de la capacidad de selección de valores del gestor. En cuanto a la capacidad de sincronización con el mercado no es posible extraer conclusiones. Sin embargo, observamos una mejora del poder explicativo de los modelos como consecuencia de tal incorporación, lo que nos permite abogar por los modelos condicionales. Además, este trabajo corrige los problemas de multicolinealidad entre dichas variables mediante un análisis factorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379/576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La pregunta que se responde en este trabajo es: ¿cómo se afecta el bienestar social de los habitantes de la cuenca Lerma-Chapala, si se reduce la oferta de agua para el sector agrícola y se incrementa el nivel del lago de Chapala? Por hipótesis, el volumen total de agua que se les retira a los agricultores aguas arriba (estado de Guanajuato) escurre hacia el lago de Chapala. Sin embargo, el aumento en el nivel del lago de Chapala no es concluyente en cuanto al efecto sobre el bienestar social de los habitantes de la cuenca, ya que éste dependerá a su vez de la comparación o del equilibrio que se establezca entre dos efectos que operan en sentido contrario: i) el positivo ocasionado por el incremento de la valoración por el lago como un bien medioambiental, por parte de todos los habitantes de la cuenca, y ii) el negativo en el bienestar de los consumidores del estado de Guanajuato, que se produce cuando aumenta el precio del bien agrícola, como consecuencia de la reducción de la oferta de agua a los agricultores y del incremento derivado en el valor del agua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38/300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo tiene el objetivo de identificar los principales factores que conducen a la deserción escolar en un entorno urbano, en concreto las favelas de Fortaleza, al noreste de Brasil. Utilizamos una extensa encuesta centrada en los factores de riesgo a los que se enfrenta la población de estos barrios y dirigida a jóvenes de ambos sexos, tanto escolarizados como no escolarizados. El papel de la paternidad temprana, el trabajo infantil y la pobreza como impulsores de la deserción escolar de los adolescentes es objeto de una particular atención. La endogeneidad potencial de algunos de los factores determinantes se trata en el análisis empírico. Aprovechamos el rico conjunto de variables disponible y aplicamos un método basado en variables instrumentales. Para la paternidad temprana se usa como instrumento la edad declarada por los jóvenes como la edad ideal para empezar a tener relaciones sexuales; para el trabajo se usa como instrumento el salario de reserva declarado (el salario mínimo considerado aceptable para trabajar). Los resultados indican que la paternidad temprana tiene un efecto grande en términos de la no escolarización de los adolescentes. La pobreza extrema es otro factor que disminuye la asistencia a la escuela, ya que los niños que en algún momento de su vida padecen hambre tienen menores probabilidades de asistir al colegio. En este contexto urbano en particular el trabajo no tiene forzosamente un efecto perjudicial en la asistencia al colegio, lo que podría asociarse al hecho de que el abandono escolar lleva con mayor frecuencia a la inactividad y no al trabajo, dada la escasez de oportunidades de empleo; además, las restricciones de liquidez podrían atenuarse para aquellos cuyos ingresos laborales permiten sufragar los gastos escolares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381/578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se presenta una descripción de los factores que deben tomarse en cuenta en el establecimiento de un régimen fiscal para la actividad petrolera y que asegure una apropiada explotación de los recursos naturales. Se describe el régimen fiscal que aplicaba a Petróleos Mexicanos (Pemex) hasta el 2005 así como la problemática que generaba en la situación financiera de Pemex y en la toma de decisiones eficientes de inversión. Se describe el nuevo régimen fiscal y sus beneficios enfocándose en el efecto que provoca en la cartera de inversión de la empresa, permitiendo que un gran número de proyectos que con el régimen fiscal anterior tenían resultados financieros negativos después de impuestos, con el nuevo régimen fiscal sean rentables económicamente. Por último, se presenta un análisis comparativo que se realizó en distintos países del mundo, con el objeto de evaluar la competitividad del nuevo régimen fiscal, tanto para proyectos de crudo como de gas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382/579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo muestra un hecho estilizado robusto en la relación entre dinero e inflación en Chile: la inflación causa (o precede) al crecimiento del dinero y no viceversa. Este hallazgo es robusto a la consideración del tipo de política monetaria, período muestral, agregado monetario, consideración de segundos momentos condicionales o la inclusión de metas de inflación. A su vez, se presenta una motivación teórica de porqué la evolución de los agregados monetarios no necesariamente está asociada a la inflación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383/580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analizan la relación entre salud, crecimiento económico y pobreza, los niveles, desigualdad y evolución de los indicadores de salud así como la equidad y eficiencia de la acción pública en materia de salud en México. Este país tiene niveles promedio de salud inferiores a los esperados para su desarrollo y, aunque en general han mejorado en el tiempo, lo han hecho a un ritmo menor al adecuado. Existen también grandes contrastes entre zonas geográficas, grupos étnicos y niveles socioeconómicos. La desigualdad en los indicadores es reflejo de la desigualdad en la acción pública, ya que el gasto público en salud no es progresivo y ha mantenido a cerca del 50% de la población fuera de los sistemas de seguridad pública. Asimismo, se concluye que para alcanzar la eficiencia adecuada, el sistema de seguridad social debería establecer un fondo único nacional para financiar intervenciones médicas específicas y esquemas complementarios para servicios médicos adicionales; permitir a múltiples instituciones, tanto públicas como privadas, proporcionar los servicios de salud cubiertos por dicho fondo único para incrementar el acceso y competencia; así como garantizar la portabilidad de derechos, para el caso, por ejemplo, en que el asegurado se traslade a otra zona geográfica o cambie de situación laboral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384/581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentamos un modelo en el que los padres deciden el uso óptimo del tiempo de los niños entre ir a la escuela o trabajar, dado que existen programas financiados por el gobierno para aumentar la escolaridad. Aun si el presupuesto del gobierno es restringido y no se puede distinguir el nivel de pobreza de cada familia, se puede beneficiar a los pobres. Sin embargo, si el programa no es lo suficientemente generoso y se impone condiciones para recibir el beneficio, los más pobres podrían decidir no participar en él.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385/582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se analiza los desafíos de instrumentar el principio de neutralidad tecnológica en la regulación de industrias convergentes. Los resultados indican que cuando las industrias que convergen están sujetas a severas asimetrías regulatorias, se gesta un mecanismo de transmisión regulatoria. En particular, encontramos que la industria desregulada sufre efectos negativos que emanan de la regulación instrumentada en la industria adyacente. Este mecanismo de transmisión genera incentivos para que la industria desregulada replique la regulación vigente en la industria regulada. Desde una perspectiva intersectorial, las consecuencias para el bienestar de esta replicación son ambiguas toda vez que éstas dependen del grado de diferenciación vertical entre industrias, la magnitud de la intervención regulatoria y también del momento preciso cuando esta replicación ocurre. Concluimos arguyendo que la instrumentación de una trayectoria óptima de bienestar intersectorial requiere de cierto grado de flexibilidad regulatoria pero también de la disposición de un mecanismo de coacción intersectorial que permita la instrumentación de políticas óptimas cuando éstas sean necesarias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386/583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecemos un modelo teórico en que la inversión en infraestructura complementa la inversión privada. Luego aportamos datos de series de tiempo en México del efecto de la infraestructura pública en la producción, y si estos niveles han sido fijados de manera óptima. En particular, estudiamos los efectos de largo plazo de choques en infraestructura en la producción real. Calculamos derivadas de largo plazo para los kilovatios de electricidad, los kilómetros de caminos y el número de líneas telefónicas instaladas. Encontramos que los choques en la infraestructura tienen efectos positivos y significativos en la producción para electricidad y caminos. Nuestros resultados respaldan los modelos en los que el crecimiento de largo plazo es causado por factores de producción endógenos. Para la electricidad y los caminos, la provisión de infraestructura no alcanza el nivel óptimo que maximiza el crecimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387/585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza la relación entre el pago de dividendos, el riesgo empresarial, el endeudamiento y la propiedad de los consejeros. Los resultados muestran, en primer lugar, que el pago de dividendos reduce el riesgo y el endeudamiento y aumenta la propiedad de los consejeros. En segundo lugar, se obtiene que dicho riesgo repercute de manera negativa en el endeudamiento y en el pago de dividendos y positiva en la propiedad de los consejeros. En tercer lugar, se halla que las empresas más endeudadas reparten una cuantía inferior de dividendos, tienen un riesgo menor y presentan mayor propiedad por parte de los consejeros. Por último, se observa que la citada propiedad incrementa el riesgo, el endeudamiento y el pago de dividendos de la sociedad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">388/586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de años de funcionamiento efectivo, los regímenes intermedios se convirtieron, a medida que avanzaba el proceso de integración financiera, en sistemas proclives a sufrir ataques especulativos. La evidencia empírica recogida en este trabajo muestra que los sistemas de tipo de cambio fijo menos estrictos (soft pegs) fueron el epicentro de la mayoría de las crisis cambiarias del decenio de los noventa en Europa, la América Latina y el Este de Asia. En consecuencia los “regímenes intermedios” y, especialmente los soft pegs, han perdido crédito en beneficio de los sistemas más extremos del espectro cambiario. Este trabajo aporta nuevas pruebas de la tendencia a la bipolarización de los regímenes cambiarios y estudia la evolución de los sistemas de tipo de cambio entre 1990 y 2004, tanto en las economías avanzadas como en las economías emergentes más integradas a los mercados de capitales internacionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389/587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ambiente competitivo alentado por los procesos de globalización económica ha hecho que la innovación y el desarrollo se erijan como la principal estrategia competitiva, por lo que la educación juega un papel trascendental. Por otra parte, las políticas económicas impulsadas por los gobiernos han sido insuficientes para promover crecimiento con equidad, a lo que abona en gran medida el hecho de que grandes segmentos de micro y pequeñas empresas enfrenten dificultades para aumentar la productividad y ser competitivas. Ello torna prioritaria la creación de mecanismos de transferencia de conocimientos que logren superar las restricciones tecnológicas de estos segmentos, proceso en el que las instituciones de educación superior pueden tener un papel muy importante. Este artículo presenta un programa de apoyo universitario basado en el servicio social que favorece la transferencia de conocimientos empresariales hacia sectores vulnerables como las microempresas marginadas, y fomenta en ellas la productividad e innovación para convertirlas en unidades económicas más competitivas. Los resultados muestran que estas empresas son capaces de mejorar sus indicadores económicos mediante el apoyo técnico universitario y que las universidades pueden contribuir a una política industrial que promueva el desarrollo microempresarial y atenúe el rezago social que existe en el país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39/302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta investigación se estima los rendimientos marginales de la educación superior (ES) en México y se evalúa su efecto en los salarios de los individuos que concluyeron una carrera profesional o un posgrado. La estimación de los rendimientos se realiza mediante el procedimiento sugerido por Heckman et al (2000 y 2001). La información utilizada para la estimación emplea una muestra de la Encuesta Nacional de Ingresos y Gastos de los Hogares (ENIGH) 2006 que incluye sólo individuos que aún viven con sus padres. El procedimiento de estimación propuesto corrige los problemas asociados con la heterogeneidad y la autoselección de los individuos. El principal resultado de esta investigación, apoyado por la evidencia empírica, es que los rendimientos marginales de la ES y el efecto en los ingresos son ambos positivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390/588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La América Latina ha estado dominada por expansiones del crecimiento que con gran frecuencia han terminado en crisis y prolongados periodos de estancamiento. Esto ha conducido a un crecimiento escaso durante la mayor parte del siglo pasado. Este artículo reseña las experiencias del crecimiento latinoamericano y examina algunos ámbitos particulares que ayudan a explicar por qué el crecimiento sostenido ha sido tan elusivo en la región. En particular, se analiza el papel de la apertura y del comercio intrarregional, el papel de las instituciones, la estabilidad macroeconómica y la desigualdad, todos factores decisivos para la reanudación y el mantenimiento del crecimiento económico. Se examinan también problemas más generales relacionados con el crecimiento, como la importancia de la protección de los derechos de propiedad y la existencia de una estructura adecuada de las remuneraciones del esfuerzo, lo que incluye la igualdad de oportunidades. Por último, se presenta una panorámica breve de los acontecimientos macroeconómicos actuales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391/589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo establece un modelo de competencia à la Cournot para determinar los precios, cantidades y poder de mercado de los principales intermediarios del mercado secundario de obras pictóricas en México. La hipótesis base es que esas tres variables dependen críticamente de la diferenciación de productos, costos y variaciones conjeturales que los intermediarios mantienen entre sí. Los resultados de las simulaciones revelan que el modelo propuesto funciona muy bien para explicar el comportamiento de los intermediarios ya que, al introducir el parámetro de diferenciación de productos, se pueden distinguir dos nichos en el mercado secundario: el de piezas únicas o altamente diferenciadas vendidas en las casas de subasta y el de obras comunes o de menor diferenciación canalizadas mediante los dealers y las galerías. Esta identificación permea todos las conclusiones de la investigación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392/590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocurre la inflación dual cuando los aumentos de precios de los bienes no comerciables son mayores que los bienes comerciables. En este artículo elaboramos un modelo sencillo en el que el gasto público tiene una externalidad positiva en la producción de ambos sectores. Los resultados principales sugeridos por el artículo son los siguientes: i) un aumento del gasto público no productivo no genera una inflación dual, lo que confirma el resultado de Balassa-Samuelson; ii) un aumento del gasto público productivo incrementa la productividad de ambos sectores y esto puede conducir a la inflación dual, la deflación dual o ningún efecto en los precios, y iii) la inflación dual ocurre sólo cuando el gasto público productivo tiene un efecto en la tecnología del sector comerciable mayor que la del no comerciable, como lo ilustran los datos españoles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">393/592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudian las funciones de largo plazo y la dinámica del comercio exterior de México con datos agregados y desagregados. Las exportaciones totales dependen del índice de la producción industrial de los Estado Unidos y del tipo de cambio real. El nivel de las importaciones totales es función del índice de producción industrial en México, del nivel de las exportaciones totales y del tipo de cambio real. Un resultado importante es que casi todas la funciones, tanto de largo como de corto plazos, son estables para el periodo 1990-2000, mientras que ninguna lo es para toda la muestra. Esto sugiere que la apertura comercial de los años ochenta provocó un cambio estructural muy pronunciado en el comercio exterior mexicano y que el TLCAN es la continuación natural de dicho proceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394/593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este documento se identifica los orígenes y tipos de rigideces de precios que se presentan en la industria manufacturera mexicana. Así, con esa finalidad, durante el segundo semestre de 2005 se levantó una encuesta en la que participaron 398 empresas de dicho sector. Destacan del análisis correspondiente los siguientes resultados. Primero, las empresas mantienen en promedio sus precios sin cambio durante un periodo cercano a seis meses. Segundo, la mayor parte de ellas revisa sus precios en un lapso predeterminado; sin embargo, ante el impacto de perturbaciones significativas, más de la mitad de las compañías encuestadas suele modificar esta estrategia al efectuar revisiones contingentes al comportamiento de las variables que afectan su estado de resultados. Tercero, la inflexibilidad de los precios se asocia en la mayor parte de los casos a los costos de producción y a la existencia de contratos explícitos e implícitos. Cuarto, la reacción de los precios es sensible al tipo y dirección de las perturbaciones que afectan a cada empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">395/797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La consideración de la prima de riesgo de inflación en la ecuación de Fisher y la rápida caída en la inflación en Colombia entre los años 1999 y 2000 nos permiten examinar la hipótesis de linealidad para los diferenciales esperados de inflación entre 6 y 12 meses adelante construidos suponiendo cuatro mecanismos de formación de expectativas de la inflación futura: expectativas racionales, autorregresivas, estáticas y adaptativas. Se emplean dos conjuntos de información para examinar la hipótesis de la existencia del efecto Fisher: el índice de rentabilidad de los títulos de endeudamiento (TES) comerciados en la Bolsa de Valores de Colombia, IRTES, y la curva cupón cero. La hipótesis de linealidad se rechaza con el mecanismo de expectativas racionales. Siempre que se usa la IRTES los resultados son los que predice la teoría en signo y significación. El contenido informativo del spread de tasas de interés es sensible al conjunto de información utilizado y al mecanismo de expectativas empleado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">396/595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayor parte de los beneficios de los proyectos de infraestructura de transporte -tanto sobre ruedas como aéreo- se materializan en ahorros de tiempo para los usuarios. En muchos casos, más de la mitad de los beneficios sociales de inversiones en carreteras, vialidades urbanas o aeropuertos son atribuibles a los ahorros de tiempo de viaje. Este documento presenta estimaciones del valor social del tiempo para México. Utilizando los únicos datos disponibles del INEGI de horas trabajadas y remuneraciones pagadas en el sector manufacturero, se estima que el valor social del tiempo para 2006 es de 60.65 pesos por hora para los usuarios en general del Aeropuerto Internacional de la Ciudad de México y de 110.54 pesos por hora para sus pasajeros. Esta estimación no es incongruente con evaluaciones que descansan sobre diferentes métodos propuestos por dos autoridades en este campo. Este rango de estimaciones también no es incongruente con cálculos hechos por el ILPES para Perú y por diversos autores para la América del Norte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397/798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2004 se promulgó en México la Ley para la Transparencia y Ordenamiento de los Servicios Financieros (LTOSF). En este documento se describen las disposiciones más importantes de dicha ley y algunas de las principales medidas que el Banco de México ha instrumentado, así como las pautas de uso de medios de pago distintos al efectivo antes y después de 2004. Los datos muestran una tendencia más pronunciada hacia el uso de medios de pago electrónicos, aunada a un incremento menos que proporcional de los ingresos reales de los bancos asociados a la provisión de pagos a través de transferencias electrónicas de fondos y tarjetas bancarias. Lo anterior es congruente con el tipo de medidas que se han impulsado con base en la LTOSF. No obstante, se identifican otros elementos por los cuales este fenómeno no es atribuible exclusivamente a estas modificaciones en el marco legal. También se describen los cambios principales al marco regulatorio por medio de la aprobación de la nueva LTOSF en junio de 2007.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399/1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:son escasas las investigaciones que examinan los patrones de comercio que exhiben los países alrededor del mundo, y lo son aún más para países en desarrollo. .A donde es factible que las empresas exporten?, ¿por qué las firmas prefieren un destino de venta en lugar de otro?, ¿qué firmas venden más una vez que exportan y cuantas de ellas comercian en los mercados foráneos? Éstas son preguntas que tienen implicaciones de política pública, tanto en el incremento en las ventas externas como en la diversificación de las exportaciones en mercados foráneos.Metodología:mediante un modelo de equilibrio parcial de firmas heterogéneas inspirado en Melitz (2003) se derivan distintas hipótesis para dar respuesta a las interrogantes. La evaluación se realiza utilizando un panel construido con información sobre los flujos comercio y datos de producción de una muestra de empresas manufactureras localizadas en México de 2004 a 2010. Cardoso-Vargas, Un análisis con firmas manufactureras localizadas en México 603Resultados:es más probable que los exportadores vendan a grandes mercados, aunque esa posibilidad se ve restringida por los costos de transporte para llegar a esos destinos: firmas con mayor productividad y tamaño tienen mayor probabilidad de exportar a más países. La selección del destino de exportación de la firma se ve influenciada por el tamaño y la productividad de la empresa, así como por la demanda en el país de destino y la experiencia exportadora en un mercado en particular. Un crecimiento de 10% en la productividad aumentaría en 4.2% la posibilidad de las firmas de elegir al mercado latinoamericano en lugar del norteamericano; con esa alza sería posible que incrementara en 2.5 o 2.4% la probabilidad de exportar a Europa o Asia, en lugar de seleccionar América del Norte. Por su parte, un incremento de 10% en la demanda externa global ocasionaría una disminución entre 2.8 y 12.2% en la probabilidad de seleccionar a otros destinos de venta con respecto al mercado norteamericano.Conclusiones:aumentos en la productividad y el tamaño de las firmas exportadoras presupondría un aumento en su nivel de ventas en el exterior. En términos de diversificación de las ventas externas, el sustituir el comercio con el mercado de Norteamérica es complicado; no obstante, los destinos más razonables serian Europa y Asia. La estrategia para ampliar las exportaciones a otros países en empresas pequeñas y medianas debería enfocarse en incrementar tanto su productividad y tamaño como en mejorar su acceso a esas áreas; para empresas más grandes, mejorar el acceso seria no solo una estrategia indispensable, sino la que muy posiblemente podría dar resultados en un menor tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40/303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este modelo la política monetaria se basa en un sistema de metas explícitas de inflación, con la tasa de interés interbancaria como instrumento de política y la cantidad de dinero endógena; mientras que la política fiscal opera con un límite en el déficit fiscal como porcentaje del PIB, y el gasto público es endógeno. En la regla de política monetaria, el parámetro de suavizamiento de la tasa de interés se infiere del comportamiento optimador del banco central. El modelo muestra la dinámica macroeconómica que se produce en dos panoramas extremos, de credibilidad completa en la meta de inflación del banco central, y de credibilidad nula, y se encuentra que i) puede haber convergencia hacia el  equilibrio estacionario, incluso si no se cumple el principio de Taylor, y ii) si hay completa credibilidad en el banco central, una política monetaria contractiva puede producir un reajuste insuficiente (undershooting) de la inflación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400/577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo investiga la relación entre exportaciones y crecimiento económico para los casos de Guatemala y El Salvador, destaca la valoración de efectos de desbordamiento económico entre estos dos países. Se estiman vectores de cointegración para cada país, incluyendo las variables exportaciones, PIB e inversión pública y privada y se estimaron los correspondientes modelos de corrección de errores para cada país, inclusive el término de error de vector de cointegración del otro país como una medida de “exceso de demanda”. Se reestimaron los vectores de cointegración, incluyendo junto a las respectivas variables nacionales usadas anteriormente, la variable exportaciones del país vecino y se infiriere la existencia de un vector de cointegración en cada país. Se estimaron modelos de corrección de errores de cada país y se analiza las relaciones de causalidad de Granger entre las distintas variables. El trabajo concluye que la interdependencia económica entre estos países da lugar a una interdependencia de las políticas sociales nacionales, lo que implica la conveniencia de establecer un marco de coordinación de políticas sociales nacionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402/597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los mercados de trabajo son importantes porque la mayoría de la gente, sobre todo los pobres, obtienen todo su ingreso, o la mayor parte de él, del trabajo que realizan. Este ensayo estudia los mercados de trabajo por medio de los modelos sectoriales. La primera sección sustantiva presenta la esencia de la modelación multisectorial, en particular el papel del dualismo del mercado de trabajo. Dado que los mercados de trabajo se componen a menudo de segmentos muy distintos, un enfoque analítico útil y perspicaz consiste en empezar con sólo dos segmentos interrelacionados, el formal y el informal. En consecuencia, las secciones presentan modelos de salarios y empleo en la economía formal, la economía informal y las relaciones intersectoriales, respectivamente. La última sección sustantiva muestra las contribuciones de estos modelos al entendimiento y el análisis de la política en los mercados de trabajo. No debería esperarse que el mismo modelo se aplique a África Oriental y Asia Oriental, o a Sudáfrica y Corea del Sur. Sin duda, el modelo “correcto” es específico del contexto. La combinación de la observación empírica y la modelación analítica ha generado grandes avances. Las políticas sólidas para el mercado laboral requieren modelos sólidos del mercado de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403/598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estudia el mercado de seguros cuando las compañías aseguradoras (aseguradoras) venden sus pólizas por medio de agencias de seguros (agencias o agentes). Analiza los efectos de las comisiones por ventas pagadas a las agencias en las primas de seguros y en el bienestar del consumidor. Se considera el comportamiento oportunista de las agencias al vender las pólizas emitidas por la aseguradora que le ofrece la comisión mas alta. Se consideran también diferentes estructuras de mercado: un duopolio de aseguradoras que compiten en comisiones (competencia entre aseguradoras), la colusión entre aseguradoras con las agencias manteniendose independientes (colusión horizontal o monopolio de aseguradoras) y la colusión entre aseguradoras y agencias (integración vertical o agentes exclusivos). Mostramos que la competencia entre aseguradoras y la integración vertical generan primas más altas que la colusión horizontal. Además, mostramos que la comisión óptima desde del punto de vista del consumidor pueda ser mayor que la comisión generada por cualquiera de las tres estructuras de mercado antes señaladas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404/599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo nos ocupamos de la relación entre el comercio internacional y la contaminación endógena con un mecanismo en que la política comercial proporciona al gobierno nacional una advertencia creíble que influye en el comportamiento estratégico de las empresas para adoptar tecnologías más limpias. El gobierno tiene un incentivo mayor para proteger una industria limpia que para proteger a una muy contaminante. En este sentido, una economía abierta localmente contaminada con una estructura de mercado imperfectamente competitiva tenderá a disminuir las emisiones de contaminantes en mayor medida que con un régimen autárquico. Un compromiso con el libre comercio sería contraproducente: eliminaría la capacidad del gobierno para amenazar creíblemente a los niveles de protección más bajos. Demostramos que cualquier liberación del comercio podría disminuir el bienestar del país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405/600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestro propósito es estimar a partir de un enfoque multisectorial, los efectos en el ingreso de los hogares rurales y en la pobreza rural que podrían traer consigo cambios en sus actividades productivas. Para ello usamos una matriz de contabilidad social agregada de diez comunidades rurales mexicanas caracterizadas por la pobreza, en la que se encuentra la mayor parte de sus hogares y aplicamos la técnica de descomposición de multiplicadores. Los resultados muestran que, dentro de las cinco actividades productivas de los hogares rurales, la agricultura comercial tiene los efectos multiplicadores más altos en su ingreso y en la disminución de la pobreza. Por su parte, la producción de cultivos básicos (maíz) tiene grandes enlaces de producción y de interdependencia. A partir de estos resultados hacemos sugerencias de medidas que puede contribuir al combate a la pobreza rural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406/601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este trabajo es estudiar el desempeño de corto y largo plazo de los retornos accionarios de las empresas latinoamericanas que realizaron una oferta inicial de acciones (IPO) por medio de American Depositary Receipts (ADR) en la Bolsa de Comercio de Nueva York (NYSE). Los resultados señalan una subvaloración estadísticamente significativa de 9,22% para las ADR-IPOs que componen la cartera, y un rendimiento al finalizar el tercer año de 3,75%, estadísticamente significativo. Ambos comportamientos fueron confirmados por la metodología Block Bootstrap, y obtuvieron -en promedio- 11,33% para la subvaloración inicial y 3,92% para el tercer año posregistro. Estos resultados son esperados y de acuerdo a lo indicado por la bibliografía financiera internacional. Al estudiar estos activos latinoamericanos, comparando su rentabilidad con las carteras de mercado locales, la subvaloración inicial es de –0,51% y de 2,95% al cabo de tres años, ambos resultados no son estadísticamente significativos. Por lo anterior, los inversionistas estadounidenses son los que se ven más beneficiados con este tipo de emisión por sobre los inversionistas locales. Llama la atención que los ADR-IPOs no presenten un rendimiento anormal negativo al cabo de tres años de la emisión, hecho que es contrario a lo indicado por la bibliografía financiera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">407/602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En general, las viviendas que por su ubicación muestran mejores accesos tienen un valor de mercado superior respecto a viviendas de características similares con peores accesos. Esta diferencia se debe a los menores costos de transporte hacia los principales mercados laborales y comerciales de una ciudad. Por esta razón, las inversiones en infraestructura pública de transporte, como por ejemplo la construcción de una nueva línea de metro, se capitalizan total o parcialmente en el precio de los terrenos y de las viviendas. Este trabajo estudia empíricamente el grado de capitalización en el precio de las viviendas que tuvo la construcción de la nueva línea 4 del metro en la ciudad de Santiago. En particular, dado que la nueva línea entra en operación en diciembre de 2005, se estima el grado de capitalización anticipada en el precio de las viviendas ocurrido en el momento del anuncio de la construcción de la nueva línea 4 y en el momento del anuncio de la ingeniería básica que determinó la ubicación de las estaciones. Con una base de datos única, que contiene todas las transacciones de compra y venta de viviendas realizadas en el Gran Santiago entre Diciembre de 2000 y Marzo de 2004. Los resultados muestran que el valor promedio de los departamentos aumentó entre 3.3% y 4.4% en consecuencia del anuncio de construcción y entre 4.5% y 5.7% después del conocimiento de la ubicación de las estaciones. Este aumento no se distribuye en forma uniforme, sino que depende de la distancia a la estación de metro más cercana. Un efecto indirecto de esta capitalización es que la recaudación del impuesto a las propiedades aumentaría si se reavalúan las propiedades de acuerdo a su aumento de valor. Este efecto no es despreciable en magnitud y podría representar al menos entre 14 y 20% de la inversión de la nueva línea de metro, lo cual abre una discusión interesante respecto a la forma de financiar la expansión de la red de metro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408/603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo cuantifica el efecto que tiene para las empresas mantener excesiva deuda de corto plazo, cuando se van enfrentadas a incrementos no esperados en el costo de refinación. Utilizando un conjunto de empresas chilenas, para en el período 1994-2003, se muestra que efectivamente las empresas más desfasadas de los vencimientos en términos de madurez, invierten relativamente menos, cuando enfrentan un choque de liquidez, tanto interno como externo. Este efecto es económicamente significativo, y representa una caída cercana a 6% de la inversión promedio de las empresas en la muestra. Además, se encuentra que este efecto no es homogéneo, en particular de las empresas que tienen acceso a los mercados externos, ya sea porque emitan ADR o porque tienen propiedad extranjera, y que son capaces de absorber de mejor manera estos choques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409/604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo se enfoca en el sesgo potencial en la estimación de crecimiento, generado por el problema de datos perdidos (o datos truncados) como consecuencia de cambios en la política censal. El análisis ayudará a indagar cuáles subsectores en la manufactura experimentaron crecimiento para mostrar pruebas que apoyen la hipótesis de una tasa de crecimiento positiva en el sector manufacturero completo durante el periodo 1929-1934. En particular analizamos el desempeño de la industria manufacturera mexicana desagregada por subsectores y durante el período 1929-1934 considerando que la política censal no fue homogénea para los dos censos de interés (y para los subsecuentes). Cuando un conjunto de datos es truncado, esto puede generar sesgo en el proceso de estimación. Sin embargo, el sesgo de estimaciones basadas en estos datos dependerá de qué tan importante es la proporción de datos perdidos. Por lo tanto, una de las principales tareas en este artículo es examinar qué tan importante es el problema de datos perdidos para cada sector de la industria manufacturera mexicana de tal manera que esto proporcione luz en cuanto a la confiabilidad de las estimaciones de tasas de crecimiento en valor agregado que se calculan en el trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41/290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de su apertura al comercio internacional y la inversión extranjera a mediados del decenio de los ochenta, el crecimiento económico de México ha sido, a lo sumo, modesto, particularmente en comparación al de China. Al comparar estos países y revisar la bibliografía, concluimos que la relación entre la apertura y el crecimiento no es en absoluto sencilla. Por medio de la teoría estándar del comercio encontramos que México se ha beneficiado del intercambio comercial y, según algunos indicadores, incluso más que China. Esbozamos una teoría en la que los países en desarrollo pueden crecer más rápidamente que los Estados Unidos mediante la aplicación de reformas. A medida que un país aumenta su riqueza, este crecimiento compensatorio se torna más difícil. En ausencia de reformas frecuentes, es probable que el crecimiento de China disminuya acusadamente, quizá hasta el punto en que su PIB real por persona en edad laboral caiga a niveles inferiores a los de México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410/605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimamos la elasticidad ingreso de largo plazo del impuesto sobre la renta, al valor agregado, los especiales sobre producción y servicios, así como de los ingresos tributariosen México, con el fin de inferir indirectamente la elasticidad del recurso federal participable con respecto al producto interno bruto. Los resultados muestran que: i) existe una relación de equilibrio de largo plazo (de cointegración) entre la produccion y cada uno de los impuestos, ii) nuestro sistema tributario no es efectivo para traducir el crecimiento económico en más recursos para los gobiernos subnacionales; sin embargo, tampoco permite que las transferencias a estados y municipios desciendan más que proporcionalmente cuando la economía desacelera. Una comparación con otros países latinoamericanos, como Colombia, Guatemala y Bolivia, muestra que la elasticidad ingreso del impuesto al valor agregado en México es relativamente baja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411/606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza la desaceleración del crecimiento en la economía mexicana durante los periodos de reforma y posreforma. Examina cuatro posibles factores detrás de la desaceleración del crecimiento. Primero, el papel de la integración comercial internacional muestra que las reformas comerciales de los años ochenta y noventa fueron de hecho muy exitosas en estimular el crecimiento de las exportaciones y la apertura comercial aunque no en promover una pauta de especialización comercial dinámica. Segundo, la desaceleración del crecimiento de la productividad debe ser vista como una consecuencia y no una causa de la desaceleración del crecimiento en medida en que la evolución del crecimiento de la productividad esta estrechamente asociado a la expansión del subempleo en el sector terciario. Tercero, el análisis del papel de la formación del capital humano sugiere que los indicadores de educación y salud han estado mejorando durante el periodo reciente, en parte como consecuencia del bono demográfico, y no pueden ser responsables por la caída en el producto por trabajador presentada desde principios de los años ochenta. Por último, el artículo se centra en lo que se piensa que es el determinante primario de la desaceleración del crecimiento, la baja tasa de acumulación de capital físico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412/607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde fines de 1998 la economía chilena se desaceleró mucho. Si entre 1988 y 1998 la tasa de crecimiento promedio alcanzó un 7.8%, durante el período postcrisis asiática fue de sólo un 3.7%. Sin embargo, junto con la desaceleración del crecimiento, la volatilidad de la economía se redujo prácticamente a la mitad.Este trabajo investiga, mediante un análisis empírico formal, el papel que tuvieron la introducción de la flotación cambiaria y la utilización de la regla de superávit estructural en transformar a Chile en una economía menos volátil. Nuestros resultados muestran que la introducción de la regla fiscal parece haber reducido en un tercio la volatilidad del crecimiento del PIB. Por su parte, la flotación cambiaria contribuyó a reducir esa volatilidad adicionalmente en alrededor de un cuarto. Así, en conjunto, ambas medidas aparecen como responsables de haber disminuido la volatilidad del crecimiento de la economía chilena en casi 60%. Estos resultados son robustos ante especificaciones y posibles problemas de endogeneidad en algunas de las variables explicativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413/608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este articulo investigo los coeficientes (ratios) de pago de dividendos de las compañías chilenas pueden explicarse por el grado de los conflictos potenciales de agencia entre los accionistas minoritarios y los que controlan la empresa. Utilizo el análisis de regresión de un panel de datos y un estudio de hechos para someter a prueba diferentes hipótesis relacionadas con el afecto de la gestión empresarial en las políticas de pago a los accionistas.Los resultados muestran que en el contexto de una economía emergente, como la chilena, que presenta una alta concentración de la propiedad y una extendida utilización de conglomerados y estructuras piramidales, la teoría de la búsqueda de la renta para explicar los efectos de los problemas de agencia en las políticas de pago de dividendos parecen ser en particular pertinentes. Las compañías que presentan un grado mas alto de coincidencia entre los derechos de flujo de efectivo y los derechos de control tienden a tener políticas de dividendos mas generosas. Por otra parte, los anuncios de dividendos inesperadamente altos que hacen compañías con un potencial mayor de conflictos de agencia presentan rendimientos anormalmente altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414/609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principal propósito de este artículo es presentar la teoría de conjuntos difusos como un instrumento confiable y preciso para medir pobreza, que además ofrece ventajas comparativas respecto a los métodos tradicionalmente empleados para esta tarea. Este artículo también muestra que la metodología de conjuntos difusos es compatible con la información censal (información agrupada) para calcular índices de pobreza. Se presentan los resultados de medir la pobreza para los niveles estatal, municipal y localidad, y se comparan con resultados oficiales. Esta comparación revela que la teoría difusa resuelve algunos de los problemas metodológicos que enfrentan las líneas de pobreza y los índices de marginación, lo que hace de este instrumento una opción útil no solo para medir, sino también para aplicar y evaluar la política pública encaminada a combatir la pobreza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415/610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partiendo de un modelo sencillo de oligopolio internacional mixto, en que los países pueden aplicar aranceles discriminatorios, se analizan los efectos en las variables relevantes derivados de los procesos de privatización y liberación regional de la economía. En concreto se justifica, desde un punto de vista teórico, la evidencia empírica que nos muestra que los procesos de liberación regional de la economía y la privatización de las empresas públicas son procesos complementarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">416/611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo demuestra que un cambio de política economica en 1982 produjo una modificación notoria en la relación entre el dinero, los precios y el tipo de cambio en México. Antes de ese año, la demanda de dinero de largo plazo tenía la forma de la ecuación cuantitativa del dinero, y la inflación estaba impulsada principalmente por la brecha monetaria. Después de una interesante mutación, desde 1983 y hasta el final de la muestra la demanda de moneda local tomó una estructura muy diferente, y la inflación pasó a ser determinada por el margen del nivel de precios con respecto a los precios externos y los salario sin un efecto explícito del dinero. Sin embargo, la relación de largo plazo que vincula los niveles del producto, del tipo de cambio y de los precios externos con la cantidad nominal de dinero se mantiene para todo el periodo de análisis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417/612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo estudiamos el desarrollo económico alcanzado por la totalidad de los Estados latinoamericanos y caribeños soberanos en 1913 y 1925 desde una perspectiva inédita en el estudio del conjunto de la región: las importaciones y la producción –que sumadas equivalen al consumo aparente– de bienes de capital. Asegurada la fiabilidad de las estadísticas del comercio exterior, procedemos a reconstruir las magnitudes de los bienes de capital adquiridos por las 20 repúblicas. También estimamos la producción interna. La nueva evidencia empírica pone de manifiesto las enormes diferencias existentes en el seno de la región en el consumo per cápita de bienes de capital al término de la primera oleada globalizadora. La comparación entre los niveles de 1913 y 1925 revela que, en general, la contienda mundial no favoreció el proceso de sustitución de importaciones de la región, pero no en todos los países por igual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418/613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analiza cómo lograr la cobertura óptima de un flujo de caja en presencia de riesgo de tipo de cambio, riesgo de precio en el producto que se vende, e incertidumbre respecto a los costos y a la cantidad por vender. Se presenta una solución analítica para las estrategias de cobertura óptimas en estos casos, si se dispone de futuros sobre el bien producido y de futuros de tipo de cambio para realizar dicha cobertura. También se propone un método simple, basado en la metodología de regresiones, para obtener las estrategias de cobertura óptimas. Se analiza de qué manera la cobertura óptima depende de los parámetros clave identificados, es decir de la volatilidad del tipo de cambio, del precio, de los costos y de la cantidad, y de las correlaciones entre estas variables. La metodología desarrollada es aplicada al caso particular de las exportaciones chilenas de celulosa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419/614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo realiza una revisión de la bibliografía a nivel teórico respecto a la manera en que los programas de amnistía o delación compensada afectan la estabilidad de los carteles y permiten su detección y disuasión. Sobre la base de las principales contribuciones, se presenta un modelo unificado que permite extraer los mensajes más relevantes de la bibliografía. Finalmente se entregan recomendaciones de política para la implementación de dichos programas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42/292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo hace un análisis de la relación entre crecimiento económico y medio ambiente para las 32 entidades federativas de la República Mexicana. La curva ambiental de Kuznets (CAK) sugiere la existencia de una relación entre crecimiento económico y medio ambiente. A medida que las economías disfrutan un mayor crecimiento económico, se presenta una degradación ambiental y una vez que se alcanza cierto crecimiento, aumenta la disponibilidad a pagar por la conservación del medio ambiente. En el caso de la economía mexicana, al aplicar el análisis de convergencia por medio de datos de corte transversal y datos de panel, se encuentra que: i) existe β convergencia en árboles plantados, áreas naturales protegidas, licencias ambientales y volumen de tratamiento de aguas en sus niveles per capita; ii) no hay evidencia de σ-convergencia en las variables medio ambientales para los estados de la economía mexicana, excepto en áreas naturales protegidas, árboles plantados y licencias ambientales; iii) no existe una relación entre crecimiento económico y aumento en el cuidado de las variables medioambientales, excepto para el volumen de recolección de basura y el volumen de aguas residuales; iv) los resultados sugieren que el medio ambiente no está entre las prioridades de la economía mexicana de acuerdo con la hipótesis de la CAK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420/616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante muchos años se ha considerado que el rápido crecimiento económico de México durante el periodo 1934-1956 sólo fue posible por el estímulo de una política económica expansionista que fue financiada en forma inflacionaria. De ahí el contraste con el desarrollo estabilizador de los años sesenta, que se considera la época de oro del crecimiento mexicano con estabilidad de precios. En este trabajo se argumenta que esta percepción es un mito y que las autoridades hacendarias y monetarias fueron esencialmente prudentes durante esos años, hicieron uso de los instrumentos de política a su disposición para impedir el desempleo e intentaron mantener tasas de inflación moderadas. Más bien, es el impacto de choques externos, como la recesión externa y las guerras, lo que explica en gran parte la inflación alta en ciertos periodos que llevaron, irremediablemente, a la depreciación del tipo de cambio en 1938, 1948 y 1954. Este resultado implica que la política económica no necesitó del gasto público deficitario para estimular el largo periodo de crecimiento económico mexicano del siglo XX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421/617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo utiliza una metodología de estimación econométrica para incrementar tanto la precisión como el detalle en la medición del bienestar de la población de México, específicamente, del ingreso de los hogares. Al igual que otros países, México ha contado desde hace varios años, por un lado, con encuestas de hogares que proporcionan una medición del ingreso de alta precisión, pero con muy limitadas posibilidades de desagregación geográfica, y por otro, con indicadores provenientes de los censos y conteos de población, que permiten una desagregación pormenorizada, pero que carecen de precisión en la medición, precisamente de la variable de ingresos. Utilizando los resultados estimados, presentamos la primera serie de ingresos per cápita de los hogares por entidad federativa, y por municipio y la primera serie de índices de desarrollo humano municipal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422/618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se cuestiona el planteamiento de que los conocimientos y capacidades proporcionados por los institutos profesionales (IP) serían inferiores a los de universidades. Para esto se comparan los ingresos laborales de los egresados lo que resuelve varios problemas metodológicos presentes en los trabajos previos que comparan Universidades y otras opciones de educación superior. Específicamente, se comparan carreras impartidas simultáneamente por universidades e IP y se utilizan cohortes reales en lugar de artificiales. Los resultados obtenidos refutan las pruebas hasta ahora disponibles que sugerían una dominancia relativa de las universidades sobre otras opciones de educación superior. Uno de los resultados interesantes obtenidos es que al controlar por la calidad de los estudiantes admitidos el rendimiento de los estudios en IP es entre 4 y puntos porcentuales superior respecto a los universitarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423/619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con datos de panel para el periodo 1996-2001 y datos de corte transversal para 1990 y 2003, este artículo evalúa si el crecimiento en Chile ha sido “pro pobre”. Se emplean dos metodos: i) se estima la “curva de incidencia del crecimiento” y luego se estima paramétrica y no paramétricamente la relación entre el ingreso per capita de los hogares en 1996 y el cambio en el ingreso de 1996-2001. Los resultados indican que el crecimiento ha incidido significativamente en la reducción de pobreza. Por otra parte, existe evidencia de convergencia para la mitad más pobre de la distribución de ingresos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424/620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo reciente el precio del cobre ha mostrado una marcada tendencia alcista y una alta volatilidad, que han estado acompañadas por un incremento en la participación de agentes no comerciales o especuladores. Las compras de estos agentes pasaron de representar cerca de 25% del total de operaciones del mercado de futuros de cobre en el 2002 a 47% el 2005. En este artículo se analiza una extensa base de datos de frecuencia semanal de las posiciones de agentes no comerciales en el mercado de derivados de cobre durante el período 1992-2006. Los resultados señalan nulos efectos permanentes de las posiciones en las variaciones de corto plazo experimentadas por el mismo metal. Asimismo, se encuentran efectos positivos pero marginalmente no significativos en la volatilidad del precio. Basado en estos resultados es aconsejable continuar un seguimiento en las posiciiones de especuladores para entender las variaciones de corto plazo en el precio del cobre y de otros productos básicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425/621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe abundante evidencia empírica compatible con que las empresas manipulan la ganancia contable que informan, con el fin de ocultar pequeñas variaciones negativas en ésta. En este trabajo se analizamos la posible existencia de ese comportamiento en la banca chilena e identificamos el mecanismo mediante el cual estas instituciones practicarían la manipulación. Encontramos pruebas compatibles con la existencia de manipulación de la ganancia contable registrada, cuyo propósito es evitar mostrar una variación negativa de ésta. Esta manipulación se llevaría acabo utilizando la discrecionalidad de la que gozan os bancos para estimar la provisión por incobrabilidad de préstamo. Durante el periodo que comprende la muestra, se produjo un cambio importante en la regulación para la banca chilena, orientado a restringir la discrecionalidad en el cálculo de dicha provisión. Nuestro análisis indica que este cambio no eliminaría el tipo de manipulación en estudio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426/622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo se analiza la relación entre dimensión, rentabilidad financiera y eficiencia técnica de las entidades bancarias en España. El análisis se realiza mediante la utilización de las técnicas multivariantes, análisis factorial y análisis cluster para establecer grupos de empresas bancarias de dimensión homogénea. Se utiliza la metodología no paramétrica, el análisis envolvente de datos (Data Envelopment Analysis) para obtener el coeficiente de eficiencia técnica de cada entidad bancaria. Además, se estudia la influencia de cada empresa evaluada como eficiente sobre los análisis de eficiencia previamente realizados con el objetivo de detectar si existe alguna entidad que afecta de manera especial a los resultados. También se utiliza la técnica bootstrap para obtener intervalos de confianza de la eficiencia media y eficiencia mediana del sistema bancario. Por último se analiza la relación entre la dimensión de la entidad, la rentabilidad financiera y las estimaciones de eficiencia técnica. La información utilizada corresponde a 82 empresas bancarias españolas (36 bancos y 45 cajas de ahorros) que constituyen la casi totalidad de la banca comercial en España.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428/623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por medio de la medida de Lakonishok et al. (1992), el artículo aporta evidencia empírica de la convergencia en la asignación estratégica de activos realizada por los fondos españoles de renta variable nacional desde julio de 1997 a junio de 2002. Dicho fenómeno es detectado con mayor intensidad al considerar variaciones estratégicas de mayor relevancia.El estudio también pone de manifiesto una convergencia estratégica intertemporal realmente fuerte entre los fondos gestionados por las entidades financieras españolas más grandes, poniendo de manifiesto que el tamaño de la sociedad gestora es un mecanismo significativo a la hora de explicar dicho fenómeno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429/485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo examina el papel que el sector de las organizaciones de microfinanzas reguladas -conforme al marco prudencial- ha desempeñado en el desarrollo del sistema financiero boliviano. Con referencias ocasionales, reconoce las contribuciones de las microfinanzas no reguladas en propiciar aumentos del bienestar de hogares en estratos pobres de la población. Si bien Bolivia es un caso especialmente exitoso, las lecciones registradas apuntan a las contribuciones potenciales de las microfinanzas a la profundización financiera en países semejantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43/293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analiza la influencia de la “perificidad económica” en la explicación de las disparidades del PIB per capita entre las provincias españolas. Para ello, regresamos los PIB per capita provinciales en función del potencial de mercado y un conjunto de variables de control, tanto por medio de MCO como mediante variables instrumentales. Los resultados de nuestras estimaciones muestran que el potencial de mercado es estadísticamente significativo y cuantitativamente importante en la explicación de la estructura espacial del ingreso observada en las provincias españolas. Nuestros resultados también muestran que hay al menos tres canales por los cuales el acceso al mercado puede estar afectando las cifras del PIB per capita en España: el capital humano, el capital productivo y la magnitud de las actividades de ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430/584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo valida el comportamiento caótico en las Bolsas de Valores de Argentina, Brasil, Canadá, Chile, Estados Unidos, Perú y México utilizando los índices accionarios Merval, Bovespa, S&amp;amp;P TSX Composite, IPSA, IGPA, S&amp;amp;P 500, Dow Jones Industrials, Nasdaq, IGBVL e IPC, respectivamente. Los resultados de distintas técnicas y métodos como análisis gráfico, análisis de recurrencia, entropía de espacio temporal, coeficiente de Hurst, exponente de Lyapunov y dimensión de correlación, apoyan la hipótesis de que los mercados bursátiles americanos se comportan de forma caótica, en contra de la hipótesis de mercados eficientes y la hipótesis de aleatoriedad. Esta conclusión valida el uso de instrumentos predictivos de rendimientos accionarios en los mercados de renta variable americanos. Destacable es el resultado de la técnica coeficiente de Hurst, que en promedio fue de 0.75 para los índices en estudio, lo que estaría justificando la utilización de modelos tipo Arfima, entre otros, para la predicción de dichas series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433/658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocas ideas y actividades han recibido elogios tan hiperbólicos como las presentadas en el mundo por Hernando de Soto respecto a la informalidad. Premios Nobel de economía, Presidentes de varios países, revistas muy importantes y organizaciones multilaterales han respaldado el impulso de este autor por el registro de las propiedades de los pobres, particularmente sus viviendas, como la clave para lanzar una revolución económica mundial desde abajo. En este artículo presentamos el respaldo institucional de esas ideas, la sustancia analítica de los principales argumentos relacionados con ellas, la precisión descriptiva de las instituciones que operan en el Tercer Mundo y los resultados de su aplicación. De esta manera evaluamos la relación entre la difusión y el poder de una idea con su contenido formal y su efectividad para cambiar el mundo de los pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">434/659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por medio de la estimación de un sistema de puntaje implícito intentamos inferir algunos de los principios utilizados por un equipo médico en la asignación de trasplantes renales en México. Los resultados indican que los criterios vinculados a principios de eficiencia médica y posición en la lista de espera son los que determinan fundamentalmente la asignación final de los órganos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435/660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizamos las decisones relacionadas con la tenencia y uso de las tarjetas de crédito de los hogares en México mediante un modelo de selección de muestra. Encontramos que aspectos del hogar como el ingreso, escolaridad del jefe del hogar y tenencia de activos colaterales se relacionan con la tenencia de tarjetas de crédito, como han documentado investigaciones anteriores. Además, la concentración de sucursales y terminales punto de venta (TPV) en la localidad también afectan esta decisión, como sugieren los modelos de mercados de dos lados. Sin embargo, en la decisión del monto gastado resulta significativa la concentración de TPV, no así el ingreso una vez que se considera su efecto en tenencia. Este nuevo resultado sugiere que en México el uso de tarjetas de crédito se promovería más por la expansión de la infraestructura de TPV que por el impulso de los "programas de recompensas" tradicionales de descuentos o transferencias de ingreso por pagar con ellas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">436/717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La falta de apoyo político para reducir la inflación y la existencia de graves amenazas a la independencia del banco central pueden inducir a una desinflación gradual por parte de un banco central comprometido. Dos hechos observados en Colombia, un proceso de desinflación gradual y las repetidas amenazas a la independencia del banco central por parte del gobierno y del Congreso, serán analizados a partir de un modelo teórico de dos períodos. El modelo está basado en el supuesto que el banco central es independiente y se compromete con la meta de inflación anunciada, a la vez que las autoridades buscan una solución discrecional e intentan eliminar la independencia del banco si la meta difiere de dicha solución. Estas amenazas afectan la capacidad del banco para comprometerse y dan por resultado un proceso de desinflación gradual con tasas de inflación más altas que las obtenidas en ausencia de dichas amenazas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437/671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo evaluamos las proyecciones de inflación provenientes de la Encuesta de Expectativas Económicas del Banco Central de Chile. Nuestro análisis, para el período 2000-2008, detecta un exceso de autocorrelación en los errores de predicción y un sesgo estadísticamente significativo hacia el final de la muestra. El sesgo y el exceso de autocorrelación encontrados posibilitan mejorar las proyecciones de inflación mediante la incorporación de un buen predictor de errores. Los resultados de un ejercicio fuera de muestra indican que el ajuste propuesto permite reducir el sesgo y el error cuadrático medio de las proyecciones de inflación hasta en 34 y 29%, respectivamente. En general estas reducciones son estadísticamente significativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">438/672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudia la relación entre exportaciones, productividad e innovación tecnológica. En primer lugar, se analiza la relación de causalidad entre desempeño exportador y productividad de las empresas A diferencia de otros trabajos que utilizan una metodología similar, los resultados no muestran pruebas en favor del aprendizaje por exportar. En realidad, aunque una vez que las empresas comienzan a exportar existe un aumento de la productividad total de aproximadamente 10%, éste no es estadísticamente significativo y no se mantiene a lo largo del tiempo. Este artículo analiza, además, si existen otras maneras de aprendizaje vinculadas al proceso exportador. A diferencia de otros trabajos en economías desarrolladas, los resultados para Chile no sugieren ganancias significativas provenientes de la aglomeración geográfica y sectorial de los exportadores. Finalmente, se estudia si la actividad innovadora de las empresas favorece el desempeño exportador. Con indicadores de innovación de productos y procesos, y también de inversión en investigación y desarrollo (ID), no se encuentra pruebas de que éstos incrementen la probabilidad de exportar. En este ámbito, los resultados revelan que el tamaño de las empresas y el hecho de haber exportado previamente son más importantes que la innovación para incrementar la probabilidad de exportar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439/673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estudio de los efectos de la mitigación del cambio climático requiere el uso de metodologías diversas. Este artículo analiza y clasifica los modelos más utilizados en la bibliografía, así como sus diferentes aplicaciones. A continuación, se presenta un modelo de equilibrio general aplicado (MEGA) dinámico que incorpora un mercado de permisos de emisión. Este instrumento es una realidad en la Unión Europea desde la aplicación en 2005 del Sistema Europeo de Permisos de Emisiones Transferibles (EU ETS). Mediante dicho modelo es posible estimar reducciones costo-efectivas de las emisiones de gases de efecto invernadero. El modelo presentado se aplica al caso de la reducción de emisiones en España.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44/294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinamos el grado de comovimiento del empleo durante el ciclo económico entre las regiones de México mediante un análisis de la covarianza de las perturbaciones en los ciclos del empleo regional entre julio de 1997 y octubre de 2009. El empleo se mide por el número de trabajadores permanentes asegurados en el Instituto Mexicano del Seguro Social. La descomposición en tendencia y ciclo y la matriz de varianza-covarianza de las perturbaciones en los ciclos del empleo regional se obtienen de la estimación —por el método de espacio de estados— de un modelo estructural multivariado de las series de empleo. Encontramos que, exceptuando a unas pocas regiones, el comovimiento del empleo es alto y que la varianza de las perturbaciones en los ciclos regionales está asociada mayormente con las fluctuaciones del empleo nacional. Sin embargo, no encontramos pruebas de un ciclo común subyacente, por lo que el comovimiento del empleo tendría su origen en la propagación interregional de choques específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440/674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muchos analistas argumentan que el gran crecimiento del comercio de productos agroalimentarios entre México y los Estados Unidos puede atribuirse a los cambios en el tipo de cambio, la volatilidad del tipo de cambio y el Tratado de Libre Comercio (TLCAN). Este artículo cuantifica los efectos de los cambios en el tipo de cambio real entre México y los Estados Unidos, su volatilidad y el TLCAN en los flujos de leche en polvo entre ambos países y contribuye, con evidencia empírica, al debate de los efectos de los cambios en el tipo de cambio real y su volatilidad en los flujos del comercio de productos agroalimentarios. Para estimar una función de demanda de importaciones de la leche en polvo en México, se emplean el análisis de cointegración por máxima probabilidad y un vector de corrección de errores (VCE). Para guiar el análisis empírico, en este estudio se establece un modelo de maximización de la utilidad esperada y se estimó un conjunto de ecuaciones de forma reducida. Los resultados muestran que mientras los cambios en el tipo de cambio real tienen un efecto positivo en las importaciones de leche en polvo en México provenientes de los Estados Unidos, la volatilidad del tipo de cambio real tiene un efecto negativo en las importaciones, tanto en el corto como en el largo plazo. El TLCAN no tiene un efecto significativo en las importaciones de leche en polvo que México hace de los Estados Unidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442/675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La economía mexicana vive hoy en día un marcado proceso de estancamiento: el producto total durante el periodo 1982-2007 apenas ha crecido en promedio anual 2.4%, muy por debajo de lo alcanzado durante el desarrollo estabilizador o la etapa de crecimiento compartido. Con el productoper capitalas cosas están todavía peor ya que en el mismo lapso se tiene un incremento de apenas 0.68%. Estos magros resultados han llevado, sin duda, a un aumento en el desempleo, la informalidad, la migración y en el peor de los casos a la criminalidad. El pésimo desempeño en materia económica está conduciendo gradualmente a una degradación de la sociedad; el estancamiento económico prevaleciente profundiza el estado de subdesarrollo de la economía mexicana y condena a millones de seres humanos a la pobreza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444/685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La economía moderna examina una variedad de temas que abarca desde la política económica hasta la teoría de las organizaciones. La economía del comportamiento (behavioral economics) propone ser instrumental para comprender estos temas. El objetivo de este artículo es responder la pregunta sobre qué es lo que aporta la economía del comportamiento a la ciencia económica. El hombre (o mujer, con más frecuencia en estos tiempos) moderno paradigmático de la economía moderna difiere de la máquina calculadora y fría que se utiliza como instrumento de trabajo. El tomador de decisiones de la economía moderna está rodeado de incertidumbre por todos lados. Nuestro interés central es medir qué tan exitosos somos en la comprensión de la incertidumbre. Mi objetivo en este artículo no es detallar la teoría tal como se encuentra en la mente de los críticos que no están familiarizados con ella, sino como se encuentra en la mente de los economistas que la utilizan. Esta teoría es mucho más exitosa de lo que la mayoría imagina —pero no carece de debilidades que la economía del comportamiento tiene el potencial de remediar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445/686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo examina las consecuencias en los ingresos laborales de tener un nombre atípico para el caso colombiano. La primera parte del artículo muestra que los jóvenes, hijos de padres no escolarizados, habitantes de zonas rurales y pertenecientes a minorías étnicas tienen una mayor probabilidad de tener un nombre atípico. La segunda parte muestra que el efecto de un nombre atípico en los salarios es grande (superior a 10%) y que el mismo es mucho mayor para las personas escolarizadas que para los no escolarizadas. Los resultados sugieren la existencia de mecanismos de trasmisión intergeneracional distinto de los tradicionales (restricciones de crédito, mecanismos hereditarios, transferencias de ingresos, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">446/687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La efectividad de las intervenciones cambiarias de compra y de venta de dólares del Banco de Guatemala se analiza en el contexto de un modelo ACT-GARCH. Con información diaria para el periodo 1996-2008, se concluye que solamente las intervenciones de compra produjeron una disminución de la volatilidad de largo plazo del tipo de cambio quetzal/dólar, pero que ambos tipos de intervención afectaron el quetzal. En relación con los objetivos establecidos por el banco central, la intervención cambiaria fue efectiva cuando se orientó a moderar el tipo de cambio, pero careció de efectividad cuando ésta se limitó a moderar la volatilidad cambiaria sin afectar su tendencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447/688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capacidad de algunas redes neuronales para predecir la dirección de la economía de México —representada por el LEI— cuyos insumos son las versiones simultáneas (suavizante y predictiva) de un proceso gaussiano alimentado por un índice de acciones y uno de bonos —ambos representativos del mercado mexicano—, es comparada favorablemente (por medio del método de Anatolyev y Gerko para evaluar la precisión de un predictor), con la capacidad predictiva de redes desarrolladas para el mismo fin por dos de los autores de este artículo en uno anterior, cuyos insumos son rezagos de dichos índices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448/689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vulnerabilidad y presión de los sistemas financieros es un tema latente en la práctica y estudio de la economía a la luz de la crisis reciente. Este artículo define la presión financiera de los gobiernos estatales como aquella ejercida por el desequilibrio financiero, el incremento del gasto corriente, la falta de inversión, la acumulación excesiva de deuda pública y su servicio. A partir de un análisis multivariado en este artículo se desarrolla seis índices que miden en su conjunto la presión en las finanzas públicas estatales en México de 2001 a 2007. Estos índices, no correlacionados entre sí, captan más de 80% de la variabilidad estadística observada en las finanzas públicas estatales en México y muestran la posición relativa de cada entidad federativa contra el resto de los estados. Entre otros resultados se encuentran factores de finanzas públicas que confirman la existencia de una correspondencia (trade-off) entre inversión pública y superávit y entre el ahorro y el gasto ordinario. El conjunto de indicadores obtenido en este artículo puede ser usado por el funcionario local para comparar la posición relativa de su entidad respecto a otros estados y por el regulador/supervisor para determinar la presión financiera que experimentan los gobiernos subsoberanos en México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449/690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 1999 se creó en España el mercado Latibex destinado a la contratación en euros de valores de las principales empresas latinoamericanas. Desde su creación este mercado se ha caracterizado por tener una menor actividad negociadora y menor liquidez que la existente en los mercados latinoamericanos de origen. El objetivo del trabajo es analizar si el efecto de la información trasmitida por el anuncio de ganancias trimestrales es diferente en ambos mercados, considerando los diferentes niveles de liquidez y actividad negociadora que presentan ambos mercados.Los resultados obtenidos confirman que el anuncio de ganancias es una información relevante para el valor de la empresa. Sin embargo, es en el mercado de origen en el que los precios se ajustan a la información trasmitida, y los cambios observados en los precios en el mercado Latibex son resultado de un proceso de ajuste mediante arbitraje a las variaciones en precios en los mercados de origen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45/295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que la información trasmitida mediante los estados financieros corporativos tiene gran peso y que, por tanto, desempeña un papel central en los mercados de capitales, analizamos hasta qué punto las utilidades declaradas sirven para medir el desempeño y como instrumento para anticipar los flujos de efectivo futuros. Específicamente, examinamos la relación entre los factores específicos de las empresas y la calidad de las utilidades en una muestra de 180 empresas chilenas que cotizaron en bolsa de valores entre 1998 y 2003. Hallamos que las utilidades son más pertinentes que los flujos de efectivo en la medición del desempeño de las empresas, lo cual sugiere que las utilidades tienen un contenido informativo adicional. La calidad de las utilidades tiene una relación positiva con el tamaño de la empresa y una relación negativa con el ciclo operativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450/691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se utiliza funciones de costos translogarítmicas para estimar elasticidades precio y de sustitución de las demandas por insumos, economías de escala y costos medios en las manufacturas mexicanas. Se analiza datos de la Encuesta Industrial Anual para 1996, 2000 y 2003. Se muestra que un modelo que no permite homoteticidad ni elasticidades unitarias en la función de costos parece ser el más adecuado para representar la estructura de producción. Elasticidades de Allen-Uzawa indican la existencia de posibilidades de sustitución entre los insumos. La demanda por electricidad es de elasticidad unitaria. Todas las elasticidades cruzadas son menores a 1. Tanto las economías de escala como los costos medios disminuyen conforme el tamaño de las clases de actividad aumenta. Las economías de escala aumentan para cualquier nivel de producción. Las diferencias en costos medios entre pequeñas y grandes clases de actividad se han reducido mientras que algunas disparidades se mantienen en ciertos grupos manufactureros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452/692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo investiga la contribución de la cantidad y calidad de los emprendedores al crecimiento de la productividad total de los factores (PTF) en las Comunidades Autónomas Españolas (CA). El análisis empírico toma como guía las teorías del crecimiento económico basadas en las ventajas de la especialización cuando las personas difieren en sus habilidades, en particular en las capacidades para realizar las funciones propias de los emprendedores que el presente artículo resume en dos: dirigir recursos y hacer más permeables los filtros del conocimiento. Los resultados del trabajo empírico muestran un efecto positivo de la tasa de emprendedores al inicio del periodo en el crecimiento de la PTF del periodo siguiente, tal como predice el modelo basado en el emprendedor como director de recursos, resultado que se interpreta en términos de contribución a la convergencia de la productividad entre las CA. Igualmente se obtiene que el capital humano del recurso emprendedor contribuye a que el crecimiento en la intensidad de capital tecnológico por ocupado tenga un mayor efecto en el crecimiento de la productividad, lo que confirma las hipótesis de los emprendedores como agentes que hacen más permeable el filtro del conocimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453/693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo se enfoca en la naturaleza y los prospectos de la innovación financiera a la luz de la reciente crisis económica mundial. Mi punto focal es que a pesar de que en fechas recientes la innovación financiera ha caído en desgracia debido a que algunos de sus productos sirvieron como vehículos en el auge crediticio que derivó en la crisis, las críticas deben tomarse con cautela. La innovación está entre nosotros desde hace mucho tiempo y su contribución a las finanzas y el bienestar social ha sido positiva. Siempre y cuando fortalezcamos la regulación prudencial para desmotivar la toma excesiva de riesgos en el futuro, la innovación puede seguir beneficiando a nuestras sociedades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455/694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La frecuencia de las crisis financieras en decenios recientes hace imperativo profundizar en su estudio, en particular en los puntos en común entre ellas, para inferir lecciones que puedan ser utilizadas por autoridades financieras, reguladores y por los propios participantes en un sistema financiero. Las causas de la crisis y la efectividad (o inefectividad) de la respuesta por parte de los gobiernos son aspectos esenciales por estudiar para determinar lecciones y recomendaciones. México y los Estados Unidos, además de compartir frontera y de sostener fuertes lazos económicos, sociales y culturales, han enfrentado en la historia reciente grandes crisis financieras que —a reserva de las diferencias de tiempo y del grado de refinación de sus respectivos mercados financieros— coinciden en muchos aspectos. El Centro de Estudios Espinosa Yglesias (CEEY) ha reunido a un grupo de expertos en sistemas financieros y finanzas públicas para debatir el origen de dichas crisis financieras y la viabilidad de anticiparlas. Esto es en particular relevante porque enfrentamos un entorno en que los avances tecnológicos y la innovación financiera implican riesgos, debido a que muchas veces van un paso adelante de los reguladores y los supervisores financieros. Asimismo, se analiza las respuestas de las respectivas autoridades a las crisis, su efectividad y las opciones que podrían haberse aplicado. Finalmente, es de interés para el CEEY encontrar mecanismos que minimicen el riesgo de las crisis financieras y el costo de los rescates que les suceden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456/695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza un oligopolio mixto en el que las empresas pueden contratar administradores y delegarles sus decisiones con fines estratégicos. A diferencia de investigaciones anteriores, examinamos un caso en el que una empresa pública compite con una extranjera y otra local, ambas privadas. Mostramos que estas dos empresas privadas se comportan de manera diferente: en equilibrio; solamente la empresa local contrata estratégicamente a un administrador que no persigue la simple maximización de ganancias. Esto conduce a un bienestar social mayor que el que se obtiene cuando ninguna empresa contrata a un administrador y que el que resulta de la competencia de una empresa local y otra extranjera, ambas dirigidas por administradores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">457/696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se analiza un modelo de contratos de incentivos en el que cada uno de los principales, que poseen la misma tecnología de supervisión que los demás, celebran contratos con agentes seleccionados de entre un grupo de individuos que difieren en cuanto a su dotación de riqueza. Los principales y los agentes están emparejados para formar sociedades y estos emparejamientos están sujetos a problemas de riesgo moral bilateral. Los agentes necesitan pedirles préstamos a los principales para poder financiar sus proyectos. En equilibrio, los pagos a los principales y agentes están determinados endógenamente. Los agentes más acaudalados obtienen pagos mayores, mientras que todos los principales obtienen el mismo pago. Se analiza también los efectos de los cambios en el costo de la supervisión y la tasa de interés libre de riesgo en la supervisión óptima y los precios de las acciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458/697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo investiga las variables que determinan la elección de inversión en fondos monetarios españoles. Se enmarca, por tanto, en la incipiente disciplina de finanzas del comportamiento. El estudio ofrece una doble perspectiva al analizar los flujos de dinero y los flujos de partícipes. La evidencia empírica apunta a la rentabilidad pasada como clave en la toma de decisiones, mientras que el riesgo pierde el interés que había demostrado en otro tipo de fondos de inversión. Las mayores comisiones frenan la entrada de las inversiones aunque su efecto se amortigua conforme éstas aumentan. Se incluyen además otras variables de decisión, como el tamaño del fondo, el tamaño de la gestora o el crecimiento conjunto de la categoría de inversión. Los diferentes resultados obtenidos según el periodo de expansión o consolidación de la industria española de fondos, así como del momento coyuntural de los mercados, ponen de manifiesto la necesidad de estudios específicos de las industrias nacionales con sus características propias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459/698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta investigación se establece, con el supuesto de una economía monetaria, pequeña y abierta, un modelo estocástico de estabilización inflacionaria, en el que el tipo de cambio actúa como un ancla nominal y la credibilidad es imperfecta. Las expectativas de los agentes son conducidas por dos procesos: i) de difusión con saltos para la tasa de devaluación en la que el tamaño de una posible devaluación tiene una distribución de valores extremos y ii) de volatilidad estocástica con reversión a la media (la versión continua de un modelo GARCH(1,1)). Lo anterior con el fin de modelar adecuadamente una tasa de inflación mucho más persistente que una tasa de devaluación, como lo muestran los hechos estilizados respecto a devaluaciones extremas presentadas en México en 1994 y en Argentina en 2001. Se supone que no existe un mercado de coberturas contra posibles devaluaciones, es decir, los mercados son incompletos. Según este esquema, soluciones internas y de esquina son examinadas cuando un plan de estabilización con credibilidad imperfecta es aplicado. Se estudia también un experimento en el que la tasa media esperada de inflación toma un valor mayor a partir de cierto tiempo en el futuro y permanece allí para siempre, tomando en cuenta las probabilidades de que dicha política monetaria ocurra. Se estudia el caso de un horizonte estocástico de estabilización con distribución exponencial. Asimismo, se evalúa la opción real de posponer consumo cuando se espera que un plan de estabilización sea abandonado. También se estudia los efectos de choques exógenos en el consumo y el bienestar económico. Por último, se utiliza el modelo propuesto para realizar simulaciones que reproducen los auges de consumo privado antes de que los planes antiinflacionarios fueran abandonados en México en 1990-1994 y en Argentina en 2001-2003, cuando se produjeron devaluaciones extremas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46/296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleamos una serie de datos no explotados anteriormente para calcular el tipo de cambio real respecto al dólar para México durante 1930.01-1960.12 a fin de probar la paridad de poder de compra (PPC). Los resultados iniciales de la prueba de Dickey-Fuller aumentada (DFA) muestran un débil apoyo para la PPC. La prueba de Kapetanios, Shin, and Snell (KSS), con otra hipótesis de reversión no lineal a la media, muestra bastante apoyo para la PPC. Sin embargo, encontramos que los residuos de estas pruebas presentan no normalidad o heteroscedasticidad. Usando el enfoque de wild bootstrap, calculamos los valores críticos de la distribución empírica de los residuos y reevaluamos los estadísticos de prueba empleando estos nuevos valores críticos. Concluimos que hay evidencia de ajuste no lineal a la PPC para 1930.01-1951.12, pero esta evidencia no se mantiene durante 1952.01-1960.12, el periodo de sustitución de importaciones en México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460/699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se reúne por primera vez todos los sesgos evidenciados por la bibliografía que afectan a los modelos de sincronización (timing) tradicionales generando coeficientes espurios y se intenta aplicar las correcciones oportunas. Algunas de estas correcciones se proponen en el trabajo. Estos sesgos tienen relación con la consideración de la sincronización en riesgo —además de en rentabilidad—, con la incorporación de información pública, con el efecto de la negociación dinámica, con la opción implícita en las actividades de sincronización, con el efecto de la negociación infrecuente, así como con la variación en las condiciones del mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">461/700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo evalúa los efectos que las reformas de descentralización aplicadas en Colombia a principios del decenio de los noventa del siglo XX tuvieron en la calidad de las escuelas públicas. Mediante técnicas de datos de panel escolares descubrimos que, en el contexto colombiano, las relaciones de correspondencia (trade-off) de economía política, como la poca capacidad de los gobiernos locales, los mandatos no financiados o la captación local, no son factores importantes en la determinación de los resultados de descentralización. Por otra parte, considerar los cambios en las decisiones de las familias de abandonar los estudios puede alterar significativamente la interpretación de dichos resultados, lo que sugiere la importancia de tomar directamente en cuenta estos cambios en  la evaluación del efecto a futuro de las políticas. Específicamente, al permitir que las decisiones de educación de las familias cambien, descubrimos que el efecto total de las reformas disminuyó la calidad de la educación pública. Sin embargo, al controlar por los cambios significativos en la disminución de la tasa de deserción escolar entre alumnos de escuelas públicas que se presentó después de emprenderse las reformas, encontramos que, en realidad, la calidad de las escuelas públicas mejoró.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462/701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluamos los factores que influyen en las decisiones de informar las cargas contaminantes y aquellos referidos al cumplimiento en el pago de impuestos a vertidos de parte de fuentes reguladas con el Programa de Tasas Retributivas de Colombia (PTRC). El análisis utiliza una base de datos que contiene información de cada fuente individual según la jurisdicción de la Corporación Autónoma Regional del Chivor (Corpochivor), para el periodo 2001-2006. Los resultados de las estimaciones econométricas sugieren que el informe de vertidos es afectado por el tamaño del sector productivo al que pertenece la fuente, la tasa retributiva cobrada para demanda bioquímica de oxígeno  y actividades de fiscalización ejercidas por la corporación en las fuentes reguladas. La estimación para el cumplimiento en el pago de la tasa indica que las acciones de fiscalización ejercidas por la Corpochivor no son determinantes en el cumplimiento individual de las fuentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">463/676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza los principales costos y beneficios entre una política antimonopólica transparente y una política que proporcione menor información y mayor discreción a las autoridades. Existe un fenómeno creciente en el empleo estratégico o el uso inadecuado de las prácticas antimonopólicas por parte de las empresas, y este uso inadecuado genera desafíos para la aplicación de las medidas antimonopólicas y de transparencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">465/678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el análisis y la práctica de la política energética se suele suponer que la elasticidad de la demanda por energía eléctrica es irrelevante. Este trabajo muestra que durante episodios de escasez de energía una “pequeña” elasticidad basta para generar caídas “grandes” de la probabilidad de déficit y del costo del abastecimiento eléctrico. Esto se debe a que en la vecindad de la capacidad del sistema, la oferta de energía de corto plazo es cercana a vertical. Ilustramos nuestro punto cuantitativamente simulando la operación esperada del sistema eléctrico chileno durante los años de ajuste a la crisis causada por los cortes de gas argentinos, el periodo 2006-2010. Mostramos que el aumento de los precios causado por el retraso de las inversiones y los cortes de gas argentino, combinado con una “pequeña” elasticidad de la demanda mensual por energía (0.0548 en valor absoluto) eran suficientes para reducir mucho la probabilidad de déficit mensual y retornarla a niveles normales. Más aún, si se soslaya el efecto de los mayores precios en el consumo, el costo marginal se sobreestima en 32% y el costo de operación esperado en 41 por ciento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">466/679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo descompone la fuerza de trabajo chilena de acuerdo con una clasificación por grupos de género, edad y escolaridad. Usando datos del periodo 1965-2005, determinamos grados de sustitución y complementariedad entre diferentes grupos de trabajadores. Encontramos grandes cambios en la composición de la oferta laboral, una importante reestructuración de los salarios y logramos establecer relaciones funcionales entre tipos de trabajadores. En particular, hallamos que existe una mayor sensibilidad de los salarios de los hombres a una recomposición de la fuerza laboral y una gran relación de sustitución entre hombres y mujeres jóvenes con alta escolaridad. Los resultados permiten proyectar la estructura salarial frente a una recomposición de la oferta laboral, la que sugiere una disminución de los rendimientos a la educación superior y una reducción de la brecha salarial entre hombres y mujeres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">467/680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizamos el mercado mexicano de fondos para el retiro desde la perspectiva de la oferta. Nos concentramos en el efecto que tienen las distintas definiciones de producto en la estructura de costos de las empresas del mercado. Proponemos nuevas definiciones del producto generado por las empresas de este mercado. Empleamos como productos i) el monto promedio mensual que hay en la cuenta de cada afiliado; ii) la participación de mercado de la empresa medida según el número de miembros, y iii) la participación de mercado de la empresa medida según los montos de las cuentas individuales. Exploramos la presencia de economías de escala con estas nuevas definiciones. Estimamos las funciones de costos variables Cobb-Douglas y Translog según las variables endógenas. Los parámetros estimados concuerdan con las expectativas de la teoría de la producción; sin embargo, encontramos que la presencia de rendimientos crecientes a escala es sensible a la definición del producto. Por tanto, la política económica debería considerar no sólo la posible presencia de economías de escala sino también la definición del producto de las empresas del mercado para lograr una mayor eficiencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468/681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se usa información de los mercados de Estados Unidos e Inglaterra para hacer estimaciones de la capacidad que tienen la Reserva Federal y el Banco de Inglaterra de afectar las tasas de interés del mercado. Las estimaciones muestran que las reacciones son mucho menores que las originales de Cook y Hahn (1989). Cuando dicha ecuación se modifica para considerar la paridad cubierta de intereses se verifica por una parte que ésta se cumple y que las autoridades monetarias logran afectar las tasas de interés del mercado. Se encuentra evidencia del cumplimiento de la hipótesis de expectativas de tasas de interés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469/682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo intenta ahondar en el fenómeno imitador (herding) durante la crisis asiática de 1997. Para ello se emplea una medida de la intensidad de herding exenta del sesgo presente en otras medidas y se utiliza datos intradiarios. Los resultados que se obtiene dejan entrever que el efecto de la crisis no afectó de manera homogénea la conducta imitadora en todos los activos del mercado, destacando como activos en los que la crisis se nota más y durante más tiempo las acciones que poseen opción durante el periodo analizado. Un análisis adicional por sectores pone de manifiesto que el sector financiero y el energético son los más afectados en su herding ordinario en momentos de crisis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47/283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza un análisis econométrico de la demanda por el agregado monetario M1 en México. Utilizando técnicas de cointegración se identifica una relación de largo plazo estable entre M1 y sus determinantes, se deriva un modelo uniecuacional de corrección de error estadísticamente sólido. Los resultados son utilizados para realizar las siguientes aplicaciones sencillas: i) se determina empíricamente el valor y la estabilidad de los equilibrios inflacionarios duales para los niveles observados de señoreaje; ii) se calcula la inflación que maximiza el señoreaje, y iii) se analiza el posible vínculo entre una medida de exceso dinero y la inflación. Los resultados sugieren que el equilibrio de baja inflación es estable, y que, en retrospectiva, el indicador de exceso de dinero considerado parece mostrar cierta capacidad para predecir presiones inflacionarias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470/683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este estudio es analizar la relación entre el desempeño y el aumento del patrimonio de los fondos de inversión de renta variable de Brasil. Para realizarlo, se han considerado 459 fondos, (321 del IBOVESPA y 138 del IBX), durante un amplio horizonte temporal (de enero de 1997 a diciembre de 2006), cuyo comportamiento ha sido comparado por medio de sus resultados anuales, semestrales y trimestrales. Los fondos se han clasificado como ganadores o perdedores a través de la mediana de las rentabilidades y del crecimiento porcentual neto de su patrimonio, para des- arrollar el estudio en dos fases. Inicialmente se contrasta la persistencia del desempeño y enseguida la relación entre el desempeño y el crecimiento patrimonial. A partir de la metodología paramétrica de las tablas de contingencia se evidencia la persistencia en el desempeño y la relación entre éste y los movimientos futuros de capital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">471/684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo aplica la metodología de opciones reales en la valoración de empresas que por alguna circunstancia están sujetas a una posible expropiación. El trabajo añade, a la valoración por flujos de efectivo descontados, el valor de la prima que deberían recibir los accionistas como compensación por el riesgo de expropiación. Para ello se supone que los rendimientos de las empresas con amenaza de una posible expropiación son conducidos por un proceso de difusión con saltos en caso de crisis financiera. En esta investigación se valora la opción real de expropiación (opción de compra), en la que, a petición del gobierno, el inversionista deberá entregarle la empresa (el activo subyacente) al gobierno a cambio de una indemnización (precio de ejercicio). Por último, la metodología desarrollada es aplicada al caso de Banamex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">472/677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se analiza los pronósticos de inflación, tipo de cambio, tasa de interés y crecimiento del PIB para horizontes de cortos plazo contenidos en la Encuesta sobre Expectativas de los Especialistas en Economía del Sector Privado que recaba mensualmente el Banco de México. El estudio se enfoca en el pronóstico de consenso para el periodo de enero de 1995 a abril de 2008. Se examina la eficiencia en el uso de información, así como el desempeño relativo de los pronósticos de la encuesta utilizando como referencia pronósticos sencillos de series de tiempo, macroeconómicos y financieros. Se encuentra que los pronósticos de consenso de los especialistas, en general, no superan pruebas de ausencia de sesgo, de ausencia de autocorrelación en exceso o de uso de información pública, lo que sugiere oportunidades para mejorar dichos pronósticos. Sin embargo, los pronósticos de consenso parecen ser, en general, más precisos que los pronósticos de referencia, aunque al analizar una muestra que empieza en enero de 2002 se encuentra que la precisión relativa de los pronósticos de consenso disminuye respecto a la de pronósticos sencillos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474/624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se presenta un programa de investigación que vincula la teoría de la complejidad con el estudio de los sistemas socioeconómicos. A este enfoque del paradigma evolutivo se le denomina "sociomática" en tanto que abarca distintas disciplinas de las ciencias sociales y hace uso de la computadora para simular el comportamiento y la interacción de agentes heterogéneos. El cuerpo central de la sociomática consiste en una meta-teoría que establece las premisas del comportamiento humano (agencia) y la manera en que éste se ve condicionado por un proceso de inserción social (estructura). Asimismo, se sostiene que los modelos basados en agentes permiten describir distintas topologías de interacción social, logrando con ello caracterizar la coevolución de las variables endógenas de las arenas económica, social y política, y entre estas arenas superficiales y el sustrato sociocultural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">475/625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo defiende que aunque la noción de pobreza absoluta aún debe ser un ingrediente esencial en la evaluación de la calidad de vida de los países en desarrollo y en transición, es hora de que la pobreza relativa comience a ser sistemáticamente estimada para esos mismos países. Esta recomendación se aplica a México durante el período 1992-2004, cuando en 2000 el gobierno de Fox determinó oficialmente por primera vez una línea de pobreza absoluta. Como en el Segundo Programa Europeo de Pobreza a fines de los años ochenta, la línea de pobreza relativa se fija en 50% de la media del gasto equivalente. Las pobrezas absoluta y la relativa se comportan de maneras opuestas durante el ciclo 1992-2000, pero ambas descienden significativamente durante el período de estancamiento 2000-2004. La pobreza relativa es mayor que la absoluta desde 1992 a 1994, menor durante 1996-1998, y mayor de nuevo en 2000-2004. En cualquier caso, la pobreza relativa en México es mucho mayor que la pobreza relativa en los países desarrollados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476/626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las conclusiones respecto a la evolución de la desigualdad de países o regiones se deducen, frecuentemente, de las variaciones experimentadas por las estimaciones puntuales de indicadores comunes, sin considerar el efecto de los errores muestrales en la significación estadística de los cambios. En este artículo, se analiza la influencia de los diferentes métodos de inferencia (asintótica y bootstrap) del índice de Gini en la detección de variaciones interanuales de dicho indicador. Con este fin, se realiza, en primer lugar, un estudio de simulación para evaluar el comportamiento de las distintas metodologías, conocidos los valores reales de los parámetros poblacionales. En segundo lugar, se aborda un estudio de sensibilidad aplicado a los datos del caso español para analizar la influencia de la técnica de inferencia sobre la definición de tendencias en el comportamiento del índice de Gini, utilizando datos del Panel de Hogares de la Unión Europea para el período 1993-2000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477/627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estima de manera conjunta el sobreprecio existente en la industria manufacturera chilena durante el decenio de los noventa y la distribución de la ganancia obtenida entre los factores productivos implicados en generar dicha renta. Mediante el uso de método generalizado de momentos (MGM) se encuentra que la mano de obra se apropia de 21% de lla ganancia, mientras que los proveedores de insumos de 16 %. Lo restante queda en manos de los dueños de la empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478/801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se estudia la tasa interna de rendimiento de las rentas vitalicias en Chile (definida como la tasa de interés que iguala el valor presente de las pensiones esperadas con la prima pagada por los pensionados), asociándola a la competencia en la industria. Se documenta que: a) las compañías de seguros que pagaban mayores comisiones de corretaje lograban menores costos de financiación; b) hubo un cambio estructural en la elasticidad de largo plazo de las tasas de las rentas vitalicias respecto a la tasa libre de riesgo pertinente en 2001, coincidiendo con el envío al Congreso de un proyecto de ley que pretendió hacer más transparente el mercado e imponer máximos a las comisiones pagadas a los corredores. Se arguye que las pruebas son estrechamente congruentes con la siguiente hipótesis conjunta: i) las altas comisiones cobradas en los años noventa eran ilegalmente devueltas de manera parcial a los pensionados por los corredores; ii) los pensionados miopes prefieren el efectivo a mayores valores presentes. iii) así, la amenaza legal causó la baja de comisiones, redujo la holgura para los pagos en efectivo, aumentó la competencia vía tasas de interés e incrementó la elasticidad de largo plazo para igualarse a uno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479/800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los objetivos principales de esta investigación son examinar críticamente la estrategia oficial de política monetaria del Banco Central Europeo (BCE), en sus tres componentes: La definición de estabilidad de precios, el esquema de análisis y la comunicación de sus decisiones y resultados, y el análisis de sus decisiones con el objetivo de descubrir si tras su estrategia oficial subyace una estrategia implícita diferente. El trabajo empírico para explicar las decisiones respecto a las tasas de interés, en el período 1999-2005, adopta tres enfoques: calibrado, intratemporal, e intertemporal con el método de los momentos generalizado. Las conclusiones son claras: el objetivo de inflación implícito se sitúa en torno de 1.9%, muy cerca del 2%, como expuso el BCE en la revisión-explicación de su estrategia en 2003. Se demuestra que el enfoque es hacia adelante (forward-looking) respecto a la inflación subyacente y hacia atrás (backward looking) respecto al ciclo de la producción, con tendencia a alargar el horizonte temporal en ambos casos. Se obtiene pruebas claras de que el valor del coeficiente de aversión a la inflación sigue el principio de Taylor y, finalmente, que la ponderación del crecimiento en las decisiones sobre tasas es reducida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48/284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo comparamos el costo de generar electricidad con carbón y con viento en el Sistema Interconectado Central de Chile (SIC). Hemos incluido el costo ambiental local y global, así como los respaldos térmicos necesarios para mantener la misma confiabilidad del suministro eléctrico. El costo medio de generar con carbón, que incluye externalidades ambientales por 17dólares/MWh, es de 78 dólares/MWh. El costo medio de generar con viento es considerablemente mayor, 136 dólares/MWh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480/630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este estudio se analiza la hipótesis de convergencia entre regiones de la República Mexicana desde 1940, con particular interés en el periodo posterior a la liberación económica. Un análisis de series de tiempo muestra que la diferencia en ingreso per cápita entre la región capital y cada una del resto de las regiones tiende a disminuir a lo largo del tiempo. Usando los conceptos de convergencia determinista y estocástica, describimos las características de crecimiento de cada una de las regiones. Encontramos evidencia para afirmar que las reformas comerciales de mediados de los años ochenta afectaron negativamente el proceso de convergencia de algunas regiones, sobre todo las más pobres. Además, no existe evidencia estadística para afirmar que la liberación favoreció significativamente la convergencia entre las regiones fronterizas de México y los Estados Unidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481/631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En años recientes ha surgido un creciente interés por verificar el paradigma que mejor explica la relación entre la estructura de mercado y las ganancias en el sistema bancario mexicano: poder de mercado o eficiencia. Para poner a prueba estos paradigmas, en este artículo se elaboran indicadores específicos de eficiencia basados en el concepto de frontera eficiente, los cuales se incorporan en la prueba tradicional de estructura de mercado-conducta-desempeño. En contraste con estudios anteriores, en este artículo se encuentran pruebas en favor sólo de la hipótesis de poder de mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">482/632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se estudia el efecto del comercio internacional con Japón, la América del Norte y la Unión Europea en la difusión de la tecnología y el crecimiento en la productividad total de los factores (PTF) en Jordania, Corea y México. Las medidas de investigación y desarrollo (ID) se construyen en la base de la ID nivel de industria en el Norte, de las pautas de comercio entre el Norte y el Sur, y de las relaciones de insumo-producto en el Sur. Mostramos que la difusión de la tecnología y el crecimiento de la productividad tienden a ser regionales. Jordania (Corea) (México) se beneficia principalmente del comercio con la Unión Europea (Japón) (América del Norte). Esto es, la versión dinámica de la hipótesis de los “vecinos comerciales naturales” parece válida para este grupo de países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">484/708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estudio presenta una reseña de los principales enfoques metodológicos que se han utilizado para evaluar el impacto de la apertura comercial sobre la distribución del ingreso y la pobreza en América Latina. La gran cantidad de estudios en la materia fueron clasificados según el indicador de bienestar utilizado: desigualdad (salarial e ingresos de los hogares) o pobreza. La reseña demuestra que un enfoque metodológico con el suficiente rigor analítico debe tomar en cuenta: el grado de transmisión de cambios aranceles a cambios precios domésticos, todas las fuentes de ingreso, posibles efectos en el empleo, consecuencias diferenciadas en hombres y mujeres y en distintas regiones geográficas, y efectos de segundo orden, así como también efectos de equilibrio general. Dos metodologías representan los esfuerzos más recientes en esta dirección: i) los modelos de generación de ingreso del hogar (Porto, 2007), los cuales vinculan de manera implícita los cambios arancelarios con los cambios en el ingreso de los hogares y son capaces de evaluar –de modo empírico– los distintos canales de transmisión entre la política comercial y la desigualdad y la pobreza, y ii) el enfoque macro-micro (Bourguingon et al, 2008) que combina modelos de equilibrio general con modelos de microsimulación y permite evaluar la política comercial tomando en cuenta los efectos de equilibrio general. Estos dos enfoques pueden ser utilizados de manera complementaria para medir los efectos distributivos y de pobreza provenientes de la política comercial en el corto y el largo plazos, respectivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486/709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El comercio paralelo constituye un movimiento legal (arbitraje comercial) de productos de un país donde éstos se han puesto en circulación a otro país sin la autorización y la garantía del que posee los derechos de propiedad intelectual del producto. Este fenómeno se deriva de la aplicación del principio de subsidiariedad que lleva asociado la existencia de diferentes sistemas de regulación de precios y el de libre movilidad de bienes. En este artículo examinamos las tendencias de precios y penetración de medicamentos paralelamente importados respecto al precio del producto en el país de destino (beneficios de una mayor competencia) en 2002. En segundo lugar, establecemos una descomposición empírica de los efectos del comercio paralelo de medicamentos en los tres mercados principales de la Unión Europea en los diferentes agentes de la cadena del medicamento. Los resultados no siguieren pruebas de un efecto competitivo del comercio paralelo. Por otra parte, se observa que los principales beneficiarios son los propios importadores paralelos en la medida que el comercio paralelo genera ahorros muy limitados en la factura de los sistemas de salud, que difícilmente superan los perjuicios en la innovación farmacéutica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487/710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se analiza la dinámica del valor agregado manufacturero per capita como proxy del ingreso per capita de los municipios de México y condados de Estados Unidos. Específicamente, se busca determinar si existe convergencia (absoluta o condicional), divergencia o estratificación. Se utiliza un modelo de panel dinámico sin regresores exógenos y se considera el problema del sesgo en este contexto específico. En general se concluye que la dinámica del valor agregado per capita de los condados de Estados Unidos muestra convergencia condicional y poca dispersión de sus estados estacionarios. En cambio, en el caso de México se encuentra una dinámica congruente con crecimiento estratificado. El estudio también encuentra que el crecimiento de la manufactura en los condados de EEUU y los municipios de México diverge en el tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488/711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El precio de la vivienda en España ha experimentado un incremento muy intenso desde 1999 aumentando el esfuerzo financiero que los hogares han de realizar para su adquisición. Por lo contrario, la inflación, medida a partir del índice de precios al consumo armonizado (IPCA), ha tenido valores históricamente reducidos en ese mismo periodo. Dado que el precio de la vivienda no forma parte de la construcción del IPCA surge la duda de si la inflación se está midiendo correctamente. En este artículo elaboramos una estrategia metodológica para corregir el sesgo en la medición de la inflación debido al actual tratamiento de la vivienda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489/633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta el estado del arte de la economía de la felicidad, con particular interés en la investigación realizada para la relación entre el ingreso y la felicidad. El artículo analiza los fundamentos epistemológicos y metodológicos de le economía de la felicidad. Se presenta los dos enfoques tradicionales en el estudio del bienestar: el de imputación y el de presunción. Luego se propone el bienestar subjetivo como otro enfoque valioso en el estudio del bienestar. El enfoque de bienestar subjetivo se interesa por el bienestar que las personas experimentan, y planea que la mejor manera para conocerlo es mediante la pregunta directa a la persona. El artículo continúa con una presentación de los principales hallazgos de la economía de la felicidad en lo referente al papel del ingreso. Se muestra que además de su función de satisfacción de necesidades el ingreso cumple una función de definición posicional para las personas; por ello, el ingreso relativo importa. También se comenta acerca de la pertinencia de la brecha aspiracional del ingreso y de los procesos de habituación al ingreso, al igual que acerca de la importancia que los valores usados por la persona para juzgar su vida tiene para la relación entre ingreso y felicidad. Se manifiesta también que el ingreso tiene una influencia muy pequeña en la satisfacción que las personas experimentan en muchos de los dominios de vida donde ejercen como seres humanos; esto explica que la relación entre ingreso y bienestar no sea estrecha. El artículo también esboza otras contribuciones de la economía de la felicidad a la disciplina económica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49/285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile tiene una mala distribución del ingreso de los hogares y aunque las políticas de gasto público (en salud, educación y vivienda) como redistributivas vía transferencias directas han ayudado a la reducción de la pobreza, no han logrado reducir mucho la inequidad. Específicamente, respecto a los resultados de la política redistributiva, los datos revelan que la distribución del ingreso autónomo de los hogares es mejorada sólo marginalmente luego de considerar los ingresos netos de impuestos a la renta y subsidios monetarios. Considerando esta situación inicial, el artículo determina los efectos en la distribución del ingreso y la incidencia en la economía, provocados por potenciales incrementos en el impuesto a la renta de los hogares del quintil más rico y una transferencia simultánea de esa recaudación a los hogares del quintil más pobre, utilizando un modelo de equilibrio general computable calibrado con datos de la economía chilena, lo que permite calcular efectos directos e indirectos de la política redistributiva. Se concluye que 3.85 puntos de aumento en la tasa efectiva del quintil más rico aumenta el ingreso del quintil más pobre en 61.6% y reduce el coeficiente de Gini de 0.49 a 0.47. Sin embargo, este tipo de estrategia para mejorar la equidad tiene efectos económicos de equilibrio general importantes, ya que existe una caída relevante en la inversión y en los salarios de la mano de obra en sus distintas calificaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490/634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las estimaciones de los efectos marginales del bienestar sugieren que el desarrollo agrícola ha tenido importantes efectos positivos en el bienestar nacional, en particular en los países en desarrollo. Los países de la América Latina y del Caribe también se han beneficiado del crecimiento agrícola, pero la producción no agrícola también ha tenido efectos marginales de bienestar, cuya magnitud es mayor que los proporcionados por las actividades agrícolas. Los países industrializados de altos ingresos obtuvieron ganancias marginales positivas de sus actividades no agrícolas, pero los efectos de la agricultura son negativos. Estos cálculos de los efectos marginales de bienestar en las diferentes regiones dependen de estimaciones econométricas de las elasticidades que relacionan las actividades económicas agrícolas y no agrícolas con cuatro elementos propuestos en una función teórica del bienestar nacional: el PIB nacional per capita, el ingreso promedio de los hogares más pobres dentro de los países, los resultados ambientales en lo que se refiere a la contaminación del aire y del agua y la deforestación, y la volatilidad macroeconómica. Los modelos econométricos fueron estimados empleando varias técnicas econométricas que tratan de la causalidad y la heterogeneidad internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">491/635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponemos un método para la estimación de probabilidades “estructurales” de crecimiento y contracción económica, y lo aplicamos a México y los Estados Unidos. El método emplea cadenas de Markov con base en simulación y análisis de rompimientos estructurales. Según nuestro análisis, la probabilidad estructural de contracción real de la economía estadounidense en 2008 es de sólo 3%, aun en medio de toda la crisis hipotecaria. Por su parte, México se encuentra en una trampa de ingreso medio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">492/636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se presenta evidencia empírica respecto a la existencia de una discriminación salarial contra la población indígena en Chile para el periodo 1996-2006, con datos provenientes de la encuesta Casen. Los resultados muestran que la discriminación salarial he permanecido relativamente estable durante los pasados diez años, en torno de 12%. Mediante la aplicación de técnicas de bootstrapping es posible construir un intervalo de confianza para la medida de discriminación salarial, lo que permite concluir que ésta es estadísticamente significativa. Por su parte, en dicho periodo la brecha salarial pasó de 32.5 a 24.9%, disminución que se explica básicamente por la equiparación en la dotación de capital humano de ambos grupos. Las estimaciones son sensibles a la corrección por sesgo de selección, hecho que releva le importancia que tiene incorporar esta variable en la descomposición de brechas salariales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493/638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe un creciente interés por elaborar políticas públicas que aumentan la participación de la población de escasos recursos en los mercados crediticios formales. Tomando en consideración la diferencia que existe entre el acceso y el uso, utilizamos una base de panel de datos para examinar qué factores determinan que los sectores populares – que cuentan con acceso a servicios crediticios institucionales- hagan uso de dichos productos financieros. Para verificar la solidez d el los resultados se analiza además qué factores determinan la movilidad o inmovilidad de la decisión de participar a lo largo del tiempo. Entre los múltiples determinantes destacan un índice de riqueza familiar, la existencia de perturbaciones en la localidad, la posición en el trabajo y la recepción de transferencias provenientes de Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">494/640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo aporta nuevas pruebas experimentales del efecto de estudiar economía en dos dimensiones de la cooperación social: la confianza y la reciprocidad. Estas dimensiones son aproximadas por medio del conocido juego de confianza. Empleando técnicas de muestreo e igualación (matching), y un reclutamiento de sujetos por invitación selectiva en vez de convocatoria abierta, el trabajo permite separar el efecto asociado al estudio de la economía del efecto asociado al potencial sesgo de selección en las preferencias de quienes escogen estudiar economía. La muestra está compuesta por estudiantes universitarios de economía y de otras carreras con escaso o nulo contenido de economía en Chile. Los resultados muestran que los montos enviados por los estudiantes de economía en la primera etapa del juego de confianza son significativamente menores en comparación con los estudiantes de otras carreras, lo que indica una menor propensión de los primeros a confiar en los demás. A su vez, encontramos una menor inclinación de los economistas a devolver los montos prometidos, lo que muestra una menor tendencia a la reciprocidad de la confianza depositada en ellos en el juego de confianza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">495/641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estima empíricamente el efecto que el impuesto al valor agregado (IVA) tiene en los precios al consumidor. La estrategia de estimación aprovecha la frecuencia de las reformas tributarias en Colombia, que generan abundante variación en las series de tiempo del IVA. La identificación de los efectos del IVA en los precios se realiza utilizando series del índice de precios al consumidor (IPC) calculadas por el Departamento Administrativo Nacional de Estadística. Las estimaciones indican que en Colombia la incidencia del IVA en el precio es, a nivel nacional, cercana a uno. El estudio también encuentra que la incidencia promedio es menor cuando se toman bienes individuales, sin ponderar por su importancia en la canasta de consumo, y controlando por la posibilidad que los mismos productos tengan características no observables distintas para cada cuidad. Este resultado resalta la heterogeneidad en la incidencia del impuesto por medio de los mercados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496/799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En general, la evidencia empírica internacional ha documentado que las empresas que efectúan una IPO (Initial Public Offering, oferta pública inicial) de acciones presentan en el largo plazo un inferior desempeño financiero y operacional al mostrado por empresas de similares características. Pese a las pruebas internacionales, las empresas IPO chilenas no han mostrado un peor desempeño financiero (véase, por ejemplo, Aggarwal et al, 1993; Celis y Maturana, 1998). En cuanto al desempeño operacional, éste no ha sido estudiado para el caso chileno. En este artículo se documenta que las empresas IPO chilenas no mostraron un inferior desempeño operacional y tampoco presentaron un incremento en los costos de agencia posterior a la IPO. Posibles causas y efectos de estos resultados son comentados por los autores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497/643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En México, el reciente aumento internacional en el precio de los alimentos ha afectado más que proporcionalmente a los sectores más marginados de la población. La presente investigación evalúa el efecto de dicho aumento en la pobreza, considerando la capacidad de sustitución en el consumo de las familias. Además, se analiza la eficiencia en la focalización de diferentes mecanismos de asignación de recursos públicos, y se encuentra que la utilización del padrón de beneficiarios de algunos programas sociales como Oportunidades representa una mejora en relación con otros esquemass de asignación, como los subsidios a los alimentos y las transferencias universales. Sin embargo, un porcentaje importante de la población en situación de pobreza alimentaria no está protegido por la red de programas soaciales, por lo que uno de los desafíos fundamentales del gobierno federal será el de ampliar su cobertura en el corto y medianos plazos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">498/644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta el concepto de la “intolerancia a la deuda”, que se manifiesta en la extrema presión que experimentan muchos mercados emergentes por las deudas que parecerían manejables según los estándares de países desarrollados. Argumentamos que los umbrales “seguros” de la relación deuda externa/PNB para países con intolerancia a la deuda son bajos, quizá de hasta 15% en algunos casos. Estos umbrales dependen de la trayectoria de morosidad e inflación de cada país. La intolerancia a la deuda está vinculada con el fenómeno de la morosidad recurrente que afecta a muchos países desde hace dos siglos. La comprensión y medición de la intolerancia a la deuda es fundamental para evaluar los problemas provenientes de la sostenibilidad y reestructuración de la deuda, la integración de los mercados de capitales y el alcance de los préstamos internacionales para aminorar las crisis. Nuestra meta es hacer un primer intento por cuantificar la intolerancia a la deuda, incluyendo la delineación de los clubes y regiones de vulnerabilidad de los deudores, tomando como base una historia de eventos de crédito que data desde el decenio de 1820 de más de 100 países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499/645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partiendo de una definición legal de la informalidad, este artículo estudia las causas de la informalidad en general y su aplicación al caso particular de México. El artículo comienza con un análisis de la definición y los índices de la informalidad. Acto seguido, argumenta y aporta pruebas de que la informalidad es no sólo un reflejo del subdesarrollo, sino que podría también ser la fuente de un mayor atraso económico. Posteriormente se analiza los principales determinantes de la informalidad, a la vez que se argumenta que la informalidad no es resultado de una causa única sino de la combinación de las deficiencias de los servicios públicos, un régimen normativo gravoso y la poca capacidad del Estado para supervisar la actividad y hacer valer la ley. Esta combinación resulta particularmente explosiva cuando el país en análisis tiene escaso rendimiento educacional y está sometido a presiones demográficas y estructuras productivas primarias. Por último, se evalúa la relevancia empírica de cada uno de los determinantes de la informalidad en el caso específico de México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50/286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza econométricamente los factores que determinaron la dinámica de precios del sector residencial en la región metropolitana de Chile durante el periodo 1990-2007. Los resultados muestran que la antigüedad y superficie son determinantes estadísticamente significativos en la formación del precio; el acceso a estaciones del Metro tiende a capitalizarse de forma no lineal, y tanto el ingreso del hogar como el agregado son variables económicamente significativas. La descomposición de precios revela que entre 68 a 71% del monto es explicado por determinantes relacionados con los atributos de la propiedad, mientras que cerca de 68% del crecimiento observado entre 1990 y 2007 es consecuencia de determinantes macrofinancieros. Durante el periodo 2006-2007 la evolución de precios inmobiliarios no difiere de manera significativa de la predicha por el modelo. Los resultados encontrados son robustos a estimaciones por tipo de vivienda y subperiodos muestrales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500/647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo principal de este artículo es analizar la demanda de bebidas alcohólicas entre los jóvenes españoles desde una perspectiva de género. Desarrollamos un marco empírico que combina elementos de las teorías de desagregación del presupuesto y de la adicción mediante un sistema de demanda cuadrático casi ideal. La estimación se concreta en la sociedad española con la Encuesta sobre Drogas a la Población Escolar (2000). Entre los principales resultados destacamos que una menor capacidad adquisitiva del individuo (vía incremento de precios o reducción del gasto) contiene la participación presupuestaria destinada a la compra de bebidas alcohólicas, por lo que las políticas fiscales son efectivas en la reducción del consumo de alcohol entre los adolescentes. La cerveza y, sobre todo, los licores son bienes de lujo para los hombres, mientras que para las mujeres el vino representa un bien normal ordinario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501/648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Con qué tipo de contrato debería un terrateniente arrendar sus tierras a un agricultor dado: trabajo asalariado, aparcería o renta fija? El surgimiento de la teoría de agencia aplicado a la selección contractual en los decenios de los setenta y ochenta del siglo pasado ha generado abundante bibliografía que persigue explicar por qué y en qué condiciones se selecciona cada contrato. El presente artículo examina la bibliografía de los acuerdos contractuales en la agricultura, centrándose en la teoría del principal-agente. Después de analizar la teoría de agencia, se proporciona una síntesis de las principales aportaciones a la selección contractual y se subraya las principales controversias de los resultados. Encontramos que esta teoría proporciona un marco coherente y útil para responder los interrogantes que plantea la aparcería, pero también observamos que existe poco apoyo empírico en muchos aspectos clave de la teoría de agencia que requieren abordarse. Por último, tratamos las consecuencias de estos aspectos y subrayamos las direcciones para futuras investigaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504/650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo considera proporciones (ratios) financieras, operativas, de solvencia y desempeño para detectar cuándo hay variaciones en los estados financieros de las empresas mexicanas, a raíz de la crisis cambiaria de 1994, con datos trimestrales de 88 empresas mexicanas no financieras que sobrevivieron la crisis, para las cuales se aplican pruebas de cambio estructural. Los resultados muestran que en general los estados financieros se deterioraron entre los cuartos trimestres de 1993 y 1995. A pesar de que en la mayoría de los casos hubo mejoría posterior a la crisis, la recuperación fue parcial y gradual, y en general este episodio fue perjudicial incluso para las empresas sobrevivientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505/651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile ha sido precursor en la utilización de programas de compensación de emisiones con el objetivo de compatibilizar el crecimiento económico con la protección medioambiental. En este trabajo se analiza la aplicación de programas de transacción de emisiones del área metropolitana de Santiago de Chile y se evalúa su pertinencia para países en desarrollo. Se argumenta que programas de transacción de emisiones pueden ser el mejor instrumento para enfrentar los problemas de contaminación del aire, incluso en el caso en que las capacidades institucionales no estén bien desarrolladas. Además, la incorporación del sistema de transportes dentro de los programas de transacción de emisiones, así como la posibilidad de avanzar hacia un sistema de transacción, en el que se traten diferentes contaminantes, son elementos novedosos y relevantes en el contexto de las políticas para el control de la contaminación atmosférica. No obstante, dichas innovaciones comprenden elementos más complejos en la elaboración de instrumentos de programas de transacción de emisiones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506/652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si bien, como afirma David Throsby, doctor en economía por la London School of Economics, profesor de la Universidad de Macquire en Sydney y estudioso de las dimensiones económicas de la cultura y de los contextos culturales de la economía, de unos años para acá ha resurgido el interés por ampliar los estudios (y las visiones) en torno de la economía de la cultura como una disciplina o campo de la economía, en Economía y cultura, su más reciente libro, asegura que negar o no reconocer el papel de la cultura (en sus múltiples derivaciones) como uno de los motores del crecimiento económico es una mirada que resulta estrecha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507/802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se analiza el diferencial de salarios entre la población no indígena y mapuche en Chile. Se descompone dicho diferencial en un componente de dotaciones de características y un componente “discriminatorio”. Se estima ecuaciones de participación y salarios separadas por grupo étnico y género, y se controla por sesgo de selección muestral. Los resultados indican que existen diferencias significativas en las dotaciones de capital humano en favor de los no indígenas, tanto para hombres como para mujeres. No se rechaza la hipótesis de discriminación salarial contra los mapuches varones, pero sí para las mujeres. La evidencia indica que la discriminación contra los hombres mapuche no aumentó en el periodo 2000-2006. Los resultados sugieren que una política de fomento del capital humano de los mapuches, para reducir diferenciales de ingreso, puede tener resultados ambiguos, y que el mercado laboral ofrece incentivos para la emigración de los mapuches a la ciudad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508/791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Este trabajo evalúa la sostenibilidad del modelo de desarrollo económico español en el periodo 1980-2010. Asimismo, realiza un análisis comparativo con las grandes economías europeas: Alemania, Francia, Italia y Reino Unido. Metodología: Para alcanzar el objetivo del trabajo se han empleado técnicas de cointegración. Mediante estas técnicas se analiza la relación a largo plazo del consumo de energías renovables y no renovables con el desarrollo económico y la contaminación en el periodo 1980-2010. Tras un proceso de selección de variables, para España se ha utilizado el Producto Interno Bruto (PIB) y la Formación Bruta de Capital, para medir el crecimiento, el Índice de Desarrollo Humano y el Capital Social, para el desarrollo, las emisiones de CO2 para la contaminación, el consumo de energía renovable en el sistema eléctrico y el consumo de petróleo para el consumo de energía renovable y no renovable, respectivamente. En segundo lugar, se han comparado los resultados obtenidos para la economía española con las cuatro economías más grandes de la Unión Europea: Alemania, Francia, Italia y Reino Unido. Dada la disponibilidad de datos, para estos países se ha excluido del análisis la Formación Bruta de Capital y el Índice de Desarrollo Humano.Resultados: En primer lugar, para los cinco países analizados se comprueba un impacto positivo del consumo de energía renovable y no renovable sobre el crecimiento y el desarrollo, con un impacto mayor de las energías no renovables. Para los tres países en los que se han incluido las emisiones de CO2 (España, Francia y Reino Unido), el efecto reductor de las renovables sobre las emisiones de CO2 es menor que el efecto contaminante de las no renovables. En segundo lugar, para España, Alemania y Francia se aprecia un proceso de retroalimentación entre el consumo de no renovables, el crecimiento y el desarrollo, que no se observa con el consumo de energía renovable. Conclusiones: Para conciliar el objetivo de crecimiento con el de reducción de la contaminación se precisan tasas de crecimiento más moderadas. El modelo de crecimiento de los países analizados estimula el consumo de energía no renovable, pero no el de las renovables. Esto apunta hacía la necesidad de diseñar políticas que estimulen la sustitución de energía no renovable por renovable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">509/792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: La pobreza continúa siendo uno de los grandes retos internacionales como constatan los compromisos asumidos por las Naciones Unidas en la Agenda 2030. Para luchar contra ella, las agencias de desarrollo han impulsado procesos de descentralización por todo el mundo. De esta forma, el análisis del impacto de la descentralización fiscal en la pobreza se ha convertido en un área de extraordinario interés académico pero con hallazgos contradictorios. Este artículo analiza los efectos sobre la pobreza de la descentralización fiscal del gasto en educación, salud, vivienda y protección social. Métodos: Estimamos un modelo de efectos fijos mediante Mínimos Cuadrados Generalizados Factibles usando un panel de datos no-balanceado de países. Resultados: La descentralización del gasto tiene un efecto diferenciado sobre la pobreza. La descentralización de las políticas sanitaria y de vivienda contribuye a reducir la pobreza; mientras que la de la protección social estimula el incremento de la pobreza. Conclusiones: Se confirma la hipótesis de la teoría clásica sobre la descentralización en las áreas sanitaria y de vivienda. Por otro lado, se ratifica la predicción de la teoría normativa de la economía pública en el área de la protección social. Por tanto, para cada país ha de examinarse con detenimiento las áreas de política social que se descentralizan y la asignación de recursos entre jurisdicciones para evitar problemas de selección, rendición de cuentas y asignación de responsabilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51/287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se incluye la repercusión de los incentivos extrínsecos en un modelo de cumplimiento de obligaciones fiscales. También se proporciona evidencia experimental que confirma la existencia de una relación positiva entre la recompensa y el cumplimiento de las obligaciones fiscales. Si las personas son auditadas las recompensas para los contribuyentes honestos son eficaces para aumentar el cumplimiento de las obligaciones fiscales. Estos resultados son en particular relevantes en los países donde hay poco respeto por las leyes fiscales, ya que las recompensas pueden estimular la motivación intrínseca de los individuos para cumplir con sus obligaciones fiscales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510/793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: En este artículo retomo el análisis de la competitividad económica de las 32 entidades del país para el 2013, mismo que antes se había hecho con los Censos Económicos 2003 y 2008. Método: Tomamos las 81 actividades que representan poco más de 96% de la actividad del país en 2013 y se calcula la competitividad con base en dos dimensiones: la productividad laboral y los salarios. Mediante la técnica de análisis de cluster dicotómico se hace la distinción entre estados competitivos y no competitivos. Resultados: El principal resultado es que se conservan los dos tipos de entidades antes vistas en el 2008 en cuanto a condiciones de competitividad, pero integrando dos nuevas entidades. Ahora las 13 entidades más competitivas cuentan con una economía más productiva, más diversificada y con mayores niveles de productividad y salarios. Se trata de entidades económicamente más maduras como Nuevo León, la Ciudad de México, Querétaro, el Estado de México, Jalisco, Guanajuato y San Luis Potosí, y los estados de la frontera norte. Los otros 19 estados con atraso relativo intentan compensar la falta de productividad con el castigo a los salarios. La condición más crítica se observa en estados del sursureste y otros de la costa Pacífico. Conclusiones: La conclusión principal es que, a pesar del alcance al grupo competitivo por estados del Bajío como Guanajuato y San Luis Potosí, la convergencia entre entidades no se dará por mero tránsito del tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511/795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: A partir de un caso empírico se estudia la decisión de las personas para participar voluntariamente como funcionarios de casilla el día de la jornada electoral en México. Al respecto, interesaba analizar si esa participación era motivada por un comportamiento prosocial, donde el ciudadano contribuía a la existencia de un bien público: la democracia. De ser el caso, se descartaría el comportamiento de Homo Economicus. Métodos: Ante la falta de información para hacer este estudio a nivel individual, se decidió hacerlo a nivel más agregado, a nivel municipal. Por medio de una regresión logística se exploró la probabilidad de que un municipio tuviera una alta tasa de aceptación para participar en la jornada electoral como funcionarios de casilla. Específicamente, se estudió en qué medida la variable dependiente se explica por variables asociadas a un comportamiento prosocial o a un comportamiento de Homo Economicus. Resultados: Los resultados muestran que, efectivamente, una parte de la participación es motivada por la responsabilidad ciudadana y el compromiso social, es decir, un comportamiento divergente del Homo Economicus. En tanto que la otra parte de la participación responde a incentivos no explícitos que estarían asociados al self-interest. Conclusiones: En este artículo se concluye que una parte de quienes aceptan la invitación para participar como funcionarios de casilla, lo hacen respondiendo a un comportamiento prosocial, pero para el resto no es posible descartar un comportamiento de Homo Economicus. Todo ello apunta a la necesidad de seguir trabajando para consolidar la calidad de la democracia mexicana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512/796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: Los estudios referentes a la optimización de los recursos provenientes de la producción petrolera son un tema de fundamental importancia para México. La constitución de fondos de distintas características (como los fondos soberanos), los cuales sirvan para administrar y cubrir esta riqueza es una tarea primordial que ha emprendido el gobierno federal. Metodología: El objetivo del presente trabajo es proponer un modelo de optimización estocástica que pueda servir para el soporte y análisis de las políticas de decisión sobre los fondos constituidos provenientes del petróleo. Dicho modelo maximiza la utilidad de un inversionista sujeto a una restricción de riqueza integrada por una dotación petrolera y un activo financiero, con sus coberturas de opciones financieras y bonos utilizando la técnica HJB. Resultados: Después de aplicar la herramienta se hace una análisis sobre el cambio en los valores de las ponderaciones invertidas en cada uno de los activos al variar los parámetros. Conclusión: En general se puede decir que la cartera propuesta es de cobertura más que especulativa y los resultados obtenidos en el análisis de sensibilidad de los ponderadores de los activos son consistentes con la intuición esperado y la política pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52/288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta investigación analiza, estima y compara modelos microeconométricos de interacción estratégica aplicados a la oferta laboral de los hogares en México. En tanto que la posibilidad de decisiones descentralizadas al interior del hogar proporciona el ímpetu para un marco de teoría de juegos, los modelos estimados se basan en el supuesto de que las variables observadas representan el resultado de un juego discreto estático. Los modelos son estimados con datos de la Encuesta Nacional sobre Niveles de Vida de los Hogares 2002 (ENNViH). La estimación por máxima verosimilitud, basada en los conceptos de equilibrio no cooperativo de Nash y Stackelberg, se probó factible y los resultados producidos son plausibles. Los principales resultados sugieren la dependencia recíproca de las decisiones individuales al interior del hogar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">521/1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:en los últimos siete años la economía española ha tratado de reducir el ratio de déficit público-pib de 11.1% en 2009 a 3%. Este valor es un compromiso  registrado en el Pacto de Estabilidad y Crecimiento firmado por todos los países miembros de la Unión Europea (UE), que desde 2010 ha determinado las políticas económicas implementadas por el gobierno español. El propósito de este trabajo es evaluar el coste asociado a una reducción de 1.5 puntos porcentuales en la proporción de déficit público-pib en las principales variables macroeconómicas utilizando distintas políticas fiscales.Metodología:se ha empleado un modelo de equilibrio general aplicado (MEGA) estático desagregado, que incluye todos los elementos necesarios para evaluar los efectos a corto plazo de las políticas fiscales destinadas a reducir el déficit público. El modelo capta el flujo circular de la renta e incluye hogares, sociedades, gobierno y sector exterior.Resultados:se sugiere que los efectos generados por la disminución del gasto público en materia de inversión, administraciones públicas y servicios sociales son menos dañinos que los derivados de un incremento en el iva y en las tasas del impuesto sobre la renta.Conclusiones:no obstante, a pesar de estos resultados, hay que tener en cuenta que el modelo no incluye los efectos de largo plazo de la reducción de la inversión pública o de los recortes en servicios sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">523/1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:en México, las mujeres obtienen un menor salario en promedio que los hombres. Si bien la discriminación explica parte de esta brecha, en este artículo mostramos que existen otras causales que contribuyen a ella.Metodología:implementamos un experimento de laboratorio controlado con 404 personas en el que se aplican los juegos del ultimátum y la negociación salarial. El experimento consta de tres etapas: primero se realiza una negociación anónima, después se revela al contrincante con una fotografía y finalmente se realiza la negociación frente a frente. Se desea estimar si existen diferencias en preferencias por negociación entre hombres y mujeres.Resultados:primero, no se observan diferencias por género en el monto que el proponente envía al respondente en ambos tipos de juegos. Segundo, la composición de género del juego resulta relevante para estudiar el proceso de negociación. Cuando se conoce el sexo del respondente, las mujeres muestran “solidaridad” al ofrecer un mejor salario a mujeres que a hombres trabajadores. Tercero, las mujeres rechazan menos ofertas que los hombres, especialmente en el juego del ultimátum. Por último, en el juego de negociación salarial, las mujeres contraofertan menos que los hombres, además de que los hombres trabajadores negocian de manera más agresiva en contra de empresas mujeres.Conclusiones:los estereotipos de género pueden explicar estos resultados. Dichos estereotipos determinan cómo debe comportarse cada género ante diferentes situaciones sociales o asumir atributos negativos en contra de mujeres en posiciones de poder. En este sentido, cabe mencionar que los resultados son relevantes para la elaboración de políticas públicas que resalten normas sociales sobre la importancia de la equidad de género.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53/289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta un procedimiento de cálculo del producto potencial y de la productividad total de los factores (PTF), que luego es aplicado a la economía peruana. Asimismo, se estima el ciclo económico a partir del producto potencial y se muestra que la brecha del producto incluye tanto la brecha de la PTF como la brecha de desempleo (tasa natural menos la tasa observada de desempleo). También se compara el comportamiento de la productividad y las fuentes del crecimiento durante el periodo de sustitución de importaciones con el de la aplicación de las políticas neoliberales. Finalmente, se muestra que los cambios en la productividad están asociados a la evolución de la relación capital/trabajo y de la eficiencia de la inversión. La evidencia empírica muestra que en los pasados 25 años no hubo indicios de procesos de modernización con efectos en el conjunto de la economía peruana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532/712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es ofrecer evidencia empírica de la convergencia del PIBper capitade los estados de la Republica Mexicana hacia el PIB del Distrito Federal, al que consideramos como la economía líder (Barro y Sala-i-Martin, 1991, 1992). Para ello, se aplican dos pruebas de raíces unitarias y ocho de cointegración en panel (Im, Pesaran y Shin, 1997; Levin-Lin, 1993; Pedroni, 2001; Larsson, 2001). Estas pruebas resuelven el problema de las distorsiones por el uso de muestras pequeñas, propias de las series de tiempo. Las pruebas de raíces unitarias muestran que no hay evidencia de convergencia absoluta de 1970 a 2004 y para otros dos subperiodos. Sin embargo, las pruebas de cointegración arrojan evidencia en favor de la convergencia condicional para el mismo periodo. Las estimaciones de la velocidad de convergencia (Mark y Sul, 2003) indican que las regiones más ricas convergen más rápidamente que las pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533/713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el presente artículo se realiza un análisis del efectomomentumen la Bolsa Mexicana de Valores. Inicialmente se presenta pruebas acerca de la existencia del citado efecto durante el periodo 1993-2006 y se muestra que las rentabilidades obtenidas por las diferentes estrategias no parecen ser justificadas por factores de riesgo ni por los costos de transacción. En una segunda parte del artículo se encuentra cierta relación entre el efectomomentumen el mercado mexicano y variables que aproximan cuestiones como la difusión de información en los títulos o la dificultad de valoración de los mismos, que proporciona apoyo a alguna de las teorías de finanzas de comportamiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">534/714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es el de analizar los efectos de la liberación comercial en los incentivos a fusionarse de las empresas en un modelo de oligopolio mixto. En concreto, se prueba que las fusiones, tanto nacionales como internacionales, son compatibles con los procesos de liberación comercial y privatización parcial de las empresas públicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535/715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perú ha experimentado en los decenios recientes un significativo incremento en su cobertura de educación, en general, y de la educación superior, en particular. Sin embargo, las altas tasas de desempleo y subempleo existentes siembran dudas acerca del rendimiento de las inversiones en educación realizadas. Este documento estima la evolución de los rendimientos de la educación en los pasados dos decenios en Perú y encuentra pruebas mixtas acerca de la rentabilidad de la educación superior en el mercado laboral peruano. Gracias a la convexificación de los rendimientos, la educación universitaria ofrece actualmente tasas promedio de rendimiento privado y social en términos reales estimadas entre 12 y 15%. Por lo contrario, la educación superior no universitaria otorga tasas de rendimiento privado y social en promedio poco atractivas, y hasta cercanas a 0, por lo que parece justificada una profunda evaluación de la efectividad y pertinencia de este estrato educativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">536/716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la bibliografía internacional Kerala ha sido considerada por mucho tiempo como un “modelo” de relativo bienestar a pesar de su bajo crecimiento económico. Ahora que la situación se ha alterado con una clara aceleración económica, surgen nuevas inquietudes: la calidad de un crecimiento que no ha podido activar un fuerte empuje productivo ni en la agricultura ni en la industria. Se analizan aquí las razones del bloqueo agrícola que desde hace años condiciona negativamente el desempeño de una economía que sigue caracterizándose por un relativamente alto bienestar (en el contexto indio) y, al mismo tiempo, un gran desempleo que sigue alimentando importantes flujos migratorios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">537/1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:las telecomunicaciones son servicios que se prestan con infraestructura de carácter multifactorial, la cual resulta relevante por su impacto sobre el desempeño económico y el nivel de vida de la población. No hay una propuesta que mida de manera exclusiva la infraestructura sectorial y que sea aplicada a nivel local, por lo que se hace necesario contar con una métrica con ese objetivo.Metodología:el estudio se estima a través del promedio ponderado de diversos indicadores, ensayando la idoneidad de la muestra mediante pruebas y técnicas de análisis multivariado, y calculando los pesos específicos de cada indicador a través de componentes principales. Además, presenta una estratificación de los mismos con base en su nivel relativo de equipamiento. Se valida la propuesta por medio de la estimación econométrica de una relación positiva y significativa con tres indicadores de progreso económico.Resultados:el índice compuesto que se estima genera una medida diseñada exclusivamente para detectar el avance o rezago en la dotación de infraestructura.Conclusiones:se aporta un índice cuantitativo para determinar la infraestructura de telecomunicaciones con que cuentan las entidades de México, el cual es útil para el diseño de políticas públicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542/1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Siguiendo a Kaldor (1978) y a Thirlwall (1979), McCombie (1985) propone un supermultiplicador de las exportaciones en el que éstas afectan positivamente a los componentes de la demanda agregada en el contexto de una economía restringida por la balanza de pagos. En este artículo demostramos que elstockneto de capital también ejerce un efecto supermultiplicador que, a diferencia del anterior, es independiente del valor de la elasticidad ingreso de la demanda de importaciones.Método:Desarrollamos un modelo teórico en el que, dados los niveles de las exportaciones y delstockneto de capital, el nivel de ingreso se ajusta para equilibrar la balanza comercial. Asimismo, realizamos estimaciones econométricas mediante la técnica de efectos fijos usando paneles no balanceados con el fin de calcular las elasticidades del producto interno bruto (PIB) y de la producción para el mercado doméstico con respecto a las exportaciones y alstockneto de capital. Utilizamos datos correspondientes a seis países latinoamericanos para el periodo 1951-2015 y para los subperiodos antes y después de la liberalización económica.Resultados:Tanto el PIB como la producción para consumo doméstico exhiben una mayor elasticidad respecto a la acumulación neta de capital que en relación con las exportaciones.Conclusiones:La acumulación de capital puede afectar positivamente a la balanza comercial mediante la creación de capacidad productiva y la sustitución de importaciones. En consecuencia, tal como lo postuló Hicks (1950), la acumulación tiene un efecto supermultiplicador al permitir el incremento del resto de la demanda agregada, independientemente del valor de la elasticidad ingreso de la demanda de importaciones. El supermultiplicador de las exportaciones (McCombie, 1985) sólo es válido si la elasticidad ingreso de la absorción total de bienes y servicios es menor que la unidad. Además, si la elasticidad ingreso de la demanda de importaciones es mayor que la unidad, un incremento de las exportaciones implica la necesidad de reducir otros componentes de la demanda agregada con el fin de mantener el equilibrio dinámico de la balanza de pagos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">543/836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo hago revista de la bibliografía acerca de la microeconomía política en la participación electoral, el voto estratégico y la información de los votantes, con hincapié en avances recientes. Analizo brevemente además algunas consecuencias de esta bibliografía para la consolidación democrática en la América Latina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">544/837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo examina los determinantes del logro deportivo en los Juegos Panamericanos durante el periodo 1959-1999. La muestra considera un panel de países participantes, en el que la variable por explicar corresponde al número de medallas obtenidas. El modelo empírico planteado supone que el éxito deportivo depende de un conjunto de variables o recursos de los países, entre ellas el tamaño de la población, PIB, mortalidad infantil, porcentaje de población afroamericana y variables discretas que miden si el país en competencia actuaba como local o “vecino”. Dado que el número de medallas obtenidas depende del esfuerzo y recursos de los otros países en competencia, la estimación econométrica incorpora en la matriz de varianza-covarianza dicha correlación de errores. Los resultados indican que si se controla por efectos no observables por país, las variables de población y PIB no parecen afectar el número de medallas ganadas en los Juegos Panamericanos. Este resultado sería congruente con la hipótesis de que más que el tamaño o riqueza del país, lo que determina el éxito deportivo de élite son los recursos que se invierten en desarrollar esta actividad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">545/838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo continúa con la línea de investigación relativa a modelos predictivos de índices bursátiles: algoritmos genéticos y redes neuronales. Los modelos anteriores, paramétricos o no paramétricos, lineales y no lineales, buscan reconocer pautas de comportamiento y relaciones que se expresan en un lenguaje matemático, por medio de la estimación de coeficientes y su significación estadística. Sin embargo, la mayoría de los agentes que participan en el mercado bursátil utiliza un lenguaje que incorpora aspectos cualitativos para referirse, por ejemplo, al precio de un activo, a la rentabilidad de la inversión, etc. En este contexto, los modelos cuantitativos tienen dificultades para absorber esta información, lo que plantea la necesidad de desarrollar y analizar el uso de nuevas técnicas que permitan incorporar este tipo de referencias. La metodología de lógica borrosa, basada en la idea de que las variables deben ser manejadas no como un número sino más bien por las características que ellas presentan, responde a esta inquietud. Se utilizaron series históricas de cotizaciones diarias de los índices bursátiles norteamericanos DJI y Nasdaq (Estados Unidos), IPC (México) y TSE (Canadá), correspondientes al periodo comprendido entre el 8 de octubre de 1996 y el 7 de enero de 2005. Se construyó un modelo de lógica y otro de lógica difusa, para efectos de proyectar el signo de las variaciones de los índices bursátiles ya señalados. Los modelos de lógica y de lógica borrosa tuvieron una capacidad predictiva estadísticamente significativa. Además, ambos modelos lograron un rendimiento extranormal significativo y positivo al ser utilizados en una estrategia de comercio (trading), aun después de considerar los costos de transacción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546/839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Según algunos modelos teóricos, la manipulación electoral del gasto público puede tomar la forma de cambios en la composición del mismo, posiblemente sin afectar el déficit. La teoría también señala que la magnitud de cambios electorales en el gasto depende de las preferencias fiscales de los votantes. Este trabajo utiliza datos de gasto público y resultados electorales en municipios colombianos en un análisis integrado del comportamiento de los votantes y la dinámica del gasto público en periodos electorales. El hincapié es en la composición del presupuesto más que en su tamaño. Se encuentra que antes de elecciones los componentes del presupuesto que son más visibles y favorecidos por los votantes aumentan, mientras otros tipos de gasto caen. De manera congruente las perspectivas electorales futuras del partido en el poder son favorecidas por incrementos electorales del gasto “preferido”, mientras que incrementos electorales del déficit tienen el efecto contrario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547/840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En los pasados dos decenios México transitó de una economía proteccionista a otra abierta y orientada a la exportación. ¿Por qué fue el proteccionismo una política estable y cómo fue sustituido por una reforma que actuó contra intereses creados? Para contestar estas preguntas utilizo un modelo de teoría de juegos en que la influencia de los grupos de interés influye en las decisiones de política. Al ajustar los parámetros del modelo a los datos, el juego cooperativo subyacente tiene un núcleo vacío y predice que una coalición de empresas que sustituyen importaciones y el gobierno es “estable” hasta los años ochenta. Para tomar en cuenta los cambios en las opciones de financiación del gobierno a fines de esos años y principios de los noventa, se ajustan los parámetros del modelo. De ahí surge un nuevo equilibrio único que predice la adopción de una política de libre comercio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548/841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo la metodología de opciones reales se presenta como un instrumento indispensable para que los consejos de administración de las empresas tomen decisiones respecto a proyectos de inversión o estrategias de negocios cuando existe la flexibilidad (opcionalidad) de tomar en el futuro nuevas decisiones relacionadas con extender, contraer, posponer, enmendar o abandonar un proyecto o estrategia. Al respecto, el presente trabajo realiza una revisión de las diferentes fórmulas analíticas que aparecen en la bibliografía para valuar la opcionalidad de estrategias en el supuesto de que el valor presente de los flujos de efectivo esperados sigue una distribución log normal o bien mediante el uso de métodos de árboles binomiales. En particular, se trata el caso de la toma de decisiones de venta o cierre de una empresa cuando el valor de mercado de sus títulos (de capital y deuda) excede el valor presente de los flujos de efectivo esperados o el valor presente de estos flujos es menor que cierto valor de recuperación. En este contexto se analiza el caso de una empresa mexicana de servicios satelitales de comunicación. Asimismo, se aplica la metodología de opciones reales a proyectos carreteros de inversión; específicamente se examina el caso del proyecto de construcción del primer tramo de la autopista Toluca-Atlacomulco según los supuestos de volatilidad constante y estocástica. Es también importante destacar que esta investigación se centra en: i) la valuación de opciones reales americanas de abandono; ii) valuación de opciones reales compuestas; iii) valuación de opciones reales con volatilidad extendiendo el modelo de Hull y White (1987).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549/842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México vive una transición demográfica en la cual el porcentaje de la población mayor de 50 años crece aceleradamente como resultado de un aumento considerable en la esperanza de vida. Dicha población tiene necesidades particulares que deben de ser tomadas en cuenta en la formulación de políticas, sobre todo en materia de acceso a servicios de salud y seguridad social. En este artículo presentamos una descripción general de la Encuesta Nacional de Salud y Envejecimiento (Enasem), un estudio de panel que comenzó en 2001 y que ofrece una oportunidad única para abordar temas demográficos y económicos complejos por medio de la exploración de las características personales, transferencias socioeconómicas e indicadores de salud para una muestra de 15 186 adultos de edad media y avanzada. También presentamos los resultados más relevantes de diferentes estudios que han utilizado la Enasem hasta la fecha. Nuestra revisión indica que México enfrenta desafíos considerables para satisfacer la demanda de servicios médicos para una población que es amenazada por una creciente presencia de enfermedades crónicas, sobre todo para la población de edad avanzada que no cuenta con cobertura de seguro médico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55/277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo de este artículo es constatar si la elección de recurrir a la banca como fuente de financiación viene determinada por las oportunidades de crecimiento, tamaño de la empresa, calidad de los proyectos, la calidad de las garantías prendarias y el riesgo de la empresa. Hemos utilizado una muestra de 168 empresas chilenas cotizadas en la Bolsa durante el periodo 1997-2008, que nos ha servido para examinar la relación entre factores específicos de las empresas y el endeudamiento bancario. Nuestros resultados evidencian que las oportunidades de crecimiento tienen una influencia positiva en el endeudamiento bancario, que se torna negativa ante la existencia de empresas de mayor tamaño con oportunidades de inversión. Además, el tamaño de la empresa y la calidad de los proyectos en curso se relacionan negativamente, mientras que la calidad de las garantías prendarias y el riesgo de la empresa tienen una incidencia positiva en el endeudamiento bancario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550/843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este libro de Víctor Urquidi es la suma tanto de su profundo y extenso conocimiento de la economía y de los mecanismos del desarrollo de la región latinoamericana como una poderosa reflexión crítica acerca de su propia acción como organizador en instituciones nacionales e internacionales. El resultado es un volumen que obliga al lector a reflexionar y a revisar las ideas corrientes respecto al presente y el futuro del desarrollo económico de la América Latina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551/828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El teorema de la envolvente de Viner-Wong afirma que los costos marginales son iguales, a largo y corto plazos, a la capacidad óptima. Este teorema implica que la combinación de la capacidad óptima a largo plazo con el comportamiento competitivo a corto plazo genera eficiencia a largo plazo. Esta propiedad se encuentra detrás de muchos proyectos de privatización de los pasados dos decenios. Exploramos aquí la solidez de esta propiedad de eficiencia a largo plazo extendiendo el contexto de equilibrio parcial de Viner-Wong a un contexto de equilibrio general simple. Demostramos entonces que la eficiencia a largo plazo no es cierta porque el modelo de corto plazo podría contener varios equilibrios de corto plazo que son ineficientes a largo plazo, excepto uno de ellos. Por tanto, es necesario complementar la capacidad óptima y el comportamiento competitivo a corto plazo por un tope para la tasa de remuneración del insumo de capital de la empresa, de modo que no exceda significativamente la remuneración de activos de riesgo comparable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552/829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo analiza el desarrollo económico mediante un proceso coevolutivo, en el que instituciones formales vinculadas al estado de derecho se transforman a la par de valores culturales. A partir de este proceso se abre la posibilidad de equilibrios múltiples y, por ende, se explica el atraso económico por la presencia de una cultura “oportunista” que se desenvuelve en un entorno de ilegalidad. Por medio de un modelo de teoría de juegos evolutivos se muestra que un panorama de bajo ingreso per capita resulta muy difícil de erradicar, tanto por la existencia de la inercia cultural propia de la coevolución como por la relevancia que tienen factores remotos (geográficos y socioculturales) en la probabilidad de que la economía haya tomado una determinada senda de crecimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553/831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El artículo usa datos de series temporales agregadas para estimar elasticidades de demanda por trabajo formal e informal respecto a salarios reales. Los resultados del análisis de largo plazo sugieren que el empleo en el sector formal es más elástico que en el sector informal. Por tanto, un incremento de los salarios reales en el sector formal, causado, por ejemplo, por un incremento de las contribuciones a la seguridad social que son reflejadas en mayores salarios reales brutos por medio de negociación colectiva, puede deteriorar el empleo formal. El efecto opuesto causado por el incremento en el empleo informal será menor, lo que sugiere que los empleados del sector formal serán desplazados hacia el desempleo. El artículo concluye que una baja elasticidad de oferta (relativa) combinada con una demanda (relativamente) más elástica sugiere que políticas encaminadas a aumentar la oferta relativa de empleo formal serían más eficientes en incrementar la protección social que intentos de aumentar la demanda de empleo formal. Sin embargo, empleadores y empleados necesitan percibir que los beneficios de la protección social son mayores que los costos. Por tanto, las políticas deben ser dirigidas a la elaboración eficiente de sistemas de protección social a bajo costo para todos, en vez del actual rígido y caro modelo brasileño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554/830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo desarrolla un modelo de bancos en el que la crisis de tipo fundamental (que destaca las variables macroeconómicas como las causantes de crisis bancarias) y la crisis de tipo sunspot (en la cual las expectativas autogeneradas crean equilibrios cuando los agentes entran en pánico y causan una corrida bancaria) coexisten. Una política de 100% de reservas previene ambos tipos de crisis, pero mantener reservas excesivas de liquidez impide inversiones socialmente productivas, y por ende no es óptima. Por otra parte, los bancos pierden su razón de ser con esta política. Una política de suspensión de convertibilidad puede reducir el bienestar social relativo al caso en el que las crisis bancarias son permitidas, si la probabilidad de corridas sunspot es suficientemente baja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555/832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo se enmarca en la teoría de precios por arbitraje (TPA) (Ross, 1976a) de la vertiente de variables macroeconómicas, que tiene la ventaja (en comparación con el análisis factorial) de permitir la interpretación económica de los factores y los premios por riesgo factoriales. Similar a Burmeister y McElroy (1988), consideramos cuatro factores macroeconómicos medidos y un factor no observado; la presencia de factores no observados es una generalización del trabajo previo de Chen, Roll y Ross (1986). Partiendo del modelo de factores, la TPA impone restricciones, las que son comprobadas empíricamente en el periodo 1990-2003. Además, el modelo de valoración de activos de capital (MVAC) está anidado en la TPA, lo que permite someter a prueba el modelo MVAC. Nuestros resultados son: i) la restricción de la TPA no es rechazada por los datos; ii) las sorpresas en la tasa de crecimiento del índice mensual de actividad económica (Imacec), en el precio del cobre y del petróleo aparecen como factores con premios por riesgo estadísticamente distintos de 0 en los rendimientos accionarios chilenos; mientras que las sorpresas en inflación no aparecen preciadas en la muestra, y iii) el modelo MVAC es fuertemente rechazado por los datos, en favor de la TPA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556/833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza el efecto de los salarios mínimos en los ingresos laborales en México. Con paneles de datos de la Encuesta Nacional de Empleo Urbano (ENEU) y con los registros administrativos del Instituto Mexicano del Seguro Social (IMSS) se muestra qué cambios en el salario mínimo real tienen un efecto de signo positivo en el cambio de los ingresos laborales para todos los grupos salariales. El efecto es más débil en los trabajadores que ganan varias veces el monto del salario mínimo. También se muestra que este efecto era más grande en el periodo que abarca de 1985 a 1993 que entre 1994 y 2001, lo cual sugiere que este efecto está perdiendo fuerza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">557/834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El concepto de seguridad alimentaria ha ido evolucionando y precisándose a la vez. Desde la preocupación por los suministros nacionales o mundiales la atención ahora se centra en el acceso a los alimentos. En este artículo se analiza como un problema combinado entre oferta y demanda, ya sea desde el punto de vista de la calidad de la producción como también respecto a la demanda efectiva de alimentos. El hambre y la inseguridad alimentaria son tanto el resultado como la causa de la pobreza, y por tanto eliminar el hambre no es sólo un imperativo moral y social sino también una buena inversión para el crecimiento económico, en particular para los países más pobres. Se analiza el efecto de la liberación comercial y la aportación de la biotecnología agropecuaria a la seguridad alimentaria de los países, sobre todo de los menos desarrollados. Finalmente se plantea una propuesta de programa mínimo que tiene por objetivo mejorar la competitividad de los agricultores familiares, y combinar de manera efectiva intervenciones públicas encaminadas a mejorar el funcionamiento de los mercados rurales para enfrentar las nuevas tendencias que se avecinan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">558/835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El libro de Santiago Levy reúne un conjunto de ensayos y documentos de política escritos en los pasados 15 años. En conjunto y por separado tienen la virtud de ofrecer la visión y las convicciones del autor respecto a temas relevantes del tránsito económico y social de México hacia una formación económica diferente a la que se organizó entre los años treinta y ochenta del siglo pasado y que aterrizó dramáticamente en la gran crisis de la deuda externa, los ajustes draconianos aplicados para encararla sin éxito y, luego, el proyecto de un cambio estructural, una “gran transformación”, que hiciese de la economía mexicana una economía abierta y de mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56/278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo investigamos la precisión y estabilidad de las proyecciones de corto plazo de la inflación en Chile provenientes de una determinada subfamilia extendida de modelos SARIMA que denominamos ESARIMA. Las proyecciones ESARIMA son comparadas con las provenientes de encuestas y de simples modelos univariados, incluyendo algunos que han sido tradicionalmente utilizados como marcos de referencia predictivos en la bibliografía. Nuestros resultados indican que el error cuadrático medio fuera de muestra de las proyecciones ESARIMA es menor que el de los métodos univariados considerados, cuando el horizonte predictivo varía de 1 a 4 meses. En horizontes superiores, los peores representantes de nuestra familia ESARIMA comienzan a ser superados por los mejores marcos de referencia univariados. Al comparar con la encuesta de expectativas económicas, los resultados van en la dirección opuesta: la encuesta es más precisa que la subfamilia ESARIMA en todos los horizontes. En general nuestros resultados son estadísticamente significativos a niveles de confianza usuales. Observamos también que la familia ESARIMA ofrece proyecciones más estables que los marco de referencia univariados, pero menos estables que las provenientes de la encuesta de analistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560/820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo analiza la reforma institucional de la política monetaria en la América Latina desde principios del decenio de los noventa. Afirma que el fortalecimiento de la independencia legal de los bancos centrales, junto con las políticas macroeconómicas, ayudó a disminuir la inflación desde tasas anuales de tres dígitos durante los años noventa hasta de un solo dígito en 2004. El ensayo presenta también los principales desafíos de la política monetaria en la actualidad, a saber: el logro de la estabilidad de precios, el restablecimiento de la confianza del mercado en las monedas nacionales y la congruencia de la política a pesar de los efectos de la volatilidad de los flujos de capital. Por último, se identifican las recurrentes crisis bancarias y la ausencia de disciplina fiscal como los riesgos principales para el éxito de la política monetaria de la América Latina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">561/822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las redes neuronales artificiales (RNA) se han convertido en un importante instrumento para modelar y predecir los rendimientos accionarios. Debido a que son modelos que incorporan variables no lineales (característica de la mayoría de las series económicas y financieras) funcionan mejor que los modelos estadísticos tradicionales, como las regresiones lineales o modelos Box-Jenkins. Este estudio intenta encontrar regularidades en los índices accionarios de 27 países mediante un acercamiento de redes neuronales artificiales y su contraste con modelos lineales rezagados, y aporta evidencia a la discusión actual respecto a la teoría de los mercados eficientes. Asimismo se realizan predicciones extramuestrales dinámicas sustentadas también con una prueba no paramétrica, que confirma excelentes resultados de las redes neuronales en contraste con los modelos autorregresivos tradicionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562/823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este trabajo analiza los efectos de la incertidumbre de las tasas de crecimiento del producto real (PIB real) y de las tasas de inflación en las tasas promedio de crecimiento del producto y de la inflación, empleando datos trimestrales de la Argentina, correspondientes a los tres decenios pasados. Para ello se utiliza un modelo GARCH-M, denominado VARMA, que permite probar las hipótesis de ausencia de asimetría y de diagonalidad del proceso de (varianzas) covarianza. Algunos de los resultados del trabajo sugieren que una mayor incertidumbre del crecimiento del producto estaría asociada con mayor crecimiento (teoría del motivo precautorio del ahorro), mientras que la mayor incertidumbre de la inflación reduciría el crecimiento económico, tal como afirman Okun (1971) y Friedman (1977). A su vez, tanto la inflación como el crecimiento del producto mostrarían una respuesta asimétrica significativa a los choques positivos y negativos de igual magnitud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563/824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo analizamos la propiedad de costo-efectividad de un sistema de permisos de emisión transferibles (SPET) frente a una política de comando y control. En contraste con la bibliografía del tema nuestro análisis considera, además de los costos del abatimiento, los costos de la fiscalización para inducir el cumplimiento asociados a cada sistema de control. Las políticas evaluadas permitirían reducir las emisiones de material particulado en fuentes fijas en la ciudad de Talcahuano, Chile. Nuestros resultados indican que reducir el nivel agregado de emisiones de material particulado por medio de SPET es 55% más barato que el que utiliza una política de comando y control. La propiedad de costo-efectividad de la política de mercado es robusta a cambios en los parámetros utilizados. No obstante, cambios en la meta ambiental generan variaciones importantes en la magnitud del ahorro de costos entre las políticas consideradas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565/906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México es un país donde ocurren distintos fenómenos naturales, como inundaciones, huracanes y terremotos, que pueden convertirse en desastres que requieren grandes sumas de dinero para mitigar su efecto económico en la población afectada. Generalmente, estas grandes sumas de dinero suelen ser aportadas por el gobierno federal y/o local. El objetivo del presente trabajo es el desarrollo de una metodología actuarial para el cálculo de bonos catastróficos para desastres naturales en México, de manera que, en caso de que el evento catastrófico ocurra durante la vigencia del bono, el gobierno cuente con fondos adicionales y, en caso de que no ocurra, los inversionistas que hayan comprado el bono obtengan tasas de interés superiores a la tasa libre de riesgo del mercado. Los bonos tienen la particularidad, a diferencia de bonos similares emitidos en otros países, que en caso de que ocurra el evento catastrófico el inversionista no pierde el total de su inversión sino sólo una parte o se le difiere su capital total o parte de éste a una fecha posterior a la de la finalización del contrato del bono catastrófico, esto con el fin de hacerlos más atractivos para el inversionista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566/826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo presenta la primera serie histórica de pobreza y desigualdad en México para el periodo 1950-2004. Observamos que la pobreza se reduce de manera continua e importante entre 1950 y 1984, permanece a niveles casi constantes entre 1984 y 1994 y tiene un abrupto incremento en 1996. Entre 1996 y 2004 se retoma la tendencia decreciente, hasta revertir el aumento de 1996. Por su parte, la desigualdad sigue una pauta de U invertida similar a la curva de Kuznets durante el periodo 1950-1984, pero aumenta de manera casi continua entre 1984 y 2000, para luego reducirse en 2002. Mostramos también que durante 1950-2004 ha existido una fuerte correlación inversa entre la pobreza y el crecimiento económico, y una fuerte correlación positiva entre la pobreza y la inflación, y entre la pobreza y la desigualdad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567/827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El libro que presentamos contiene, aparte de una detallada introducción, que más bien es otro polémico ensayo del volumen, 21 trabajos y testimonios, un apéndice estadístico y otro documental, destinados a estudiar las causas y motivos de la nacionalización de la banca mexicana de 1982, así como sus consecuencias macro y micro económicas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">568/812</t>
   </si>
   <si>
     <t xml:space="preserve">Este artículo compara las condiciones de crecimiento económico de China y de la América Latina con el fin de evaluar los temores de que la economía china desplace a la latinoamericana en los próximos decenios. Las fortalezas de China se basan en el tamaño de su economía, su estabilidad macroeconómica, la abundante mano de obra barata, la rápida expansión de la infraestructura física y la capacidad para innovar. Las debilidades de China tienen su origen en la poca separación que existe entre el mercado y el Estado e incluyen la débil gobernabilidad corporativa, un sistema financiero frágil y una mala asignación del ahorro. La América Latina y China comparten debilidades importantes: el imperio de la ley es débil, la corrupción endémica y la escolaridad es baja y mal distribuida. Aunque los temores de desplazamiento de los sectores industriales y de la inversión extranjera son exagerados, China puede ser una fuente de inestabilidad financiera internacional con efectos potencialmente muy dañinos para la América Latina.</t>
   </si>
   <si>
+    <t xml:space="preserve">569/813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una teoría de la depredación ampliamente conocida sostiene que las empresas con recursos financieros abundantes pueden realizar prácticas depredadoras para expulsar del mercado a sus competidores financieramente débiles. Sin embargo, un competidor financieramente débil que actúe de modo racional debe tomar en cuenta esta amenaza depredadora cuando elabore sus pasivos financieros. En este artículo examinamos cómo responde de manera óptima una empresa financieramente débil que se financia con deuda ante una amenaza depredadora, cuando existe selección adversa en los mercados financieros. Más precisamente, investigamos cómo cambia la estructura de maduración de su deuda ante tal amenaza. Mostramos que su respuesta óptima puede o no disuadir el comportamiento depredador. En caso de disuasión, ésta se logra remplazando deuda de corto plazo por la de largo plazo. En caso de que la empresa financieramente débil opte por no disuadir el comportamiento depredador, se financiará de manera exclusiva con deuda de corto plazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57/279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiamos la propiedad de costo efectividad de diferentes estrategias de regulación tendientes a mejorar la calidad ambiental. Nuestro análisis prospectivo considera la aplicación de sistema de permisos de emisión transable (SPET), sistema de permisos ambientales transables (SPAT) y estándares (Est) de fuentes fijas en Bogotá, Colombia. Un modelo de simulación numérica permitió obtener costos de cumplimiento de cada sistema de regulación, los cuales fueron comparados con la calidad ambiental inducida. Los resultados permiten concluir que el instrumento de más costo efectivo para cualquier meta de calidad ambiental es el SPET, seguido del SPAT y finalmente los Est. Además, el artículo presenta un nuevo resultado conceptual de la elaboración de estrategias de fiscalización para instrumentos de regulación que consideran la contaminación de forma espacialmente diferenciada. Los resultados sugieren que, para cualquier meta de mejoramiento ambiental, inducir cumplimiento en un SPAT es más barato que hacerlo en cualquier otro sistema de regulación considerado.</t>
+  </si>
+  <si>
     <t xml:space="preserve">570/814</t>
   </si>
   <si>
@@ -52,6 +2197,12 @@
     <t xml:space="preserve">Este artículo se centra en analizar los mecanismos de transmisión de las desalineaciones monetarias y cambiarias respecto a la inflación. Para esto, inicialmente se determinan los equilibrios en estos mercados y, por tanto, se estudia la demanda por dinero y la trayectoria de largo plazo del tipo de cambio real. Estos dos temas se utilizan como fundamentos para analizar los efectos de las desalineaciones cambiarias y monetarias en la inflación. El análisis empírico se realiza a partir de datos agregados y desagregados por tipo de productos de consumo.</t>
   </si>
   <si>
+    <t xml:space="preserve">572/905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo estudiamos el efecto de los componentes de corto y de largo plazos de la compensación gerencial en la relación entre la remuneración de los ejecutivos y el desempeño de la empresa. Proponemos un modelo dinámico de agencia con acumulación de capital para representar el proceso de toma de decisiones del principal respecto a la asignación óptima de los recursos en la empresa. A partir de una solución numérica de este modelo, producimos datos generados por el modelo a fin de computar las sensibilidades del desempeño a la remuneración que pueden compararse con las obtenidas en la bibliografía empírica de la compensación de los ejecutivos principales. Nuestros resultados son congruentes con algunas de las observaciones presentadas en esa bibliografía. Nuestra contribución en este artículo es el hallazgo de que el desempeño anterior de la empresa afecta más a la parte de la compensación futura de la remuneración del ejecutivo, mientras que el desempeño actual influye más en el componente salarial de esa remuneración.</t>
+  </si>
+  <si>
     <t xml:space="preserve">573/817</t>
   </si>
   <si>
@@ -64,442 +2215,103 @@
     <t xml:space="preserve">Este trabajo busca mejorar las bases de datos regionales. Derivamos estimaciones del producto interno bruto estatal para cada año del periodo 1940-1992. Las estimaciones fueron calculadas a partir de datos acerca del producto publicados por el INEGI y de información no oficial. Las series generadas de esta manera son derivadas usando la sensibilidad estimada por una ecuación de regresión y posteriormente ajustándolas mediante un método de conciliación transversal. Esta relación estimada varía en el tiempo, lo que permite captar el comportamiento temporal y las fluctuaciones cíclicas de la economía de los estados. Como resultado ofrecemos series de producto homogéneas y suficientemente largas, a partir de las cuales se pueden derivar estudios regionales más completos.</t>
   </si>
   <si>
-    <t xml:space="preserve">569/813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una teoría de la depredación ampliamente conocida sostiene que las empresas con recursos financieros abundantes pueden realizar prácticas depredadoras para expulsar del mercado a sus competidores financieramente débiles. Sin embargo, un competidor financieramente débil que actúe de modo racional debe tomar en cuenta esta amenaza depredadora cuando elabore sus pasivos financieros. En este artículo examinamos cómo responde de manera óptima una empresa financieramente débil que se financia con deuda ante una amenaza depredadora, cuando existe selección adversa en los mercados financieros. Más precisamente, investigamos cómo cambia la estructura de maduración de su deuda ante tal amenaza. Mostramos que su respuesta óptima puede o no disuadir el comportamiento depredador. En caso de disuasión, ésta se logra remplazando deuda de corto plazo por la de largo plazo. En caso de que la empresa financieramente débil opte por no disuadir el comportamiento depredador, se financiará de manera exclusiva con deuda de corto plazo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">575/819</t>
   </si>
   <si>
     <t xml:space="preserve">En 1996 el sistema de reparto estaba quebrado. La reforma de pensiones de ese año cambió el sistema de manera importante. En el presente trabajo se analiza las razones por las cuales el antiguo sistema estaba en quiebra a mediados de los años noventa; así como las características del nuevo sistema de pensiones, los incentivos que incluye para aumentar la cobertura del Sistema de Seguridad Social Obligatorio (SSO) y los riesgos a los que está expuesto, con particular hincapié en el de insolvencia fiscal. La cobertura del seguro social obligatorio de largo plazo ha sido reducida y si bien el nuevo sistema aumenta dicha cobertura, ésta ha permanecido en un porcentaje muy bajo de ocupados. Se estima una función probit para identificar los determinantes de la probabilidad de estar asegurado antes y después de la reforma, en la que se encontró que algunas variables como las horas trabajadas por día, la antigüedad en el empleo y el género de la persona dejan de ser relevantes para determinar la probabilidad de estar asegurado después de la introducción de la reforma.</t>
   </si>
   <si>
-    <t xml:space="preserve">560/820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza la reforma institucional de la política monetaria en la América Latina desde principios del decenio de los noventa. Afirma que el fortalecimiento de la independencia legal de los bancos centrales, junto con las políticas macroeconómicas, ayudó a disminuir la inflación desde tasas anuales de tres dígitos durante los años noventa hasta de un solo dígito en 2004. El ensayo presenta también los principales desafíos de la política monetaria en la actualidad, a saber: el logro de la estabilidad de precios, el restablecimiento de la confianza del mercado en las monedas nacionales y la congruencia de la política a pesar de los efectos de la volatilidad de los flujos de capital. Por último, se identifican las recurrentes crisis bancarias y la ausencia de disciplina fiscal como los riesgos principales para el éxito de la política monetaria de la América Latina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">572/905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo estudiamos el efecto de los componentes de corto y de largo plazos de la compensación gerencial en la relación entre la remuneración de los ejecutivos y el desempeño de la empresa. Proponemos un modelo dinámico de agencia con acumulación de capital para representar el proceso de toma de decisiones del principal respecto a la asignación óptima de los recursos en la empresa. A partir de una solución numérica de este modelo, producimos datos generados por el modelo a fin de computar las sensibilidades del desempeño a la remuneración que pueden compararse con las obtenidas en la bibliografía empírica de la compensación de los ejecutivos principales. Nuestros resultados son congruentes con algunas de las observaciones presentadas en esa bibliografía. Nuestra contribución en este artículo es el hallazgo de que el desempeño anterior de la empresa afecta más a la parte de la compensación futura de la remuneración del ejecutivo, mientras que el desempeño actual influye más en el componente salarial de esa remuneración.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">561/822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las redes neuronales artificiales (RNA) se han convertido en un importante instrumento para modelar y predecir los rendimientos accionarios. Debido a que son modelos que incorporan variables no lineales (característica de la mayoría de las series económicas y financieras) funcionan mejor que los modelos estadísticos tradicionales, como las regresiones lineales o modelos Box-Jenkins. Este estudio intenta encontrar regularidades en los índices accionarios de 27 países mediante un acercamiento de redes neuronales artificiales y su contraste con modelos lineales rezagados, y aporta evidencia a la discusión actual respecto a la teoría de los mercados eficientes. Asimismo se realizan predicciones extramuestrales dinámicas sustentadas también con una prueba no paramétrica, que confirma excelentes resultados de las redes neuronales en contraste con los modelos autorregresivos tradicionales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">562/823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo analiza los efectos de la incertidumbre de las tasas de crecimiento del producto real (PIB real) y de las tasas de inflación en las tasas promedio de crecimiento del producto y de la inflación, empleando datos trimestrales de la Argentina, correspondientes a los tres decenios pasados. Para ello se utiliza un modelo GARCH-M, denominado VARMA, que permite probar las hipótesis de ausencia de asimetría y de diagonalidad del proceso de (varianzas) covarianza. Algunos de los resultados del trabajo sugieren que una mayor incertidumbre del crecimiento del producto estaría asociada con mayor crecimiento (teoría del motivo precautorio del ahorro), mientras que la mayor incertidumbre de la inflación reduciría el crecimiento económico, tal como afirman Okun (1971) y Friedman (1977). A su vez, tanto la inflación como el crecimiento del producto mostrarían una respuesta asimétrica significativa a los choques positivos y negativos de igual magnitud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">563/824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo analizamos la propiedad de costo-efectividad de un sistema de permisos de emisión transferibles (SPET) frente a una política de comando y control. En contraste con la bibliografía del tema nuestro análisis considera, además de los costos del abatimiento, los costos de la fiscalización para inducir el cumplimiento asociados a cada sistema de control. Las políticas evaluadas permitirían reducir las emisiones de material particulado en fuentes fijas en la ciudad de Talcahuano, Chile. Nuestros resultados indican que reducir el nivel agregado de emisiones de material particulado por medio de SPET es 55% más barato que el que utiliza una política de comando y control. La propiedad de costo-efectividad de la política de mercado es robusta a cambios en los parámetros utilizados. No obstante, cambios en la meta ambiental generan variaciones importantes en la magnitud del ahorro de costos entre las políticas consideradas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565/906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México es un país donde ocurren distintos fenómenos naturales, como inundaciones, huracanes y terremotos, que pueden convertirse en desastres que requieren grandes sumas de dinero para mitigar su efecto económico en la población afectada. Generalmente, estas grandes sumas de dinero suelen ser aportadas por el gobierno federal y/o local. El objetivo del presente trabajo es el desarrollo de una metodología actuarial para el cálculo de bonos catastróficos para desastres naturales en México, de manera que, en caso de que el evento catastrófico ocurra durante la vigencia del bono, el gobierno cuente con fondos adicionales y, en caso de que no ocurra, los inversionistas que hayan comprado el bono obtengan tasas de interés superiores a la tasa libre de riesgo del mercado. Los bonos tienen la particularidad, a diferencia de bonos similares emitidos en otros países, que en caso de que ocurra el evento catastrófico el inversionista no pierde el total de su inversión sino sólo una parte o se le difiere su capital total o parte de éste a una fecha posterior a la de la finalización del contrato del bono catastrófico, esto con el fin de hacerlos más atractivos para el inversionista.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">566/826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta la primera serie histórica de pobreza y desigualdad en México para el periodo 1950-2004. Observamos que la pobreza se reduce de manera continua e importante entre 1950 y 1984, permanece a niveles casi constantes entre 1984 y 1994 y tiene un abrupto incremento en 1996. Entre 1996 y 2004 se retoma la tendencia decreciente, hasta revertir el aumento de 1996. Por su parte, la desigualdad sigue una pauta de U invertida similar a la curva de Kuznets durante el periodo 1950-1984, pero aumenta de manera casi continua entre 1984 y 2000, para luego reducirse en 2002. Mostramos también que durante 1950-2004 ha existido una fuerte correlación inversa entre la pobreza y el crecimiento económico, y una fuerte correlación positiva entre la pobreza y la inflación, y entre la pobreza y la desigualdad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">567/827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El libro que presentamos contiene, aparte de una detallada introducción, que más bien es otro polémico ensayo del volumen, 21 trabajos y testimonios, un apéndice estadístico y otro documental, destinados a estudiar las causas y motivos de la nacionalización de la banca mexicana de 1982, así como sus consecuencias macro y micro económicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">551/828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El teorema de la envolvente de Viner-Wong afirma que los costos marginales son iguales, a largo y corto plazos, a la capacidad óptima. Este teorema implica que la combinación de la capacidad óptima a largo plazo con el comportamiento competitivo a corto plazo genera eficiencia a largo plazo. Esta propiedad se encuentra detrás de muchos proyectos de privatización de los pasados dos decenios. Exploramos aquí la solidez de esta propiedad de eficiencia a largo plazo extendiendo el contexto de equilibrio parcial de Viner-Wong a un contexto de equilibrio general simple. Demostramos entonces que la eficiencia a largo plazo no es cierta porque el modelo de corto plazo podría contener varios equilibrios de corto plazo que son ineficientes a largo plazo, excepto uno de ellos. Por tanto, es necesario complementar la capacidad óptima y el comportamiento competitivo a corto plazo por un tope para la tasa de remuneración del insumo de capital de la empresa, de modo que no exceda significativamente la remuneración de activos de riesgo comparable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552/829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo analiza el desarrollo económico mediante un proceso coevolutivo, en el que instituciones formales vinculadas al estado de derecho se transforman a la par de valores culturales. A partir de este proceso se abre la posibilidad de equilibrios múltiples y, por ende, se explica el atraso económico por la presencia de una cultura “oportunista” que se desenvuelve en un entorno de ilegalidad. Por medio de un modelo de teoría de juegos evolutivos se muestra que un panorama de bajo ingreso per capita resulta muy difícil de erradicar, tanto por la existencia de la inercia cultural propia de la coevolución como por la relevancia que tienen factores remotos (geográficos y socioculturales) en la probabilidad de que la economía haya tomado una determinada senda de crecimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">554/830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo desarrolla un modelo de bancos en el que la crisis de tipo fundamental (que destaca las variables macroeconómicas como las causantes de crisis bancarias) y la crisis de tipo sunspot (en la cual las expectativas autogeneradas crean equilibrios cuando los agentes entran en pánico y causan una corrida bancaria) coexisten. Una política de 100% de reservas previene ambos tipos de crisis, pero mantener reservas excesivas de liquidez impide inversiones socialmente productivas, y por ende no es óptima. Por otra parte, los bancos pierden su razón de ser con esta política. Una política de suspensión de convertibilidad puede reducir el bienestar social relativo al caso en el que las crisis bancarias son permitidas, si la probabilidad de corridas sunspot es suficientemente baja.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553/831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo usa datos de series temporales agregadas para estimar elasticidades de demanda por trabajo formal e informal respecto a salarios reales. Los resultados del análisis de largo plazo sugieren que el empleo en el sector formal es más elástico que en el sector informal. Por tanto, un incremento de los salarios reales en el sector formal, causado, por ejemplo, por un incremento de las contribuciones a la seguridad social que son reflejadas en mayores salarios reales brutos por medio de negociación colectiva, puede deteriorar el empleo formal. El efecto opuesto causado por el incremento en el empleo informal será menor, lo que sugiere que los empleados del sector formal serán desplazados hacia el desempleo. El artículo concluye que una baja elasticidad de oferta (relativa) combinada con una demanda (relativamente) más elástica sugiere que políticas encaminadas a aumentar la oferta relativa de empleo formal serían más eficientes en incrementar la protección social que intentos de aumentar la demanda de empleo formal. Sin embargo, empleadores y empleados necesitan percibir que los beneficios de la protección social son mayores que los costos. Por tanto, las políticas deben ser dirigidas a la elaboración eficiente de sistemas de protección social a bajo costo para todos, en vez del actual rígido y caro modelo brasileño.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">555/832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo se enmarca en la teoría de precios por arbitraje (TPA) (Ross, 1976a) de la vertiente de variables macroeconómicas, que tiene la ventaja (en comparación con el análisis factorial) de permitir la interpretación económica de los factores y los premios por riesgo factoriales. Similar a Burmeister y McElroy (1988), consideramos cuatro factores macroeconómicos medidos y un factor no observado; la presencia de factores no observados es una generalización del trabajo previo de Chen, Roll y Ross (1986). Partiendo del modelo de factores, la TPA impone restricciones, las que son comprobadas empíricamente en el periodo 1990-2003. Además, el modelo de valoración de activos de capital (MVAC) está anidado en la TPA, lo que permite someter a prueba el modelo MVAC. Nuestros resultados son: i) la restricción de la TPA no es rechazada por los datos; ii) las sorpresas en la tasa de crecimiento del índice mensual de actividad económica (Imacec), en el precio del cobre y del petróleo aparecen como factores con premios por riesgo estadísticamente distintos de 0 en los rendimientos accionarios chilenos; mientras que las sorpresas en inflación no aparecen preciadas en la muestra, y iii) el modelo MVAC es fuertemente rechazado por los datos, en favor de la TPA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">556/833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza el efecto de los salarios mínimos en los ingresos laborales en México. Con paneles de datos de la Encuesta Nacional de Empleo Urbano (ENEU) y con los registros administrativos del Instituto Mexicano del Seguro Social (IMSS) se muestra qué cambios en el salario mínimo real tienen un efecto de signo positivo en el cambio de los ingresos laborales para todos los grupos salariales. El efecto es más débil en los trabajadores que ganan varias veces el monto del salario mínimo. También se muestra que este efecto era más grande en el periodo que abarca de 1985 a 1993 que entre 1994 y 2001, lo cual sugiere que este efecto está perdiendo fuerza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">557/834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El concepto de seguridad alimentaria ha ido evolucionando y precisándose a la vez. Desde la preocupación por los suministros nacionales o mundiales la atención ahora se centra en el acceso a los alimentos. En este artículo se analiza como un problema combinado entre oferta y demanda, ya sea desde el punto de vista de la calidad de la producción como también respecto a la demanda efectiva de alimentos. El hambre y la inseguridad alimentaria son tanto el resultado como la causa de la pobreza, y por tanto eliminar el hambre no es sólo un imperativo moral y social sino también una buena inversión para el crecimiento económico, en particular para los países más pobres. Se analiza el efecto de la liberación comercial y la aportación de la biotecnología agropecuaria a la seguridad alimentaria de los países, sobre todo de los menos desarrollados. Finalmente se plantea una propuesta de programa mínimo que tiene por objetivo mejorar la competitividad de los agricultores familiares, y combinar de manera efectiva intervenciones públicas encaminadas a mejorar el funcionamiento de los mercados rurales para enfrentar las nuevas tendencias que se avecinan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">558/835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El libro de Santiago Levy reúne un conjunto de ensayos y documentos de política escritos en los pasados 15 años. En conjunto y por separado tienen la virtud de ofrecer la visión y las convicciones del autor respecto a temas relevantes del tránsito económico y social de México hacia una formación económica diferente a la que se organizó entre los años treinta y ochenta del siglo pasado y que aterrizó dramáticamente en la gran crisis de la deuda externa, los ajustes draconianos aplicados para encararla sin éxito y, luego, el proyecto de un cambio estructural, una “gran transformación”, que hiciese de la economía mexicana una economía abierta y de mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">543/836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo hago revista de la bibliografía acerca de la microeconomía política en la participación electoral, el voto estratégico y la información de los votantes, con hincapié en avances recientes. Analizo brevemente además algunas consecuencias de esta bibliografía para la consolidación democrática en la América Latina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">544/837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo examina los determinantes del logro deportivo en los Juegos Panamericanos durante el periodo 1959-1999. La muestra considera un panel de países participantes, en el que la variable por explicar corresponde al número de medallas obtenidas. El modelo empírico planteado supone que el éxito deportivo depende de un conjunto de variables o recursos de los países, entre ellas el tamaño de la población, PIB, mortalidad infantil, porcentaje de población afroamericana y variables discretas que miden si el país en competencia actuaba como local o “vecino”. Dado que el número de medallas obtenidas depende del esfuerzo y recursos de los otros países en competencia, la estimación econométrica incorpora en la matriz de varianza-covarianza dicha correlación de errores. Los resultados indican que si se controla por efectos no observables por país, las variables de población y PIB no parecen afectar el número de medallas ganadas en los Juegos Panamericanos. Este resultado sería congruente con la hipótesis de que más que el tamaño o riqueza del país, lo que determina el éxito deportivo de élite son los recursos que se invierten en desarrollar esta actividad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">545/838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo continúa con la línea de investigación relativa a modelos predictivos de índices bursátiles: algoritmos genéticos y redes neuronales. Los modelos anteriores, paramétricos o no paramétricos, lineales y no lineales, buscan reconocer pautas de comportamiento y relaciones que se expresan en un lenguaje matemático, por medio de la estimación de coeficientes y su significación estadística. Sin embargo, la mayoría de los agentes que participan en el mercado bursátil utiliza un lenguaje que incorpora aspectos cualitativos para referirse, por ejemplo, al precio de un activo, a la rentabilidad de la inversión, etc. En este contexto, los modelos cuantitativos tienen dificultades para absorber esta información, lo que plantea la necesidad de desarrollar y analizar el uso de nuevas técnicas que permitan incorporar este tipo de referencias. La metodología de lógica borrosa, basada en la idea de que las variables deben ser manejadas no como un número sino más bien por las características que ellas presentan, responde a esta inquietud. Se utilizaron series históricas de cotizaciones diarias de los índices bursátiles norteamericanos DJI y Nasdaq (Estados Unidos), IPC (México) y TSE (Canadá), correspondientes al periodo comprendido entre el 8 de octubre de 1996 y el 7 de enero de 2005. Se construyó un modelo de lógica y otro de lógica difusa, para efectos de proyectar el signo de las variaciones de los índices bursátiles ya señalados. Los modelos de lógica y de lógica borrosa tuvieron una capacidad predictiva estadísticamente significativa. Además, ambos modelos lograron un rendimiento extranormal significativo y positivo al ser utilizados en una estrategia de comercio (trading), aun después de considerar los costos de transacción.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">546/839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Según algunos modelos teóricos, la manipulación electoral del gasto público puede tomar la forma de cambios en la composición del mismo, posiblemente sin afectar el déficit. La teoría también señala que la magnitud de cambios electorales en el gasto depende de las preferencias fiscales de los votantes. Este trabajo utiliza datos de gasto público y resultados electorales en municipios colombianos en un análisis integrado del comportamiento de los votantes y la dinámica del gasto público en periodos electorales. El hincapié es en la composición del presupuesto más que en su tamaño. Se encuentra que antes de elecciones los componentes del presupuesto que son más visibles y favorecidos por los votantes aumentan, mientras otros tipos de gasto caen. De manera congruente las perspectivas electorales futuras del partido en el poder son favorecidas por incrementos electorales del gasto “preferido”, mientras que incrementos electorales del déficit tienen el efecto contrario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">547/840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En los pasados dos decenios México transitó de una economía proteccionista a otra abierta y orientada a la exportación. ¿Por qué fue el proteccionismo una política estable y cómo fue sustituido por una reforma que actuó contra intereses creados? Para contestar estas preguntas utilizo un modelo de teoría de juegos en que la influencia de los grupos de interés influye en las decisiones de política. Al ajustar los parámetros del modelo a los datos, el juego cooperativo subyacente tiene un núcleo vacío y predice que una coalición de empresas que sustituyen importaciones y el gobierno es “estable” hasta los años ochenta. Para tomar en cuenta los cambios en las opciones de financiación del gobierno a fines de esos años y principios de los noventa, se ajustan los parámetros del modelo. De ahí surge un nuevo equilibrio único que predice la adopción de una política de libre comercio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">548/841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo la metodología de opciones reales se presenta como un instrumento indispensable para que los consejos de administración de las empresas tomen decisiones respecto a proyectos de inversión o estrategias de negocios cuando existe la flexibilidad (opcionalidad) de tomar en el futuro nuevas decisiones relacionadas con extender, contraer, posponer, enmendar o abandonar un proyecto o estrategia. Al respecto, el presente trabajo realiza una revisión de las diferentes fórmulas analíticas que aparecen en la bibliografía para valuar la opcionalidad de estrategias en el supuesto de que el valor presente de los flujos de efectivo esperados sigue una distribución log normal o bien mediante el uso de métodos de árboles binomiales. En particular, se trata el caso de la toma de decisiones de venta o cierre de una empresa cuando el valor de mercado de sus títulos (de capital y deuda) excede el valor presente de los flujos de efectivo esperados o el valor presente de estos flujos es menor que cierto valor de recuperación. En este contexto se analiza el caso de una empresa mexicana de servicios satelitales de comunicación. Asimismo, se aplica la metodología de opciones reales a proyectos carreteros de inversión; específicamente se examina el caso del proyecto de construcción del primer tramo de la autopista Toluca-Atlacomulco según los supuestos de volatilidad constante y estocástica. Es también importante destacar que esta investigación se centra en: i) la valuación de opciones reales americanas de abandono; ii) valuación de opciones reales compuestas; iii) valuación de opciones reales con volatilidad extendiendo el modelo de Hull y White (1987).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">549/842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México vive una transición demográfica en la cual el porcentaje de la población mayor de 50 años crece aceleradamente como resultado de un aumento considerable en la esperanza de vida. Dicha población tiene necesidades particulares que deben de ser tomadas en cuenta en la formulación de políticas, sobre todo en materia de acceso a servicios de salud y seguridad social. En este artículo presentamos una descripción general de la Encuesta Nacional de Salud y Envejecimiento (Enasem), un estudio de panel que comenzó en 2001 y que ofrece una oportunidad única para abordar temas demográficos y económicos complejos por medio de la exploración de las características personales, transferencias socioeconómicas e indicadores de salud para una muestra de 15 186 adultos de edad media y avanzada. También presentamos los resultados más relevantes de diferentes estudios que han utilizado la Enasem hasta la fecha. Nuestra revisión indica que México enfrenta desafíos considerables para satisfacer la demanda de servicios médicos para una población que es amenazada por una creciente presencia de enfermedades crónicas, sobre todo para la población de edad avanzada que no cuenta con cobertura de seguro médico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550/843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este libro de Víctor Urquidi es la suma tanto de su profundo y extenso conocimiento de la economía y de los mecanismos del desarrollo de la región latinoamericana como una poderosa reflexión crítica acerca de su propia acción como organizador en instituciones nacionales e internacionales. El resultado es un volumen que obliga al lector a reflexionar y a revisar las ideas corrientes respecto al presente y el futuro del desarrollo económico de la América Latina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330/386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si el sistema financiero es importante para el crecimiento como se ha demostrado en la bibliografía, entonces es pertinente preguntarse por qué hay una gran varianza en el desarrollo financiero entre los países. En otras palabras, ¿por qué los gobiernos no han impulsado las políticas públicas apropiadas para desarrollar el sector financiero y con ello el crecimiento? El artículo intenta responder estas preguntas explorando el desarrollo del sistema financiero mexicano desde 1880 hasta el presente. El argumento es que las instituciones que motivan a impulsar este desarrollo no pueden ser creadas de la noche a la mañana. La creación de esas instituciones depende en gran medida de otras instituciones que limitan la autoridad y discreción del propio gobierno. En suma, las instituciones políticas que limitan el accionar discrecional del gobierno son una condición necesaria para impulsar el desarrollo financiero y por ende el crecimiento económico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329/392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo analiza los episodios de crecimiento de los pasados cincuenta años en la economía de Guatemala, con particular hincapié en la desaceleración post 1999. Los resultados presentan dos importantes matices. El primero es de carácter positivo y alude al hecho de que este fenómeno sería más bien temporal. Segundo, la desaceleración económica post 1999 tiene un componente interno relacionado a la falta de competitividad y a la menor eficiencia. De esto último se desprende que reformas importantes deben realizarse en áreas relacionadas a la absorción de tecnologías, regulación económica, sector público, sector financiero, apertura, mercado laboral y pobreza, con el fin de promover mayor productividad y crecimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">331/393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uno de los enfoques más utilizados en comparaciones internacionales de la productividad y el cambio tecnológico agrícola utiliza funciones de producción de tipo Cobb-Douglas. Igualmente, el nivel tecnológico por lo común es representado mediante tendencias temporales lineales. En este trabajo se propone utilizar especificaciones menos restrictivas. En particular, se propone utilizar una función de producción translogarítmica junto con una representación estocástica dinámica del nivel tecnológico, lo cual produce un modelo panel dinámico no lineal. El modelo es estimado para un grupo de 104 países y varios subgrupos durante el periodo 1961-1991. Se encuentra que el modelo propuesto es mejor que otras especificaciones consideradas y se utilizan sus resultados para caracterizar los procesos tecnológicos y hacer comparaciones entre grupos de países. Uno de los resultados más destacables del estudio es que la brecha tecnológica entre países desarrollados y en desarrollo ha aumentado de manera considerable durante ese periodo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332/394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema de pensiones chileno es de capitalización individual con contribución definida y, en consecuencia, el monto futuro de la pensión no es conocido por el afiliadoex ante . En este trabajo estudiamos dos factores de riesgo que afectan las pensiones por recibir de los afiliados al sistema de pensiones chileno: desempleo temporal (y por tanto interrupciones en las cotizaciones) y riesgo de la rentabilidad del fondo. Para ello, desarrollamos un modelo en que los salarios dependen explícitamente de la edad del afiliado. En el modelo el riesgo de desempleo que afecta al afiliado se modela como un proceso de Markov con dos estados: empleado y desempleado; el riesgo de inversión se modela suponiendo que los fondos siguen un proceso browniano geométrico. Usamos este modelo para estimar la distribución de probabilidades de las pensiones de vejez futuras que el afiliado obtendría después de 35 a 40 años de vida laboral. Ello nos permite estimar el efecto probable de cambios en la tasa agregada de desempleo y de la rentabilidad esperada y riesgo de los activos financieros en la distribución de pensiones futuras. Partiendo de un panorama base estimado razonable para la economía chilena, encontramos que, en orden decreciente de importancia, los parámetros que más afectan las pensiones futuras son: la tasa de interés libre de riesgo, que repercute en la rentabilidad promedio de los fondos, el premio por riesgo de mercado, definido como el excedente de rendimiento de acciones respecto al título libre de riesgo, y el desempleo. Es decir, el riesgo de inversión es más importante que el riesgo de desempleo. Además, las mujeres son más vulnerables a estos riesgos que los hombres, y los hombres casados más que los solteros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333/395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es cuantificar para la economía española la evolución futura del gasto en pensiones de jubilación contributivas en el horizonte 2002-2050. Para ello se especifica un modelo en el que dicho gasto es función de la pensión media de las altas, de las bajas, de los pensionistas comunes, del número de pensionistas en cada uno de estos colectivos y del complemento de garantía de mínimos. La descomposición del gasto total en pensiones de jubilación en estos tres grupos permite analizar con más detalle cuál de ellos contribuirá en mayor medida a determinar la evolución futura del gasto, así como simular con mayor precisión el efecto de cambios legislativos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334/396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las reglas que organizan la estructura del legislativo afectan al comportamiento de sus miembros, la elección pública y los fundamentos políticos de una economía. El estudio de los mercados legislativos ha sido una constante en la investigación en economía política a lo largo de los decenios recientes. Este artículo analiza la organización industrial del Congreso de Diputados en España desde un enfoque propio de la nueva economía institucional. De este modo, se realiza un análisis de economía política madisoniana que estudia el papel de los derechos de propiedad, las jerarquías, los diputados individuales, los grupos parlamentarios, las transacciones y las comisiones en el Congreso español. En particular, este análisis, heredero de la tradición coaseana de “abrir la caja negra” de las organizaciones, evidencia las grandes caracteristicas que diferencian al sistema español del existente en el Congreso de Estados Unidos, el cual aparece en la bibliografía especializada como prototipo de Congreso de Comisiones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">335/397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo presentamos una valoración empírica de la evolución de las relaciones comerciales entre Iberoamérica y el Caribe y la Unión Europea entre 1992 y 2003, de acuerdo con los datos disponibles recientes, centrándonos en su volumen, la concentración por países y áreas y las fases por las que ha atravesado, en el marco de los principales acuerdos intrarregionales y la creciente liberación de sus economías. Se intenta detectar si los esfuerzos realizados por ambas partes, concretados en cambios en las políticas económicas en muchos países iberoamericanos, los acuerdos para incrementar los intercambios y la intensificación del diálogo político entre ambas orillas del Atlántico, se han materializado en resultados positivos. Las características generales, la intensidad de los mismos y su concentración en zonas determinadas se han abordado utilizando una serie de indicadores que permiten obtener conclusiones de estas transformaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337/398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo examina una ecuación de Euler para el consumoper capitaa fin de investigar si la seguridad social aumenta el consumoceteris paribusen 17 países. Con base en el trabajo seminal de Feldstein, la bibliografía ha estimado funciones de consumo para resolver este interrogante. Desafortunadamente, las funciones de consumo confunden los parámetros estructurales y los de expectativas, lo que torna problemática su interpretación. Además, si sus variables son estacionarias en las diferencias, el método de mínimos cuadrados podría producir estimaciones paramétricas incongruentes y en la virtual totalidad de los casos debe producir errores estándares inconsistentes para los parámetros estimados. En cambio, con supuestos razonables, el método generalizado de los momentos estima congruentemente los parámetros y los errores estándares de las ecuaciones de Euler. Además, los parámetros son interpretables con más facilidad. El ensayo encuentra grandes pruebas de que la seguridad social aumenta el consumoceteris paribus . Además, las estimaciones de coeficientes implican grandes efectos negativos en las tasas de crecimiento del acervo de capital, la producción y el consumo a lo largo de sus tasas de crecimientoequilibrado, o bien en sus niveles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338/399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre 1979 y 1999 las condiciones de salud variaron notoriamente en Chile: la tasa de mortalidad general se redujo de 6.8 a 5.4 por mil y la de mortalidad infantil de 75 a 38 por mil nacidos vivos. Este trabajo presenta una metodología para valorizar dichas reducciones de tasas de mortalidad. El valor de la vida se mide a partir de un modelo en que los agentes eligen sus pautas de consumo y ocio óptimas enfrentando probabilidades exógenas de supervivencia. Las condiciones de primer orden, así como algunos supuestos simplificadores relacionados a la función de utilidad, nos permiten calibrar el modelo utilizando datos de la economía chilena durante los años noventa del siglo XX. Los resultados indican que los cambios en la mortalidad general entre 1980 y 1997 representan mas de 270% del PIB de Chile de 1998.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339/400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analiza los cambios en la pauta de especialización de la economía chilena en su periodo de más rápido crecimiento y tomando en consideración su abundancia de factores productivos. Existen tres resultados importantes que son de interés para economías que crecen rápidamente y tiene una dotación de factores similar a la chilena. Primero, aun cuando existe un alto grado de heterogeneidad en la tasa de crecimiento del producto y la productividad de los distintos sectores, se encuentra que los más dinámicos son los vinculados a recursos naturales. En cambio, sectores comerciables intensivos en mano de obra tienden experimentar contracciones. Segundo, congruente con la evidencia internacional, cambios significativos en el pauta de especialización de la economía chilena, por ejemplo hacia manufacturas más elaboradas, sólo serían posibles en la medida en que mejore considerablemente la inversión en capital físico y humano. Tercero, no existe evidencia de que el sector comerciable sea por sí mismo el “motor del crecimiento”. En efecto, durante parte importante del periodo el sector no comerciable ha experimentado tasas de crecimiento del producto y la productividad superiores al del comerciable. Esto es congruente con una serie de reformas estructurales (privatización, liberación a la inversión extranjera) que han generado un gran dinamismo del sector servicios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">344/401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudia los cambios experimentados por la distribución personal de la renta en España a lo largo del período 1973-2000 utilizando las estimaciones de los parámetros del modelo de Dagum para el conjunto del Estado y sus diferentes comunidades autónomas. Con este fin, se realiza, en primer lugar, una aproximación teórica a los parámetros del modelo de Dagum que permite obtener una nueva caracterización de cada uno de ellos, en relación con su interpretación económica. Los datos utilizados para el ajuste de las distribuciones de rentas personales proceden de las Encuestas Básicas de Presupuestos Familiares para el periodo y del Panel de Hogares de la Unión Europea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">357/403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durante los dos pasados decenios México ha modificado su estructura fiscal intergubernamental, de un sistema muy centralizado a un panorama distorsionado en el que los gobiernos estatales han obtenido considerables funciones de gasto y la mayor parte de las responsabilidades impositivas ha permanecido en el gobierno federal. Se afirma que, a fin de pasar a un sistema fiscal más responsable, se requiere cierta descentralización de la tributación. En este contexto, construyendo un sistema fiscal representativo (SFR), este ensayo evalúa el esfuerzo fiscal y la potencialidad fiscal en México. El resultado es un insumo útil para la decisión política, no sólo para los futuros intentos de descentralización fiscal sino también para la elaboración de un nuevo programa de transferencias. Se obtiene también el primer SFR construido para el caso mexicano, en el que se demuestra que los datos regionales en México están mejorando gradualmente. Además, aunque los resultados arrojan alguna luz sobre los impuestos que potencialmente podrían descentralizarse, el artículo previene que las disparidades regionales podrían constituir una limitación para la extensión de tal descentralización.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">347/404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo presenta datos experimentales de los determinantes del cumplimiento del pago de impuestos en México, y los compara con los resultados de un experimento realizado en los Estados Unidos presentado por Alm, Jackson y McKee (1992). Los resultados de ambos países son comparados con las predicciones del modelo de Alligham-Sandmo, cuyo supuesto principal es que la probabilidad enfrentar una auditoría es exógena e independiente del monto y tipo de ingreso informado. Específicamente, en ambos experimentos, el aumento en la probabilidad de enfrentar una auditoria incrementa el pago de los impuestos; mayores multas son inefectivas; existe una relación negativa entre las tasas impositivas y el pago de los impuestos; pero el problema del gorrón (free rider) se presenta en México en las sesiones de bienes públicos aun cuando el gobierno es eficiente en la provisión de estos bienes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">348/405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El modelo de insumo-producto supone que cuando se desarrolla el sistema económico los coeficientes técnicos de la matriz cambian de acuerdo con dos tendencias contradictorias: i) las entradas de la matriz menguan debido a que la eficiencia en la línea de producción se incrementa, disminuyendo la demanda de insumos, o ii) los coeficientes se expanden, cuando los incrementos en la productividad se concentran en los factores empleados (insumos no producidos). En seguida, se espera que la estructura económica se torne crecientemente más compleja a medida que las industrias se integran de manera vertical y se produzca el proceso de desarrollo mismo. Sin embargo pocas veces se han analizado ambos fenómenos al mismo tiempo, a pesar de que están muy vinculados entre sí, y también con la evolución de la estructura productiva de la economía, así como con las oportunidades de desarrollo que se presentan a los distintos países. Este documento intenta examinar algunas consecuencias de estas tendencias en la evolución del sistema económico en relación con la dinámica que pudiera adoptar el proceso de crecimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350/406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Después de la crisis de 1995 el sistema bancario mexicano experimentó cambios considerables en sus normas contables. La mayoría de estos cambios ocurrió entre 1996 y 2001, y tuvo un gran efecto en la estructura y la interpretación de la información financiera de los bancos. Este documento explica los cambios principales en la contabilidad bancaria, su propósito y estructura, y analiza su efecto en la información financiera presentada por los bancos mexicanos. También proporciona el equivalente en inglés de los principales términos contables utilizados por los bancos mexicanos. El propósito principal de este documento es ofrecer una guía estandarizada para entender mejor la información financiera producida antes y después de la crisis, en el contexto actual de la internacionalización de la propiedad de los bancos mexicanos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352/408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este libro hace varias contribuciones importantes a la bibliografía de la medición de la pobreza y la política pública. Primero, es una relación de un capítulo fundamental de la historia política y económica de México --el proceso de adopción e implantación de la metodología oficial de la pobreza en México--, que aporta pruebas documentales de un enfoque progresista y práctico para la elaboración de políticas. Segundo, es una rica fuente de información respecto a los problemas conceptuales de la medición de la pobreza y los obstáculos prácticos para la aplicación de una metodología en el México del siglo XXI. Tercero, proporciona un marco o una guía para otros países que deseen seguir la vía de México hacia una transparencia mayor en la elaboración de políticas y una mayor responsabilidad gubernamental. Por último, el volumen mismo es una manifestación de este espíritu de transparencia, y su existencia misma hace una contribución importante hacia esta meta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429/485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo examina el papel que el sector de las organizaciones de microfinanzas reguladas -conforme al marco prudencial- ha desempeñado en el desarrollo del sistema financiero boliviano. Con referencias ocasionales, reconoce las contribuciones de las microfinanzas no reguladas en propiciar aumentos del bienestar de hogares en estratos pobres de la población. Si bien Bolivia es un caso especialmente exitoso, las lecciones registradas apuntan a las contribuciones potenciales de las microfinanzas a la profundización financiera en países semejantes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359/486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La evaluación tradicional de proyectos por lo general evita el importante proceso de análisis del riesgo porque se basa en el supuesto de mercados completos. En un mercado completo se pueden encontrar activos gemelos o elaborar una cartera de inversiones dinámica para replicar el riesgo del proyecto en todo estado de la naturaleza y momento futuro. Además, dado que se supone que los inversionistas están bien diversificados, lo que importa es el valor del proyecto como si éste se negociara en el mercado de capitales. Desafortunadamente, el supuesto de mercados completo se satisface con dificultad en la realidad, sobre todo en los mercados emergentes llenos de títulos ilíquidos y donde los mecanismos financieros, como las ventas en corto o las compras en el margen, están prohibidos o son inexistentes en la práctica. En este trabajo se suponen mercados incompletos y se sugiere un procedimiento de análisis del riego que puede aplicarse toda vez que no sea posible replicar el riesgo del proyecto a partir de títulos comerciados en el mercado bursátil, específicamente en dos situaciones: cuando los inversionistas mantienen una cartera de inversiones diversificada y cuando los inversionistas son empresarios no diversificados. El primer caso es importante porque durante el pasado decenio se ha observado un aumento en la inversión extranjera directa hacia los países emergentes, de modo que algunos empresarios globales bien diversificados han colocado su dinero en estos mercados. El segundo caso es de particular importancia para los mercados emergentes, donde una porción grande del total de empresas está integrada por negocios familiares o que son propiedad de un solo empresario no diversificado. En ambos casos se puede emplear una regla de inversión clara, como el valor presente neto, pero no existe un valor de mercado único para el proyecto. En el caso de los inversionistas globales bien diversificados se puede encontrar el proyecto dentro de un rango de posibles valores; mientras que para los empresarios no diversificados lo que importa es el valor del proyecto dado en el riesgo total del mismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360/546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo evalúa el efecto del Programa de Reforzamiento Escolar que Un Techo Para Chile aplica en campamentos de la región metropolitana. Los datos utilizados son extraídos de una encuesta especialmente elaborada por los autores para el desarrollo de este estudio. Se estima el efecto del programa en alumnos de bajos ingresos que asisten a la escuela primaria. Dichos efectos corresponden a un aumento en las calificaciones de matemáticas y castellano en el periodo académico 2004-2003. El efecto del programa es estimado mediante técnicas paramétricas. Posteriormente, la solidez de los resultados se examina por medio de estimaciones no paramétricas con distintos grupos de control. Los principales resultados sugieren que existe suficiente prueba estadística para determinar que el programa tiene un efecto positivo en las calificaciones de los alumnos. Este efecto se encuentra en un intervalo de 1.8 y 5.3 décimas para matemáticas; para castellano, en un rango que fluctúa entre 2.2 a 9.7 décimas. Además, el estudio muestra que las calificaciones que obtuvieron los alumnos en 2003 no determinaron su participación en el programa durante 2004.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361/547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo analiza los determinantes de la estructura de capital para una muestra de 113 empresas registradas en la Bolsa de Comercio de Santiago de Chile. El período de estudio comprende de 1990 a 1998. A diferencia de trabajos anteriores para el caso de Chile, se utiliza Lisrel (Linear Structural Relations) para analizar los determinantes y se encuentran diferencias importantes al momento de comparar los resultados obtenidos por mínimos cuadrados ordinarios (MCO). En el primer caso sólo la rentabilidad y la tangibilidad de los activos surgen como variables significativas, esto es, cuanto mayor rentabilidad de la empresa menor endeudamiento y cuanto mayor proporción de activos colaterales (tangibilidad) mayor endeudamiento. Finalmente, al usar MCO se encuentra fuerte apoyo a los siguientes determinantes: tangibilidad, rentabilidad, regulación y calidad y un apoyo menos significativo al crecimiento, tamaño y clasificación industrial. Por lo tanto los errores de medición pueden ser importantes al estimar modelos, es decir los indicadores pueden no capturar bien o completamente el constructor de interés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362/555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El modelo de Brander y Spencer (1985), con algunas extensiones como la diferenciación de productos, se aplica empíricamente a las importaciones de los Estados Unidos de textiles y confecciones desde Colombia y México. Se calcula los precios y las cantidades de equilibrio, como la política comercial óptima, a partir de los resultados del modelo teórico y de las estimaciones de las elasticidades precio de estos productos en el mercado de los Estados Unidos. Por último, se mide las pérdidas potenciales en bienestar que tuvieron Colombia y México como consecuencia de exportar esos bienes con precios y cantidades no óptimas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">363/556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo se examina los efectos de la política monetaria de Estados Unidos, mirada a través de la tasa de interés, en el desempleo y la tasa de inflación en una economía con características particulares: el caso de Puerto Rico. Se analiza un modelo teórico que fundamenta la construcción de un sistema de vectores autorregresivos con las tres variables mencionadas. Los resultados de la estimación revelan que las acciones de política monetaria de Estados Unidos anteceden y afectan significativamente los movimientos de las dos variables económicas de la isla consideradas. Cualquier implantación de política monetaria estadounidense, por medio de la tasa de interés, se trasmite a corto plazo a los precios y a largo plazo al sector real.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">364/558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta nota se argumenta que en México y más generalmente en la América Latina, algunos sectores de la sociedad todavía consideran, sin una evaluación previa y sin cuidar la efectividad de los recursos, que a mayor gasto público corresponde un mayor bienestar y un crecimiento más alto. En realidad, la experiencia muestra que el gasto público sólo puede promover y detonar temporalmente el crecimiento de algunas actividades productivas, pero no ser su motor permanente. Esta misma experiencia demuestra que sólo encauzando el gasto público a regiones y grupos sociales adecuadamente seleccionados se obtienen mayores frutos en crecimiento y bienestar social. Varias lecciones pueden aprenderse en materia de gasto público con base en lo ocurrido en el pasado reciente. La primera de ellas, y quizá la más importante, es el valor de la disciplina fiscal. Una disciplina fiscal de primera generación significa que el gasto público debe de corresponder a los ingresos esperados, mientras que una disciplina fiscal de segunda y tercera generación implica, además de lo alcanzado en la primera, respetar la asignación funcional y programática del gasto derivada de una planeación cuidadosa que redunde en altas tasas de rentabilidad social. En consecuencia, para corregir el déficit es imperativo emprender una reforma presupuestaria integral. Dicha reforma debe estar orientada, entre otros aspectos, a revertir el uso de los ingresos petroleros, que no son recurrentes, a la financiación de la operación de los servicios públicos básicos y a reorientar la asignación de los recursos a la acumulación de capital público de alta productividad y rentabilidad social.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365/559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hace algunos lustros Albert O. Hirschman —entre otros— escribía el obituario de la economía del desarrollo, habida cuenta de:i ) la crisis del keynesianismo yii ) la dificultad epistemológica de demostrar que el análisis del subdesarrollo ameritaba una teoría específica, distinta de la empleada en el escrutinio de las economías desarrolladas y, finalmente, la “ausencia” de nuevas ideas en la disciplina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366/561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo resume las consecuencias que tiene para la política económica el debate creciente acerca de las relaciones entre la tributación y la calidad de la gobernación en los países en desarrollo. La tributación –o su ausencia – afecta la calidad de la gobernación por dos canales principales. El primero es el grado de la dependencia de los gobiernos de la tributación general para obtener sus recursos financieros. Muchos gobiernos no necesitan hacer un gran esfuerzo fiscal porque disponen de grandes ingresos no fiscales provenientes de las exportaciones de petróleo, gas y minerales, o de la ayuda externa. Las élites estatales son entonces financieramente independientes de los contribuyentes ciudadanos. Esto cambia los incentivos políticos y los modos en que intentan obtener,usar y retener el poder. Las consecuencias de largo plazo para la gobernación son malignas: las élites estatales son menos sensibles y responsables ante los ciudadanos y, dependiendo de las fuentes de recaudación no tributarias, podrían tener incentivos menores para fortalecer las capacidades políticas y organizacionales del Estado. Los Estados tenderán a ser arbitrarios y débiles al mismo tiempo. En igualdad de todo lo demás, la dependencia de los gobiernos de la tributación general tiene efectos positivos en la calidad de la gobernación. Pero esa relación no es automática, es importante también la manera como los gobiernos graven. No podemos suponer que, porque dependen totalmente de la tributación para obtener sus recaudaciones, los gobiernos serán capaces, controlables o responsables. Podrían recaudar impuestos coercitivamente, dañar así las relaciones entre el Estado y la sociedad y reforzar la mala gobernación. Las autoridades públicas de los países pobres contemporáneos tienen ciertos incentivos para gravar coercitivamente. El establecimiento de prácticas de tributación más consensuales es una vía importante para mejorar la gobernación. Los donantes de ayuda podrían desempeñar un papel más constructivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367/562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construimos un modelo de opciones reales condicionales (MORC) para la evaluación de proyectos cuando sus flujos esperados son probabilísticos y contingentes al estado promedio de una variable exógena. Aplicamos el modelo al caso de proyectos de inversión en infraestructura petrolera tomando la base -la diferencia entre el precio del contrato a futuro respecto a un bien subyacente y el precio para entrega inmediata (o precio spot) del bien- como variable de estado. Nuestro resultado fundamental es que el MORC resulta un criterio de inversión más confiable cuando se valúan proyectos de inversión con flujos condicionales y estocásticos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368/563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo encuentra que el acervo de inversión extranjera directa (IED) afecta negativamente el crecimiento. El resultado se fundamenta en un modelo que incorpora el efecto contractivo de la repatriación del excedente de las empresas extranjeras que a mediano plazo contribuye a desalentar la inversión y el crecimiento. El modelo capta tanto el hincapié keynesiano en el estímulo de la demanda, como el de la tradición neoclásica en la aportación financiera inicial de la IED. La hipótesis se comprobó empíricamente para la economía argentina examinando la relación de causalidad en el sentido de Granger entre el crecimiento y una variable sencilla, la proporción de la economía controlada por empresas extranjeras. Esta variable permite percibir los cambios estructurales inducidos por la IED, que trascienden el impulso financiero inicial. Se sugiere que la dificultad que enfrenta la bibliografía del tema para comprobar empíricamente una correlación significativa entre IED y crecimiento, puede deberse a que examina los flujos en lugar de concentrase en el acervo IED. Asimismo, los resultados muestran que la IED desplaza la inversión nacional, sugiriendo que éste puede ser un canal que explique el efecto negativo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">369/702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasta la aparición de los primeros estudios centrados en la hipótesis de la claridad, la teoría del voto económico asumía implícitamente que el gobierno es responsable de la situación económica del país. A diferencia de los trabajos basados en la hipótesis de la claridad en la responsabilidad, en este artículo suponemos que los electores racionales tienen incertidumbre al momento de responsabilizar al Ejecutivo y son neutrales ante el riesgo. A partir de ahí, definimos una función de utilidad con dos argumentos: la valoración sociotrópica prospectiva y la distancia ideológica entre el votante y las diferentes opciones políticas entre las que puede elegir. De este modo, la decisión de voto económico consta de dos etapas: por una parte, el elector atribuye subjetivamente la responsabilidad al gobierno, y por otra, decide su opción de voto en función de la valoración sociotrópica prospectiva y la distancia ideológica. De los contrastes y estimaciones realizadas en este estudio se extraen tres grandes conclusiones: i) que no se puede seguir asumiendo que la atribución de la responsabilidad es un supuesto implícito al voto económico, ii) existe una probabilidad subjetiva de que el elector responsabilice al Ejecutivo de la situación económica del país, que afecta a su decisión individual y también condiciona el efecto de los factores explicativos del comportamiento electoral, y iii) que la ideología es un argumento de la función de utilidad, que no podemos obviar tal y como tradicionalmente ha hecho la teoría del voto económico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">370/569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este estudio analiza la capacidad de las redes neuronales para predecir la dirección de las economías de los Estados Unidos y México, con los índices rezagados de los mercados de capitales de cada país como insumos y el índice compuesto de indicadores adelantados de cada país (LEI, aquí tratado como índice coincidente) como salida resultante. La capacidad predictiva estable y significativa de las redes neuronales utilizadas fue establecida y su superioridad predictiva respecto a la de una regresión múltiple comparable fue medida con el método estadístico de medición de la precisión predictiva elaborado por Anatolyev y Gerko.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">371/570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo estudia los niveles mexicanos de pobreza por estado, durante el periodo 1992-2002, con el fin de evaluar el efecto que el ciclo económico y las políticas gubernamentales han tenido en ella. Encontramos que el ciclo economico y la pobreza urbana están inversamente relacionados y que las transferencias institucionales disminuyen la pobreza tanto en las áreas urbanas como en las rurales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372/571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo se pretende establecer si las elecciones en México han tenido algún efecto sobre la tasa de crecimiento del PIB, el desempleo, la inflación y el gasto público. Los resultados de un ejercicio econométrico indican que las elecciones no tienen efecto alguno en estas variables, exceptuando en el gasto público. El gasto público crece de manera extraordinaria justo antes de las elecciones presidenciales sin alterar el ciclo económico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374/572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los programas sociales pueden disminuir la productividad y el crecimiento económico al generar inadvertidamente incentivos perversos para los trabajadores y las empresas. La hipótesis central es que estos programas segmentan el mercado de trabajo, gravan al empleo formal asalariado y no asalariado. El autoempleo y el empleo de empresas informales que son mayores del óptimo disminuyen la productividad agregada del trabajo. A su vez, las diferencias en el costo del trabajo producen diferencias en los rendimientos del capital entre empresas: algunas de las empresas formales contratan legalmente trabajadores asalariados y algunas de las empresas informales contratan ilegalmente trabajadores asalariados. Dado el costo del crédito, los mayores costos del trabajo para las empresas formales distorsionan la asignación de la inversión en favor del sector informal; esta inversión se distribuye entre muchas empresas pequeñas que podrían desaprovechar las ventajas del tamaño como resultado de sus estrategias para evadir las contribuciones a la seguridad social. Esto disminuye la productividad media del capital, provocando pérdidas de la productividad dinámica. El argumento analítico se vincula, por una parte, a los datos empíricos indicativos de que las diferencias de la productividad del trabajo y del capital, entre sectores y empresas, contribuyen a explicar las diferencias observadas entre los países respecto al crecimiento de la productividad y por otra parte, a datos que sugieren una asociación negativa entre la productividad y la informalidad. Una hipótesis subsidiaria es que los programas sociales se financian en parte por la disminución de la inversión pública, en lugar de aumentar los impuestos, lo que limita la expansión de la infraestructura pública promotora del crecimiento económico. El ensayo sugiere que los programas sociales que disminuyen la productividad total de los factores, lo que se suma a los efectos de la menor inversión pública, explica en parte el crecimiento económico mediocre y el desempeño de la productividad en México en el contexto de la intensificada competencia internacional y la erosión de las ventajas del Tratado de Libre Comercio de América del Norte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">375/573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El desarrollo humano, entendido como un sinergismo a largo plazo entre los avances tecnológicos, fisiológicos y culturales, es un factor decisivo y de largo alcance en el crecimiento económico. Sin embargo, su proceso se caracteriza por trampas intergeneracionales que retardan el crecimiento económico y que deben tomarse en cuenta en el análisis de los efectos de las reformas pro-mercado en los pobres. Verificamos empíricamente la presencia de estas trampas intergeneracionales en el caso de México, al mostrar la existencia de los siguientes elementos constitutivos. La educación presenta rendimientos crecientes que no son aprovechados por la mayoría de la población (estimadores mincerianos que incluyen estatura y escolaridad). La nutrición y la salud infantiles están fuertemente asociadas a la probabilidad de continuar en las etapas escolares sucesivas (estimadores probit para la continuación escolar tres años más, una vez controlada la educación, el ingreso y la situación económica de los padres). La población se clasifica en dos niveles sociales: con secundaria completa o menos, y con 15 o más años de escolaridad. Los avances en la escolaridad del grupo más bajo responden principalmente a la educación pública. Se analizan las fallas de mercado que podrían causar la trampa intergeneracional de acumulación de capital humano. Aun cuando las reformas pro-mercado recientes en México aumentaron los rendimientos de la educación, la presencia de la trampa impidió la inversión necesaria en capital humano, y los beneficios de la reforma fueron menores que lo esperado. Para promover el crecimiento económico a largo plazo de una manera efectiva, las reformas pro-mercado deben complementarse con políticas que apoyen la nutrición, la salud y el desarrollo infantil, así como también la educación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">377/574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente trabajo analiza las notas estructuradas más comunes en el mercado. Se presenta una descripción detallada de dichos instrumentos financieros destacando sus características particulares y dificultades técnicas en el proceso de evaluación. Debido a que la mayoría de las notas estructuradas que se negocian en el mercado financiero mexicano son certificados de depósito con garantía del capital inicial, este trabajo proporciona los elementos básicos que se requieren para su evaluación, como son los bonos cuponados flotantes y los productos de las tasas de interés. Asimismo, para la mayoría de las notas estructuradas estudiadas aquí se desarrollan modelos teóricos de evaluación. Por último, con fines ilustrativos, varios ejemplos numéricos acerca de las notas son presentados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">378/575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo realiza una evaluación del desempeño de un amplio grupo de fondos de inversión españoles, tanto en términos globales como mediante una descomposición del mismo en sus dos componentes; capacidades de sincronización con el mercado y selección de valores. Ambos análisis se efectúan a partir de medidas tradicionales y de medidas que consideran la variación en el tiempo de la rentabilidad y riesgo mediante la incorporación de variables macroeconómicas representativas del ciclo económico en España. La incorporación de estas variables supone una mejora del desempeño global y un empeoramiento de la capacidad de selección de valores del gestor. En cuanto a la capacidad de sincronización con el mercado no es posible extraer conclusiones. Sin embargo, observamos una mejora del poder explicativo de los modelos como consecuencia de tal incorporación, lo que nos permite abogar por los modelos condicionales. Además, este trabajo corrige los problemas de multicolinealidad entre dichas variables mediante un análisis factorial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">379/576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La pregunta que se responde en este trabajo es: ¿cómo se afecta el bienestar social de los habitantes de la cuenca Lerma-Chapala, si se reduce la oferta de agua para el sector agrícola y se incrementa el nivel del lago de Chapala? Por hipótesis, el volumen total de agua que se les retira a los agricultores aguas arriba (estado de Guanajuato) escurre hacia el lago de Chapala. Sin embargo, el aumento en el nivel del lago de Chapala no es concluyente en cuanto al efecto sobre el bienestar social de los habitantes de la cuenca, ya que éste dependerá a su vez de la comparación o del equilibrio que se establezca entre dos efectos que operan en sentido contrario: i) el positivo ocasionado por el incremento de la valoración por el lago como un bien medioambiental, por parte de todos los habitantes de la cuenca, y ii) el negativo en el bienestar de los consumidores del estado de Guanajuato, que se produce cuando aumenta el precio del bien agrícola, como consecuencia de la reducción de la oferta de agua a los agricultores y del incremento derivado en el valor del agua.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400/577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo investiga la relación entre exportaciones y crecimiento económico para los casos de Guatemala y El Salvador, destaca la valoración de efectos de desbordamiento económico entre estos dos países. Se estiman vectores de cointegración para cada país, incluyendo las variables exportaciones, PIB e inversión pública y privada y se estimaron los correspondientes modelos de corrección de errores para cada país, inclusive el término de error de vector de cointegración del otro país como una medida de “exceso de demanda”. Se reestimaron los vectores de cointegración, incluyendo junto a las respectivas variables nacionales usadas anteriormente, la variable exportaciones del país vecino y se infiriere la existencia de un vector de cointegración en cada país. Se estimaron modelos de corrección de errores de cada país y se analiza las relaciones de causalidad de Granger entre las distintas variables. El trabajo concluye que la interdependencia económica entre estos países da lugar a una interdependencia de las políticas sociales nacionales, lo que implica la conveniencia de establecer un marco de coordinación de políticas sociales nacionales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">381/578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se presenta una descripción de los factores que deben tomarse en cuenta en el establecimiento de un régimen fiscal para la actividad petrolera y que asegure una apropiada explotación de los recursos naturales. Se describe el régimen fiscal que aplicaba a Petróleos Mexicanos (Pemex) hasta el 2005 así como la problemática que generaba en la situación financiera de Pemex y en la toma de decisiones eficientes de inversión. Se describe el nuevo régimen fiscal y sus beneficios enfocándose en el efecto que provoca en la cartera de inversión de la empresa, permitiendo que un gran número de proyectos que con el régimen fiscal anterior tenían resultados financieros negativos después de impuestos, con el nuevo régimen fiscal sean rentables económicamente. Por último, se presenta un análisis comparativo que se realizó en distintos países del mundo, con el objeto de evaluar la competitividad del nuevo régimen fiscal, tanto para proyectos de crudo como de gas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382/579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo muestra un hecho estilizado robusto en la relación entre dinero e inflación en Chile: la inflación causa (o precede) al crecimiento del dinero y no viceversa. Este hallazgo es robusto a la consideración del tipo de política monetaria, período muestral, agregado monetario, consideración de segundos momentos condicionales o la inclusión de metas de inflación. A su vez, se presenta una motivación teórica de porqué la evolución de los agregados monetarios no necesariamente está asociada a la inflación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">383/580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analizan la relación entre salud, crecimiento económico y pobreza, los niveles, desigualdad y evolución de los indicadores de salud así como la equidad y eficiencia de la acción pública en materia de salud en México. Este país tiene niveles promedio de salud inferiores a los esperados para su desarrollo y, aunque en general han mejorado en el tiempo, lo han hecho a un ritmo menor al adecuado. Existen también grandes contrastes entre zonas geográficas, grupos étnicos y niveles socioeconómicos. La desigualdad en los indicadores es reflejo de la desigualdad en la acción pública, ya que el gasto público en salud no es progresivo y ha mantenido a cerca del 50% de la población fuera de los sistemas de seguridad pública. Asimismo, se concluye que para alcanzar la eficiencia adecuada, el sistema de seguridad social debería establecer un fondo único nacional para financiar intervenciones médicas específicas y esquemas complementarios para servicios médicos adicionales; permitir a múltiples instituciones, tanto públicas como privadas, proporcionar los servicios de salud cubiertos por dicho fondo único para incrementar el acceso y competencia; así como garantizar la portabilidad de derechos, para el caso, por ejemplo, en que el asegurado se traslade a otra zona geográfica o cambie de situación laboral.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384/581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentamos un modelo en el que los padres deciden el uso óptimo del tiempo de los niños entre ir a la escuela o trabajar, dado que existen programas financiados por el gobierno para aumentar la escolaridad. Aun si el presupuesto del gobierno es restringido y no se puede distinguir el nivel de pobreza de cada familia, se puede beneficiar a los pobres. Sin embargo, si el programa no es lo suficientemente generoso y se impone condiciones para recibir el beneficio, los más pobres podrían decidir no participar en él.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">385/582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se analiza los desafíos de instrumentar el principio de neutralidad tecnológica en la regulación de industrias convergentes. Los resultados indican que cuando las industrias que convergen están sujetas a severas asimetrías regulatorias, se gesta un mecanismo de transmisión regulatoria. En particular, encontramos que la industria desregulada sufre efectos negativos que emanan de la regulación instrumentada en la industria adyacente. Este mecanismo de transmisión genera incentivos para que la industria desregulada replique la regulación vigente en la industria regulada. Desde una perspectiva intersectorial, las consecuencias para el bienestar de esta replicación son ambiguas toda vez que éstas dependen del grado de diferenciación vertical entre industrias, la magnitud de la intervención regulatoria y también del momento preciso cuando esta replicación ocurre. Concluimos arguyendo que la instrumentación de una trayectoria óptima de bienestar intersectorial requiere de cierto grado de flexibilidad regulatoria pero también de la disposición de un mecanismo de coacción intersectorial que permita la instrumentación de políticas óptimas cuando éstas sean necesarias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386/583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establecemos un modelo teórico en que la inversión en infraestructura complementa la inversión privada. Luego aportamos datos de series de tiempo en México del efecto de la infraestructura pública en la producción, y si estos niveles han sido fijados de manera óptima. En particular, estudiamos los efectos de largo plazo de choques en infraestructura en la producción real. Calculamos derivadas de largo plazo para los kilovatios de electricidad, los kilómetros de caminos y el número de líneas telefónicas instaladas. Encontramos que los choques en la infraestructura tienen efectos positivos y significativos en la producción para electricidad y caminos. Nuestros resultados respaldan los modelos en los que el crecimiento de largo plazo es causado por factores de producción endógenos. Para la electricidad y los caminos, la provisión de infraestructura no alcanza el nivel óptimo que maximiza el crecimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430/584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo valida el comportamiento caótico en las Bolsas de Valores de Argentina, Brasil, Canadá, Chile, Estados Unidos, Perú y México utilizando los índices accionarios Merval, Bovespa, S&amp;amp;P TSX Composite, IPSA, IGPA, S&amp;amp;P 500, Dow Jones Industrials, Nasdaq, IGBVL e IPC, respectivamente. Los resultados de distintas técnicas y métodos como análisis gráfico, análisis de recurrencia, entropía de espacio temporal, coeficiente de Hurst, exponente de Lyapunov y dimensión de correlación, apoyan la hipótesis de que los mercados bursátiles americanos se comportan de forma caótica, en contra de la hipótesis de mercados eficientes y la hipótesis de aleatoriedad. Esta conclusión valida el uso de instrumentos predictivos de rendimientos accionarios en los mercados de renta variable americanos. Destacable es el resultado de la técnica coeficiente de Hurst, que en promedio fue de 0.75 para los índices en estudio, lo que estaría justificando la utilización de modelos tipo Arfima, entre otros, para la predicción de dichas series.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387/585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza la relación entre el pago de dividendos, el riesgo empresarial, el endeudamiento y la propiedad de los consejeros. Los resultados muestran, en primer lugar, que el pago de dividendos reduce el riesgo y el endeudamiento y aumenta la propiedad de los consejeros. En segundo lugar, se obtiene que dicho riesgo repercute de manera negativa en el endeudamiento y en el pago de dividendos y positiva en la propiedad de los consejeros. En tercer lugar, se halla que las empresas más endeudadas reparten una cuantía inferior de dividendos, tienen un riesgo menor y presentan mayor propiedad por parte de los consejeros. Por último, se observa que la citada propiedad incrementa el riesgo, el endeudamiento y el pago de dividendos de la sociedad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">388/586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Después de años de funcionamiento efectivo, los regímenes intermedios se convirtieron, a medida que avanzaba el proceso de integración financiera, en sistemas proclives a sufrir ataques especulativos. La evidencia empírica recogida en este trabajo muestra que los sistemas de tipo de cambio fijo menos estrictos (soft pegs) fueron el epicentro de la mayoría de las crisis cambiarias del decenio de los noventa en Europa, la América Latina y el Este de Asia. En consecuencia los “regímenes intermedios” y, especialmente los soft pegs, han perdido crédito en beneficio de los sistemas más extremos del espectro cambiario. Este trabajo aporta nuevas pruebas de la tendencia a la bipolarización de los regímenes cambiarios y estudia la evolución de los sistemas de tipo de cambio entre 1990 y 2004, tanto en las economías avanzadas como en las economías emergentes más integradas a los mercados de capitales internacionales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389/587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El ambiente competitivo alentado por los procesos de globalización económica ha hecho que la innovación y el desarrollo se erijan como la principal estrategia competitiva, por lo que la educación juega un papel trascendental. Por otra parte, las políticas económicas impulsadas por los gobiernos han sido insuficientes para promover crecimiento con equidad, a lo que abona en gran medida el hecho de que grandes segmentos de micro y pequeñas empresas enfrenten dificultades para aumentar la productividad y ser competitivas. Ello torna prioritaria la creación de mecanismos de transferencia de conocimientos que logren superar las restricciones tecnológicas de estos segmentos, proceso en el que las instituciones de educación superior pueden tener un papel muy importante. Este artículo presenta un programa de apoyo universitario basado en el servicio social que favorece la transferencia de conocimientos empresariales hacia sectores vulnerables como las microempresas marginadas, y fomenta en ellas la productividad e innovación para convertirlas en unidades económicas más competitivas. Los resultados muestran que estas empresas son capaces de mejorar sus indicadores económicos mediante el apoyo técnico universitario y que las universidades pueden contribuir a una política industrial que promueva el desarrollo microempresarial y atenúe el rezago social que existe en el país.</t>
+    <t xml:space="preserve">58/280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiamos empíricamente el efecto que tienen las transferencias locales (públicas y privadas) en la probabilidad de alternancia partidista en el marco de la teoría del clientelismo político y de las teorías de la provisión de bienes públicos con fines electorales en países en desarrollo. Lo anterior según dos perspectivas: la primera alternancia y la alternancia entre gobiernos consecutivos. Para ello empleamos un modelo de duración y otro de panel con variable dependiente discreta. Utilizando datos referentes a los 124 municipios que conforman el estado mexicano de Jalisco, los principales resultados del modelo de riesgos proporcionales indican que las transferencias privadas resultaron efectivas para evitar la primera alternancia, mientras que las estimaciones en panel muestran que las transferencias públicas son más exitosas en aras de mantener el poder en los municipios analizados entre gobiernos consecutivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59/281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo del artículo es observar la influencia de un convenio colectivo de empresa en la evolución de la cotización bursátil de la empresa afectada. Primero, presentamos un modelo teórico que analiza el efecto del acuerdo en la cotización bursátil de la empresa afectada. En el supuesto de que los inversionistas tienen aversión al riesgo la firma del convenio crea incentivos para reducir el volumen de títulos de la empresa afectada, con lo que se evitan pérdidas potenciales. Nuestra hipótesis es que la firma del acuerdo tiende a incrementar los salarios por encima del valor de la productividad marginal de la mano de obra, entonces los inversionistas tienen una expectativa de descensos de valor anormales en las acciones de la empresa afectada. En segundo lugar, utilizamos la técnica de estudios de eventos (Event Study) para realizar un estudio empírico con datos del mercado continuo español. Finalmente, cuantificamos los rendimientos y volúmenes negociados en el día que se da a conocer el acuerdo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">596/1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:una característica deseable en los instrumentos de regulación ambiental es que fomenten la adopción de tecnologías de abatimiento más limpias. Es natural asumir que políticas de regulación más estrictas incentivan una mayor adopción de dichas tecnologías. Sin embargo, se ha demostrado que, bajo competencia perfecta, esto no siempre es así.Metodología:este artículo ofrece un estudio teórico sobre los incentivos de tres instrumentos de regulación ambiental (impuestos, permisos comerciables y estándares de emisión) en la adopción de una nueva tecnología de abatimiento para un oligopolio de Cournot.Resultados:al igual que en competencia perfecta, si las curvas de costo de abatimiento marginal de dos tecnologías (una más deseable que la otra) se cruzan y las firmas tienen costos de adopción diferentes, es posible que los impuestos altos, pocos permisos comerciables y un estándar de emisión pequeño (políticas estrictas) desincentiven la adopción de tecnologías nuevas.Conclusiones:al elegir un instrumento regulatorio es importante considerar la estructura de las tecnologías de abatimiento disponibles. De no hacerlo, en lugar de fomentar el uso de tecnologías más limpias, el regulador puede hacer lo contrario si las políticas son muy estrictas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60/267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo examina las experiencias macroeconómicas de cinco países suramericanos —Argentina, Brasil, Chile, Colombia y Perú— desde los años noventa. Se destacan características comunes en sus políticas macroeconómicas y en las crisis cíclicas que experimentan, las que predominan sobre diferencias relevantes que se examinan. Se analiza cómo, no obstante la estabilización de los precios y la mayor disciplina fiscal logrados, se obtiene un crecimiento mediocre del PIB (3.2% desde los años noventa), resultado que ha estado asociado a una baja formación de capital. Al examinar las causas se encuentra una intensa asociación con la inestabilidad del entorno macroeconómico —en particular, demanda agregada y tipo de cambio real—, una especie de “montaña rusa” que enfrentan los productores del PIB. Esta inestabilidad, a su vez, aparece determinada por choques cíclicos de los flujos de capitales y términos del intercambio. Se concluye que la “incompletitud” de los logros macroeconómicos está en el centro de la falta de convergencia al desarrollo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605/940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El profesor Kenneth Arrow murió el 21 de febrero de 2017 a la edad de 95 años. Era universalmente considerado (junto con Paul Samuelson, John Hicks y posiblemente —dependiendo de los gustos— John Maynard Keynes, Milton Friedman y Gary Becker) como uno de los economistas más extraordinarios del siglo XX. También fue mi economista favorito de todos los tiempos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606/941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Para contribuir al control de la epidemia de sobrepeso y obesidad en México, se implementó, a partir de enero de 2014, una estrategia integral que incluye un impuesto a bebidas azucaradas y a un grupo de alimentos con alto contenido calórico, entre los que se encuentran las botanas. En este artículo analizamos cómo se comportan los precios de las botanas ante el incremento de los impuestos y estimamos el posible impacto del incremento en precios en el consumo.Métodos:Para el análisis de precios aplicamos un modelo de datos panel con tres escenarios y un modelo de series de tiempo interrumpidas. Para la estimación del posible impacto del incremento en precios en el consumo desarrollamos escenarios de elasticidad y tasas de impuesto. En ambos casos usamos información pública del INEGI.Resultados:Del análisis de precios, los resultados indican que la industria transfirió el impuesto al precio en las botanas en su totalidad. Asimismo muestran que el impuesto vigente de 2014 a 2016 generó una disminución moderada del consumo. Las estimaciones del impacto en el consumo indican que una mayor tasa impositiva generaría mayores disminuciones de consumo y que la medida impositiva sería más efectiva si las demandas son elásticas.Conclusiones:Los resultados proporcionan información para replantear el nivel de tasa impositiva y alertar sobre la necesidad de evaluar la estrategia en su conjunto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607/942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Los encargados de políticas públicas ambientales han pasado por alto la relevancia de los ecosistemas urbanos, a pesar de que estos ecosistemas son particularmente importantes para la provisión de servicios que benefician directamente la salud, seguridad y recreación de las personas. La valoración económica de los ecosistemas urbanos es útil para informar los análisis costo-beneficio —que son urgentes en ciudades de países en desarrollo ya que son las que contienen los bosques periurbanos más deteriorados. En este documento, se estima el valor recreativo del Parque Natural Desierto de los Leones y del Parque de los Dinamos— ambos, sitios recreativos periurbanos localizados en la periferia de la Ciudad de México.Métodos:Se implementa el método del costo del viaje. Este método estima el valor de uso de un sitio recreativo al inferir la demanda anual de viajes al lugar. La demanda se ha estimado mediante un Modelo de Conteo en su versión de Clases Latentes, lo cual permite controlar por la heterogeneidad en preferencias evidenciada por la presencia de una proporción de visitantes que concurren los lugares recreativos frecuentemente.Resultados:El Desierto de los Leones recibe dos tipos de visitantes. Cada tipo de visitante asigna a cada viaje un valor recreativo de 33 dólares (del 2008) y 12 dólares (del 2008), respectivamente. El valor recreativo ponderado del Desierto de los Leones es de 223 dólares (del 2008) anuales por persona. El Parque de los Dinamos es visitado por tres tipos de visitantes. Un tipo de visitante representa un tercio de los visitantes totales, y no parece responder a cambios en costos de viaje. El segundo y tercer tipos de visitantes asignan valores recreativos de, respectivamente, 2 dólares y 6 dólares por viaje. El valor recreativo ponderado del Parque de los Dinamos es de 158 dólares (del 2008) anuales por persona.Conclusiones:Sugerimos interpretar las estimaciones reportadas como cotas mínimas del valor recreativo de los parques bajo estudio. Esto, debido a que, durante los últimos años, la Ciudad de México se ha expandido aún más, su población se ha incrementado, y las condiciones económicas de los habitantes han mejorado en promedio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">608/943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Existe una amplia diferencia en el costo total de los avances en efectivo que se ofrecen en Chile. Un escaso conocimiento del costo total de los avances en efectivo indica un consumidor vulnerable que puede ser incapaz de estar al tanto de cuándo y con cuál institución financiera adquirir un avance en efectivo.Metodología:Este trabajo busca averiguar las características de los consumidores y de las instituciones financieras que pueden estar relacionadas a un mayor o menor conocimiento del costo total pagado en los avances en efectivo.Resultados:Los resultados de una regresión logística jerárquica muestran que el bajo conocimiento del costo total pagado en los avances en efectivo está asociado a segmentos de consumidores que no usan el costo total del avance en efectivo como señal de calidad, los consumidores de mayor edad, las mujeres y los que no son clientes de la institución financiera que ofrece el avance en efectivo. Los resultados también sugieren que la publicidad del costo total pagado en los avances en efectivo es sólo efectiva para los consumidores con un bajo uso del costo total pagado como señal de calidad (efecto interacción). Las otras variables examinadas no fueron significativas.Conclusiones:Este artículo muestra que el bajo conocimiento en el costo total pagado en los avances en efectivo no es homogéneo entre los consumidores y las instituciones financieras que ofrecen estos avances en efectivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">609/944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Una de las contribuciones más sobresalientes de la teoría estructuralista es la hipótesis de la devaluación contractiva. La misma fue desarrollada en un contexto de tipos de cambios fijos o semifijos y poca movilidad de capitales. Aunque la literatura ha incorporado nuevos problemas como los efectos “hoja de balance”, aún no se han examinado los problemas que la hipótesis plantea para la administración de un régimen de metas de inflación.Métodos:Analizamos las condiciones de estabilidad de un modelo estilizado, cuyas ecuaciones describen economías como las de América Latina, combinando los efectos contractivos de la devaluación con reglas de política monetaria.Resultados:En presencia de efectos contractivos de la devaluación existen efectos desestabilizadores asociados a los movimientos del tipo de cambio. La estabilidad es más probable si el Banco Central renuncia a estabilizar el producto. Las políticas de acumulación de reservas incrementan la probabilidad de obtener un sistema estable.Conclusiones:El carácter contractivo de la devaluación dificulta el manejo de la política monetaria bajo un esquema de metas de inflación. Las políticas que regulan los flujos de capitales, junto con la intervención cambiaria, pueden jugar un papel relevante en la administración exitosa de dicho régimen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61/268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente artículo analiza el efecto de la difusión de la tecnología del Norte (NRD) relacionada con el comercio, la educación y la gobernabilidad en la productividad total de los factores (PTF) en la América Latina y el Caribe (ALC) y otros países en desarrollo. La NRD de los países en desarrollo se define como la suma ponderada de los acervos de ID del Norte, con ponderaciones relacionadas con la apertura para con los socios comerciales del Norte. La NRD especificada por industria se basa en los acervos de ID específicos por industria del Norte, las pautas de comercio entre el Norte y el Sur, y las relaciones entre los insumos y la producción del Sur. Los principales hallazgos son los siguientes: i) el efecto de la educación y la gobernabilidad en la NRD es significativamente mayor en ALC que en otros países en desarrollo, mientras que sucede lo contrario en el caso de la NRD; ii) la educación, la gobernabilidad y la NRD tienen efectos adicionales en la PTF en las industrias de ALC que se caracterizan por una intensa inversión en ID, de la interacción con las otras dos variables, y iii) dado que la NRD aumenta con la apertura hacia el Norte y con los acervos de ID del Norte, ambas variables aumentan la PTF del Sur tanto de manera directa como por medio de la interacción con la educación y la gobernabilidad. Estos efectos de interacción sugieren que un aumento cualquiera de las tres variables de políticas —educación, gobernabilidad y apertura— produce ciclos virtuosos de crecimiento. Dichos ciclos resultan ser menores cuando se trata de un aumento en sólo una de estas variables, más intensos si se presenta un aumento en dos de ellas y todavía más intensos cuando el aumento ocurre en las tres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610/945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Una herramienta que ha sido ampliamente usada para identificar el estado que guardan las condiciones financieras en un país son los índices de condiciones financieras. Éstos sintetizan la información de diferentes variables en un solo indicador, lo que permite identificar el comportamiento general de las condiciones financieras de manera oportuna y condensada.Metodología:Construimos y analizamos, mediante la metodología de componentes principales, un índice de condiciones financieras (ICF) para México. Para ello incluimos 30 variables relacionadas con el comportamiento de los mercados financieros, clasificadas en nueve grupos: tasas de corto y largo plazos; mercado cambiario, mercado bursátil, mercado de derivados y mercado crediticio; primas de riesgo; deuda privada; y expectativas de inflación.Resultados:Los resultados muestran que este ICF capta adecuadamente momentos de astringencia en los mercados financieros en México, como la crisis financiera de 2008-2009, la crisis en Europa a mediados de 2011, el inicio de la discusión del retiro del estímulo monetario en los Estados Unidos en la segunda mitad de 2013, entre otros.Conclusión:El ICF propuesto para México funciona como herramienta para monitorear la evolución del estrés financiero e identificar en qué componentes de los mercados financieros existen señales de astringencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611/946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:El uso de instrumentos derivados como política corporativa de cobertura de riesgos financieros genera un impacto positivo en el valor de la empresa. Sin embargo, en países caracterizados por una débil protección legal al inversionista y alta concentración de la propiedad, como es el caso de Chile, los accionistas mayoritarios pudiesen utilizar esta política para extraer riqueza a los accionistas minoritarios.Método:Haciendo uso del Método Generalizado de los Momentos (GMM), este trabajo analiza un panel de 133 empresas no financieras que cotizan en la Bolsa de Comercio de Santiago de Chile, entre los años 2008 y 2013.Resultados:Los resultados indican una relación positiva y estadísticamente significativa entre el uso de instrumentos derivados y valor de la empresa. No obstante, esta evidencia se condiciona cuando el(los) principal(es) accionista(s) posee(n) el control de la compañía. Si el accionista principal o los tres accionistas más importantes concentran más de 67% de la propiedad, entonces la relación entre monto de derivados utilizados y valor de la firma es negativa.Conclusiones:Al analizar la dinámica entre la concentración de la propiedad y el uso de instrumentos derivados, encontramos que el principal y los tres accionistas más importantes, al alcanzar la súper mayoría de votos, utilizan los derivados para resguardar su propia riqueza, estrategia que es valorada negativamente por el mercado y que entrega evidencia en favor de la hipótesis de redistribución de riqueza entre los accionistas controladores y los minoritarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62/269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema impositivo que combina una única tasa impositiva con un mínimo exento ha sido objeto de largo debate en los años recientes. Sus detractores argumentan que los sistemas impositivos de estas características son menos progresivos y en consecuencia el grado de redistribución tenderá a ser menor. Por lo contrario, sus defensores esgrimen su sencillez como una de sus ventajas mayores, ya que la sencillez impositiva reduce las posibilidades de evasión y elusión fiscal. En este artículo presento un marco de análisis en el que comparo el cumplimiento fiscal de un mismo contribuyente con dos estructuras impositivas distintas: una de tarifa única con mínimo exento y otra de tasas marginales crecientes. Dada la condición de que en ambas estructuras impositivas la carga fiscal soportada por un contribuyente honesto sea equivalente, demuestro que la renta declarada será mayor con aquella estructura impositiva en la que el contribuyente se enfrente a un tasa marginal más alta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627/1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63/270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo estima que la evolución del producto real y per capita de México entre 1895 y 2008 se puede describir adecuadamente por medio de un modelo estacionario en tendencia, afectado por cuatro cambios estructurales, cuya ocurrencia coincide con cambios institucionales internos, guerras y crisis económicas y financieras. Estos cambios son modelados por funciones logísticas de transición suave, en las que los periodos de transición son estimados endógenamente. En términos de tasas de crecimiento, nuestros resultados indican que para el PIB real y PIB real per capita de México existen cuatro etapas de crecimiento estacionario separadas por tres periodos de transición. Por ejemplo, para el PIB real se identifican las siguientes etapas de crecimiento estacionario: 1895-1924, 1935-1952, 1956-1978 y 1989-2008, separadas por tres épocas de transición (1925-1934, 1953-1955 y 1979-1988).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64/271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este artículo se realiza una estimación de los efectos del incremento del salario mínimo interprofesional en el empleo de los trabajadores inmigrantes en España. Se trata de una investigación novedosa en ese país que aprovecha, por una parte, el espectacular aumento de la población inmigrante acontecido en España durante el pasado decenio y, por otra, el aumento extraordinario del salario mínimo interprofesional que se inició desde 2004. Entre los principales resultados se ha detectado una sensibilidad negativa del empleo de los inmigrantes a los cambios en diferentes índices de salarios mínimos. No obstante, los efectos difieren según el género del trabajador y su lugar de porcedencia.</t>
   </si>
   <si>
     <t xml:space="preserve">640/961</t>
@@ -562,6 +2374,12 @@
     <t xml:space="preserve">Los autores presentan aquí un método de pronóstico para las series de tiempo fractales, y una variación de la fórmula de Feder que estimula el movimiento browniano fraccionario. Aplicamos este método a las cifras del índice de precios y cotizaciones (IPC) de la Bolsa Mexicana de Valores desde el 22 de noviembre de 2002 hasta el 16 de febrero de 2004. Por último, comparamos los resultados con otros dos métodos, incluyendo un método de pronóstico econométrico AR(1).</t>
   </si>
   <si>
+    <t xml:space="preserve">65/273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las decisiones humanas suelen implicar costos y beneficios distribuidos en el tiempo. Este artículo revisa el estado actual de la investigación con neuroimagen acerca de la manera en que el cerebro produce decisiones intertemporales. Se propone que mientras resulta poco probable que la neurociencia sea el terreno adecuado para decidir entre los modelos formales propuestos por la economía conductual, los recientes avances en el estudio del cerebro ofrecen la posibilidad de enriquecer dichos modelos incorporando nuevos conocimientos respecto a cómo el cerebro representa magnitudes, atribuye valor, regula conductas orientadas a metas y genera pensamiento prospectivo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">650/957</t>
   </si>
   <si>
@@ -586,898 +2404,52 @@
     <t xml:space="preserve">En este trabajo se analiza la factibilidad de exportación en contratemporada de Argentina a México de cuadernos de espiral, por parte de una empresa radicada en Argentina. Se analiza el mercado argentino y mexicano y se estudia el posicionamiento estratégico de las empresas que operan en el mercado mexicano. Se incluye un análisis de sensibilidad en función del tipo de cambio y se consideran varios otros panoramas. Se concluye que la opción propuesta es altamente conveniente, tanto en la faz técnica como la temporal, lo que permitiría un mejor posicionamiento de la empresa exportadora.</t>
   </si>
   <si>
-    <t xml:space="preserve">390/588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La América Latina ha estado dominada por expansiones del crecimiento que con gran frecuencia han terminado en crisis y prolongados periodos de estancamiento. Esto ha conducido a un crecimiento escaso durante la mayor parte del siglo pasado. Este artículo reseña las experiencias del crecimiento latinoamericano y examina algunos ámbitos particulares que ayudan a explicar por qué el crecimiento sostenido ha sido tan elusivo en la región. En particular, se analiza el papel de la apertura y del comercio intrarregional, el papel de las instituciones, la estabilidad macroeconómica y la desigualdad, todos factores decisivos para la reanudación y el mantenimiento del crecimiento económico. Se examinan también problemas más generales relacionados con el crecimiento, como la importancia de la protección de los derechos de propiedad y la existencia de una estructura adecuada de las remuneraciones del esfuerzo, lo que incluye la igualdad de oportunidades. Por último, se presenta una panorámica breve de los acontecimientos macroeconómicos actuales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391/589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo establece un modelo de competencia à la Cournot para determinar los precios, cantidades y poder de mercado de los principales intermediarios del mercado secundario de obras pictóricas en México. La hipótesis base es que esas tres variables dependen críticamente de la diferenciación de productos, costos y variaciones conjeturales que los intermediarios mantienen entre sí. Los resultados de las simulaciones revelan que el modelo propuesto funciona muy bien para explicar el comportamiento de los intermediarios ya que, al introducir el parámetro de diferenciación de productos, se pueden distinguir dos nichos en el mercado secundario: el de piezas únicas o altamente diferenciadas vendidas en las casas de subasta y el de obras comunes o de menor diferenciación canalizadas mediante los dealers y las galerías. Esta identificación permea todos las conclusiones de la investigación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">392/590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocurre la inflación dual cuando los aumentos de precios de los bienes no comerciables son mayores que los bienes comerciables. En este artículo elaboramos un modelo sencillo en el que el gasto público tiene una externalidad positiva en la producción de ambos sectores. Los resultados principales sugeridos por el artículo son los siguientes: i) un aumento del gasto público no productivo no genera una inflación dual, lo que confirma el resultado de Balassa-Samuelson; ii) un aumento del gasto público productivo incrementa la productividad de ambos sectores y esto puede conducir a la inflación dual, la deflación dual o ningún efecto en los precios, y iii) la inflación dual ocurre sólo cuando el gasto público productivo tiene un efecto en la tecnología del sector comerciable mayor que la del no comerciable, como lo ilustran los datos españoles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">393/592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudian las funciones de largo plazo y la dinámica del comercio exterior de México con datos agregados y desagregados. Las exportaciones totales dependen del índice de la producción industrial de los Estado Unidos y del tipo de cambio real. El nivel de las importaciones totales es función del índice de producción industrial en México, del nivel de las exportaciones totales y del tipo de cambio real. Un resultado importante es que casi todas la funciones, tanto de largo como de corto plazos, son estables para el periodo 1990-2000, mientras que ninguna lo es para toda la muestra. Esto sugiere que la apertura comercial de los años ochenta provocó un cambio estructural muy pronunciado en el comercio exterior mexicano y que el TLCAN es la continuación natural de dicho proceso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">394/593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este documento se identifica los orígenes y tipos de rigideces de precios que se presentan en la industria manufacturera mexicana. Así, con esa finalidad, durante el segundo semestre de 2005 se levantó una encuesta en la que participaron 398 empresas de dicho sector. Destacan del análisis correspondiente los siguientes resultados. Primero, las empresas mantienen en promedio sus precios sin cambio durante un periodo cercano a seis meses. Segundo, la mayor parte de ellas revisa sus precios en un lapso predeterminado; sin embargo, ante el impacto de perturbaciones significativas, más de la mitad de las compañías encuestadas suele modificar esta estrategia al efectuar revisiones contingentes al comportamiento de las variables que afectan su estado de resultados. Tercero, la inflexibilidad de los precios se asocia en la mayor parte de los casos a los costos de producción y a la existencia de contratos explícitos e implícitos. Cuarto, la reacción de los precios es sensible al tipo y dirección de las perturbaciones que afectan a cada empresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395/797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La consideración de la prima de riesgo de inflación en la ecuación de Fisher y la rápida caída en la inflación en Colombia entre los años 1999 y 2000 nos permiten examinar la hipótesis de linealidad para los diferenciales esperados de inflación entre 6 y 12 meses adelante construidos suponiendo cuatro mecanismos de formación de expectativas de la inflación futura: expectativas racionales, autorregresivas, estáticas y adaptativas. Se emplean dos conjuntos de información para examinar la hipótesis de la existencia del efecto Fisher: el índice de rentabilidad de los títulos de endeudamiento (TES) comerciados en la Bolsa de Valores de Colombia, IRTES, y la curva cupón cero. La hipótesis de linealidad se rechaza con el mecanismo de expectativas racionales. Siempre que se usa la IRTES los resultados son los que predice la teoría en signo y significación. El contenido informativo del spread de tasas de interés es sensible al conjunto de información utilizado y al mecanismo de expectativas empleado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">396/595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La mayor parte de los beneficios de los proyectos de infraestructura de transporte -tanto sobre ruedas como aéreo- se materializan en ahorros de tiempo para los usuarios. En muchos casos, más de la mitad de los beneficios sociales de inversiones en carreteras, vialidades urbanas o aeropuertos son atribuibles a los ahorros de tiempo de viaje. Este documento presenta estimaciones del valor social del tiempo para México. Utilizando los únicos datos disponibles del INEGI de horas trabajadas y remuneraciones pagadas en el sector manufacturero, se estima que el valor social del tiempo para 2006 es de 60.65 pesos por hora para los usuarios en general del Aeropuerto Internacional de la Ciudad de México y de 110.54 pesos por hora para sus pasajeros. Esta estimación no es incongruente con evaluaciones que descansan sobre diferentes métodos propuestos por dos autoridades en este campo. Este rango de estimaciones también no es incongruente con cálculos hechos por el ILPES para Perú y por diversos autores para la América del Norte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397/798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 2004 se promulgó en México la Ley para la Transparencia y Ordenamiento de los Servicios Financieros (LTOSF). En este documento se describen las disposiciones más importantes de dicha ley y algunas de las principales medidas que el Banco de México ha instrumentado, así como las pautas de uso de medios de pago distintos al efectivo antes y después de 2004. Los datos muestran una tendencia más pronunciada hacia el uso de medios de pago electrónicos, aunada a un incremento menos que proporcional de los ingresos reales de los bancos asociados a la provisión de pagos a través de transferencias electrónicas de fondos y tarjetas bancarias. Lo anterior es congruente con el tipo de medidas que se han impulsado con base en la LTOSF. No obstante, se identifican otros elementos por los cuales este fenómeno no es atribuible exclusivamente a estas modificaciones en el marco legal. También se describen los cambios principales al marco regulatorio por medio de la aprobación de la nueva LTOSF en junio de 2007.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402/597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los mercados de trabajo son importantes porque la mayoría de la gente, sobre todo los pobres, obtienen todo su ingreso, o la mayor parte de él, del trabajo que realizan. Este ensayo estudia los mercados de trabajo por medio de los modelos sectoriales. La primera sección sustantiva presenta la esencia de la modelación multisectorial, en particular el papel del dualismo del mercado de trabajo. Dado que los mercados de trabajo se componen a menudo de segmentos muy distintos, un enfoque analítico útil y perspicaz consiste en empezar con sólo dos segmentos interrelacionados, el formal y el informal. En consecuencia, las secciones presentan modelos de salarios y empleo en la economía formal, la economía informal y las relaciones intersectoriales, respectivamente. La última sección sustantiva muestra las contribuciones de estos modelos al entendimiento y el análisis de la política en los mercados de trabajo. No debería esperarse que el mismo modelo se aplique a África Oriental y Asia Oriental, o a Sudáfrica y Corea del Sur. Sin duda, el modelo “correcto” es específico del contexto. La combinación de la observación empírica y la modelación analítica ha generado grandes avances. Las políticas sólidas para el mercado laboral requieren modelos sólidos del mercado de trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403/598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estudia el mercado de seguros cuando las compañías aseguradoras (aseguradoras) venden sus pólizas por medio de agencias de seguros (agencias o agentes). Analiza los efectos de las comisiones por ventas pagadas a las agencias en las primas de seguros y en el bienestar del consumidor. Se considera el comportamiento oportunista de las agencias al vender las pólizas emitidas por la aseguradora que le ofrece la comisión mas alta. Se consideran también diferentes estructuras de mercado: un duopolio de aseguradoras que compiten en comisiones (competencia entre aseguradoras), la colusión entre aseguradoras con las agencias manteniendose independientes (colusión horizontal o monopolio de aseguradoras) y la colusión entre aseguradoras y agencias (integración vertical o agentes exclusivos). Mostramos que la competencia entre aseguradoras y la integración vertical generan primas más altas que la colusión horizontal. Además, mostramos que la comisión óptima desde del punto de vista del consumidor pueda ser mayor que la comisión generada por cualquiera de las tres estructuras de mercado antes señaladas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404/599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo nos ocupamos de la relación entre el comercio internacional y la contaminación endógena con un mecanismo en que la política comercial proporciona al gobierno nacional una advertencia creíble que influye en el comportamiento estratégico de las empresas para adoptar tecnologías más limpias. El gobierno tiene un incentivo mayor para proteger una industria limpia que para proteger a una muy contaminante. En este sentido, una economía abierta localmente contaminada con una estructura de mercado imperfectamente competitiva tenderá a disminuir las emisiones de contaminantes en mayor medida que con un régimen autárquico. Un compromiso con el libre comercio sería contraproducente: eliminaría la capacidad del gobierno para amenazar creíblemente a los niveles de protección más bajos. Demostramos que cualquier liberación del comercio podría disminuir el bienestar del país.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">405/600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuestro propósito es estimar a partir de un enfoque multisectorial, los efectos en el ingreso de los hogares rurales y en la pobreza rural que podrían traer consigo cambios en sus actividades productivas. Para ello usamos una matriz de contabilidad social agregada de diez comunidades rurales mexicanas caracterizadas por la pobreza, en la que se encuentra la mayor parte de sus hogares y aplicamos la técnica de descomposición de multiplicadores. Los resultados muestran que, dentro de las cinco actividades productivas de los hogares rurales, la agricultura comercial tiene los efectos multiplicadores más altos en su ingreso y en la disminución de la pobreza. Por su parte, la producción de cultivos básicos (maíz) tiene grandes enlaces de producción y de interdependencia. A partir de estos resultados hacemos sugerencias de medidas que puede contribuir al combate a la pobreza rural.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">406/601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este trabajo es estudiar el desempeño de corto y largo plazo de los retornos accionarios de las empresas latinoamericanas que realizaron una oferta inicial de acciones (IPO) por medio de American Depositary Receipts (ADR) en la Bolsa de Comercio de Nueva York (NYSE). Los resultados señalan una subvaloración estadísticamente significativa de 9,22% para las ADR-IPOs que componen la cartera, y un rendimiento al finalizar el tercer año de 3,75%, estadísticamente significativo. Ambos comportamientos fueron confirmados por la metodología Block Bootstrap, y obtuvieron -en promedio- 11,33% para la subvaloración inicial y 3,92% para el tercer año posregistro. Estos resultados son esperados y de acuerdo a lo indicado por la bibliografía financiera internacional. Al estudiar estos activos latinoamericanos, comparando su rentabilidad con las carteras de mercado locales, la subvaloración inicial es de –0,51% y de 2,95% al cabo de tres años, ambos resultados no son estadísticamente significativos. Por lo anterior, los inversionistas estadounidenses son los que se ven más beneficiados con este tipo de emisión por sobre los inversionistas locales. Llama la atención que los ADR-IPOs no presenten un rendimiento anormal negativo al cabo de tres años de la emisión, hecho que es contrario a lo indicado por la bibliografía financiera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">407/602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En general, las viviendas que por su ubicación muestran mejores accesos tienen un valor de mercado superior respecto a viviendas de características similares con peores accesos. Esta diferencia se debe a los menores costos de transporte hacia los principales mercados laborales y comerciales de una ciudad. Por esta razón, las inversiones en infraestructura pública de transporte, como por ejemplo la construcción de una nueva línea de metro, se capitalizan total o parcialmente en el precio de los terrenos y de las viviendas. Este trabajo estudia empíricamente el grado de capitalización en el precio de las viviendas que tuvo la construcción de la nueva línea 4 del metro en la ciudad de Santiago. En particular, dado que la nueva línea entra en operación en diciembre de 2005, se estima el grado de capitalización anticipada en el precio de las viviendas ocurrido en el momento del anuncio de la construcción de la nueva línea 4 y en el momento del anuncio de la ingeniería básica que determinó la ubicación de las estaciones. Con una base de datos única, que contiene todas las transacciones de compra y venta de viviendas realizadas en el Gran Santiago entre Diciembre de 2000 y Marzo de 2004. Los resultados muestran que el valor promedio de los departamentos aumentó entre 3.3% y 4.4% en consecuencia del anuncio de construcción y entre 4.5% y 5.7% después del conocimiento de la ubicación de las estaciones. Este aumento no se distribuye en forma uniforme, sino que depende de la distancia a la estación de metro más cercana. Un efecto indirecto de esta capitalización es que la recaudación del impuesto a las propiedades aumentaría si se reavalúan las propiedades de acuerdo a su aumento de valor. Este efecto no es despreciable en magnitud y podría representar al menos entre 14 y 20% de la inversión de la nueva línea de metro, lo cual abre una discusión interesante respecto a la forma de financiar la expansión de la red de metro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408/603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo cuantifica el efecto que tiene para las empresas mantener excesiva deuda de corto plazo, cuando se van enfrentadas a incrementos no esperados en el costo de refinación. Utilizando un conjunto de empresas chilenas, para en el período 1994-2003, se muestra que efectivamente las empresas más desfasadas de los vencimientos en términos de madurez, invierten relativamente menos, cuando enfrentan un choque de liquidez, tanto interno como externo. Este efecto es económicamente significativo, y representa una caída cercana a 6% de la inversión promedio de las empresas en la muestra. Además, se encuentra que este efecto no es homogéneo, en particular de las empresas que tienen acceso a los mercados externos, ya sea porque emitan ADR o porque tienen propiedad extranjera, y que son capaces de absorber de mejor manera estos choques.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">409/604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo se enfoca en el sesgo potencial en la estimación de crecimiento, generado por el problema de datos perdidos (o datos truncados) como consecuencia de cambios en la política censal. El análisis ayudará a indagar cuáles subsectores en la manufactura experimentaron crecimiento para mostrar pruebas que apoyen la hipótesis de una tasa de crecimiento positiva en el sector manufacturero completo durante el periodo 1929-1934. En particular analizamos el desempeño de la industria manufacturera mexicana desagregada por subsectores y durante el período 1929-1934 considerando que la política censal no fue homogénea para los dos censos de interés (y para los subsecuentes). Cuando un conjunto de datos es truncado, esto puede generar sesgo en el proceso de estimación. Sin embargo, el sesgo de estimaciones basadas en estos datos dependerá de qué tan importante es la proporción de datos perdidos. Por lo tanto, una de las principales tareas en este artículo es examinar qué tan importante es el problema de datos perdidos para cada sector de la industria manufacturera mexicana de tal manera que esto proporcione luz en cuanto a la confiabilidad de las estimaciones de tasas de crecimiento en valor agregado que se calculan en el trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410/605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimamos la elasticidad ingreso de largo plazo del impuesto sobre la renta, al valor agregado, los especiales sobre producción y servicios, así como de los ingresos tributariosen México, con el fin de inferir indirectamente la elasticidad del recurso federal participable con respecto al producto interno bruto. Los resultados muestran que: i) existe una relación de equilibrio de largo plazo (de cointegración) entre la produccion y cada uno de los impuestos, ii) nuestro sistema tributario no es efectivo para traducir el crecimiento económico en más recursos para los gobiernos subnacionales; sin embargo, tampoco permite que las transferencias a estados y municipios desciendan más que proporcionalmente cuando la economía desacelera. Una comparación con otros países latinoamericanos, como Colombia, Guatemala y Bolivia, muestra que la elasticidad ingreso del impuesto al valor agregado en México es relativamente baja.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411/606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza la desaceleración del crecimiento en la economía mexicana durante los periodos de reforma y posreforma. Examina cuatro posibles factores detrás de la desaceleración del crecimiento. Primero, el papel de la integración comercial internacional muestra que las reformas comerciales de los años ochenta y noventa fueron de hecho muy exitosas en estimular el crecimiento de las exportaciones y la apertura comercial aunque no en promover una pauta de especialización comercial dinámica. Segundo, la desaceleración del crecimiento de la productividad debe ser vista como una consecuencia y no una causa de la desaceleración del crecimiento en medida en que la evolución del crecimiento de la productividad esta estrechamente asociado a la expansión del subempleo en el sector terciario. Tercero, el análisis del papel de la formación del capital humano sugiere que los indicadores de educación y salud han estado mejorando durante el periodo reciente, en parte como consecuencia del bono demográfico, y no pueden ser responsables por la caída en el producto por trabajador presentada desde principios de los años ochenta. Por último, el artículo se centra en lo que se piensa que es el determinante primario de la desaceleración del crecimiento, la baja tasa de acumulación de capital físico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412/607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde fines de 1998 la economía chilena se desaceleró mucho. Si entre 1988 y 1998 la tasa de crecimiento promedio alcanzó un 7.8%, durante el período postcrisis asiática fue de sólo un 3.7%. Sin embargo, junto con la desaceleración del crecimiento, la volatilidad de la economía se redujo prácticamente a la mitad.Este trabajo investiga, mediante un análisis empírico formal, el papel que tuvieron la introducción de la flotación cambiaria y la utilización de la regla de superávit estructural en transformar a Chile en una economía menos volátil. Nuestros resultados muestran que la introducción de la regla fiscal parece haber reducido en un tercio la volatilidad del crecimiento del PIB. Por su parte, la flotación cambiaria contribuyó a reducir esa volatilidad adicionalmente en alrededor de un cuarto. Así, en conjunto, ambas medidas aparecen como responsables de haber disminuido la volatilidad del crecimiento de la economía chilena en casi 60%. Estos resultados son robustos ante especificaciones y posibles problemas de endogeneidad en algunas de las variables explicativas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413/608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este articulo investigo los coeficientes (ratios) de pago de dividendos de las compañías chilenas pueden explicarse por el grado de los conflictos potenciales de agencia entre los accionistas minoritarios y los que controlan la empresa. Utilizo el análisis de regresión de un panel de datos y un estudio de hechos para someter a prueba diferentes hipótesis relacionadas con el afecto de la gestión empresarial en las políticas de pago a los accionistas.Los resultados muestran que en el contexto de una economía emergente, como la chilena, que presenta una alta concentración de la propiedad y una extendida utilización de conglomerados y estructuras piramidales, la teoría de la búsqueda de la renta para explicar los efectos de los problemas de agencia en las políticas de pago de dividendos parecen ser en particular pertinentes. Las compañías que presentan un grado mas alto de coincidencia entre los derechos de flujo de efectivo y los derechos de control tienden a tener políticas de dividendos mas generosas. Por otra parte, los anuncios de dividendos inesperadamente altos que hacen compañías con un potencial mayor de conflictos de agencia presentan rendimientos anormalmente altos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414/609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El principal propósito de este artículo es presentar la teoría de conjuntos difusos como un instrumento confiable y preciso para medir pobreza, que además ofrece ventajas comparativas respecto a los métodos tradicionalmente empleados para esta tarea. Este artículo también muestra que la metodología de conjuntos difusos es compatible con la información censal (información agrupada) para calcular índices de pobreza. Se presentan los resultados de medir la pobreza para los niveles estatal, municipal y localidad, y se comparan con resultados oficiales. Esta comparación revela que la teoría difusa resuelve algunos de los problemas metodológicos que enfrentan las líneas de pobreza y los índices de marginación, lo que hace de este instrumento una opción útil no solo para medir, sino también para aplicar y evaluar la política pública encaminada a combatir la pobreza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415/610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partiendo de un modelo sencillo de oligopolio internacional mixto, en que los países pueden aplicar aranceles discriminatorios, se analizan los efectos en las variables relevantes derivados de los procesos de privatización y liberación regional de la economía. En concreto se justifica, desde un punto de vista teórico, la evidencia empírica que nos muestra que los procesos de liberación regional de la economía y la privatización de las empresas públicas son procesos complementarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416/611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo demuestra que un cambio de política economica en 1982 produjo una modificación notoria en la relación entre el dinero, los precios y el tipo de cambio en México. Antes de ese año, la demanda de dinero de largo plazo tenía la forma de la ecuación cuantitativa del dinero, y la inflación estaba impulsada principalmente por la brecha monetaria. Después de una interesante mutación, desde 1983 y hasta el final de la muestra la demanda de moneda local tomó una estructura muy diferente, y la inflación pasó a ser determinada por el margen del nivel de precios con respecto a los precios externos y los salario sin un efecto explícito del dinero. Sin embargo, la relación de largo plazo que vincula los niveles del producto, del tipo de cambio y de los precios externos con la cantidad nominal de dinero se mantiene para todo el periodo de análisis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">417/612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo estudiamos el desarrollo económico alcanzado por la totalidad de los Estados latinoamericanos y caribeños soberanos en 1913 y 1925 desde una perspectiva inédita en el estudio del conjunto de la región: las importaciones y la producción –que sumadas equivalen al consumo aparente– de bienes de capital. Asegurada la fiabilidad de las estadísticas del comercio exterior, procedemos a reconstruir las magnitudes de los bienes de capital adquiridos por las 20 repúblicas. También estimamos la producción interna. La nueva evidencia empírica pone de manifiesto las enormes diferencias existentes en el seno de la región en el consumo per cápita de bienes de capital al término de la primera oleada globalizadora. La comparación entre los niveles de 1913 y 1925 revela que, en general, la contienda mundial no favoreció el proceso de sustitución de importaciones de la región, pero no en todos los países por igual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418/613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analiza cómo lograr la cobertura óptima de un flujo de caja en presencia de riesgo de tipo de cambio, riesgo de precio en el producto que se vende, e incertidumbre respecto a los costos y a la cantidad por vender. Se presenta una solución analítica para las estrategias de cobertura óptimas en estos casos, si se dispone de futuros sobre el bien producido y de futuros de tipo de cambio para realizar dicha cobertura. También se propone un método simple, basado en la metodología de regresiones, para obtener las estrategias de cobertura óptimas. Se analiza de qué manera la cobertura óptima depende de los parámetros clave identificados, es decir de la volatilidad del tipo de cambio, del precio, de los costos y de la cantidad, y de las correlaciones entre estas variables. La metodología desarrollada es aplicada al caso particular de las exportaciones chilenas de celulosa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419/614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo realiza una revisión de la bibliografía a nivel teórico respecto a la manera en que los programas de amnistía o delación compensada afectan la estabilidad de los carteles y permiten su detección y disuasión. Sobre la base de las principales contribuciones, se presenta un modelo unificado que permite extraer los mensajes más relevantes de la bibliografía. Finalmente se entregan recomendaciones de política para la implementación de dichos programas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420/616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durante muchos años se ha considerado que el rápido crecimiento económico de México durante el periodo 1934-1956 sólo fue posible por el estímulo de una política económica expansionista que fue financiada en forma inflacionaria. De ahí el contraste con el desarrollo estabilizador de los años sesenta, que se considera la época de oro del crecimiento mexicano con estabilidad de precios. En este trabajo se argumenta que esta percepción es un mito y que las autoridades hacendarias y monetarias fueron esencialmente prudentes durante esos años, hicieron uso de los instrumentos de política a su disposición para impedir el desempleo e intentaron mantener tasas de inflación moderadas. Más bien, es el impacto de choques externos, como la recesión externa y las guerras, lo que explica en gran parte la inflación alta en ciertos periodos que llevaron, irremediablemente, a la depreciación del tipo de cambio en 1938, 1948 y 1954. Este resultado implica que la política económica no necesitó del gasto público deficitario para estimular el largo periodo de crecimiento económico mexicano del siglo XX.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421/617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo utiliza una metodología de estimación econométrica para incrementar tanto la precisión como el detalle en la medición del bienestar de la población de México, específicamente, del ingreso de los hogares. Al igual que otros países, México ha contado desde hace varios años, por un lado, con encuestas de hogares que proporcionan una medición del ingreso de alta precisión, pero con muy limitadas posibilidades de desagregación geográfica, y por otro, con indicadores provenientes de los censos y conteos de población, que permiten una desagregación pormenorizada, pero que carecen de precisión en la medición, precisamente de la variable de ingresos. Utilizando los resultados estimados, presentamos la primera serie de ingresos per cápita de los hogares por entidad federativa, y por municipio y la primera serie de índices de desarrollo humano municipal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422/618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se cuestiona el planteamiento de que los conocimientos y capacidades proporcionados por los institutos profesionales (IP) serían inferiores a los de universidades. Para esto se comparan los ingresos laborales de los egresados lo que resuelve varios problemas metodológicos presentes en los trabajos previos que comparan Universidades y otras opciones de educación superior. Específicamente, se comparan carreras impartidas simultáneamente por universidades e IP y se utilizan cohortes reales en lugar de artificiales. Los resultados obtenidos refutan las pruebas hasta ahora disponibles que sugerían una dominancia relativa de las universidades sobre otras opciones de educación superior. Uno de los resultados interesantes obtenidos es que al controlar por la calidad de los estudiantes admitidos el rendimiento de los estudios en IP es entre 4 y puntos porcentuales superior respecto a los universitarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423/619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con datos de panel para el periodo 1996-2001 y datos de corte transversal para 1990 y 2003, este artículo evalúa si el crecimiento en Chile ha sido “pro pobre”. Se emplean dos metodos: i) se estima la “curva de incidencia del crecimiento” y luego se estima paramétrica y no paramétricamente la relación entre el ingreso per capita de los hogares en 1996 y el cambio en el ingreso de 1996-2001. Los resultados indican que el crecimiento ha incidido significativamente en la reducción de pobreza. Por otra parte, existe evidencia de convergencia para la mitad más pobre de la distribución de ingresos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424/620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo reciente el precio del cobre ha mostrado una marcada tendencia alcista y una alta volatilidad, que han estado acompañadas por un incremento en la participación de agentes no comerciales o especuladores. Las compras de estos agentes pasaron de representar cerca de 25% del total de operaciones del mercado de futuros de cobre en el 2002 a 47% el 2005. En este artículo se analiza una extensa base de datos de frecuencia semanal de las posiciones de agentes no comerciales en el mercado de derivados de cobre durante el período 1992-2006. Los resultados señalan nulos efectos permanentes de las posiciones en las variaciones de corto plazo experimentadas por el mismo metal. Asimismo, se encuentran efectos positivos pero marginalmente no significativos en la volatilidad del precio. Basado en estos resultados es aconsejable continuar un seguimiento en las posiciiones de especuladores para entender las variaciones de corto plazo en el precio del cobre y de otros productos básicos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425/621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe abundante evidencia empírica compatible con que las empresas manipulan la ganancia contable que informan, con el fin de ocultar pequeñas variaciones negativas en ésta. En este trabajo se analizamos la posible existencia de ese comportamiento en la banca chilena e identificamos el mecanismo mediante el cual estas instituciones practicarían la manipulación. Encontramos pruebas compatibles con la existencia de manipulación de la ganancia contable registrada, cuyo propósito es evitar mostrar una variación negativa de ésta. Esta manipulación se llevaría acabo utilizando la discrecionalidad de la que gozan os bancos para estimar la provisión por incobrabilidad de préstamo. Durante el periodo que comprende la muestra, se produjo un cambio importante en la regulación para la banca chilena, orientado a restringir la discrecionalidad en el cálculo de dicha provisión. Nuestro análisis indica que este cambio no eliminaría el tipo de manipulación en estudio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">426/622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo se analiza la relación entre dimensión, rentabilidad financiera y eficiencia técnica de las entidades bancarias en España. El análisis se realiza mediante la utilización de las técnicas multivariantes, análisis factorial y análisis cluster para establecer grupos de empresas bancarias de dimensión homogénea. Se utiliza la metodología no paramétrica, el análisis envolvente de datos (Data Envelopment Analysis) para obtener el coeficiente de eficiencia técnica de cada entidad bancaria. Además, se estudia la influencia de cada empresa evaluada como eficiente sobre los análisis de eficiencia previamente realizados con el objetivo de detectar si existe alguna entidad que afecta de manera especial a los resultados. También se utiliza la técnica bootstrap para obtener intervalos de confianza de la eficiencia media y eficiencia mediana del sistema bancario. Por último se analiza la relación entre la dimensión de la entidad, la rentabilidad financiera y las estimaciones de eficiencia técnica. La información utilizada corresponde a 82 empresas bancarias españolas (36 bancos y 45 cajas de ahorros) que constituyen la casi totalidad de la banca comercial en España.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">428/623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por medio de la medida de Lakonishok et al. (1992), el artículo aporta evidencia empírica de la convergencia en la asignación estratégica de activos realizada por los fondos españoles de renta variable nacional desde julio de 1997 a junio de 2002. Dicho fenómeno es detectado con mayor intensidad al considerar variaciones estratégicas de mayor relevancia.El estudio también pone de manifiesto una convergencia estratégica intertemporal realmente fuerte entre los fondos gestionados por las entidades financieras españolas más grandes, poniendo de manifiesto que el tamaño de la sociedad gestora es un mecanismo significativo a la hora de explicar dicho fenómeno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">474/624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se presenta un programa de investigación que vincula la teoría de la complejidad con el estudio de los sistemas socioeconómicos. A este enfoque del paradigma evolutivo se le denomina "sociomática" en tanto que abarca distintas disciplinas de las ciencias sociales y hace uso de la computadora para simular el comportamiento y la interacción de agentes heterogéneos. El cuerpo central de la sociomática consiste en una meta-teoría que establece las premisas del comportamiento humano (agencia) y la manera en que éste se ve condicionado por un proceso de inserción social (estructura). Asimismo, se sostiene que los modelos basados en agentes permiten describir distintas topologías de interacción social, logrando con ello caracterizar la coevolución de las variables endógenas de las arenas económica, social y política, y entre estas arenas superficiales y el sustrato sociocultural.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">475/625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo defiende que aunque la noción de pobreza absoluta aún debe ser un ingrediente esencial en la evaluación de la calidad de vida de los países en desarrollo y en transición, es hora de que la pobreza relativa comience a ser sistemáticamente estimada para esos mismos países. Esta recomendación se aplica a México durante el período 1992-2004, cuando en 2000 el gobierno de Fox determinó oficialmente por primera vez una línea de pobreza absoluta. Como en el Segundo Programa Europeo de Pobreza a fines de los años ochenta, la línea de pobreza relativa se fija en 50% de la media del gasto equivalente. Las pobrezas absoluta y la relativa se comportan de maneras opuestas durante el ciclo 1992-2000, pero ambas descienden significativamente durante el período de estancamiento 2000-2004. La pobreza relativa es mayor que la absoluta desde 1992 a 1994, menor durante 1996-1998, y mayor de nuevo en 2000-2004. En cualquier caso, la pobreza relativa en México es mucho mayor que la pobreza relativa en los países desarrollados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">476/626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las conclusiones respecto a la evolución de la desigualdad de países o regiones se deducen, frecuentemente, de las variaciones experimentadas por las estimaciones puntuales de indicadores comunes, sin considerar el efecto de los errores muestrales en la significación estadística de los cambios. En este artículo, se analiza la influencia de los diferentes métodos de inferencia (asintótica y bootstrap) del índice de Gini en la detección de variaciones interanuales de dicho indicador. Con este fin, se realiza, en primer lugar, un estudio de simulación para evaluar el comportamiento de las distintas metodologías, conocidos los valores reales de los parámetros poblacionales. En segundo lugar, se aborda un estudio de sensibilidad aplicado a los datos del caso español para analizar la influencia de la técnica de inferencia sobre la definición de tendencias en el comportamiento del índice de Gini, utilizando datos del Panel de Hogares de la Unión Europea para el período 1993-2000.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">477/627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estima de manera conjunta el sobreprecio existente en la industria manufacturera chilena durante el decenio de los noventa y la distribución de la ganancia obtenida entre los factores productivos implicados en generar dicha renta. Mediante el uso de método generalizado de momentos (MGM) se encuentra que la mano de obra se apropia de 21% de lla ganancia, mientras que los proveedores de insumos de 16 %. Lo restante queda en manos de los dueños de la empresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">478/801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se estudia la tasa interna de rendimiento de las rentas vitalicias en Chile (definida como la tasa de interés que iguala el valor presente de las pensiones esperadas con la prima pagada por los pensionados), asociándola a la competencia en la industria. Se documenta que: a) las compañías de seguros que pagaban mayores comisiones de corretaje lograban menores costos de financiación; b) hubo un cambio estructural en la elasticidad de largo plazo de las tasas de las rentas vitalicias respecto a la tasa libre de riesgo pertinente en 2001, coincidiendo con el envío al Congreso de un proyecto de ley que pretendió hacer más transparente el mercado e imponer máximos a las comisiones pagadas a los corredores. Se arguye que las pruebas son estrechamente congruentes con la siguiente hipótesis conjunta: i) las altas comisiones cobradas en los años noventa eran ilegalmente devueltas de manera parcial a los pensionados por los corredores; ii) los pensionados miopes prefieren el efectivo a mayores valores presentes. iii) así, la amenaza legal causó la baja de comisiones, redujo la holgura para los pagos en efectivo, aumentó la competencia vía tasas de interés e incrementó la elasticidad de largo plazo para igualarse a uno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">479/800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los objetivos principales de esta investigación son examinar críticamente la estrategia oficial de política monetaria del Banco Central Europeo (BCE), en sus tres componentes: La definición de estabilidad de precios, el esquema de análisis y la comunicación de sus decisiones y resultados, y el análisis de sus decisiones con el objetivo de descubrir si tras su estrategia oficial subyace una estrategia implícita diferente. El trabajo empírico para explicar las decisiones respecto a las tasas de interés, en el período 1999-2005, adopta tres enfoques: calibrado, intratemporal, e intertemporal con el método de los momentos generalizado. Las conclusiones son claras: el objetivo de inflación implícito se sitúa en torno de 1.9%, muy cerca del 2%, como expuso el BCE en la revisión-explicación de su estrategia en 2003. Se demuestra que el enfoque es hacia adelante (forward-looking) respecto a la inflación subyacente y hacia atrás (backward looking) respecto al ciclo de la producción, con tendencia a alargar el horizonte temporal en ambos casos. Se obtiene pruebas claras de que el valor del coeficiente de aversión a la inflación sigue el principio de Taylor y, finalmente, que la ponderación del crecimiento en las decisiones sobre tasas es reducida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480/630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este estudio se analiza la hipótesis de convergencia entre regiones de la República Mexicana desde 1940, con particular interés en el periodo posterior a la liberación económica. Un análisis de series de tiempo muestra que la diferencia en ingreso per cápita entre la región capital y cada una del resto de las regiones tiende a disminuir a lo largo del tiempo. Usando los conceptos de convergencia determinista y estocástica, describimos las características de crecimiento de cada una de las regiones. Encontramos evidencia para afirmar que las reformas comerciales de mediados de los años ochenta afectaron negativamente el proceso de convergencia de algunas regiones, sobre todo las más pobres. Además, no existe evidencia estadística para afirmar que la liberación favoreció significativamente la convergencia entre las regiones fronterizas de México y los Estados Unidos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">481/631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En años recientes ha surgido un creciente interés por verificar el paradigma que mejor explica la relación entre la estructura de mercado y las ganancias en el sistema bancario mexicano: poder de mercado o eficiencia. Para poner a prueba estos paradigmas, en este artículo se elaboran indicadores específicos de eficiencia basados en el concepto de frontera eficiente, los cuales se incorporan en la prueba tradicional de estructura de mercado-conducta-desempeño. En contraste con estudios anteriores, en este artículo se encuentran pruebas en favor sólo de la hipótesis de poder de mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">482/632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudia el efecto del comercio internacional con Japón, la América del Norte y la Unión Europea en la difusión de la tecnología y el crecimiento en la productividad total de los factores (PTF) en Jordania, Corea y México. Las medidas de investigación y desarrollo (ID) se construyen en la base de la ID nivel de industria en el Norte, de las pautas de comercio entre el Norte y el Sur, y de las relaciones de insumo-producto en el Sur. Mostramos que la difusión de la tecnología y el crecimiento de la productividad tienden a ser regionales. Jordania (Corea) (México) se beneficia principalmente del comercio con la Unión Europea (Japón) (América del Norte). Esto es, la versión dinámica de la hipótesis de los “vecinos comerciales naturales” parece válida para este grupo de países.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">484/708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudio presenta una reseña de los principales enfoques metodológicos que se han utilizado para evaluar el impacto de la apertura comercial sobre la distribución del ingreso y la pobreza en América Latina. La gran cantidad de estudios en la materia fueron clasificados según el indicador de bienestar utilizado: desigualdad (salarial e ingresos de los hogares) o pobreza. La reseña demuestra que un enfoque metodológico con el suficiente rigor analítico debe tomar en cuenta: el grado de transmisión de cambios aranceles a cambios precios domésticos, todas las fuentes de ingreso, posibles efectos en el empleo, consecuencias diferenciadas en hombres y mujeres y en distintas regiones geográficas, y efectos de segundo orden, así como también efectos de equilibrio general. Dos metodologías representan los esfuerzos más recientes en esta dirección: i) los modelos de generación de ingreso del hogar (Porto, 2007), los cuales vinculan de manera implícita los cambios arancelarios con los cambios en el ingreso de los hogares y son capaces de evaluar –de modo empírico– los distintos canales de transmisión entre la política comercial y la desigualdad y la pobreza, y ii) el enfoque macro-micro (Bourguingon et al, 2008) que combina modelos de equilibrio general con modelos de microsimulación y permite evaluar la política comercial tomando en cuenta los efectos de equilibrio general. Estos dos enfoques pueden ser utilizados de manera complementaria para medir los efectos distributivos y de pobreza provenientes de la política comercial en el corto y el largo plazos, respectivamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486/709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El comercio paralelo constituye un movimiento legal (arbitraje comercial) de productos de un país donde éstos se han puesto en circulación a otro país sin la autorización y la garantía del que posee los derechos de propiedad intelectual del producto. Este fenómeno se deriva de la aplicación del principio de subsidiariedad que lleva asociado la existencia de diferentes sistemas de regulación de precios y el de libre movilidad de bienes. En este artículo examinamos las tendencias de precios y penetración de medicamentos paralelamente importados respecto al precio del producto en el país de destino (beneficios de una mayor competencia) en 2002. En segundo lugar, establecemos una descomposición empírica de los efectos del comercio paralelo de medicamentos en los tres mercados principales de la Unión Europea en los diferentes agentes de la cadena del medicamento. Los resultados no siguieren pruebas de un efecto competitivo del comercio paralelo. Por otra parte, se observa que los principales beneficiarios son los propios importadores paralelos en la medida que el comercio paralelo genera ahorros muy limitados en la factura de los sistemas de salud, que difícilmente superan los perjuicios en la innovación farmacéutica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">487/710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analiza la dinámica del valor agregado manufacturero per capita como proxy del ingreso per capita de los municipios de México y condados de Estados Unidos. Específicamente, se busca determinar si existe convergencia (absoluta o condicional), divergencia o estratificación. Se utiliza un modelo de panel dinámico sin regresores exógenos y se considera el problema del sesgo en este contexto específico. En general se concluye que la dinámica del valor agregado per capita de los condados de Estados Unidos muestra convergencia condicional y poca dispersión de sus estados estacionarios. En cambio, en el caso de México se encuentra una dinámica congruente con crecimiento estratificado. El estudio también encuentra que el crecimiento de la manufactura en los condados de EEUU y los municipios de México diverge en el tiempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">488/711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El precio de la vivienda en España ha experimentado un incremento muy intenso desde 1999 aumentando el esfuerzo financiero que los hogares han de realizar para su adquisición. Por lo contrario, la inflación, medida a partir del índice de precios al consumo armonizado (IPCA), ha tenido valores históricamente reducidos en ese mismo periodo. Dado que el precio de la vivienda no forma parte de la construcción del IPCA surge la duda de si la inflación se está midiendo correctamente. En este artículo elaboramos una estrategia metodológica para corregir el sesgo en la medición de la inflación debido al actual tratamiento de la vivienda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532/712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es ofrecer evidencia empírica de la convergencia del PIBper capitade los estados de la Republica Mexicana hacia el PIB del Distrito Federal, al que consideramos como la economía líder (Barro y Sala-i-Martin, 1991, 1992). Para ello, se aplican dos pruebas de raíces unitarias y ocho de cointegración en panel (Im, Pesaran y Shin, 1997; Levin-Lin, 1993; Pedroni, 2001; Larsson, 2001). Estas pruebas resuelven el problema de las distorsiones por el uso de muestras pequeñas, propias de las series de tiempo. Las pruebas de raíces unitarias muestran que no hay evidencia de convergencia absoluta de 1970 a 2004 y para otros dos subperiodos. Sin embargo, las pruebas de cointegración arrojan evidencia en favor de la convergencia condicional para el mismo periodo. Las estimaciones de la velocidad de convergencia (Mark y Sul, 2003) indican que las regiones más ricas convergen más rápidamente que las pobres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">533/713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el presente artículo se realiza un análisis del efectomomentumen la Bolsa Mexicana de Valores. Inicialmente se presenta pruebas acerca de la existencia del citado efecto durante el periodo 1993-2006 y se muestra que las rentabilidades obtenidas por las diferentes estrategias no parecen ser justificadas por factores de riesgo ni por los costos de transacción. En una segunda parte del artículo se encuentra cierta relación entre el efectomomentumen el mercado mexicano y variables que aproximan cuestiones como la difusión de información en los títulos o la dificultad de valoración de los mismos, que proporciona apoyo a alguna de las teorías de finanzas de comportamiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">534/714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es el de analizar los efectos de la liberación comercial en los incentivos a fusionarse de las empresas en un modelo de oligopolio mixto. En concreto, se prueba que las fusiones, tanto nacionales como internacionales, son compatibles con los procesos de liberación comercial y privatización parcial de las empresas públicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535/715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perú ha experimentado en los decenios recientes un significativo incremento en su cobertura de educación, en general, y de la educación superior, en particular. Sin embargo, las altas tasas de desempleo y subempleo existentes siembran dudas acerca del rendimiento de las inversiones en educación realizadas. Este documento estima la evolución de los rendimientos de la educación en los pasados dos decenios en Perú y encuentra pruebas mixtas acerca de la rentabilidad de la educación superior en el mercado laboral peruano. Gracias a la convexificación de los rendimientos, la educación universitaria ofrece actualmente tasas promedio de rendimiento privado y social en términos reales estimadas entre 12 y 15%. Por lo contrario, la educación superior no universitaria otorga tasas de rendimiento privado y social en promedio poco atractivas, y hasta cercanas a 0, por lo que parece justificada una profunda evaluación de la efectividad y pertinencia de este estrato educativo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">536/716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la bibliografía internacional Kerala ha sido considerada por mucho tiempo como un “modelo” de relativo bienestar a pesar de su bajo crecimiento económico. Ahora que la situación se ha alterado con una clara aceleración económica, surgen nuevas inquietudes: la calidad de un crecimiento que no ha podido activar un fuerte empuje productivo ni en la agricultura ni en la industria. Se analizan aquí las razones del bloqueo agrícola que desde hace años condiciona negativamente el desempeño de una economía que sigue caracterizándose por un relativamente alto bienestar (en el contexto indio) y, al mismo tiempo, un gran desempleo que sigue alimentando importantes flujos migratorios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489/633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta el estado del arte de la economía de la felicidad, con particular interés en la investigación realizada para la relación entre el ingreso y la felicidad. El artículo analiza los fundamentos epistemológicos y metodológicos de le economía de la felicidad. Se presenta los dos enfoques tradicionales en el estudio del bienestar: el de imputación y el de presunción. Luego se propone el bienestar subjetivo como otro enfoque valioso en el estudio del bienestar. El enfoque de bienestar subjetivo se interesa por el bienestar que las personas experimentan, y planea que la mejor manera para conocerlo es mediante la pregunta directa a la persona. El artículo continúa con una presentación de los principales hallazgos de la economía de la felicidad en lo referente al papel del ingreso. Se muestra que además de su función de satisfacción de necesidades el ingreso cumple una función de definición posicional para las personas; por ello, el ingreso relativo importa. También se comenta acerca de la pertinencia de la brecha aspiracional del ingreso y de los procesos de habituación al ingreso, al igual que acerca de la importancia que los valores usados por la persona para juzgar su vida tiene para la relación entre ingreso y felicidad. Se manifiesta también que el ingreso tiene una influencia muy pequeña en la satisfacción que las personas experimentan en muchos de los dominios de vida donde ejercen como seres humanos; esto explica que la relación entre ingreso y bienestar no sea estrecha. El artículo también esboza otras contribuciones de la economía de la felicidad a la disciplina económica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490/634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las estimaciones de los efectos marginales del bienestar sugieren que el desarrollo agrícola ha tenido importantes efectos positivos en el bienestar nacional, en particular en los países en desarrollo. Los países de la América Latina y del Caribe también se han beneficiado del crecimiento agrícola, pero la producción no agrícola también ha tenido efectos marginales de bienestar, cuya magnitud es mayor que los proporcionados por las actividades agrícolas. Los países industrializados de altos ingresos obtuvieron ganancias marginales positivas de sus actividades no agrícolas, pero los efectos de la agricultura son negativos. Estos cálculos de los efectos marginales de bienestar en las diferentes regiones dependen de estimaciones econométricas de las elasticidades que relacionan las actividades económicas agrícolas y no agrícolas con cuatro elementos propuestos en una función teórica del bienestar nacional: el PIB nacional per capita, el ingreso promedio de los hogares más pobres dentro de los países, los resultados ambientales en lo que se refiere a la contaminación del aire y del agua y la deforestación, y la volatilidad macroeconómica. Los modelos econométricos fueron estimados empleando varias técnicas econométricas que tratan de la causalidad y la heterogeneidad internacional.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">491/635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponemos un método para la estimación de probabilidades “estructurales” de crecimiento y contracción económica, y lo aplicamos a México y los Estados Unidos. El método emplea cadenas de Markov con base en simulación y análisis de rompimientos estructurales. Según nuestro análisis, la probabilidad estructural de contracción real de la economía estadounidense en 2008 es de sólo 3%, aun en medio de toda la crisis hipotecaria. Por su parte, México se encuentra en una trampa de ingreso medio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">492/636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se presenta evidencia empírica respecto a la existencia de una discriminación salarial contra la población indígena en Chile para el periodo 1996-2006, con datos provenientes de la encuesta Casen. Los resultados muestran que la discriminación salarial he permanecido relativamente estable durante los pasados diez años, en torno de 12%. Mediante la aplicación de técnicas de bootstrapping es posible construir un intervalo de confianza para la medida de discriminación salarial, lo que permite concluir que ésta es estadísticamente significativa. Por su parte, en dicho periodo la brecha salarial pasó de 32.5 a 24.9%, disminución que se explica básicamente por la equiparación en la dotación de capital humano de ambos grupos. Las estimaciones son sensibles a la corrección por sesgo de selección, hecho que releva le importancia que tiene incorporar esta variable en la descomposición de brechas salariales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">493/638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe un creciente interés por elaborar políticas públicas que aumentan la participación de la población de escasos recursos en los mercados crediticios formales. Tomando en consideración la diferencia que existe entre el acceso y el uso, utilizamos una base de panel de datos para examinar qué factores determinan que los sectores populares – que cuentan con acceso a servicios crediticios institucionales- hagan uso de dichos productos financieros. Para verificar la solidez d el los resultados se analiza además qué factores determinan la movilidad o inmovilidad de la decisión de participar a lo largo del tiempo. Entre los múltiples determinantes destacan un índice de riqueza familiar, la existencia de perturbaciones en la localidad, la posición en el trabajo y la recepción de transferencias provenientes de Estado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">494/640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo aporta nuevas pruebas experimentales del efecto de estudiar economía en dos dimensiones de la cooperación social: la confianza y la reciprocidad. Estas dimensiones son aproximadas por medio del conocido juego de confianza. Empleando técnicas de muestreo e igualación (matching), y un reclutamiento de sujetos por invitación selectiva en vez de convocatoria abierta, el trabajo permite separar el efecto asociado al estudio de la economía del efecto asociado al potencial sesgo de selección en las preferencias de quienes escogen estudiar economía. La muestra está compuesta por estudiantes universitarios de economía y de otras carreras con escaso o nulo contenido de economía en Chile. Los resultados muestran que los montos enviados por los estudiantes de economía en la primera etapa del juego de confianza son significativamente menores en comparación con los estudiantes de otras carreras, lo que indica una menor propensión de los primeros a confiar en los demás. A su vez, encontramos una menor inclinación de los economistas a devolver los montos prometidos, lo que muestra una menor tendencia a la reciprocidad de la confianza depositada en ellos en el juego de confianza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">495/641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estima empíricamente el efecto que el impuesto al valor agregado (IVA) tiene en los precios al consumidor. La estrategia de estimación aprovecha la frecuencia de las reformas tributarias en Colombia, que generan abundante variación en las series de tiempo del IVA. La identificación de los efectos del IVA en los precios se realiza utilizando series del índice de precios al consumidor (IPC) calculadas por el Departamento Administrativo Nacional de Estadística. Las estimaciones indican que en Colombia la incidencia del IVA en el precio es, a nivel nacional, cercana a uno. El estudio también encuentra que la incidencia promedio es menor cuando se toman bienes individuales, sin ponderar por su importancia en la canasta de consumo, y controlando por la posibilidad que los mismos productos tengan características no observables distintas para cada cuidad. Este resultado resalta la heterogeneidad en la incidencia del impuesto por medio de los mercados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">496/799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En general, la evidencia empírica internacional ha documentado que las empresas que efectúan una IPO (Initial Public Offering, oferta pública inicial) de acciones presentan en el largo plazo un inferior desempeño financiero y operacional al mostrado por empresas de similares características. Pese a las pruebas internacionales, las empresas IPO chilenas no han mostrado un peor desempeño financiero (véase, por ejemplo, Aggarwal et al, 1993; Celis y Maturana, 1998). En cuanto al desempeño operacional, éste no ha sido estudiado para el caso chileno. En este artículo se documenta que las empresas IPO chilenas no mostraron un inferior desempeño operacional y tampoco presentaron un incremento en los costos de agencia posterior a la IPO. Posibles causas y efectos de estos resultados son comentados por los autores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497/643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En México, el reciente aumento internacional en el precio de los alimentos ha afectado más que proporcionalmente a los sectores más marginados de la población. La presente investigación evalúa el efecto de dicho aumento en la pobreza, considerando la capacidad de sustitución en el consumo de las familias. Además, se analiza la eficiencia en la focalización de diferentes mecanismos de asignación de recursos públicos, y se encuentra que la utilización del padrón de beneficiarios de algunos programas sociales como Oportunidades representa una mejora en relación con otros esquemass de asignación, como los subsidios a los alimentos y las transferencias universales. Sin embargo, un porcentaje importante de la población en situación de pobreza alimentaria no está protegido por la red de programas soaciales, por lo que uno de los desafíos fundamentales del gobierno federal será el de ampliar su cobertura en el corto y medianos plazos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">498/644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta el concepto de la “intolerancia a la deuda”, que se manifiesta en la extrema presión que experimentan muchos mercados emergentes por las deudas que parecerían manejables según los estándares de países desarrollados. Argumentamos que los umbrales “seguros” de la relación deuda externa/PNB para países con intolerancia a la deuda son bajos, quizá de hasta 15% en algunos casos. Estos umbrales dependen de la trayectoria de morosidad e inflación de cada país. La intolerancia a la deuda está vinculada con el fenómeno de la morosidad recurrente que afecta a muchos países desde hace dos siglos. La comprensión y medición de la intolerancia a la deuda es fundamental para evaluar los problemas provenientes de la sostenibilidad y reestructuración de la deuda, la integración de los mercados de capitales y el alcance de los préstamos internacionales para aminorar las crisis. Nuestra meta es hacer un primer intento por cuantificar la intolerancia a la deuda, incluyendo la delineación de los clubes y regiones de vulnerabilidad de los deudores, tomando como base una historia de eventos de crédito que data desde el decenio de 1820 de más de 100 países.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499/645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partiendo de una definición legal de la informalidad, este artículo estudia las causas de la informalidad en general y su aplicación al caso particular de México. El artículo comienza con un análisis de la definición y los índices de la informalidad. Acto seguido, argumenta y aporta pruebas de que la informalidad es no sólo un reflejo del subdesarrollo, sino que podría también ser la fuente de un mayor atraso económico. Posteriormente se analiza los principales determinantes de la informalidad, a la vez que se argumenta que la informalidad no es resultado de una causa única sino de la combinación de las deficiencias de los servicios públicos, un régimen normativo gravoso y la poca capacidad del Estado para supervisar la actividad y hacer valer la ley. Esta combinación resulta particularmente explosiva cuando el país en análisis tiene escaso rendimiento educacional y está sometido a presiones demográficas y estructuras productivas primarias. Por último, se evalúa la relevancia empírica de cada uno de los determinantes de la informalidad en el caso específico de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500/647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo principal de este artículo es analizar la demanda de bebidas alcohólicas entre los jóvenes españoles desde una perspectiva de género. Desarrollamos un marco empírico que combina elementos de las teorías de desagregación del presupuesto y de la adicción mediante un sistema de demanda cuadrático casi ideal. La estimación se concreta en la sociedad española con la Encuesta sobre Drogas a la Población Escolar (2000). Entre los principales resultados destacamos que una menor capacidad adquisitiva del individuo (vía incremento de precios o reducción del gasto) contiene la participación presupuestaria destinada a la compra de bebidas alcohólicas, por lo que las políticas fiscales son efectivas en la reducción del consumo de alcohol entre los adolescentes. La cerveza y, sobre todo, los licores son bienes de lujo para los hombres, mientras que para las mujeres el vino representa un bien normal ordinario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501/648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Con qué tipo de contrato debería un terrateniente arrendar sus tierras a un agricultor dado: trabajo asalariado, aparcería o renta fija? El surgimiento de la teoría de agencia aplicado a la selección contractual en los decenios de los setenta y ochenta del siglo pasado ha generado abundante bibliografía que persigue explicar por qué y en qué condiciones se selecciona cada contrato. El presente artículo examina la bibliografía de los acuerdos contractuales en la agricultura, centrándose en la teoría del principal-agente. Después de analizar la teoría de agencia, se proporciona una síntesis de las principales aportaciones a la selección contractual y se subraya las principales controversias de los resultados. Encontramos que esta teoría proporciona un marco coherente y útil para responder los interrogantes que plantea la aparcería, pero también observamos que existe poco apoyo empírico en muchos aspectos clave de la teoría de agencia que requieren abordarse. Por último, tratamos las consecuencias de estos aspectos y subrayamos las direcciones para futuras investigaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">507/802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se analiza el diferencial de salarios entre la población no indígena y mapuche en Chile. Se descompone dicho diferencial en un componente de dotaciones de características y un componente “discriminatorio”. Se estima ecuaciones de participación y salarios separadas por grupo étnico y género, y se controla por sesgo de selección muestral. Los resultados indican que existen diferencias significativas en las dotaciones de capital humano en favor de los no indígenas, tanto para hombres como para mujeres. No se rechaza la hipótesis de discriminación salarial contra los mapuches varones, pero sí para las mujeres. La evidencia indica que la discriminación contra los hombres mapuche no aumentó en el periodo 2000-2006. Los resultados sugieren que una política de fomento del capital humano de los mapuches, para reducir diferenciales de ingreso, puede tener resultados ambiguos, y que el mercado laboral ofrece incentivos para la emigración de los mapuches a la ciudad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504/650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo considera proporciones (ratios) financieras, operativas, de solvencia y desempeño para detectar cuándo hay variaciones en los estados financieros de las empresas mexicanas, a raíz de la crisis cambiaria de 1994, con datos trimestrales de 88 empresas mexicanas no financieras que sobrevivieron la crisis, para las cuales se aplican pruebas de cambio estructural. Los resultados muestran que en general los estados financieros se deterioraron entre los cuartos trimestres de 1993 y 1995. A pesar de que en la mayoría de los casos hubo mejoría posterior a la crisis, la recuperación fue parcial y gradual, y en general este episodio fue perjudicial incluso para las empresas sobrevivientes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">505/651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile ha sido precursor en la utilización de programas de compensación de emisiones con el objetivo de compatibilizar el crecimiento económico con la protección medioambiental. En este trabajo se analiza la aplicación de programas de transacción de emisiones del área metropolitana de Santiago de Chile y se evalúa su pertinencia para países en desarrollo. Se argumenta que programas de transacción de emisiones pueden ser el mejor instrumento para enfrentar los problemas de contaminación del aire, incluso en el caso en que las capacidades institucionales no estén bien desarrolladas. Además, la incorporación del sistema de transportes dentro de los programas de transacción de emisiones, así como la posibilidad de avanzar hacia un sistema de transacción, en el que se traten diferentes contaminantes, son elementos novedosos y relevantes en el contexto de las políticas para el control de la contaminación atmosférica. No obstante, dichas innovaciones comprenden elementos más complejos en la elaboración de instrumentos de programas de transacción de emisiones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">506/652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si bien, como afirma David Throsby, doctor en economía por la London School of Economics, profesor de la Universidad de Macquire en Sydney y estudioso de las dimensiones económicas de la cultura y de los contextos culturales de la economía, de unos años para acá ha resurgido el interés por ampliar los estudios (y las visiones) en torno de la economía de la cultura como una disciplina o campo de la economía, en Economía y cultura, su más reciente libro, asegura que negar o no reconocer el papel de la cultura (en sus múltiples derivaciones) como uno de los motores del crecimiento económico es una mirada que resulta estrecha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433/658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocas ideas y actividades han recibido elogios tan hiperbólicos como las presentadas en el mundo por Hernando de Soto respecto a la informalidad. Premios Nobel de economía, Presidentes de varios países, revistas muy importantes y organizaciones multilaterales han respaldado el impulso de este autor por el registro de las propiedades de los pobres, particularmente sus viviendas, como la clave para lanzar una revolución económica mundial desde abajo. En este artículo presentamos el respaldo institucional de esas ideas, la sustancia analítica de los principales argumentos relacionados con ellas, la precisión descriptiva de las instituciones que operan en el Tercer Mundo y los resultados de su aplicación. De esta manera evaluamos la relación entre la difusión y el poder de una idea con su contenido formal y su efectividad para cambiar el mundo de los pobres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">434/659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por medio de la estimación de un sistema de puntaje implícito intentamos inferir algunos de los principios utilizados por un equipo médico en la asignación de trasplantes renales en México. Los resultados indican que los criterios vinculados a principios de eficiencia médica y posición en la lista de espera son los que determinan fundamentalmente la asignación final de los órganos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435/660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizamos las decisones relacionadas con la tenencia y uso de las tarjetas de crédito de los hogares en México mediante un modelo de selección de muestra. Encontramos que aspectos del hogar como el ingreso, escolaridad del jefe del hogar y tenencia de activos colaterales se relacionan con la tenencia de tarjetas de crédito, como han documentado investigaciones anteriores. Además, la concentración de sucursales y terminales punto de venta (TPV) en la localidad también afectan esta decisión, como sugieren los modelos de mercados de dos lados. Sin embargo, en la decisión del monto gastado resulta significativa la concentración de TPV, no así el ingreso una vez que se considera su efecto en tenencia. Este nuevo resultado sugiere que en México el uso de tarjetas de crédito se promovería más por la expansión de la infraestructura de TPV que por el impulso de los "programas de recompensas" tradicionales de descuentos o transferencias de ingreso por pagar con ellas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436/717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La falta de apoyo político para reducir la inflación y la existencia de graves amenazas a la independencia del banco central pueden inducir a una desinflación gradual por parte de un banco central comprometido. Dos hechos observados en Colombia, un proceso de desinflación gradual y las repetidas amenazas a la independencia del banco central por parte del gobierno y del Congreso, serán analizados a partir de un modelo teórico de dos períodos. El modelo está basado en el supuesto que el banco central es independiente y se compromete con la meta de inflación anunciada, a la vez que las autoridades buscan una solución discrecional e intentan eliminar la independencia del banco si la meta difiere de dicha solución. Estas amenazas afectan la capacidad del banco para comprometerse y dan por resultado un proceso de desinflación gradual con tasas de inflación más altas que las obtenidas en ausencia de dichas amenazas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">437/671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo evaluamos las proyecciones de inflación provenientes de la Encuesta de Expectativas Económicas del Banco Central de Chile. Nuestro análisis, para el período 2000-2008, detecta un exceso de autocorrelación en los errores de predicción y un sesgo estadísticamente significativo hacia el final de la muestra. El sesgo y el exceso de autocorrelación encontrados posibilitan mejorar las proyecciones de inflación mediante la incorporación de un buen predictor de errores. Los resultados de un ejercicio fuera de muestra indican que el ajuste propuesto permite reducir el sesgo y el error cuadrático medio de las proyecciones de inflación hasta en 34 y 29%, respectivamente. En general estas reducciones son estadísticamente significativas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">438/672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudia la relación entre exportaciones, productividad e innovación tecnológica. En primer lugar, se analiza la relación de causalidad entre desempeño exportador y productividad de las empresas A diferencia de otros trabajos que utilizan una metodología similar, los resultados no muestran pruebas en favor del aprendizaje por exportar. En realidad, aunque una vez que las empresas comienzan a exportar existe un aumento de la productividad total de aproximadamente 10%, éste no es estadísticamente significativo y no se mantiene a lo largo del tiempo. Este artículo analiza, además, si existen otras maneras de aprendizaje vinculadas al proceso exportador. A diferencia de otros trabajos en economías desarrolladas, los resultados para Chile no sugieren ganancias significativas provenientes de la aglomeración geográfica y sectorial de los exportadores. Finalmente, se estudia si la actividad innovadora de las empresas favorece el desempeño exportador. Con indicadores de innovación de productos y procesos, y también de inversión en investigación y desarrollo (ID), no se encuentra pruebas de que éstos incrementen la probabilidad de exportar. En este ámbito, los resultados revelan que el tamaño de las empresas y el hecho de haber exportado previamente son más importantes que la innovación para incrementar la probabilidad de exportar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439/673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudio de los efectos de la mitigación del cambio climático requiere el uso de metodologías diversas. Este artículo analiza y clasifica los modelos más utilizados en la bibliografía, así como sus diferentes aplicaciones. A continuación, se presenta un modelo de equilibrio general aplicado (MEGA) dinámico que incorpora un mercado de permisos de emisión. Este instrumento es una realidad en la Unión Europea desde la aplicación en 2005 del Sistema Europeo de Permisos de Emisiones Transferibles (EU ETS). Mediante dicho modelo es posible estimar reducciones costo-efectivas de las emisiones de gases de efecto invernadero. El modelo presentado se aplica al caso de la reducción de emisiones en España.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440/674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muchos analistas argumentan que el gran crecimiento del comercio de productos agroalimentarios entre México y los Estados Unidos puede atribuirse a los cambios en el tipo de cambio, la volatilidad del tipo de cambio y el Tratado de Libre Comercio (TLCAN). Este artículo cuantifica los efectos de los cambios en el tipo de cambio real entre México y los Estados Unidos, su volatilidad y el TLCAN en los flujos de leche en polvo entre ambos países y contribuye, con evidencia empírica, al debate de los efectos de los cambios en el tipo de cambio real y su volatilidad en los flujos del comercio de productos agroalimentarios. Para estimar una función de demanda de importaciones de la leche en polvo en México, se emplean el análisis de cointegración por máxima probabilidad y un vector de corrección de errores (VCE). Para guiar el análisis empírico, en este estudio se establece un modelo de maximización de la utilidad esperada y se estimó un conjunto de ecuaciones de forma reducida. Los resultados muestran que mientras los cambios en el tipo de cambio real tienen un efecto positivo en las importaciones de leche en polvo en México provenientes de los Estados Unidos, la volatilidad del tipo de cambio real tiene un efecto negativo en las importaciones, tanto en el corto como en el largo plazo. El TLCAN no tiene un efecto significativo en las importaciones de leche en polvo que México hace de los Estados Unidos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442/675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La economía mexicana vive hoy en día un marcado proceso de estancamiento: el producto total durante el periodo 1982-2007 apenas ha crecido en promedio anual 2.4%, muy por debajo de lo alcanzado durante el desarrollo estabilizador o la etapa de crecimiento compartido. Con el productoper capitalas cosas están todavía peor ya que en el mismo lapso se tiene un incremento de apenas 0.68%. Estos magros resultados han llevado, sin duda, a un aumento en el desempleo, la informalidad, la migración y en el peor de los casos a la criminalidad. El pésimo desempeño en materia económica está conduciendo gradualmente a una degradación de la sociedad; el estancamiento económico prevaleciente profundiza el estado de subdesarrollo de la economía mexicana y condena a millones de seres humanos a la pobreza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">463/676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza los principales costos y beneficios entre una política antimonopólica transparente y una política que proporcione menor información y mayor discreción a las autoridades. Existe un fenómeno creciente en el empleo estratégico o el uso inadecuado de las prácticas antimonopólicas por parte de las empresas, y este uso inadecuado genera desafíos para la aplicación de las medidas antimonopólicas y de transparencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">472/677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se analiza los pronósticos de inflación, tipo de cambio, tasa de interés y crecimiento del PIB para horizontes de cortos plazo contenidos en la Encuesta sobre Expectativas de los Especialistas en Economía del Sector Privado que recaba mensualmente el Banco de México. El estudio se enfoca en el pronóstico de consenso para el periodo de enero de 1995 a abril de 2008. Se examina la eficiencia en el uso de información, así como el desempeño relativo de los pronósticos de la encuesta utilizando como referencia pronósticos sencillos de series de tiempo, macroeconómicos y financieros. Se encuentra que los pronósticos de consenso de los especialistas, en general, no superan pruebas de ausencia de sesgo, de ausencia de autocorrelación en exceso o de uso de información pública, lo que sugiere oportunidades para mejorar dichos pronósticos. Sin embargo, los pronósticos de consenso parecen ser, en general, más precisos que los pronósticos de referencia, aunque al analizar una muestra que empieza en enero de 2002 se encuentra que la precisión relativa de los pronósticos de consenso disminuye respecto a la de pronósticos sencillos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">465/678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el análisis y la práctica de la política energética se suele suponer que la elasticidad de la demanda por energía eléctrica es irrelevante. Este trabajo muestra que durante episodios de escasez de energía una “pequeña” elasticidad basta para generar caídas “grandes” de la probabilidad de déficit y del costo del abastecimiento eléctrico. Esto se debe a que en la vecindad de la capacidad del sistema, la oferta de energía de corto plazo es cercana a vertical. Ilustramos nuestro punto cuantitativamente simulando la operación esperada del sistema eléctrico chileno durante los años de ajuste a la crisis causada por los cortes de gas argentinos, el periodo 2006-2010. Mostramos que el aumento de los precios causado por el retraso de las inversiones y los cortes de gas argentino, combinado con una “pequeña” elasticidad de la demanda mensual por energía (0.0548 en valor absoluto) eran suficientes para reducir mucho la probabilidad de déficit mensual y retornarla a niveles normales. Más aún, si se soslaya el efecto de los mayores precios en el consumo, el costo marginal se sobreestima en 32% y el costo de operación esperado en 41 por ciento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466/679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo descompone la fuerza de trabajo chilena de acuerdo con una clasificación por grupos de género, edad y escolaridad. Usando datos del periodo 1965-2005, determinamos grados de sustitución y complementariedad entre diferentes grupos de trabajadores. Encontramos grandes cambios en la composición de la oferta laboral, una importante reestructuración de los salarios y logramos establecer relaciones funcionales entre tipos de trabajadores. En particular, hallamos que existe una mayor sensibilidad de los salarios de los hombres a una recomposición de la fuerza laboral y una gran relación de sustitución entre hombres y mujeres jóvenes con alta escolaridad. Los resultados permiten proyectar la estructura salarial frente a una recomposición de la oferta laboral, la que sugiere una disminución de los rendimientos a la educación superior y una reducción de la brecha salarial entre hombres y mujeres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">467/680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizamos el mercado mexicano de fondos para el retiro desde la perspectiva de la oferta. Nos concentramos en el efecto que tienen las distintas definiciones de producto en la estructura de costos de las empresas del mercado. Proponemos nuevas definiciones del producto generado por las empresas de este mercado. Empleamos como productos i) el monto promedio mensual que hay en la cuenta de cada afiliado; ii) la participación de mercado de la empresa medida según el número de miembros, y iii) la participación de mercado de la empresa medida según los montos de las cuentas individuales. Exploramos la presencia de economías de escala con estas nuevas definiciones. Estimamos las funciones de costos variables Cobb-Douglas y Translog según las variables endógenas. Los parámetros estimados concuerdan con las expectativas de la teoría de la producción; sin embargo, encontramos que la presencia de rendimientos crecientes a escala es sensible a la definición del producto. Por tanto, la política económica debería considerar no sólo la posible presencia de economías de escala sino también la definición del producto de las empresas del mercado para lograr una mayor eficiencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468/681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se usa información de los mercados de Estados Unidos e Inglaterra para hacer estimaciones de la capacidad que tienen la Reserva Federal y el Banco de Inglaterra de afectar las tasas de interés del mercado. Las estimaciones muestran que las reacciones son mucho menores que las originales de Cook y Hahn (1989). Cuando dicha ecuación se modifica para considerar la paridad cubierta de intereses se verifica por una parte que ésta se cumple y que las autoridades monetarias logran afectar las tasas de interés del mercado. Se encuentra evidencia del cumplimiento de la hipótesis de expectativas de tasas de interés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469/682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo intenta ahondar en el fenómeno imitador (herding) durante la crisis asiática de 1997. Para ello se emplea una medida de la intensidad de herding exenta del sesgo presente en otras medidas y se utiliza datos intradiarios. Los resultados que se obtiene dejan entrever que el efecto de la crisis no afectó de manera homogénea la conducta imitadora en todos los activos del mercado, destacando como activos en los que la crisis se nota más y durante más tiempo las acciones que poseen opción durante el periodo analizado. Un análisis adicional por sectores pone de manifiesto que el sector financiero y el energético son los más afectados en su herding ordinario en momentos de crisis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470/683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este estudio es analizar la relación entre el desempeño y el aumento del patrimonio de los fondos de inversión de renta variable de Brasil. Para realizarlo, se han considerado 459 fondos, (321 del IBOVESPA y 138 del IBX), durante un amplio horizonte temporal (de enero de 1997 a diciembre de 2006), cuyo comportamiento ha sido comparado por medio de sus resultados anuales, semestrales y trimestrales. Los fondos se han clasificado como ganadores o perdedores a través de la mediana de las rentabilidades y del crecimiento porcentual neto de su patrimonio, para des- arrollar el estudio en dos fases. Inicialmente se contrasta la persistencia del desempeño y enseguida la relación entre el desempeño y el crecimiento patrimonial. A partir de la metodología paramétrica de las tablas de contingencia se evidencia la persistencia en el desempeño y la relación entre éste y los movimientos futuros de capital.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">471/684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo aplica la metodología de opciones reales en la valoración de empresas que por alguna circunstancia están sujetas a una posible expropiación. El trabajo añade, a la valoración por flujos de efectivo descontados, el valor de la prima que deberían recibir los accionistas como compensación por el riesgo de expropiación. Para ello se supone que los rendimientos de las empresas con amenaza de una posible expropiación son conducidos por un proceso de difusión con saltos en caso de crisis financiera. En esta investigación se valora la opción real de expropiación (opción de compra), en la que, a petición del gobierno, el inversionista deberá entregarle la empresa (el activo subyacente) al gobierno a cambio de una indemnización (precio de ejercicio). Por último, la metodología desarrollada es aplicada al caso de Banamex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">444/685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La economía moderna examina una variedad de temas que abarca desde la política económica hasta la teoría de las organizaciones. La economía del comportamiento (behavioral economics) propone ser instrumental para comprender estos temas. El objetivo de este artículo es responder la pregunta sobre qué es lo que aporta la economía del comportamiento a la ciencia económica. El hombre (o mujer, con más frecuencia en estos tiempos) moderno paradigmático de la economía moderna difiere de la máquina calculadora y fría que se utiliza como instrumento de trabajo. El tomador de decisiones de la economía moderna está rodeado de incertidumbre por todos lados. Nuestro interés central es medir qué tan exitosos somos en la comprensión de la incertidumbre. Mi objetivo en este artículo no es detallar la teoría tal como se encuentra en la mente de los críticos que no están familiarizados con ella, sino como se encuentra en la mente de los economistas que la utilizan. Esta teoría es mucho más exitosa de lo que la mayoría imagina —pero no carece de debilidades que la economía del comportamiento tiene el potencial de remediar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">445/686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo examina las consecuencias en los ingresos laborales de tener un nombre atípico para el caso colombiano. La primera parte del artículo muestra que los jóvenes, hijos de padres no escolarizados, habitantes de zonas rurales y pertenecientes a minorías étnicas tienen una mayor probabilidad de tener un nombre atípico. La segunda parte muestra que el efecto de un nombre atípico en los salarios es grande (superior a 10%) y que el mismo es mucho mayor para las personas escolarizadas que para los no escolarizadas. Los resultados sugieren la existencia de mecanismos de trasmisión intergeneracional distinto de los tradicionales (restricciones de crédito, mecanismos hereditarios, transferencias de ingresos, etc.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446/687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La efectividad de las intervenciones cambiarias de compra y de venta de dólares del Banco de Guatemala se analiza en el contexto de un modelo ACT-GARCH. Con información diaria para el periodo 1996-2008, se concluye que solamente las intervenciones de compra produjeron una disminución de la volatilidad de largo plazo del tipo de cambio quetzal/dólar, pero que ambos tipos de intervención afectaron el quetzal. En relación con los objetivos establecidos por el banco central, la intervención cambiaria fue efectiva cuando se orientó a moderar el tipo de cambio, pero careció de efectividad cuando ésta se limitó a moderar la volatilidad cambiaria sin afectar su tendencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">447/688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La capacidad de algunas redes neuronales para predecir la dirección de la economía de México —representada por el LEI— cuyos insumos son las versiones simultáneas (suavizante y predictiva) de un proceso gaussiano alimentado por un índice de acciones y uno de bonos —ambos representativos del mercado mexicano—, es comparada favorablemente (por medio del método de Anatolyev y Gerko para evaluar la precisión de un predictor), con la capacidad predictiva de redes desarrolladas para el mismo fin por dos de los autores de este artículo en uno anterior, cuyos insumos son rezagos de dichos índices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">448/689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La vulnerabilidad y presión de los sistemas financieros es un tema latente en la práctica y estudio de la economía a la luz de la crisis reciente. Este artículo define la presión financiera de los gobiernos estatales como aquella ejercida por el desequilibrio financiero, el incremento del gasto corriente, la falta de inversión, la acumulación excesiva de deuda pública y su servicio. A partir de un análisis multivariado en este artículo se desarrolla seis índices que miden en su conjunto la presión en las finanzas públicas estatales en México de 2001 a 2007. Estos índices, no correlacionados entre sí, captan más de 80% de la variabilidad estadística observada en las finanzas públicas estatales en México y muestran la posición relativa de cada entidad federativa contra el resto de los estados. Entre otros resultados se encuentran factores de finanzas públicas que confirman la existencia de una correspondencia (trade-off) entre inversión pública y superávit y entre el ahorro y el gasto ordinario. El conjunto de indicadores obtenido en este artículo puede ser usado por el funcionario local para comparar la posición relativa de su entidad respecto a otros estados y por el regulador/supervisor para determinar la presión financiera que experimentan los gobiernos subsoberanos en México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">449/690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 1999 se creó en España el mercado Latibex destinado a la contratación en euros de valores de las principales empresas latinoamericanas. Desde su creación este mercado se ha caracterizado por tener una menor actividad negociadora y menor liquidez que la existente en los mercados latinoamericanos de origen. El objetivo del trabajo es analizar si el efecto de la información trasmitida por el anuncio de ganancias trimestrales es diferente en ambos mercados, considerando los diferentes niveles de liquidez y actividad negociadora que presentan ambos mercados.Los resultados obtenidos confirman que el anuncio de ganancias es una información relevante para el valor de la empresa. Sin embargo, es en el mercado de origen en el que los precios se ajustan a la información trasmitida, y los cambios observados en los precios en el mercado Latibex son resultado de un proceso de ajuste mediante arbitraje a las variaciones en precios en los mercados de origen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450/691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se utiliza funciones de costos translogarítmicas para estimar elasticidades precio y de sustitución de las demandas por insumos, economías de escala y costos medios en las manufacturas mexicanas. Se analiza datos de la Encuesta Industrial Anual para 1996, 2000 y 2003. Se muestra que un modelo que no permite homoteticidad ni elasticidades unitarias en la función de costos parece ser el más adecuado para representar la estructura de producción. Elasticidades de Allen-Uzawa indican la existencia de posibilidades de sustitución entre los insumos. La demanda por electricidad es de elasticidad unitaria. Todas las elasticidades cruzadas son menores a 1. Tanto las economías de escala como los costos medios disminuyen conforme el tamaño de las clases de actividad aumenta. Las economías de escala aumentan para cualquier nivel de producción. Las diferencias en costos medios entre pequeñas y grandes clases de actividad se han reducido mientras que algunas disparidades se mantienen en ciertos grupos manufactureros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452/692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo investiga la contribución de la cantidad y calidad de los emprendedores al crecimiento de la productividad total de los factores (PTF) en las Comunidades Autónomas Españolas (CA). El análisis empírico toma como guía las teorías del crecimiento económico basadas en las ventajas de la especialización cuando las personas difieren en sus habilidades, en particular en las capacidades para realizar las funciones propias de los emprendedores que el presente artículo resume en dos: dirigir recursos y hacer más permeables los filtros del conocimiento. Los resultados del trabajo empírico muestran un efecto positivo de la tasa de emprendedores al inicio del periodo en el crecimiento de la PTF del periodo siguiente, tal como predice el modelo basado en el emprendedor como director de recursos, resultado que se interpreta en términos de contribución a la convergencia de la productividad entre las CA. Igualmente se obtiene que el capital humano del recurso emprendedor contribuye a que el crecimiento en la intensidad de capital tecnológico por ocupado tenga un mayor efecto en el crecimiento de la productividad, lo que confirma las hipótesis de los emprendedores como agentes que hacen más permeable el filtro del conocimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">453/693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo se enfoca en la naturaleza y los prospectos de la innovación financiera a la luz de la reciente crisis económica mundial. Mi punto focal es que a pesar de que en fechas recientes la innovación financiera ha caído en desgracia debido a que algunos de sus productos sirvieron como vehículos en el auge crediticio que derivó en la crisis, las críticas deben tomarse con cautela. La innovación está entre nosotros desde hace mucho tiempo y su contribución a las finanzas y el bienestar social ha sido positiva. Siempre y cuando fortalezcamos la regulación prudencial para desmotivar la toma excesiva de riesgos en el futuro, la innovación puede seguir beneficiando a nuestras sociedades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455/694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La frecuencia de las crisis financieras en decenios recientes hace imperativo profundizar en su estudio, en particular en los puntos en común entre ellas, para inferir lecciones que puedan ser utilizadas por autoridades financieras, reguladores y por los propios participantes en un sistema financiero. Las causas de la crisis y la efectividad (o inefectividad) de la respuesta por parte de los gobiernos son aspectos esenciales por estudiar para determinar lecciones y recomendaciones. México y los Estados Unidos, además de compartir frontera y de sostener fuertes lazos económicos, sociales y culturales, han enfrentado en la historia reciente grandes crisis financieras que —a reserva de las diferencias de tiempo y del grado de refinación de sus respectivos mercados financieros— coinciden en muchos aspectos. El Centro de Estudios Espinosa Yglesias (CEEY) ha reunido a un grupo de expertos en sistemas financieros y finanzas públicas para debatir el origen de dichas crisis financieras y la viabilidad de anticiparlas. Esto es en particular relevante porque enfrentamos un entorno en que los avances tecnológicos y la innovación financiera implican riesgos, debido a que muchas veces van un paso adelante de los reguladores y los supervisores financieros. Asimismo, se analiza las respuestas de las respectivas autoridades a las crisis, su efectividad y las opciones que podrían haberse aplicado. Finalmente, es de interés para el CEEY encontrar mecanismos que minimicen el riesgo de las crisis financieras y el costo de los rescates que les suceden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456/695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza un oligopolio mixto en el que las empresas pueden contratar administradores y delegarles sus decisiones con fines estratégicos. A diferencia de investigaciones anteriores, examinamos un caso en el que una empresa pública compite con una extranjera y otra local, ambas privadas. Mostramos que estas dos empresas privadas se comportan de manera diferente: en equilibrio; solamente la empresa local contrata estratégicamente a un administrador que no persigue la simple maximización de ganancias. Esto conduce a un bienestar social mayor que el que se obtiene cuando ninguna empresa contrata a un administrador y que el que resulta de la competencia de una empresa local y otra extranjera, ambas dirigidas por administradores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">457/696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se analiza un modelo de contratos de incentivos en el que cada uno de los principales, que poseen la misma tecnología de supervisión que los demás, celebran contratos con agentes seleccionados de entre un grupo de individuos que difieren en cuanto a su dotación de riqueza. Los principales y los agentes están emparejados para formar sociedades y estos emparejamientos están sujetos a problemas de riesgo moral bilateral. Los agentes necesitan pedirles préstamos a los principales para poder financiar sus proyectos. En equilibrio, los pagos a los principales y agentes están determinados endógenamente. Los agentes más acaudalados obtienen pagos mayores, mientras que todos los principales obtienen el mismo pago. Se analiza también los efectos de los cambios en el costo de la supervisión y la tasa de interés libre de riesgo en la supervisión óptima y los precios de las acciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">458/697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo investiga las variables que determinan la elección de inversión en fondos monetarios españoles. Se enmarca, por tanto, en la incipiente disciplina de finanzas del comportamiento. El estudio ofrece una doble perspectiva al analizar los flujos de dinero y los flujos de partícipes. La evidencia empírica apunta a la rentabilidad pasada como clave en la toma de decisiones, mientras que el riesgo pierde el interés que había demostrado en otro tipo de fondos de inversión. Las mayores comisiones frenan la entrada de las inversiones aunque su efecto se amortigua conforme éstas aumentan. Se incluyen además otras variables de decisión, como el tamaño del fondo, el tamaño de la gestora o el crecimiento conjunto de la categoría de inversión. Los diferentes resultados obtenidos según el periodo de expansión o consolidación de la industria española de fondos, así como del momento coyuntural de los mercados, ponen de manifiesto la necesidad de estudios específicos de las industrias nacionales con sus características propias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">459/698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta investigación se establece, con el supuesto de una economía monetaria, pequeña y abierta, un modelo estocástico de estabilización inflacionaria, en el que el tipo de cambio actúa como un ancla nominal y la credibilidad es imperfecta. Las expectativas de los agentes son conducidas por dos procesos: i) de difusión con saltos para la tasa de devaluación en la que el tamaño de una posible devaluación tiene una distribución de valores extremos y ii) de volatilidad estocástica con reversión a la media (la versión continua de un modelo GARCH(1,1)). Lo anterior con el fin de modelar adecuadamente una tasa de inflación mucho más persistente que una tasa de devaluación, como lo muestran los hechos estilizados respecto a devaluaciones extremas presentadas en México en 1994 y en Argentina en 2001. Se supone que no existe un mercado de coberturas contra posibles devaluaciones, es decir, los mercados son incompletos. Según este esquema, soluciones internas y de esquina son examinadas cuando un plan de estabilización con credibilidad imperfecta es aplicado. Se estudia también un experimento en el que la tasa media esperada de inflación toma un valor mayor a partir de cierto tiempo en el futuro y permanece allí para siempre, tomando en cuenta las probabilidades de que dicha política monetaria ocurra. Se estudia el caso de un horizonte estocástico de estabilización con distribución exponencial. Asimismo, se evalúa la opción real de posponer consumo cuando se espera que un plan de estabilización sea abandonado. También se estudia los efectos de choques exógenos en el consumo y el bienestar económico. Por último, se utiliza el modelo propuesto para realizar simulaciones que reproducen los auges de consumo privado antes de que los planes antiinflacionarios fueran abandonados en México en 1990-1994 y en Argentina en 2001-2003, cuando se produjeron devaluaciones extremas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460/699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se reúne por primera vez todos los sesgos evidenciados por la bibliografía que afectan a los modelos de sincronización (timing) tradicionales generando coeficientes espurios y se intenta aplicar las correcciones oportunas. Algunas de estas correcciones se proponen en el trabajo. Estos sesgos tienen relación con la consideración de la sincronización en riesgo —además de en rentabilidad—, con la incorporación de información pública, con el efecto de la negociación dinámica, con la opción implícita en las actividades de sincronización, con el efecto de la negociación infrecuente, así como con la variación en las condiciones del mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">461/700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo evalúa los efectos que las reformas de descentralización aplicadas en Colombia a principios del decenio de los noventa del siglo XX tuvieron en la calidad de las escuelas públicas. Mediante técnicas de datos de panel escolares descubrimos que, en el contexto colombiano, las relaciones de correspondencia (trade-off) de economía política, como la poca capacidad de los gobiernos locales, los mandatos no financiados o la captación local, no son factores importantes en la determinación de los resultados de descentralización. Por otra parte, considerar los cambios en las decisiones de las familias de abandonar los estudios puede alterar significativamente la interpretación de dichos resultados, lo que sugiere la importancia de tomar directamente en cuenta estos cambios en  la evaluación del efecto a futuro de las políticas. Específicamente, al permitir que las decisiones de educación de las familias cambien, descubrimos que el efecto total de las reformas disminuyó la calidad de la educación pública. Sin embargo, al controlar por los cambios significativos en la disminución de la tasa de deserción escolar entre alumnos de escuelas públicas que se presentó después de emprenderse las reformas, encontramos que, en realidad, la calidad de las escuelas públicas mejoró.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">462/701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluamos los factores que influyen en las decisiones de informar las cargas contaminantes y aquellos referidos al cumplimiento en el pago de impuestos a vertidos de parte de fuentes reguladas con el Programa de Tasas Retributivas de Colombia (PTRC). El análisis utiliza una base de datos que contiene información de cada fuente individual según la jurisdicción de la Corporación Autónoma Regional del Chivor (Corpochivor), para el periodo 2001-2006. Los resultados de las estimaciones econométricas sugieren que el informe de vertidos es afectado por el tamaño del sector productivo al que pertenece la fuente, la tasa retributiva cobrada para demanda bioquímica de oxígeno  y actividades de fiscalización ejercidas por la corporación en las fuentes reguladas. La estimación para el cumplimiento en el pago de la tasa indica que las acciones de fiscalización ejercidas por la Corpochivor no son determinantes en el cumplimiento individual de las fuentes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo examina el comportamiento del PIB real (montos y tasas de crecimiento), el desempleo, la inflación, el crédito bancario y los precios de los bienes raíces a lo largo de un periodo de 21 años en torno de una serie de importantes sucesos y choques adversos, tanto globales como específicos por país. Entre estos episodios se encuentran la caída del mercado accionario de 1929, la crisis petrolera de 1973, el colapso de los créditos subprime de 2007 en los Estados Unidos y 15 crisis financieras severas posteriores a la segunda Guerra Mundial. Se hace hincapié no en los antecedentes inmediatos y las repercusiones de estos sucesos, sino en horizontes más amplios que comparan decenios y no años. Si bien la evidencia de décadas perdidas, como es el caso de la depresión del decenio de los treinta, el decenio de los ochenta en la América Latina y de los noventa en Japón no es omnipresente, el crecimiento del PIB y los precios de la vivienda son significativamente más bajos y el desempleo es mayor en el periodo de 10 años posteriores a la crisis cuando se comparan estos datos con los del decenio precedente. La inflación es menor después de 1929 y en los episodios posteriores a las crisis financieras, pero claramente mayor después de la crisis petrolera. Presentamos pruebas de que el decenio de relativa prosperidad que antecedió al colapso estuvo importantemente impulsado por un periodo de expansión del crédito y apalancamiento creciente que se extiende a lo largo de 10 años. Después del colapso se presenta un largo periodo de recortes económicos que en la mayoría de los casos no comienza sino hasta pasada la crisis y se prolonga casi tanto como el aumento repentino del crédito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo se basa en los postulados fundamentales de la economía de la innovación para destacar las carencias de México como un sistema de innovación trabado por las condiciones de los mercados. México ha puesto en práctica los estímulos fiscales a la investigación y desarrollo (ID) para promover la innovación, pero sus resultados han sido muy limitados y el programa fue derogado. Los beneficios se concentraron en muy pocas empresas, grandes y de sectores maduros, cuyos esfuerzos van hacia mejoras graduales de productos y procesos. Los estímulos funcionaron como recuperación de costos hundidos de estas competidoras globales, que internalizan la ID sin crear derramas hacia otros participantes. Muy pocos proyectos favorables son de base tecnológica, en actividades más comprometidas con ID, y con sinergias al paso del tiempo. Las consecuencias apuntan a resultados muy limitados en cuanto a los objetivos de innovación más ambiciosos, complejos y sistémicos que guardarían relación con la economía del conocimiento y también con el desarrollo de conglomerados (clusters) o derramas regionales. El desafío de política al futuro es dar prioridad a las externalidades positivas del aprendizaje en otras partes del sistema: proveedores, laboratorios u otras instituciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo analiza la relación entre los cambios de regulación en los sectores y la aparición de casos de prácticas prohibidas por la legislación en materia de defensa de la competencia. Se estudia el caso de España en el periodo comprendido de 1993 a 2005, durante el que se promulgaron intensas reformas desreguladoras en diversos sectores y al mismo tiempo existió una cierta estabilidad en el marco de la defensa de competencia. El análisis permite demostrar, a partir de un modelo econométrico, la influencia que las medidas desreguladoras tienen en el incremento de prácticas contrarias a la ley. También se comprueba que al mismo tiempo y gracias a la labor de los órganos de defensa de la competencia, se produce un efecto de aprendizaje en aquellos sectores en los que se instruyen expedientes sancionadores. Finalmente, se observa que los organismos reguladores sectoriales son complementarios al órgano de defensa de la competencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La incidencia de sobrepeso y obesidad está aumentando en todo el mundo, lo que estimula un programa de investigación enfocado en comprender sus causas, consecuencias y las mejores políticas públicas para hacer frente al problema. Desafortunadamente, en la actualidad se conoce muy poco acerca de la relación entre sobrepeso-obesidad y el rendimiento escolar e intelectual. Esto es muy problemático ya que, en ausencia de datos adecuados, las políticas públicas no pueden adaptarse con éxito a situaciones específicas. Este artículo contribuye a cerrar la brecha en la investigación al analizar la asociación entre el peso y las tasas de deserción escolar, la repetición del año y el rezago escolar en niños de 12 a 14 años y adolescentes de 15 a 18 años. Como tal, es el primer estudio que trata este tema en México. Los hallazgos sugieren que no existe una relación clara entre sobrepeso-obesidad y el rendimiento escolar, ya que el sobrepeso y la obesidad no tienen efectos en algunas variables y tienen efectos negativos en otras.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la actual etapa de crisis financiera global la mejora de la eficacia de la ayuda se ha convertido en una prioridad tanto para los donantes como para los países receptores. En este contexto, comprender la manera en la que los gobiernos receptores utilizan la ayuda es una cuestión decisiva para valorar su eficacia. Este artículo desarrolla y estima un modelo de respuesta fiscal con ayuda anticipada. Costa Rica y Nicaragua son los países seleccionados como estudios de caso. El supuesto principal del modelo teórico es que parte de la ayuda puede ser anticipada por los gobiernos y, por tanto, puede influir en su programación presupuestaria. La estimación de este modelo revela una respuesta fiscal diferente en cada país, pero con un resultado común en ambos: la ayuda se destina fundamentalmente a apoyar la función de estabilización de la política fiscal, aliviando las necesidades de financiación pública.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34/309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analiza mediante la matriz de insumo-producto de México, de 2003, las consecuencias de las emisiones de gases de efecto invernadero en precios y cantidades de la producción de cada una de las ramas económicas que la integran. Estas emisiones son vistas como externalidades negativas asociadas a la actividad productiva. El estudio comprende el cálculo de emisiones de gases contaminantes por rama, la estimación del costo, en cantidad y en valor, de la emisión de estos gases y la identificación de sectores estratégicos en la estructura actual de la economía. La conclusión es que las ramas del sector energético, y las que están muy vinculadas a él, son las que más contaminan y resultan importantes por su efecto en las demás. Estas ramas requieren supervisión para incrementar su eficiencia y reducir las emisiones de gases contaminantes, en tanto se desarrollan y adoptan tecnologías limpias para producir energía.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se desarrolla una tipología de arquitectura y gobierno corporativos con el fin de analizar a los grupos económicos mexicanos. La tipología ayuda a comprender la evolución de las redes de negocios mexicanas hacia una coordinación centralizada de las empresas; también ayuda a entender cómo los cambios en el gobierno corporativo han tendido a preservar un estado de pocos contrapesos en las decisiones de los accionistas mayoritarios. Asimismo, el artículo presenta una revisión teórica que proporciona un conjunto de posibles explicaciones de la formación y funcionamiento de los grupos económicos. Esta revisión permite valorar las ventajas analíticas de un enfoque socioeconómico que interpreta a estas redes de negocios a partir de la interacción entre factores socioculturales, institucionales y económicos, lo que aporta una base teórica para comprender la persistencia histórica de este sistema de negocios en México y otros países.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33/311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El rendimiento del sector financiero español ha sido objeto de diversos estudios a lo largo del decenio de los novena del siglo XX como consecuencia de los importantes cambios a los que ha estado sometido. Las cajas de ahorros españolas no han sido ajenas a este tipo de estudios, si bien circunscritos de manera exclusiva al examen de su eficiencia y productividad, relegando a un segundo plano el análisis del cumplimiento de su fin social, materializado económicamente en el gasto anual destinado a obra social. En este contexto, la principal aportación de nuestro estudio es la obtención de evidencia empírica de la existencia de una relación de causalidad entre la creación de valor social de las cajas de ahorro españolas, medida por medio del establecimiento de un ratio de gasto social, y sus cambios en productividad, cuantificados mediante el cálculo del índice de productividad de Malmquist basado en el trazado de fronteras eficientes a partir de la técnica no paramétrica del análisis envolvente de datos (AED) (Data Envelopment Analysis, DEA). Para el censo de cajas de ahorro españolas en el periodo 2003-2007, nuestros resultados revelan que las entidades que presentan mayor productividad alcanzan cotas superiores en el ratio de gasto social, incluso después de controlar por medidas tradicionales como la rentabilidad económica y el tamaño.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35/297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo analiza algunas cosas que hemos aprendido acerca de los mercados durante el proceso de diseñar mercados para subsanar sus fallas. Para poder funcionar bien los mercados deben ofrecer densidad, es decir, necesitan atraer una proporción suficientemente grande de los participantes potenciales en el mercado; tienen que superar la congestión que la densidad puede traer consigo, al hacer posible que se consideren suficientes transacciones distintas para llegar a las más atinadas, y necesitan hacer que participar en el mercado sea algo seguro y suficientemente sencillo, comparado con realizar transacciones fuera del mercado o tener que implicarse en comportamientos estratégicos costosos y riesgosos. Me basaré en ejemplos recientes del diseño de mercados que van desde los mercados laborales para médicos y economistas recién egresados, hasta el intercambio de donantes de riñón y la elección de escuelas en Nueva York y Boston.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36/298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El automóvil como bien de consumo duradero se difunde en la América Latina en el primer tercio del siglo XX. El comercio exterior determina su consumo en la región, a excepción de algunos países que en el decenio de los veinte consiguen instrumentar plantas de ensamblaje de automóviles con piezas importadas, lo que ocurre solamente allí donde coincide una cierta dimensión del mercado con una renta alta (Argentina, Brasil, México y Uruguay). Otros factores explicativos, aunque en un claro segundo plano, son la extensión de medidas proteccionistas y una mayor desigualdad en la distribución de la renta. Al respecto proponemos que hubo un efecto negativo en el consumo final cuando el consumo se sesgó hacia los automóviles de gama más cara; en tanto que en los países donde el consumo por habitante es alto se consumen cantidades proporcionalmente altas de vehículos de la gama de precios bajos. Las importaciones de automóviles muestran buena parte del consumo de automóviles y nos permiten calcular los vehículos en circulación, además de indicar cuales fueron los países en los que se desarrollaron experiencias propias en la producción de autos. El papel que en ellas desempeña los Estados Unidos es casi absoluto a partir de 1920, después de la primera Guerra Mundial, aunque anteriormente tiene que compartir buena parte del, aún reducido mercado, con varios países europeos (Francia, Italia, Alemania y Gran Bretaña).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37/299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo descompone la participación en la fuerza laboral, la tasa de desempleo y la composición sectorial del empleo (autoempleo, empleo asalariado en el sector informal y empleo asalariado en el sector formal) en efectos de edad, cohorte y tiempo. La participación en la fuerza laboral y el empleo formal siguen un perfil de U invertida a lo largo del ciclo de vida. Los trabajadores más jóvenes son más proclives a participar en el sector informal asalariado, mientras que el autoempleo crece monotónicamente con la edad. Sin embargo, también se observa una partici¬pación significativa de personas poco calificadas de edad avanzada y mujeres en el sector del trabajo informal asalariado. Se observan importantes fluctuaciones con¬tracíclicas del empleo asalariado informal, mientras que ocurre lo opuesto con el empleo formal. Las fluctuaciones del autoempleo son contracíclicas con un rezago. Encontramos un efecto de “trabajador añadido” entre las mujeres poco calificadas sólo durante receciones severas. Los efectos generacionales de largo plazo muestran un incremento paulatino en la participación laboral en el sector informal asalariado, con un correspondiente declive en el sector formal entre las generaciones más jóve¬nes. Se analiza algunas explicaciones preliminares de este fenómeno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38/300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo tiene el objetivo de identificar los principales factores que conducen a la deserción escolar en un entorno urbano, en concreto las favelas de Fortaleza, al noreste de Brasil. Utilizamos una extensa encuesta centrada en los factores de riesgo a los que se enfrenta la población de estos barrios y dirigida a jóvenes de ambos sexos, tanto escolarizados como no escolarizados. El papel de la paternidad temprana, el trabajo infantil y la pobreza como impulsores de la deserción escolar de los adolescentes es objeto de una particular atención. La endogeneidad potencial de algunos de los factores determinantes se trata en el análisis empírico. Aprovechamos el rico conjunto de variables disponible y aplicamos un método basado en variables instrumentales. Para la paternidad temprana se usa como instrumento la edad declarada por los jóvenes como la edad ideal para empezar a tener relaciones sexuales; para el trabajo se usa como instrumento el salario de reserva declarado (el salario mínimo considerado aceptable para trabajar). Los resultados indican que la paternidad temprana tiene un efecto grande en términos de la no escolarización de los adolescentes. La pobreza extrema es otro factor que disminuye la asistencia a la escuela, ya que los niños que en algún momento de su vida padecen hambre tienen menores probabilidades de asistir al colegio. En este contexto urbano en particular el trabajo no tiene forzosamente un efecto perjudicial en la asistencia al colegio, lo que podría asociarse al hecho de que el abandono escolar lleva con mayor frecuencia a la inactividad y no al trabajo, dada la escasez de oportunidades de empleo; además, las restricciones de liquidez podrían atenuarse para aquellos cuyos ingresos laborales permiten sufragar los gastos escolares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161/301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizamos las decisiones de oferta laboral de los hogares en Argentina, Brasil, Paraguay y Uruguay. Presentamos un modelo conjunto de elección discreta y, de acuerdo con éste, postulamos y estimamos una función de utilidad cuadrática. A partir de los parámetros estimados calculamos las elasticidades de la oferta laboral respecto al ingreso no laboral. También simulamos una política de bienestar común inspirada en el “Plan jefe de hogar” de Argentina. Entre los resultados obtenidos destaca un rendimiento de la educación de entre el 6.6 y el 10.7% para las mujeres casadas, así como un variado efecto de las mejoras en los ingresos no laborales en las decisiones de oferta laboral. Esta diversidad es un reflejo de la heterogeneidad de estos países desde el punto de vista de la polarización de las condiciones socioeconómicas y laborales. La instrumentación de un “Plan común jefe de hogar” confirma la diversidad de respuestas y destaca por la mejora significativa que supondría para la cohesión social en el Mercosur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39/302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta investigación se estima los rendimientos marginales de la educación superior (ES) en México y se evalúa su efecto en los salarios de los individuos que concluyeron una carrera profesional o un posgrado. La estimación de los rendimientos se realiza mediante el procedimiento sugerido por Heckman et al (2000 y 2001). La información utilizada para la estimación emplea una muestra de la Encuesta Nacional de Ingresos y Gastos de los Hogares (ENIGH) 2006 que incluye sólo individuos que aún viven con sus padres. El procedimiento de estimación propuesto corrige los problemas asociados con la heterogeneidad y la autoselección de los individuos. El principal resultado de esta investigación, apoyado por la evidencia empírica, es que los rendimientos marginales de la ES y el efecto en los ingresos son ambos positivos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40/303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este modelo la política monetaria se basa en un sistema de metas explícitas de inflación, con la tasa de interés interbancaria como instrumento de política y la cantidad de dinero endógena; mientras que la política fiscal opera con un límite en el déficit fiscal como porcentaje del PIB, y el gasto público es endógeno. En la regla de política monetaria, el parámetro de suavizamiento de la tasa de interés se infiere del comportamiento optimador del banco central. El modelo muestra la dinámica macroeconómica que se produce en dos panoramas extremos, de credibilidad completa en la meta de inflación del banco central, y de credibilidad nula, y se encuentra que i) puede haber convergencia hacia el  equilibrio estacionario, incluso si no se cumple el principio de Taylor, y ii) si hay completa credibilidad en el banco central, una política monetaria contractiva puede producir un reajuste insuficiente (undershooting) de la inflación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41/290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Después de su apertura al comercio internacional y la inversión extranjera a mediados del decenio de los ochenta, el crecimiento económico de México ha sido, a lo sumo, modesto, particularmente en comparación al de China. Al comparar estos países y revisar la bibliografía, concluimos que la relación entre la apertura y el crecimiento no es en absoluto sencilla. Por medio de la teoría estándar del comercio encontramos que México se ha beneficiado del intercambio comercial y, según algunos indicadores, incluso más que China. Esbozamos una teoría en la que los países en desarrollo pueden crecer más rápidamente que los Estados Unidos mediante la aplicación de reformas. A medida que un país aumenta su riqueza, este crecimiento compensatorio se torna más difícil. En ausencia de reformas frecuentes, es probable que el crecimiento de China disminuya acusadamente, quizá hasta el punto en que su PIB real por persona en edad laboral caiga a niveles inferiores a los de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146/291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo utiliza el enfoque de bienestar subjetivo para evaluar el costo personal de una enfermedad. El enfoque constituye una opción a metodologías basadas en preferencias reveladas y enunciadas. Parte de que la presencia de enfermedad deteriora la satisfacción con la salud de las personas, mientras que aumentos en el ingreso mejoran esa satisfacción. Por tanto, es posible calcular el ingreso compensatorio ante la presencia de enfermedad de manera que la satisfacción con la salud permanezca constante. Este cálculo indica el valor monetario de la enfermedad, y puede interpretarse también como el valor monetario de los beneficios provenientes de programas que corrigen o evitan un problema de salud. La ilustración empírica se basa en datos de encuestas representativas nacionales realizadas en Costa Rica. La aplicación del enfoque se ilustra con base en la evaluación de cuatro enfermedades diagnosticadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42/292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo hace un análisis de la relación entre crecimiento económico y medio ambiente para las 32 entidades federativas de la República Mexicana. La curva ambiental de Kuznets (CAK) sugiere la existencia de una relación entre crecimiento económico y medio ambiente. A medida que las economías disfrutan un mayor crecimiento económico, se presenta una degradación ambiental y una vez que se alcanza cierto crecimiento, aumenta la disponibilidad a pagar por la conservación del medio ambiente. En el caso de la economía mexicana, al aplicar el análisis de convergencia por medio de datos de corte transversal y datos de panel, se encuentra que: i) existe β convergencia en árboles plantados, áreas naturales protegidas, licencias ambientales y volumen de tratamiento de aguas en sus niveles per capita; ii) no hay evidencia de σ-convergencia en las variables medio ambientales para los estados de la economía mexicana, excepto en áreas naturales protegidas, árboles plantados y licencias ambientales; iii) no existe una relación entre crecimiento económico y aumento en el cuidado de las variables medioambientales, excepto para el volumen de recolección de basura y el volumen de aguas residuales; iv) los resultados sugieren que el medio ambiente no está entre las prioridades de la economía mexicana de acuerdo con la hipótesis de la CAK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43/293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analiza la influencia de la “perificidad económica” en la explicación de las disparidades del PIB per capita entre las provincias españolas. Para ello, regresamos los PIB per capita provinciales en función del potencial de mercado y un conjunto de variables de control, tanto por medio de MCO como mediante variables instrumentales. Los resultados de nuestras estimaciones muestran que el potencial de mercado es estadísticamente significativo y cuantitativamente importante en la explicación de la estructura espacial del ingreso observada en las provincias españolas. Nuestros resultados también muestran que hay al menos tres canales por los cuales el acceso al mercado puede estar afectando las cifras del PIB per capita en España: el capital humano, el capital productivo y la magnitud de las actividades de ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44/294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinamos el grado de comovimiento del empleo durante el ciclo económico entre las regiones de México mediante un análisis de la covarianza de las perturbaciones en los ciclos del empleo regional entre julio de 1997 y octubre de 2009. El empleo se mide por el número de trabajadores permanentes asegurados en el Instituto Mexicano del Seguro Social. La descomposición en tendencia y ciclo y la matriz de varianza-covarianza de las perturbaciones en los ciclos del empleo regional se obtienen de la estimación —por el método de espacio de estados— de un modelo estructural multivariado de las series de empleo. Encontramos que, exceptuando a unas pocas regiones, el comovimiento del empleo es alto y que la varianza de las perturbaciones en los ciclos regionales está asociada mayormente con las fluctuaciones del empleo nacional. Sin embargo, no encontramos pruebas de un ciclo común subyacente, por lo que el comovimiento del empleo tendría su origen en la propagación interregional de choques específicos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45/295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dado que la información trasmitida mediante los estados financieros corporativos tiene gran peso y que, por tanto, desempeña un papel central en los mercados de capitales, analizamos hasta qué punto las utilidades declaradas sirven para medir el desempeño y como instrumento para anticipar los flujos de efectivo futuros. Específicamente, examinamos la relación entre los factores específicos de las empresas y la calidad de las utilidades en una muestra de 180 empresas chilenas que cotizaron en bolsa de valores entre 1998 y 2003. Hallamos que las utilidades son más pertinentes que los flujos de efectivo en la medición del desempeño de las empresas, lo cual sugiere que las utilidades tienen un contenido informativo adicional. La calidad de las utilidades tiene una relación positiva con el tamaño de la empresa y una relación negativa con el ciclo operativo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46/296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleamos una serie de datos no explotados anteriormente para calcular el tipo de cambio real respecto al dólar para México durante 1930.01-1960.12 a fin de probar la paridad de poder de compra (PPC). Los resultados iniciales de la prueba de Dickey-Fuller aumentada (DFA) muestran un débil apoyo para la PPC. La prueba de Kapetanios, Shin, and Snell (KSS), con otra hipótesis de reversión no lineal a la media, muestra bastante apoyo para la PPC. Sin embargo, encontramos que los residuos de estas pruebas presentan no normalidad o heteroscedasticidad. Usando el enfoque de wild bootstrap, calculamos los valores críticos de la distribución empírica de los residuos y reevaluamos los estadísticos de prueba empleando estos nuevos valores críticos. Concluimos que hay evidencia de ajuste no lineal a la PPC para 1930.01-1951.12, pero esta evidencia no se mantiene durante 1952.01-1960.12, el periodo de sustitución de importaciones en México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47/283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se realiza un análisis econométrico de la demanda por el agregado monetario M1 en México. Utilizando técnicas de cointegración se identifica una relación de largo plazo estable entre M1 y sus determinantes, se deriva un modelo uniecuacional de corrección de error estadísticamente sólido. Los resultados son utilizados para realizar las siguientes aplicaciones sencillas: i) se determina empíricamente el valor y la estabilidad de los equilibrios inflacionarios duales para los niveles observados de señoreaje; ii) se calcula la inflación que maximiza el señoreaje, y iii) se analiza el posible vínculo entre una medida de exceso dinero y la inflación. Los resultados sugieren que el equilibrio de baja inflación es estable, y que, en retrospectiva, el indicador de exceso de dinero considerado parece mostrar cierta capacidad para predecir presiones inflacionarias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48/284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo comparamos el costo de generar electricidad con carbón y con viento en el Sistema Interconectado Central de Chile (SIC). Hemos incluido el costo ambiental local y global, así como los respaldos térmicos necesarios para mantener la misma confiabilidad del suministro eléctrico. El costo medio de generar con carbón, que incluye externalidades ambientales por 17dólares/MWh, es de 78 dólares/MWh. El costo medio de generar con viento es considerablemente mayor, 136 dólares/MWh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49/285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile tiene una mala distribución del ingreso de los hogares y aunque las políticas de gasto público (en salud, educación y vivienda) como redistributivas vía transferencias directas han ayudado a la reducción de la pobreza, no han logrado reducir mucho la inequidad. Específicamente, respecto a los resultados de la política redistributiva, los datos revelan que la distribución del ingreso autónomo de los hogares es mejorada sólo marginalmente luego de considerar los ingresos netos de impuestos a la renta y subsidios monetarios. Considerando esta situación inicial, el artículo determina los efectos en la distribución del ingreso y la incidencia en la economía, provocados por potenciales incrementos en el impuesto a la renta de los hogares del quintil más rico y una transferencia simultánea de esa recaudación a los hogares del quintil más pobre, utilizando un modelo de equilibrio general computable calibrado con datos de la economía chilena, lo que permite calcular efectos directos e indirectos de la política redistributiva. Se concluye que 3.85 puntos de aumento en la tasa efectiva del quintil más rico aumenta el ingreso del quintil más pobre en 61.6% y reduce el coeficiente de Gini de 0.49 a 0.47. Sin embargo, este tipo de estrategia para mejorar la equidad tiene efectos económicos de equilibrio general importantes, ya que existe una caída relevante en la inversión y en los salarios de la mano de obra en sus distintas calificaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50/286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza econométricamente los factores que determinaron la dinámica de precios del sector residencial en la región metropolitana de Chile durante el periodo 1990-2007. Los resultados muestran que la antigüedad y superficie son determinantes estadísticamente significativos en la formación del precio; el acceso a estaciones del Metro tiende a capitalizarse de forma no lineal, y tanto el ingreso del hogar como el agregado son variables económicamente significativas. La descomposición de precios revela que entre 68 a 71% del monto es explicado por determinantes relacionados con los atributos de la propiedad, mientras que cerca de 68% del crecimiento observado entre 1990 y 2007 es consecuencia de determinantes macrofinancieros. Durante el periodo 2006-2007 la evolución de precios inmobiliarios no difiere de manera significativa de la predicha por el modelo. Los resultados encontrados son robustos a estimaciones por tipo de vivienda y subperiodos muestrales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51/287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se incluye la repercusión de los incentivos extrínsecos en un modelo de cumplimiento de obligaciones fiscales. También se proporciona evidencia experimental que confirma la existencia de una relación positiva entre la recompensa y el cumplimiento de las obligaciones fiscales. Si las personas son auditadas las recompensas para los contribuyentes honestos son eficaces para aumentar el cumplimiento de las obligaciones fiscales. Estos resultados son en particular relevantes en los países donde hay poco respeto por las leyes fiscales, ya que las recompensas pueden estimular la motivación intrínseca de los individuos para cumplir con sus obligaciones fiscales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52/288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta investigación analiza, estima y compara modelos microeconométricos de interacción estratégica aplicados a la oferta laboral de los hogares en México. En tanto que la posibilidad de decisiones descentralizadas al interior del hogar proporciona el ímpetu para un marco de teoría de juegos, los modelos estimados se basan en el supuesto de que las variables observadas representan el resultado de un juego discreto estático. Los modelos son estimados con datos de la Encuesta Nacional sobre Niveles de Vida de los Hogares 2002 (ENNViH). La estimación por máxima verosimilitud, basada en los conceptos de equilibrio no cooperativo de Nash y Stackelberg, se probó factible y los resultados producidos son plausibles. Los principales resultados sugieren la dependencia recíproca de las decisiones individuales al interior del hogar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53/289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta un procedimiento de cálculo del producto potencial y de la productividad total de los factores (PTF), que luego es aplicado a la economía peruana. Asimismo, se estima el ciclo económico a partir del producto potencial y se muestra que la brecha del producto incluye tanto la brecha de la PTF como la brecha de desempleo (tasa natural menos la tasa observada de desempleo). También se compara el comportamiento de la productividad y las fuentes del crecimiento durante el periodo de sustitución de importaciones con el de la aplicación de las políticas neoliberales. Finalmente, se muestra que los cambios en la productividad están asociados a la evolución de la relación capital/trabajo y de la eficiencia de la inversión. La evidencia empírica muestra que en los pasados 25 años no hubo indicios de procesos de modernización con efectos en el conjunto de la economía peruana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162/276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo procura lecciones de política macroeconómica contrastando la experiencia de los países en desarrollo durante los años 2000, incluyendo su desempeño durante la crisis reciente, con los tres decenios anteriores de globalización financiera. La principal lección es el papel decisivo de dichas políticas macroeconómicas para impulsar el crecimiento, la estabilidad financiera y un desempeño sólido frente a los choques externos, reales y financieros. Además, el contraste sugiere un conjunto de orientaciones de política macroeconómica que contribuyen a alcanzar el cumplimiento simultáneo de los tres objetivos mencionados. El análisis se presenta en dos partes. La primera se dedica a fundamentar la lección principal e identificar las orientaciones de política. En la segunda parte esas políticas macroeconómicas son expuestas sintéticamente y se analiza algunos aspectos de su instrumentación, particularmente de las políticas monetaria y cambiaria. Cierra el trabajo una sección de reflexiones finales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55/277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es constatar si la elección de recurrir a la banca como fuente de financiación viene determinada por las oportunidades de crecimiento, tamaño de la empresa, calidad de los proyectos, la calidad de las garantías prendarias y el riesgo de la empresa. Hemos utilizado una muestra de 168 empresas chilenas cotizadas en la Bolsa durante el periodo 1997-2008, que nos ha servido para examinar la relación entre factores específicos de las empresas y el endeudamiento bancario. Nuestros resultados evidencian que las oportunidades de crecimiento tienen una influencia positiva en el endeudamiento bancario, que se torna negativa ante la existencia de empresas de mayor tamaño con oportunidades de inversión. Además, el tamaño de la empresa y la calidad de los proyectos en curso se relacionan negativamente, mientras que la calidad de las garantías prendarias y el riesgo de la empresa tienen una incidencia positiva en el endeudamiento bancario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56/278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo investigamos la precisión y estabilidad de las proyecciones de corto plazo de la inflación en Chile provenientes de una determinada subfamilia extendida de modelos SARIMA que denominamos ESARIMA. Las proyecciones ESARIMA son comparadas con las provenientes de encuestas y de simples modelos univariados, incluyendo algunos que han sido tradicionalmente utilizados como marcos de referencia predictivos en la bibliografía. Nuestros resultados indican que el error cuadrático medio fuera de muestra de las proyecciones ESARIMA es menor que el de los métodos univariados considerados, cuando el horizonte predictivo varía de 1 a 4 meses. En horizontes superiores, los peores representantes de nuestra familia ESARIMA comienzan a ser superados por los mejores marcos de referencia univariados. Al comparar con la encuesta de expectativas económicas, los resultados van en la dirección opuesta: la encuesta es más precisa que la subfamilia ESARIMA en todos los horizontes. En general nuestros resultados son estadísticamente significativos a niveles de confianza usuales. Observamos también que la familia ESARIMA ofrece proyecciones más estables que los marco de referencia univariados, pero menos estables que las provenientes de la encuesta de analistas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57/279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiamos la propiedad de costo efectividad de diferentes estrategias de regulación tendientes a mejorar la calidad ambiental. Nuestro análisis prospectivo considera la aplicación de sistema de permisos de emisión transable (SPET), sistema de permisos ambientales transables (SPAT) y estándares (Est) de fuentes fijas en Bogotá, Colombia. Un modelo de simulación numérica permitió obtener costos de cumplimiento de cada sistema de regulación, los cuales fueron comparados con la calidad ambiental inducida. Los resultados permiten concluir que el instrumento de más costo efectivo para cualquier meta de calidad ambiental es el SPET, seguido del SPAT y finalmente los Est. Además, el artículo presenta un nuevo resultado conceptual de la elaboración de estrategias de fiscalización para instrumentos de regulación que consideran la contaminación de forma espacialmente diferenciada. Los resultados sugieren que, para cualquier meta de mejoramiento ambiental, inducir cumplimiento en un SPAT es más barato que hacerlo en cualquier otro sistema de regulación considerado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58/280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiamos empíricamente el efecto que tienen las transferencias locales (públicas y privadas) en la probabilidad de alternancia partidista en el marco de la teoría del clientelismo político y de las teorías de la provisión de bienes públicos con fines electorales en países en desarrollo. Lo anterior según dos perspectivas: la primera alternancia y la alternancia entre gobiernos consecutivos. Para ello empleamos un modelo de duración y otro de panel con variable dependiente discreta. Utilizando datos referentes a los 124 municipios que conforman el estado mexicano de Jalisco, los principales resultados del modelo de riesgos proporcionales indican que las transferencias privadas resultaron efectivas para evitar la primera alternancia, mientras que las estimaciones en panel muestran que las transferencias públicas son más exitosas en aras de mantener el poder en los municipios analizados entre gobiernos consecutivos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59/281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo del artículo es observar la influencia de un convenio colectivo de empresa en la evolución de la cotización bursátil de la empresa afectada. Primero, presentamos un modelo teórico que analiza el efecto del acuerdo en la cotización bursátil de la empresa afectada. En el supuesto de que los inversionistas tienen aversión al riesgo la firma del convenio crea incentivos para reducir el volumen de títulos de la empresa afectada, con lo que se evitan pérdidas potenciales. Nuestra hipótesis es que la firma del acuerdo tiende a incrementar los salarios por encima del valor de la productividad marginal de la mano de obra, entonces los inversionistas tienen una expectativa de descensos de valor anormales en las acciones de la empresa afectada. En segundo lugar, utilizamos la técnica de estudios de eventos (Event Study) para realizar un estudio empírico con datos del mercado continuo español. Finalmente, cuantificamos los rendimientos y volúmenes negociados en el día que se da a conocer el acuerdo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147/282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza un conjunto de consorcios tecnológicos apoyados con recursos públicos en Argentina, Chile, Colombia y Uruguay. Estos programas buscan facilitar la interacción entre empresas e instituciones dedicadas a la producción de ciencia y tecnología. Los resultados, basados en datos recabados para un subconjunto de los grupos apoyados, ponen en relieve las dificultades y los largos tiempos que se requieren para lograr resultados concretos, en particular, en innovación tecnológica. El trabajo cuantitativo muestra una evaluación relativamente baja de las empresas respecto al efecto de estos instrumentos en la generación de innovaciones de productos y procesos y la obtención de patentes, aunque existen aspectos relativamente mejor evaluados, como el mejoramiento del acceso a conocimiento tecnológico, en ámbitos como el mercadeo y los recursos humanos. Esto puede deberse a que varios de los consorcios llevan poco tiempo en funcionamiento y necesitan un plazo más largo para ser evaluados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60/267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo examina las experiencias macroeconómicas de cinco países suramericanos —Argentina, Brasil, Chile, Colombia y Perú— desde los años noventa. Se destacan características comunes en sus políticas macroeconómicas y en las crisis cíclicas que experimentan, las que predominan sobre diferencias relevantes que se examinan. Se analiza cómo, no obstante la estabilización de los precios y la mayor disciplina fiscal logrados, se obtiene un crecimiento mediocre del PIB (3.2% desde los años noventa), resultado que ha estado asociado a una baja formación de capital. Al examinar las causas se encuentra una intensa asociación con la inestabilidad del entorno macroeconómico —en particular, demanda agregada y tipo de cambio real—, una especie de “montaña rusa” que enfrentan los productores del PIB. Esta inestabilidad, a su vez, aparece determinada por choques cíclicos de los flujos de capitales y términos del intercambio. Se concluye que la “incompletitud” de los logros macroeconómicos está en el centro de la falta de convergencia al desarrollo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61/268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo analiza el efecto de la difusión de la tecnología del Norte (NRD) relacionada con el comercio, la educación y la gobernabilidad en la productividad total de los factores (PTF) en la América Latina y el Caribe (ALC) y otros países en desarrollo. La NRD de los países en desarrollo se define como la suma ponderada de los acervos de ID del Norte, con ponderaciones relacionadas con la apertura para con los socios comerciales del Norte. La NRD especificada por industria se basa en los acervos de ID específicos por industria del Norte, las pautas de comercio entre el Norte y el Sur, y las relaciones entre los insumos y la producción del Sur. Los principales hallazgos son los siguientes: i) el efecto de la educación y la gobernabilidad en la NRD es significativamente mayor en ALC que en otros países en desarrollo, mientras que sucede lo contrario en el caso de la NRD; ii) la educación, la gobernabilidad y la NRD tienen efectos adicionales en la PTF en las industrias de ALC que se caracterizan por una intensa inversión en ID, de la interacción con las otras dos variables, y iii) dado que la NRD aumenta con la apertura hacia el Norte y con los acervos de ID del Norte, ambas variables aumentan la PTF del Sur tanto de manera directa como por medio de la interacción con la educación y la gobernabilidad. Estos efectos de interacción sugieren que un aumento cualquiera de las tres variables de políticas —educación, gobernabilidad y apertura— produce ciclos virtuosos de crecimiento. Dichos ciclos resultan ser menores cuando se trata de un aumento en sólo una de estas variables, más intensos si se presenta un aumento en dos de ellas y todavía más intensos cuando el aumento ocurre en las tres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62/269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema impositivo que combina una única tasa impositiva con un mínimo exento ha sido objeto de largo debate en los años recientes. Sus detractores argumentan que los sistemas impositivos de estas características son menos progresivos y en consecuencia el grado de redistribución tenderá a ser menor. Por lo contrario, sus defensores esgrimen su sencillez como una de sus ventajas mayores, ya que la sencillez impositiva reduce las posibilidades de evasión y elusión fiscal. En este artículo presento un marco de análisis en el que comparo el cumplimiento fiscal de un mismo contribuyente con dos estructuras impositivas distintas: una de tarifa única con mínimo exento y otra de tasas marginales crecientes. Dada la condición de que en ambas estructuras impositivas la carga fiscal soportada por un contribuyente honesto sea equivalente, demuestro que la renta declarada será mayor con aquella estructura impositiva en la que el contribuyente se enfrente a un tasa marginal más alta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63/270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estima que la evolución del producto real y per capita de México entre 1895 y 2008 se puede describir adecuadamente por medio de un modelo estacionario en tendencia, afectado por cuatro cambios estructurales, cuya ocurrencia coincide con cambios institucionales internos, guerras y crisis económicas y financieras. Estos cambios son modelados por funciones logísticas de transición suave, en las que los periodos de transición son estimados endógenamente. En términos de tasas de crecimiento, nuestros resultados indican que para el PIB real y PIB real per capita de México existen cuatro etapas de crecimiento estacionario separadas por tres periodos de transición. Por ejemplo, para el PIB real se identifican las siguientes etapas de crecimiento estacionario: 1895-1924, 1935-1952, 1956-1978 y 1989-2008, separadas por tres épocas de transición (1925-1934, 1953-1955 y 1979-1988).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64/271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se realiza una estimación de los efectos del incremento del salario mínimo interprofesional en el empleo de los trabajadores inmigrantes en España. Se trata de una investigación novedosa en ese país que aprovecha, por una parte, el espectacular aumento de la población inmigrante acontecido en España durante el pasado decenio y, por otra, el aumento extraordinario del salario mínimo interprofesional que se inició desde 2004. Entre los principales resultados se ha detectado una sensibilidad negativa del empleo de los inmigrantes a los cambios en diferentes índices de salarios mínimos. No obstante, los efectos difieren según el género del trabajador y su lugar de porcedencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148/272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta los resultados de la simulación de un modelo de equilibrio general computable construido para Venezuela. El uso de este modelo se ejemplifica mediante la calibración y simulación de una economía abierta con tres agentes institucionales (hogares, empresas y gobierno) y tres sectores productivos (petróleo, manufactura y resto), para una economía abierta. Se considera diferentes reglas de política. En cada caso se muestra el proceso de calibración y los resultados de las simulaciones utilizando información proveniente de la serie de matrices de contabilidad social para Venezuela entre 1997 y 2005. Se aporta simulaciones de la economía hasta 2009, tanto en los parámetros pertinentes y como algunos  ejercicios de sensibilidad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65/273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las decisiones humanas suelen implicar costos y beneficios distribuidos en el tiempo. Este artículo revisa el estado actual de la investigación con neuroimagen acerca de la manera en que el cerebro produce decisiones intertemporales. Se propone que mientras resulta poco probable que la neurociencia sea el terreno adecuado para decidir entre los modelos formales propuestos por la economía conductual, los recientes avances en el estudio del cerebro ofrecen la posibilidad de enriquecer dichos modelos incorporando nuevos conocimientos respecto a cómo el cerebro representa magnitudes, atribuye valor, regula conductas orientadas a metas y genera pensamiento prospectivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149/274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde hace algunos años tenemos una línea de investigación en justicia distributiva y trasplante renal en el campo de la bioética y los resultados de nuestras investigaciones nos permiten considerar que este tema es de interés para distintos ámbitos académicos (véase referencias bibliográficas). El artículo publicado por Calderón y Elbittar es una muestra de ello, ya que contribuye al análisis del tema; sin embargo, desde nuestro punto de vista dicho trabajo hace aportaciones parciales ya que está basado en información disponible en registros médicos, que no forzosamente reflejan las percepciones de los médicos que toman las decisiones respecto a la asignación de los órganos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163/275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de la presente réplica es intentar responder algunas de las interrogantes planteadas por los investigadores G. Cantú y A. Reyes a nuestro trabajo acerca de la estimación de un sistema de puntaje para trasplantes renales en México. Entre nuestros propósitos está igualmente destacar algunos aspectos que consideramos pertinentes para futuras investigaciones en este ámbito sensible de la salud pública en México.</t>
+    <t xml:space="preserve">658/1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cúmulo de reformas implementadas y en proceso desde el año 2005 en Uruguay tiene un carácter estructural y conforma un cambio sustancial de las reglas de juego generales de la economía y de la sociedad uruguaya. Adicionalmente, el soporte organizacional imprescindible para que esa nueva estructura de incentivos opere efectivamente ha conducido a una reestructuración en múltiples áreas de la institucionalidad del Estado.Se hace necesario explicar por qué fue factible en Uruguay desplegar un conjunto tan relevante de reformas profundas en un corto lapso. Se aplica un enfoque de economía institucional para describir las transformaciones organizacionales y para entender cómo la institucionalidad política y el proceso de diseño e implementación afectan los resultados de las políticas públicas, además de comprender cómo esta implementación altera las condiciones y las reglas del juego original, así como el papel, los incentivos y el poder relativo de sus principales jugadores. Las reformas que apuntaron a generar nuevas estructuras de incentivos y una institucionalidad acorde para su cumplimiento tienen en su base un enfoque político-ideológico acerca del papel del Estado. Mitigar las asimetrías de información y la desigual distribución de poder económico demandan un papel compensatorio desde el aparato estatal. En la medida en que la discrecionalidad da paso a estructuras de estímulos e incentivos predeterminadas, el manejo clientelístico y elitista del poder da paso al acceso más democrático, transparente y abierto a reglas mejor especificadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">659/1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Investigaciones recientes muestran que en México el color de piel es relevante para resultados de vida y para la movilidad social. Un canal de transmisión es la discriminación explícita. Otro posible canal supone que sean menores el esfuerzo y las aspiraciones de personas sujetas a estereotipos negativos por su color de piel. Ya que la sociedad valora ciertos rasgos físicos (identidad social), los individuos afectados pueden modificar su conducta y ajustar sus expectativas.Método:Realizamos un experimento de campo con estudiantes en secundarias de la Ciudad de México. Cada estudiante resolvió una prueba para medir habilidades cognitivas y un cuestionario sobre aspiraciones futuras. El diseño experimental consistió en revelar información de manera aleatoria antes de realizar la prueba. El grupo de control no recibió ninguna información. El tratamiento 1 recibió 12 imágenes de personajes públicos con tez clara antes de la prueba, el tratamiento 2 recibió una paleta de colores para autoevaluar el tono de piel, y el tratamiento 3 recibió ambas, el mosaico de imágenes y la paleta de colores.Resultados:Los resultados señalan que la identidad social y los estereotipos de color de piel afectan las aspiraciones y el desempeño de los jóvenes en México. El grupo que recibió la intervención, invocando la identificación social por tono de piel y su posible relación con resultados de vida, presentó un menor nivel de aspiraciones hacia el futuro (0.26 desviaciones estándar), comparado con los estudiantes en el grupo de control. Estos efectos provienen de las mujeres, lo que sugiere que son más sensibles al efecto negativo de los estereotipos.Conclusiones:Los resultados implican que aspectos culturales en la sociedad mexicana afectan el modo en que los jóvenes se comportan y toman decisiones. Por tanto, diferencias en resultados de vida y movilidad social en México para individuos similares, pero con tonos de piel distintos, también podrían explicarse por la existencia de estereotipos de color de piel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660/1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:En este trabajo se analiza el papel de la trayectoria nutricional y las habilidades no cognitivas en el abandono escolar y la repetición en enseñanza media en Uruguay. Varios trabajos han dado cuenta de la relevancia que a lo largo del ciclo de vida tienen los desempeños en la primera infancia y del papel que juegan las intervenciones tempranas (Behrmanet al.,2009; Conti y Heckman, 2012; Daelmanset al.,2016). En los países en desarrollo muchos trabajos han analizado cómo se asocia la situación nutricional con el resto de los desempeños vitales y, en particular, con los escolares (Behrman y Wolfe, 1987). Sin embargo, el papel de las habilidades no cognitivas ha sido escasamente abordado.Métodos:Se trabajó con dos olas de un panel de niños que cursaban primer año de enseñanza primaria en escuelas públicas en 2004. Los adolescentes estudiados estuvieron expuestos durante los primeros años de vida a una aguda crisis económica (1999-2003). Para las estimaciones de la probabilidad de repetir, se explota la naturaleza longitudinal de la fuente de datos aplicando efectos fijos. En el caso del abandono del sistema escolar las estimaciones se realizan por Mínimos Cuadrados Ordinarios (MCO) y Mínimos Cuadrados en dos Etapas (MC2E). En este último caso se corrigen los problemas de endogeneidad por considerar como variable explicativa del abandono los eventos previos de repetición del adolescente.Resultados:Se encontró que la talla para la edad y el ingreso del hogar al inicio del ciclo primario son fuertes predictores de la repetición. Un mal desempeño en las escalas psicométricas del cuestionario de fortalezas y dificultades (SDQ, por sus siglas en inglés) (síntomas emocionales, problemas de conducta, hiperactividad y actitud prosocial) se correlaciona con haber experimentado algún episodio de repetición. A la vez, ésta predice fuertemente el abandono.Conclusiones:Estos hallazgos se encuentran en línea con la literatura que sostiene que el desarrollo en etapas tempranas condiciona los desempeños en la adolescencia. Se encuentra una fuerte inercia en las condiciones de partida de los adolescentes, lo que sugiere la necesidad de apoyar a los hogares con intervenciones desde las edades tempranas como una manera de acompañar todo el ciclo vital. Identificar la configuración de privaciones iniciales que condicionan el desempeño educativo constituye un insumo para el diseño de las políticas de combate contra la privación presente y futura. Los hallazgos también reafirman la importancia de lograr una mayor comprensión de la forma en que interactúan la repetición escolar y el abandono, con el propósito de abatir las altas tasas de abandono escolar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">661/1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:La inversión es clave para analizar el crecimiento de una economía, porque aumenta su capacidad productiva, por ampliación del capital o incorporación de nueva tecnología que hace más eficiente el proceso productivo. En Uruguay, la inversión se ha incrementado sustancialmente en los últimos años, tanto global como sectorialmente. Esto habría ocurrido como resultado del fuerte crecimiento en el periodo, con políticas gubernamentales de promoción de inversiones. El impacto de la inversión en el crecimiento y el empleo han sido estudiadas en profundidad, con resultados empíricos que apoyan que la inversión precede el crecimiento, como la causalidad inversa.Métodos:A través de un modelo de vectores con corrección de error (VECM por sus siglas en inglés) se analiza el PIB sin actividad primaria, la inversión y el empleo urbano en Uruguay.Resultados:Con base en este modelo, observamos que hay una relación positiva entre el PIB y las otras dos variables, y que en ella el PIB precede tanto a los trabajadores urbanos como a la inversión.Conclusiones:La relación entre el empleo y la inversión no es tan clara y, en algunos casos, parece ser negativa, lo que podría estar mostrando un fenómeno de inversión ahorradora de trabajo, o inversión en sectores menos intensivos en mano de obra. Uruguay, como una pequeña economía abierta depende de la IED para aumentar la inversión, y este tipo de inversión es atraído sobre todo por altas tasas de crecimiento económico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">662/1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Se contrasta la hipótesis de existencia de una prima salarial con el uso de computadora en el trabajo. Hasta ahora la mayoría de los estudios se han enfocado en países desarrollados y muy pocos en países en desarrollo.Métodos:Se estiman ecuaciones salariales con efectos mixtos que incorporan características de trabajadores y empleadores que controlan la heterogeneidad regional de los mercados laborales. También se utiliza un método alternativo para calcular las diferencias salariales mediante técnicas de emparejamiento.Resultados:La evidencia, con información de 2006 y 2014, es favorable a la hipótesis. Las estimaciones más modestas indican una prima entre 17 y 19% para los usuarios más intensivos.Conclusiones:La aceptación significa que la computadora es parte del cambio tecnológico que aumenta la productividad, lo que incentiva a empleadores a pagar una prima a los trabajadores habilitados. Indica, además, para el país la importancia de reducir la brecha digital tanto en trabajadores capacitados como en empresas que adopten la tecnología.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663/1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Se ha documentado que la persistencia de la inflación en México ha experimentado un comportamiento inestable a lo largo del tiempo en la distribución de la media condicional. Sin embargo, su comportamiento no ha sido explorado en sus cuantiles condicionales.Métodos:Este estudio determina los periodos en que la persistencia de la inflación en México presentó un cambio estructural en su distribución, usando el método de regresión cuantílica. Adicionalmente, el artículo examina para cada uno de los periodos encontrados si la inflación sigue un comportamiento estacionario, valiéndose de la prueba cuantílica de Kolmogorov-Smirnov; además estima la persistencia de los choques a la inflación y analiza si la inflación se encuentra convergiendo hacia la meta de inflación de largo plazo de 3% impuesta por el Banco Central.Resultados:Los episodios encontrados coinciden con periodos en los que las políticas económicas de México experimentaron cambios drásticos que alteraron el proceso de formación de precios. La evidencia indica que los choques a la inflación presentan un comportamiento asimétrico, pues mientras los choques negativos de magnitud alta se desvanecen de manera rápida, los choques positivos de magnitud alta se caracterizan por tener un efecto duradero. La inflación convergió en un proceso estacionario en todos sus cuantiles condicionales bajo el régimen de objetivos de inflación. Además, a partir de 2009 no se puede rechazar estadísticamente que la inflación general ajustada por efectos estacionales se encuentre dentro del rango de variabilidad de ± 1% del objetivo de largo plazo de la inflación ubicado en 3%.Conclusión:La regresión cuantílica es una herramienta estadística útil y conveniente para analizar la persistencia de la inflación. Particularmente, da una idea clara acerca de los periodos en los cuales la persistencia en la inflación cambió y del impacto de los choques a la inflación en un cuantil específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">664/1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:El Fondo de Aportaciones para la Infraestructura Social (FAIS), instituido a partir de 1998, es una transferencia condicionada que distribuye el gobierno federal mexicano entre los estados y municipios para reducir la pobreza. La fórmula de asignación usada hasta 2013 distribuía este fondo de acuerdo con la pobreza relativa de cada estado en relación con la nacional. Este diseño no generaba los incentivos adecuados para reducir la pobreza.Métodos:Con base en un modelo agente-principal, y considerando explícitamente la asimetría de información entre los órdenes de gobierno federal y subnacional, en este artículo se propone una fórmula de asignación del FAIS, que tiene dos características fundamentales: se distribuye con base en la pobreza relativa de los estados/municipios; y contiene un componente para evitar el incentivo perverso de la fórmula de distribución que se usó hasta 2013.Resultados:Se diseña un mecanismo que se usa como fundamento teórico en la construcción de una fórmula para distribuir la transferencia.Conclusiones:Para lograr el impacto deseado de los programas gubernamentales que se financian con transferencias federales es importante diseñar e implementar mecanismos que alineen los incentivos de los diferentes niveles de gobierno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">676/1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:Se revisan las expectativas asociadas al Tratado de Libre Comercio de América del Norte (TLCAN) en lo comercial y en la atracción de inversión extranjera directa (IED). La literatura de la década de 1990 establecía que el TLCAN promovería el comercio, la inversión extranjera y el acceso a la tecnología de punta.Método:Tomamos 46 actividades que agrupan todas las ramas industriales (cuatro dígitos) en 15 subsectores a tres dígitos y 31 ramas individuales a cuatro dígitos, desde el Censo Económico de 2014. Se estiman la importancia del valor agregado asociado a la taxonomía de Pavitt (1984) en cuatro grupos de naturaleza tecnológica y también las exportaciones desde esos grupos. Mediante la técnica de análisis declusterdicotómico se hace la distinción entre estados de acuerdo con el grado de actividades con presencia tecnológica.Resultados:El principal resultado es que hay dos tipos de entidades cuyo desempeño en el desarrollo de actividades de base tecnológica se traduce también en capacidad de exportar. Esto es, que los estados con estructuras industriales menos sesgadas y con mayor presencia de industrias de base tecnológica logran un mejor desempeño exportador. El impacto del TLCAN en favor de las actividades de innovación de largo aliento ha sido limitado.Conclusiones:Se destaca la limitada influencia del TLCAN sobre el desarrollo de capacidades tecnológicas en el país. Se observa un rezago permanente de la inversión en investigación y desarrollo (I&amp;amp;D) y el producto interno bruto (PIB) manufacturero privilegia las industrias relativamente maduras dejando también rezagadas a las de base tecnológica. Esto a pesar de que los estados con mayor inclinación por las actividades tecnológicas tienen un mejor desempeño económico y de exportaciones. Los estados que destacan son los de la frontera norte, los del centro del país y algunos del Bajío.</t>
   </si>
   <si>
     <t xml:space="preserve">68/259</t>
@@ -1492,6 +2464,12 @@
     <t xml:space="preserve">En este artículo evaluamos si existen diferencias en las variables de desempeño de niños y adultos entre hogares casados y hogares en unión libre, una vez que se controla por diferencias observadas entre los dos tipos de familias y se controla por posibles problemas de endogeneidad debidos a la autoselección con base en la utilización de la técnica de variables instrumentales. Utilizamos una variedad de bases de datos colombianas que tienen información acerca de variables de desempeño de los niños. Los resultados indican que los hogares en unión libre están peor que los hogares casados en varias dimensiones, incluidas la tenencia de bienes duraderos y el bienestar infantil. Además, intentamos entender las razones por las cuales estas diferencias emergen y encontramos que los hogares en unión libre exhiben comportamientos menos estables, con menor planeación del futuro, se caracterizan por menor especialización y riesgo compartido entre la pareja, y exhiben comportamientos menos saludables y peores prácticas parentales.</t>
   </si>
   <si>
+    <t xml:space="preserve">699/1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:el desempeño de la estructura de la economía mexicana, especialmente la de su sector manufacturero, es muy dependiente del mercado norteamericano. Las dificultades del proceso de renegociación del Tratado de Libre Comercio de América del Norte (tlcan) han alimentado la incertidumbre acerca del futuro de las relaciones comerciales entre los países participantes en el mismo. En estas circunstancias resulta indispensable evaluar los impactos potenciales sobre la economía mexicana de diferentes escenarios posibles de política comercial.Metodología:se emplea un modelo de equilibrio general aplicado (mega) como base de las estimaciones, el cual está sustentado en una matriz de contabilidad social (mcs), valuada a precios de mercado (2008). Se trata de la primera mcs con esta característica que se produce en México.Resultados:en el modelo a corto plazo, en el cual se consideran únicamente los efectos de las variaciones esperadas en los aranceles, se observa un impacto reducido en el producto interno bruto (pib) agregado y de mayor consideración en algunos sectores exportadores. En el modelo de largo plazo, que adicionalmente contempla una contracción en los montos de inversión extranjera directa (ied), las consecuencias serían de mayor magnitud, incluso a nivel global, con una caída superior a 3.5% en el pib, una contracción más significativa en las exportaciones e impactos sectoriales considerables en las actividades productivas con mayor orientación al mercado externo. Estos impactos adversos se magnifican si México responde con la imposición de aranceles de nación más favorecida (nmf) a las importaciones provenientes de los Estados Unidos.Conclusiones:si se consideran únicamente las variaciones en los aranceles, la eventual cancelación del tlcan tendría efectos económicos moderados sobre la economía mexicana, pues entrarían en vigencia los aranceles de nmf, acordados por cada país ante la omc (Organización Mundial de Comercio), los cuales, en su mayoría, son reducidos. Por desgracia, un cambio de esta relevancia puede afectar sensiblemente los flujos de la inversión extranjera directa (ied), en cuyo caso las repercusiones serían de mayor envergadura.</t>
+  </si>
+  <si>
     <t xml:space="preserve">70/261</t>
   </si>
   <si>
@@ -1504,6 +2482,18 @@
     <t xml:space="preserve">La inflación ha sido permanentemente estudiada en Chile por sus efectos negativos en la economía; sin embargo su investigación es escasa por región, porque ha primado el supuesto de que las economías regionales tienen un comportamiento homogéneo respecto a la inflación. Extendiendo la metodología de Paredes y Aroca (2008) al plano temporal y utilizando información de inflación nacional producida por el Instituto Nacional de Estadísticas, este artículo contribuye con una estimación de la inflación de los precios de las viviendas de las regiones chilenas. Los resultados sugieren que las regiones además de tener distintos costos de vida (más altos para las regiones extremas que para las del centro), muestran una evolución con velocidades diferentes. Esto sugiere que la elaboración de políticas habitacionales (y potencialmente en todos los sectores) destinadas a reducir la inflación tengan efectos heterogéneos en el territorio y sean menos eficaces de las que podrían formularse considerando las diferencias inflacionarias entre las regiones.</t>
   </si>
   <si>
+    <t xml:space="preserve">716/1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:la categoría “clase media” no tiene un significado único y consistente. La complejidad de su abordaje en términos conceptuales y metodológicos, similar al de la pobreza, la ubican desde diversas disciplinas como uno de los aspectos conceptuales sin consenso en la literatura. Se realiza una revisión comprehensiva de la literatura, con énfasis en las metodologías multidimensional y unidimensional del ingreso y se identifican áreas de no consensos en umbrales y dimensiones utilizadas.Metodología:se realiza la identificación de la clase media mexicana desde una perspectiva multidimensional, consistente con el método de medición multidimensional de la pobreza del Coneval (2009), según el cual el ingreso es condición necesaria pero no suficiente de seguridad y no vulnerabilidad. Se construyen clases latentes con base en los indicadores de derechos y bienestar de Coneval que identificaron la proporción de población en clases medias. Se obtienen cinco categorías: población en pobreza multidimensional, población vulnerable por ingreso, población vulnerable por carencias sociales, clases medias y población rica.Resultados:entre los principales hallazgos se encuentra evidencia de que México sigue siendo un país de pobres, más que de clases medias. La cantidad de personas en condición de pobreza es 2.3 veces mayor que lo que representa la clase media; por lo tanto, el estatus y las condiciones de vida garantes de la seguridad y no vulnerabilidad económica, características de la clase media, sólo se garantizan para poco más de un cuarto del total de la población, 27.5%. El artículo presenta resultados sobre la evolución de la clase media, la cual crece entre 2000 y 2006, hasta antes de la crisis alimentaria y económico-financiera de 2006 y 2008, pero nunca llega a niveles superiores a 50%. Tras la crisis, comienza nuevamente su descenso a niveles similares a los de 1994, condición que muestra su vulnerabilidad ante situaciones de crisis oshocks .Conclusiones:el artículo concluye que la sostenibilidad de las clases medias en el tiempo depende tanto de políticas públicas efectivas y eficientes de combate a la pobreza, como de políticas dirigidas a las denominadas clases medias, lo cual en México y países de América Latina no existe. Ello implica que las más amplias capas de población, de la misma manera que en los países desarrollados, tengan acceso a un salario mínimo digno que garantice el bienestar, servicios efectivos de salud adecuados, educación de calidad, acceso al mercado de créditos y el sistema financiero, así como pensiones adecuadas y dignas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">717/1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes:la contaminación atmosférica proveniente del transporte en las urbes y sus impactos a la salud y el bienestar de las personas son preocupaciones crecientes en la región de América Latina. Existen muy pocos análisis que esclarezcan la relación entre los niveles de ingreso y contaminación proveniente del transporte a nivel microeconómico, con un gran vacío en ciudades de países en desarrollo.Metodología:se corrió un modelo de mínimos cuadrados ordinarios (MCO) lineal, cuadrático y cúbico del modelo típico de Kuznets para conocer la relación existente entre el ingreso y las variables de contaminación atmosférica. Se construyó una base de datos con información de 2010, 2012 y 2014, con datos del Módulo de Condiciones Socioeconómicas (MCS) del Instituto Nacional de Estadística, Geografía e Informática (INEGI) para una muestra representativa de 1 582 hogares, con datos de ingreso anual e ingreso per cápita por hogar, así como sobre la ubicación del hogar, el número y modelo de los vehículos que éste posee y un estimado propio sobre distancias recorridas, para ponderar las emisiones con el modelo moves-México, que utiliza las mediciones de monitoreo atmosférico existentes en la Zona Metropolitana del Valle de México (ZMVM).Resultados:existe una relación monotónica (lineal positiva) entre el monóxido de carbono (CO) y el dióxido de carbono equivalente (CO 2 eq), y cuadrática (U invertida) para los óxidos de nitrógeno (NOx), por mucho, los menos abundantes de los tres gases.Conclusiones:inclusive a niveles de ingreso por encima de los puntos de inflexión observados en la literatura, los hogares más ricos siguen sin internalizar el costo social de contaminar. Los resultados sugieren el diseño urgente de políticas públicas que promuevan un cambio en los modos de transporte en la ZMVM.</t>
+  </si>
+  <si>
     <t xml:space="preserve">72/263</t>
   </si>
   <si>
@@ -1522,12 +2512,6 @@
     <t xml:space="preserve">El artículo tiene como objetivo definir y estimar los principales determinantes de las ganancias de los ambulantes propietarios-autoempleados en México. Se encontró que dentro de este grupo de ambulantes están los que buscan en el ambulantaje una vía de crecimiento, así como los que encuentran en éste un refugio al ser “excluidos” de la formalidad. En el estudio se observa que son los primeros los que tienen mejores resultados. Asimismo se aprecia las mayores ganancias entre los 20 y 23 años de experiencia, teniendo el mayor crecimiento durante los cuatro primeros años. Por su parte la escolaridad y las horas trabajadas afectan positivamente el crecimiento de las ganancias. Los varones muestran mayores ganancias que las mujeres, así como los ambulantes que tienen un líder en relación con los que no lo tienen. Finalmente se observa mejores rendimientos en los vendedores de provincia respecto a los de la ciudad de México.</t>
   </si>
   <si>
-    <t xml:space="preserve">218/266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta nota reseña la versión castellana de uno de los libros más importantes en materia de las llamadas microfinanzas o finanzas populares. El libro fue originalmente publicado en inglés por MIT press.</t>
-  </si>
-  <si>
     <t xml:space="preserve">75/253</t>
   </si>
   <si>
@@ -1540,12 +2524,24 @@
     <t xml:space="preserve">Aunque los años de escolaridad de los mexicanos aumentaron significativamente en los pasados 20 años, la calidad del sistema educativo —un determinante importante del crecimiento económico de largo plazo— dista mucho de ser satisfactorio. Utilizando los resultados de la primera prueba estandarizada en educación media superior (ENLACE-MS), este estudio muestra que un modelo que incluye las características del hogar, individuales, institucionales y escolares puede explicar más de 40% de las diferencias observadas en las calificaciones de matemáticas. Desde el punto de vista de la política pública, los resultados de este trabajo sugieren que, a fin de aumentar la calidad de la educación, las autoridades educativas deberían concentrarse en mejorar la infraestructura escolar, la calidad de los docentes y la relación entre los estudiantes y las autoridades escolares.</t>
   </si>
   <si>
+    <t xml:space="preserve">764/1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo se presenta un análisis preliminar del impacto de la reforma fiscal llevada a cabo al inicio del gobierno de Enrique Peña Nieto. En primer lugar se exponen las debilidades de la hacienda pública a las que se enfrentaba el nuevo gobierno, relacionadas con los ingresos —que dependían fuertemente de los recursos petroleros— y con los gastos. Debido a esas debilidades era indispensable una reforma fiscal que elevara las tasas impositivas, disminuyera la evasión y promoviera la formalización, entre otras medidas. En segundo lugar se describen los elementos centrales de la reforma presidencial y se revisan sus impactos en diversas variables. Son de especial relevancia la caída del precio del petróleo y la decisión del gobierno de mantener fijo el precio final de las gasolinas para evitar que disminuyeran sus ingresos, así como las repetidas fallas de los pronósticos de la economía que realizó. Se concluye que, aunque es insuficiente aún, la reforma fue exitosa en cuanto al aumento de la carga fiscal, el más elevado en un periodo tan corto, pues pasó de 8.4% del PIB en 2012 a 13.1% en 2017. No obstante, la reforma no evitó el uso de los remanentes de operación del Banco de México, ni el aumento de la deuda pública en casi 10 puntos del PIB.</t>
+  </si>
+  <si>
     <t xml:space="preserve">77/255</t>
   </si>
   <si>
     <t xml:space="preserve">En este documento se analiza el traspaso de movimientos en el tipo de cambio a diferentes índices de precios en México. El análisis se basa en un modelo de vectores autorregresivos (VAR) para datos mensuales de enero de 1997 a diciembre de 2010. Los efectos del traspaso se calculan utilizando los impulsos respuesta acumulados de un choque al tipo de cambio que se identifica mediante el método recursivo. Los resultados muestran que el traspaso a los precios de las importaciones es completo, pero que el grado de traspaso disminuye a lo largo de la cadena de distribución, de tal manera que el efecto en los precios al consumidor es menor a 20%. Además, se encuentra que el traspaso a los precios al consumidor parece disminuir considerablemente a partir de 2001, lo cual coincide con la adopción del esquema de objetivos de inflación por parte del Banco de México.</t>
   </si>
   <si>
+    <t xml:space="preserve">771/1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes: las revistas académicas de economía pueden decirnos mucho acerca del estatus de la ciencia económica. En este artículo analizamos la presencia de las mujeres, las redes interuniversitarias y los temas que se han tratado de 2000 a 2017.Metodología:tomando datos para seis de las principales revistas arbitradas de economía en México de 2000 a 2017, analizamos tanto a los autores como los temas tratados en ellas. Utilizamos la información de esos autores para estudiar la manera en que ha evolucionado la presencia de las mujeres en estas publicaciones y para conocer las interacciones entre investigadores de distintas instituciones. Con base en los resúmenes de cada artículo analizamos las menciones de palabras clave de temas importantes para la economía mexicana y, también, para grupos en situación de vulnerabilidad.Resultados: en primera instancia observamos que las mujeres han adquirido una mayor presencia a lo largo de estos últimos 17 años, medida tanto en porcentaje de artículos al menos con una autora (un aumento de 31 p. p.) como en el porcentaje de autoras que representan a las mujeres en cada año (un aumento de 14 p. p.). En lo referente a las redes de colaboración, nuestro análisis muestra que las colaboraciones entre investigadores de diferentes instituciones son poco comunes: launamtiene su vínculo más estrecho con elipn,y con investigadores de esta institución se dan tan sólo 7.7% de sus colaboraciones. Finalmente, tanto los temas relevantes para la economía mexicana como los grupos vulnerables son mencionados con una frecuencia muy baja en los resúmenes de los artículos.Conclusiones: las publicaciones arbitradas en economía pueden mejorar. Dado que la ciencia se beneficia de la diversidad, sería deseable ver tanto a más mujeres publicando como un mayor número de colaboraciones interuniversitarias. Por otro lado, los temas abordados en las revistas científicas mexicanas de economía no están necesariamente relacionados con los principales retos económicos de México y tampoco nos ayudan a comprender mejor a los grupos en situación de vulnerabilidad.</t>
+  </si>
+  <si>
     <t xml:space="preserve">78/256</t>
   </si>
   <si>
@@ -1646,1002 +2642,6 @@
   </si>
   <si>
     <t xml:space="preserve">Este artículo presenta un novedoso conjunto de datos mensuales acerca de vacantes en Bogotá entre 1960 y 2010. El conjunto de datos se construyó mediante el conteo del número de anuncios de ofertas de empleo publicados en el periódico más importante de circulación nacional: El Tiempo. Describimos la metodología empleada para construir la base de datos, analizamos los posibles problemas asociados con ella y proponemos maneras de resolverlos. Este artículo también presenta una estimación de la tasa de vacantes. Trazamos una curva de Beveridge y utilizamos la tasa de vacantes para pronosticar el desempleo. Este primer vistazo a la serie arroja resultados congruentes, a la vez que deja un sinnúmero de preguntas abiertas para investigaciones futuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154/328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 1990 se llevó a cabo la privatización de la compañía Teléfonos de México (Telmex) como un monopolio vertical y horizontalmente integrado, que podía ofrecer todos los servicios posibles de telecomunicaciones, menos video. Asimismo, su venta incluyó importantes derechos de exclusividad, como el servicio de larga distancia, en el cual no se permitió la competencia por los siguientes seis años. Finalmente, se realizó un ajuste anticipado de sus tarifas al alza, con objeto de incrementar su potencial valor antes de su ofrecimiento a la venta. El equilibrio de las finanzas públicas era, por tanto, el tema fundamental de política económica del Estado mexicano, y los temas de competencia y regulación de las telecomunicaciones no se consideraban relevantes al momento de la privatización de la principal empresa de telecomunicaciones del país.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155/329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refutamos la conclusión de la OCDE que sostiene que el sector de las telecomunicaciones en México ha experimentado una falta de competencia. La conclusión de la OCDE se basa en sus cálculos que indican que los precios altos en los servicios de telecomunicaciones en México han ocasionado una pérdida del excedente del consumidor de 129 mil millones de dólares. En realidad, los consumidores mexicanos han obtenido beneficios de miles de millones de dólares debido a precios más bajos y mayores compras de servicios de telecomunicaciones. Las conclusiones opuestas de la OCDE provienen de errores, del uso incorrecto de hechos y datos y de la aplicación del análisis económico erróneo. Un análisis econométrico correcto revela que no existen pruebas de una falla del mercado en México. Los precios de la telefonía celular en México están muy por debajo de los precios promedio de otros países comparables (incluyendo nueve países de la OCDE). El sector de la telefonía fija tiene un mejor desempeño que una muestra comprable de sus pares. Los consumidores mexicanos están obteniendo miles de millones de dólares en beneficios gracias a estos precios más bajos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156/248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo comenta cada uno de los dos informes de la falta de competitividad en el sector de telecomunicaciones en México: el primero es el de la OCDE que fue encargado por la Comisión Federal de Telecomunicaciones en México, y el segundo es el de Hausman y Ros [publicado en este número de la revista] que fue comisionado por América Móvil para comentar y revisar el primero. Los comentarios se centran en aspectos técnicos de los estudios con propósitos estrictamente académicos. Los dos estudios usan datos agregados, lo que motiva el uso de modelos de oferta y demanda que corresponderían más a un mercado competitivo, no al de competencia monopolística como es el caso de la industria de telecomunicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157/330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El régimen propuesto por la OCDE de instrumentar regulación asimétrica ex ante para el mercado de las telecomunicaciones en México reduciría la competencia, contrariamente a los objetivos de la OCDE. Las propuestas de la OCDE perjudicarían a los consumidores mexicanos e impondrían un aumento en los precios que se pagan por los servicios de telecomunicaciones. Crearían un cártel de precios sancionado por el gobierno entre los operadores de telecomunicaciones. Premiarían a los competidores ineficientes y penalizarían a los operadores eficientes, todo en detrimento de los consumidores. En lugar de agregar nueva regulación contraproducente o ineficaz, el gobierno mexicano debería eliminar las barreras regulatorias a la entrada entre los servicios de video y telefonía, con lo cual se crearía una competencia duradera basada en la infraestructura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158/331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El reciente estudio de la Organización para la Cooperación y el Desarrollo Económicos (OCDE) de las telecomunicaciones en México (OCDE, 2012a) establece dos puntos principales. Primero, el desempeño del sector, que si bien ha mejorado se mantiene por debajo de las metas alcanzables. Segundo, las causas del déficit de desempeño son la competencia insuficiente y la regulación ineficaz. El presente artículo se enfoca en dos cuestiones. La primera es el desempeño relativo de la industria de las telecomunicaciones en México. La segunda es si la regulación de las telecomunicaciones en México se aparta o no de las mejores prácticas internacionales y si las recomendaciones de la OCDE son o no sensatas. Las principales conclusiones del presente artículo son las siguientes. En cuanto al desempeño, el análisis de la OCDE es correcto en términos generales y las críticas al estudio de la OCDE que hacen Hausman y Ros son mayormente infundadas. En cuanto a las políticas, el análisis de la OCDE de la regulación en México refleja las conclusiones de la investigación académica y las prácticas de países pares en los que el desempeño de la industria de las telecomunicaciones es superior al de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159/332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En Europa las tarifas de terminación móvil (TTM) están siendo reducidas en magnitud para reflejar los costos reales, ya sean marginales o incrementales, de terminación de llamadas en redes celulares, lo que se está considerando en términos generales como un paso intermedio a la adopción del sistema bill-and-keep (es decir, que no existan TTM para las llamadas de celular a celular y de fijo a celular). Otros países alrededor del mundo, como Nueva Zelanda, también están siguiendo este ejemplo. En México, las TTM aún son lo que crea una barrera para la fijación de precios eficientes en redes celulares y fijas, y para una competencia de largo plazo más efectiva. En este artículo revisaremos en primer lugar los debates recientes sobre tarifas de terminación celular en Europa, y luego presentaremos los resultados de un modelo de bienestar calibrado del mercado celular mexicano, que incluye tres redes de telefonía celular; llamadas desde y hacia redes fijas; discriminación de precios basada en la red, y externalidades de las llamadas. Nuestras simulaciones muestran que la reducción de las tarifas de terminación celular para las llamadas tanto de celular a celular como de fijo a celular, ya sean a costo incremental de largo plazo; tarifas recíprocas de terminación en redes fijas, o al sistema bill-and-keep puede aumentar el bienestar social por más de mil millones de dólares por año en ausencia de externalidades de llamada, y por más de 2.25 mil millones de dólares por año cuando las externalidades de llamada son fuertes. Nuestro análisis ofrece apoyo a un cambio desde el sistema de fijación de precios basado en costos completamente asignados (o completamente distribuidos), como se practica actualmente en México, hacia tarifas de terminación celular mucho más bajas, con el sistema bill-and-keep, que con frecuencia conducirá al mayor incremento en el bienestar. La reducción de las TTM a costo incremental, o la adopción del bill-and-keep, deberá dar lugar a una estructura de precios más eficiente tanto al mayoreo como al menudeo, ayudar a eliminar las barreras de entrada causadas por los efectos de red derivados del monto de tarifas, y aumentar el bienestar y la competencia a largo plazo en el mercado celular mexicano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160/333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 2010 la Comisión Federal de Telecomunicaciones realizó las Licitaciones 20 (30MHz en la banda de 1.9GHz) y 21 (90MHz en la banda de 1.7-2.1GHz) con el objetivo de afectar positivamente la cobertura, la calidad, la competencia y la inversión en el sector. Estas licitaciones se instrumentaron simultáneamente mediante el inicio de un procedimiento de audiencias comparadas, seguidas por una subasta de precio ascendente, con topes de acumulación de espectro. Las ganancias fueron i) incremento de 55.0% en el promedio de tenencia de espectro; ii) reducción de 14.3% en las asimetrías entre operadores por región; iii) el total pagado en la subasta más las obligaciones de pagos futuros asciende a 28 871 millones de pesos (2 309 millones de dólares), y iv) por cada peso que ingresa al Estado se genera una ganancia de 8.8 pesos en excedente del consumidor. Finalmente, si se revierte la decisión, se genera una pérdida en bienestar entre 24 170 y 35 001 millones de pesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102/334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre los legados que deja la crisis financiera de los Estados Unidos y países de Europa está la implantación de políticas macroprudenciales en estos países y en un número creciente de otros países del mundo, incluidos algunos de la América Latina, con el fin de evitar nuevas crisis financieras. Esta reforma ha significado el establecimiento de nuevas bases institucionales, el uso de modelos e indicadores que permitan anticipar y prevenir que dichas crisis ocurran y el uso de instrumentos correctivos de la acumulación de vulnerabilidades financieras. Este estudio examina los aspectos institucionales de la política macroprudencial en la América Latina, las decisiones que se han tomado, y sus fortalezas y debilidades. En particular, analiza el alcance de estas reformas en los dos modelos institucionales que existen en esta región para la aplicación de las políticas monetarias y financieras: el modelo “Pacífico” que incluye a países como Chile, Colombia, Perú, Costa Rica y México, y el modelo “Atlántico”, que incluye a países como Argentina, Brasil y Uruguay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103/335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta un modelo de economía pequeña y abierta para estudiar la importancia de los choques a la tasa de interés real en México. La tasa de interés se descompone en dos términos: la tasa de interés internacional y la prima de riesgo país. Las simulaciones muestran que el modelo con prima de riesgo país endógena es capaz de explicar varios hechos estilizados del ciclo económico. El análisis contrafactual sugiere que la eliminación de los choques a la tasa de interés real reduciría la volatilidad del PIB en alrededor de una tercera parte, debido principalmente a la eliminación de los choques a la prima de riesgo país. En ausencia de dichos choques, las caídas del componente cíclico del PIB y del consumo durante la recesión de 1994-1995 habrían sido sólo de 2 y 4.5%, en contraste con las caídas de 12 y 16% observadas en los datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104/337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estima de forma semiparamétrica pautas de ciclo de vida de ingreso y de consumo en México durante los pasados 26 años. El análisis de consumo se realiza considerando clasificaciones de bienes duraderos y no duraderos para jefes de hogar con distintas características, por ejemplo, educación o zona en donde habitan. Los hallazgos indican que el consumo muestra una pauta de U invertida, contrario a los modelos tradicionales de consumo. La pauta de U invertida no puede ser explicada por los cambios en la composición del hogar ni por complementariedades con la oferta laboral del hogar a lo largo del ciclo de vida. Además, se encuentra que los hogares en México tienen un consumo relativamente bajo en bienes duraderos en comparación con países desarrollados. Los resultados del artículo sugieren que las restricciones de crédito son importantes para los hogares mexicanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105/338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo se basa en la hipótesis de que la estructura de capital de las PyME está afectada por la ubicación territorial de las empresas. Este comportamiento podría estar motivado por las similitudes en las políticas financieras de las empresas vecinas, ya que comparten características financieras, jurídicas y de entorno económico, y debido a los vínculos comerciales y financieros que existen entre ellas. Para contrastar esta idea, aplicamos una metodología econométrica espacial a una muestra de 23 279 empresas manufactureras españolas. Nuestros hallazgos confirman que las proporciones de endeudamiento total no se distribuyen aleatoriamente en el territorio español, sino que hay regiones con un endeudamiento alto (bajo) que tienden a estar rodeadas de zonas con una deuda alta (baja). Por otra parte, los determinantes tradicionales de la estructura de capital cambian un poco cuando se considera el efecto . Por tanto, resulta necesario considerar estos efectos de interacción regional entre unidades productivas en los modelos financieros de estructura de capital para evitar estimaciones erróneas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106/339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo arroja nueva luz sobre el proceso de polarización del ingreso observado entre Bogotá y el resto de los departamentos de Colombia al señalar el papel decisivo que desempeña el acceso a los mercados al evitar que se reduzcan las disparidades del ingreso entre departamentos y, por consiguiente, como obstáculo al proceso de convergencia en los ingresos. Los resultados de nuestras estimaciones econométricas con datos de los departamentos colombianos durante el periodo 1975-2000 muestran que el acceso a los mercados surge como una variable clave en la explicación de la distribución espacial del ingreso en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107/340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este trabajo identifica y analiza los choques estructurales fundamentales que explican las fluctuaciones de corto plazo de la economía venezolana en su historia reciente. Para ello, se realiza la estimación de un modelo aproximado de factores dinámicos (MAFD), el cual sirve de base para captar el efecto de los choques de política monetaria, política fiscal y choque petrolero en el componente común de un panel de 115 variables macroeconómicas. Estos choques estructurales son identificados por medio de la técnica de restricciones de signo desarrollada recientemente en la bibliografía. Los principales resultados indican que un choque de política monetaria no es efectivo para modificar la actividad económica, mientras que un choque expansivo de política fiscal financiado con endeudamiento interno logra incrementar el consumo privado y la construcción, pero sin afectar la producción agregada de la economía. Finalmente, un choque petrolero expansivo se comporta de manera idéntica a un choque de oferta agregada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108/341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los clientes del sistema bancario mexicano son aquellos que tienen al menos una cuenta de ahorro o crédito, en alguno de los bancos del país. Con el fin de evaluar el avance de bancarización, este artículo propone un método para calcular el número de usuarios con tenencia de productos de captación y/o crédito en alguna de las instituciones bancarias. Al no haber cifras publicadas del número de clientes de cada banco, por parte de las autoridades o de las propias instituciones bancarias, la metodología que se presenta es resultado de hacer uso de saldos de captación y saldos de crédito que las instituciones financieras informan. En la medida en que no se cuente con información precisa de cuántos usuarios hay en cada banco y el número de ellos que pertenecen a dos o más bancos, existe la posibilidad de aplicar la metodología que se describe en este documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151/342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este documento presenta los elementos teóricos y criterios operativos seguidos por el Consejo Nacional de Evaluación de la Política de Desarrollo Social (Coneval) para definir la metodología de medición multidimensional de la pobreza. La metodología multidimensional se constituyó, a partir de 2009, en la forma como oficialmente se identifica y mide la pobreza en México. La metodología es ilustrada con resultados para 2010 y 2012. Esta manera de medición tiene tres características que la hacen diferente respecto a otros métodos. Primero, este enfoque utiliza una aproximación multidimensional basada en derechos sociales universales. Segundo, a diferencia de otros paradigmas teórico metodológicos para la medición multidimensional de la pobreza que combinan en un solo índice todas las dimensiones, la identificación de las personas en pobreza, según esta perspectiva, utiliza una medida bidimensional. En una dimensión se presenta el ingreso y, en la otra, se cuantifican las carencias sociales. Tercero, la metodología clasifica la población en distintos grupos de acuerdo con su condición de pobreza o vulnerabilidad, lo que ayuda a que se recomienden instrumentos de políticas públicas diferenciados en materia económica y social dirigidos a cada dimensión específica. Esto permite ser más eficiente no sólo para focalizar y atender a la población pobre sino también para distribuir el gasto social. Existe un cuarto elemento, compartido con otros enfoques, que se refiere a la posibilidad de desagregar la información de pobreza para diferentes grupos de población, por ejemplo, según edad, sexo, condición étnica y a nivel territorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109/343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente artículo analiza los efectos de los cambios en los precios de los alimentos en la pobreza alimentaria en México. Las principales aportaciones del estudio son la estimación por primera vez para el caso mexicano de la elasticidad precio de la demanda para los 22 productos incluidos en la canasta alimentaria para el periodo 1992-2010, y la identificación de las diferencias en elasticidades entre la población pobre y no pobre usando el método quadratic almost ideal demand system (QUAIDS) de Banks, Blundell y Lewbel (1997). El análisis incluye la construcción de una serie de pobreza alimentaria para 1950-2010, la descomposición de los cambios en la pobreza que identifica la importancia del efecto del incremento en los precios, el análisis de las variaciones en la estructura de consumo de los hogares en pobreza alimentaria. De nuestros resultados se infiere propuestas concretas para amortiguar el efecto de aumentos en los precios sobre el consumo de los hogares, así como opciones para motivar la producción de bienes alimentarios críticos para los pobres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110/344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se determina expresiones para el beneficio tributario de endeudarse y para el rendimiento que exige un accionista, si la empresa y la deuda crecen, en un sistema tributario no integrado como el de los Estados Unidos. Luego se determina expresiones equivalentes para un sistema tributario totalmente integrado. La principal aportación de este artículo es la extensión y generalización de las fórmulas de valoración de empresas y de costo del patrimonio a un sistema tributario distinto del estadunidense, pero que prevalece en muchos otros países del mundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152/345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo consiste en modelar las estrategias utilizadas por las Afore para retener el mayor número de afiliados con diferentes rangos de ingreso en un esquema de competencia por costos. Para tal efecto simulamos un juego estático no cooperativo de dos etapas, en el que se formaliza la competencia establecida por las M ≥ 1 administradoras líderes y las N seguidoras en un equilibrio generalizado de Nash-Cournot-Stackelberg (EGNCS). Los resultados indican que: i) la competencia entre las Afore es heterogénea por segmentos de salarios; ii) mientras que en rangos intermedios de salarios el EGNCS es adecuado para explicar el comportamiento de las Afore, en los rangos extremos la conjetura más razonable es que los agentes actúan como competidores por precios —salarios bajos— o como oligopolistas con un liderazgo no basado en cantidades y precios —salarios altos—, y iii) no es posible asegurar que, en una estructura de competencia como la que prevalece en las Afore, un mayor número de competidores redunde siempre en un mayor beneficio para los afiliados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111/346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el decenio de los 2000 la desigualdad del ingreso en la América Latina se redujo. Este artículo aplica una variante de la metodología de descomposición no paramétrica propuesta por Barros et al (2006, 2007) para evaluar la importancia de las fuentes de ingreso de los hogares, en particular la aportación de las transferencias públicas, en los cambios en la desigualdad de ingresos en los años 2000 en los países del Cono Sur: Argentina, Brasil, Chile y Uruguay. Los resultados sugieren que los ingresos no laborales tuvieron una contribución significativa en los cambios en la desigualdad y que este efecto fue explicado principalmente por la consecuencia igualadora que tuvieron las fuentes públicas en los cuatro países analizados. La dinámica de los cambios en esta fuente de ingreso y su efecto en la desigualdad estuvo fuertemente asociada con la instrumentación o expansión de programas de transferencia no contributivos en el pasado decenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112/347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La falta de series macroeconómicas históricas para las economías regionales dificulta la profundización en el conocimiento de los factores explicativos de su evolución económica. En este artículo se utiliza una serie anual del producto interno bruto, estimada por la vía de la oferta, para Andalucía a lo largo del siglo XX. A partir de estas cifras se establece los cortes estructurales que se producen en esa etapa y que contribuyen a explicar el atraso económico relativo andaluz. Se encuentran tres fechas significativas de corte y los resultados obtenidos permiten establecer que la tasa de crecimiento económico medio anual del producto interno bruto al costo de los factores (PIBcf) per capita fue igual a 1.64%, lo que supone un diferencial de más de medio punto porcentual respecto al 2.20% de España</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113/348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es el de analizar la rentabilidad de una fusión horizontal de empresas que compiten en cantidades, en el supuesto de que puede haber tanto asimetrías de información entre las diferentes empresas del mercado como que se pueden realizar pagos colaterales entre las mismas. En este contexto, se prueba que una fusión entre dos empresas seguidoras puede ser beneficiosa. Por otra parte, se prueba que el número mínimo de empresas necesario para garantizar la sustentabilidad de la fusión es menor si existen asimetrías informativas que en un contexto de información simétrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114/349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La curva de Kuznets de carbono ha sido un tema ampliamente estudiado por la economía ambiental empírica y altamente controversial debido sobre todo a sus consecuencias para la elaboración política contra el cambio climático. Este trabajo está dirigido a analizar la relación entre emisiones de dióxido de carbono y producto para un conjunto de países de la América Latina y el Caribe utilizando un enfoque semiparamétrico. Los resultados confirman la inexistencia de una curva de Kuznets de carbono en la región y ofrecen pruebas en favor de un proceso de relocalización de emisiones, verificando la hipótesis del paraíso de contaminadores en los países de menores ingresos. En este contexto, “esperar y crecer” es una solución totalmente inviable para la situación ambiental en la América Latina y el Caribe. En su lugar, surge con urgencia la necesidad de crear una política climática dirigida a adaptar y mitigar los efectos del cambio climático en la región</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153/350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta reseña resume y comenta las principales tesis del libroEl enigmático sistema bancario mexicanode Alejandro Villagómez y Fausto Hernández.  Se trata de un diagnóstico bien sustentado de la situación actual y las oportunidades de desarrollo de la banca mexicana. En este análisis se señala que, pese a los avances normativos y operativos logrados tras la crisis de 1995, México aún enfrenta retos para consolidar un sistema financiero más profundo y eficiente.  Para lograr este objetivo, entre otros aspectos, los autores mencionan la necesidad de clarificar y proteger los derechos de propiedad, así como promover una mayor competencia entre los intermediarios.  De acuerdo a esta reseña, un gran mérito del libro es que, sin dejar de ser riguroso, utiliza un lenguaje accesible y contribuye a brindar elementos de juicio, no solo para el especialista, sino para el conjunto de la sociedad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115/351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A partir de una definición de clase media que incluye a personas con baja probabilidad de caer en pobreza, este artículo presenta algunas tendencias para América Latina. El porcentaje de personas en clase media ha aumentado de 21.9% en 2000 a 34.3% en 2012, y desde el 2009 el tamaño de la clase media es mayor que el porcentaje de personas en pobreza. No obstante, formar parte de la clase media en América Latina sigue siendo una posición privilegiada. Los grupos en pobreza y vulnerabilidad concentran aún alrededor de dos terceras partes de la población total de la región. En este sentido, la región no se puede considerar una sociedad de clase media, al menos no por el momento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116/352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se presenta un indicador de expectativas de los consumidores sobre la inflación en México y se evalúa su poder de predicción de sobre inflación general y la de canastas de consumo más restringidas del INPC, para horizontes de 1 hasta 12 meses. El análisis estadístico realizado reveló que en el periodo enero de 2003-septiembre de 2010 las expectativas de inflación de los consumidores exhibieron un poder predictivo débil.A partir de octubre de 2010 se modificó el cuestionario de la Encuesta Nacional sobre Confianza del Consumidor, cuya información se utiliza para construir el indicador de expectativas de inflación; dicha modificación produjo un cambio importante en el patrón de respuestas y en el comportamiento del indicador. Puede considerarse que a partir de octubre de 2010 la mayor utilidad del indicador es servir como referente de la credibilidad que manifiesta la población en la estabilidad de precios en la economía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117/353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examinamos la eficacia de los cambios voluntarios y obligatorios en el gobierno corporativo de las empresas mexicanas, los cuales formaron parte de un conjunto integral de reformas de gobierno corporativo que buscaba mejorar su rendición de cuentas ante los inversionistas externos. Dicha reforma se inició con la promulgación del Código de Mejores Prácticas Corporativas y estuvo seguida de disposiciones legales que requerían cambios fundamentales en la estructura de los consejos de administración. Primero investigamos el grado de adhesión tanto al Código como a las disposiciones legales para determinar si las empresas cambiaron o no sus sistemas de administración. Posteriormente analizamos si los cambios positivos en el gobierno corporativo (si es que ocurrieron) se relacionan con un mejor desempeño empresarial y evaluaciones más altas. Nuestros resultados indican que la adhesión al Código y las disposiciones legales mejoró acusadamente con el tiempo. Sin embargo, dichos cambios positivos en el gobierno no se relacionan con un mejor desempeño (mayores rendimientos sobre activos, o RSA) ni con mejores evaluaciones (Q de Tobin) de todas las empresas. Las empresas que tienen una menor concentración de accionistas internos efectivamente presentan algunas mejoras en su desempeño. Atribuimos estos hallazgos en gran parte a la complejidad inherente de la estructura accionaria de las empresas y al entorno jurídico que impera en México. Nuestra opinión es que la alta concentración de accionistas internos y la endeble protección jurídica de la que gozan los accionistas minoritarios son los principales obstáculos a la eficacia de cualquier reforma. Sin un compromiso denodado de hacer cambios sustanciales en cualquiera de estos obstáculos, es poco probable que se dé alguna mejora perceptible en el gobierno corporativo o en el ambiente de inversión en México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118/354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Nueva Geografía Económica (NGE) pregunta si el comercio conduce a una mayor concentración de la actividad económica. Sin embargo, pocos trabajos empíricos han evaluado los efectos regionales del comercio. Este artículo estudia la distribución regional de los beneficios del comercio en México después del Tratado de Libre Comercio de América del Norte (TLCAN). A diferencia de estudios anteriores, el presente estudio trabaja con datos municipales, lo que permite observar mejor las pautas de crecimiento espacial e identificar el efecto del TLCAN.  Los resultados muestran que después del TLCAN, la producción por trabajador en las regiones cercanas a la frontera entre México y los Estados Unidos creció más rápidamente que en aquellas más lejanas. Además, el acuerdo comercial aumentó la desigualdad, lo que implicó una mayor concentración económica comercial e hizo que las ciudades crecieran más rápidamente que otras regiones. Asimismo, las regiones con una fuerza laboral más escolarizada pudieron beneficiarse más del TLCAN y crecer más rápidamente que otras áreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119/355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza la brecha salarial de género entre los universitarios recién titulados que tienen un empleo formal en Colombia, haciendo hincapié en el papel que desempeña el tipo de carrera universitaria en la explicación de la brecha salarial de género en las primeras etapas de la experiencia del mercado laboral. Para realizar este análisis, aprovechamos un conjunto de datos único que contiene los registros administrativos de individuos observados en el empleo formal un año después de titularse, así como información pormenorizada de los distintos tipos de carrera universitaria que estudiaron. Los resultados sugieren que, en promedio, la brecha salarial contra las mujeres es de aproximadamente 11% del cual 40% se explica por las diferencias de género en el tipo de carrera universitaria elegida. Mediante el uso de una descomposición distributiva de la brecha salarial de género hallamos pruebas no sólo de una brecha creciente en distintos niveles de la distribución salarial sino también de que tan sólo 30% de esta brecha se puede explicar con base en el tipo de carrera universitaria. Este resultado también apoya la existencia de un fenómeno de techo de cristal desde las primeras etapas de la experiencia del mercado laboral, lo cual es de particular interés para los encargados de formular políticas dado que algunas de las explicaciones que se ofrecen acerca del efecto de techo de cristal están relacionadas con la experiencia y los ascensos, características que no son significativamente diferentes para los universitarios recién titulados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120/356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estiman las elasticidades intertemporal y no compensada de la oferta laboral femenina y masculina para Uruguay. Se basa en la metodología propuesta por Pencavel (2002) que permite considerar el comportamiento a lo largo del ciclo de vida para los distintos perfiles salariales y distinguir la magnitud de ambas elasticidades. Se evalúan las posibles diferencias en la magnitud de las elasticidades entre ambos sexos y se analizan los cambios intergeneracionales de la oferta femenina. Los hallazgos confirman las ventajas de la metodología propuesta para distinguir ambas elasticidades y muestran que las magnitudes de las elasticidades femeninas son estadísticamente mayores o iguales que las de los hombres. Para las mujeres se encuentra un comportamiento congruente con la lógica del ciclo de vida y pruebas contrarias a la hipótesis del trabajador añadido, mientras se verifican cambios intergeneracionales en su conducta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121/357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es investigar la distribución espacial de las industrias en el sector de la innovación en México. Mediante el análisis exploratorio de datos espaciales (AEDE), se presenta un estudio original en un contexto espacial en que el análisis empírico emplea datos georreferenciados recientemente disponibles, por empresa, así como datos de los Censos Económicos de 2009. Se utilizan estadísticas espaciales globales y locales para identificar, cuantificar y localizar clusters espaciales de empresas y su correspondiente composición del empleo. Con esto se muestra la existencia de “puntos calientes”, es decir, zonas en donde se presenta una fuerte dinámica de actividades de innovación. Este análisis identifica las regiones más innovadoras con base en siete clusters espaciales de grandes empresas distribuidos por todo el país, principalmente en zonas urbanas y metropolitanas. El estudio contribuye a una mejor comprensión de las condiciones de los clusters de innovación que imperan en el país y quizás ayude en la formulación de políticas específicas de innovación basadas en el tamaño de las empresas y para sectores específicos, esto con el objetivo de acelerar el proceso de innovación regional. También aporta lineamientos para los encargados de formular políticas ansiosos por promover el desarrollo de las economías locales e identificar en dónde se requiere desarrollar, financiar y elaborar sistemas de innovación regionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122/358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde hace tiempo existe una señalada preocupación entre académicos y autoridades en muchos países sobre si los individuos están realizando el ahorro necesario para su fase de retiro. La evidencia empírica muestra que en los países desarrollados no es así, y lo mismo indica la poca evidencia disponible para países en desarrollo. En este trabajo se hace una revisión de la literatura teórica sobre este tema, en particular del modelo de ciclo de vida, así como de otros planteamientos que contribuyen a explicar el fenómeno. Se hace hincapié en el caso mexicano y para ello se ofrece la escasa evidencia disponible sobre el ahorro para el retiro de su población y se muestra que éste no es adecuado en la mayoría de los casos. Se concluye con algunas reflexiones útiles para diseñar políticas públicas que permitan enfrentar este problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123/359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se presenta un modelo en que los agentes deben tomar decisiones acerca de la formalización de los derechos de propiedad sobre la tierra. En el modelo se muestra la existencia de un equilibrio en el que coexisten agentes que producen en tierras de libre acceso y agentes que producen en tierras de propiedad privada. Este equilibrio es ineficiente porque el esfuerzo para formalizar la tierra es menor de lo necesario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124/360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo investigamos si los instrumentos de análisis técnico son útiles en periodos de crisis financieras. Considerando cuatro de los principales índices latinoamericanos —Bovespa (Brasil), IGBLV (Perú), IPC (México) e IPSA (Chile)— no encontramos evidencia a favor del uso de análisis técnico en periodos de crisis financiera. Las técnicas que otorgan rentabilidades más altas no son las mismas que reportan rendimientos más bajos. En general, los instrumentos de mediano plazo son los que reportan un mayor rendimiento, mientras que los de corto plazo reportan un menor rendimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125/361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El artículo analiza la brecha salarial de género en México entre 1990 y 2010 utilizando los censos de población. En promedio, la brecha salarial ha disminuido en el periodo. En 2010 la brecha salarial de género fue de 6%. El promedio no describe el comportamiento de la brecha en la distribución. Hallamos un patrón estable de “piso pegajoso” y un patrón decreciente de “techo de cristal” a lo largo de la distribución en este periodo. Utilizamos un método semiparamétrico para descomponer la brecha salarial en características y precios, y corregimos por la selección de las mujeres al mercado laboral. La mayor parte de la brecha salarial se debe al efecto de precios y no de características. Al corregir por selección la brecha salarial resulta mayor, lo cual sugiere que existe selección positiva de las mujeres; ésta se acentúa en el caso de las mujeres de baja educación y en cuantiles bajos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126/362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pesar de ser el más usual, el método Datt-Ravallion de descomposición de las variaciones en la pobreza en dos efectos —el de redistribución y el de crecimiento—, ha dejado muchas insatisfacciones a causa de su inexactitud y asimetría. El artículo propone un procedimiento alternativo que repara estas fallas sin recurrir a los promedios interanuales que utilizan otras técnicas. Al aplicarlo a México, los resultados satisfacen estas expectativas metodológicas y revelan el carácter conflictivo entre ambos efectos, lo que explica por qué el descenso de la pobreza es tan lento en las fases expansivas del ciclo y por qué la redistribución del ingreso amortigua las repercusiones de las crisis, especialmente de las más profundas, sobre la pobreza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127/363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo define y evalúa un nuevo método fiscal basado en la combinación de un esquema de tipo único imponible y mínimos personales incrementados sobre la base imponible, al que denominaremos el Método Fiscal basado en Renta Discrecional (MFRD), a comparación del tradicional impuesto sobre la renta de las personas físicas basado en una tarifa impositiva progresiva. Los resultados muestran, desde una perspectiva teórica, que nuestra propuesta es más progresiva y superior en términos de bienestar social. Para la comprobación empírica de nuestros resultados, hemos llevado a cabo un ejercicio en donde se compara el IRPF (Impuesto sobre la Renta de las Personas Físicas) español con nuestro método fiscal teórico alternativo (MFRD). Los resultados de nuestro ejercicio empírico coinciden con las predicciones teóricas de la “imposición objetiva” aquí descrita y derivada de la comparación de los dos métodos fiscales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128/364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mientras que la distribución de error general (GED) ha sido usada extensamente en aplicaciones de series de tiempo y ha demostrado una gran flexibilidad en la estimación de series de tiempo financieras, no se ha intentado utilizarla en la construcción de cópulas. Las cópulas son funciones de probabilidad que unen una función de distribución multivariada a funciones de distribución univariadas llamadas marginales. Se parte del supuesto de que las marginales son continuas y uniformes en el intervalo [0,1]. En este artículo proponemos la cópula GED bivariada, la cual, de acuerdo con nuestra revisión, no ha sido usada en la bibliografía. Esta función abarca otras funciones de distribución, como la gaussiana o la doble exponencial, empleadas frecuentemente en el análisis de fenómenos financieros. Con el fin de probar el desempeño de esta nueva cópula investigamos el contagio financiero en la crisis de 2008 empleando tipos de cambio, acciones, bonos y mercados de deuda soberana en América Latina. Los criterios usuales de decisión proveen fuerte evidencia a favor de la cópula GED sobre otras alternativas elípticas o arquimideanas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129/365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estima economías de escala, a nivel de planta y de firma, para cinco categorías de instituciones microfinancieras (IMF) peruanas utilizando información panel de frecuencia mensual para el periodo 2003-2010. Además, evalúa posibles determinantes de las economías de escala a nivel de firma para cada categoría de IMF. Los resultados sugieren que mientras la categoría de cajas (bancos) rurales goza de economías de escala a nivel de planta y de firma, la categoría de financieras especializadas en microfinanzas experimenta deseconomías de escala a ambos niveles y los bancos especializados en microfinanzas enfrentan deseconomías a escala a nivel de planta y, en algunos casos, retornos constantes a nivel de firma. Se encuentra que la habilidad y capacidad del personal para el desarrollo del negocio microfinanciero es un determinante de las economías de escala, en la mayoría de las categorías de IMF, con un efecto positivo sobre éstas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130/366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En las últimas dos décadas, la investigación de la economía política en México ha transitado de estudios amplios y comprensivos hacia investigaciones sobre temas cada vez más específicos. Este documento presenta las principales aportaciones al tema que en años recientes han hecho economistas y politólogos, y que se destacan por haber producido un rico debate a nivel nacional e internacional. La observación de esta reseña se dirige a los patrones políticos en regímenes democráticos, la dependencia y el desarrollo, la formación del Estado y el Estado de derecho, desigualdad y política social, recaudación y gasto, y vínculos internacionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131/367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde que en 1931 Tibbits publicó un estudio sobre la relación entre el ciclo económico y los resultados electorales, el análisis del voto económico ha ido perfilando una teoría que explica la decisión de los electores. A diferencia de otras investigaciones, en este artículo se plantea un modelo de voto económico en el que suponemos que los electores son racionales, neutrales ante el riesgo y poseen incertidumbre ante la situación económica prospectiva del país. El objetivo último del elector es votar por el candidato que le permita maximizar la utilidad esperada de su decisión. De las estimaciones realizadas a partir de la matriz de microdatos agrupados de las elecciones presidenciales celebradas en Chile en 1993, 1999-2000 y 2005-2006, se concluye que el liderazgo y el contexto electoral son los factores que más condicionan el comportamiento de los electores. También comprobamos que el voto económico de los chilenos es sofisticado, racional y heterogéneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132/368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cobertura de pensiones contributivas en México es baja, y la alta movilidad entre el mercado laboral formal e informal conduce a bajas densidades de cotización que no garantizan acceder a una pensión mínima. El Estado ha creado programas de transferencias, pero cuyo diseño puede desincentivar la formalidad. Este trabajo propone una pensión proporcional y condicionada a la participación en empleos formales reemplazando las transferencias de monto fijo de estos programas, siguiendo la experiencia reciente en Chile. Utilizamos el diseño propuesto por Valdés-Prieto (2008), el cual minimiza las distorsiones en el mercado laboral. Bajo el supuesto de trayectoria lineal de ingresos, nuestra estimación arroja incrementos promedio en el valor total de las pensiones de 45.6% y un ahorro fiscal de 14.8% con respecto a otorgar la transferencia no contributiva como el programa “65 y más”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133/369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El “no sistema” financiero mundial vigente se caracteriza por la inestabilidad. A falta de soluciones globales, ha surgido una serie de convenios regionales de cooperación monetaria para hacer frente a esta inestabilidad. Este artículo se centra en sistemas regionales de pagos como primer paso de cooperación monetaria regional. A fin de evaluar sus posibles contribuciones para lograr una mayor estabilidad macroeconómica de los países miembros, desarrollamos una tipología de los sistemas de pagos y comparamos de manera sistemática iniciativas históricas y actuales de Europa, Asia y América Latina, utilizando como referencia el Plan Keynes original. Mostramos que los sistemas regionales de pagos implican efectos benéficos en la medida en que reducen los costos de transacción del comercio intrarregional y crean incentivos para una mayor cooperación macroeconómica. Sin embargo, su contribución a la estabilización macroeconómica depende del diseño específico de cada acuerdo regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134/370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo caracteriza la competitividad económica de las 32 entidades del país, destacando las actividades principales por lo que respecta al producto interno bruto, la productividad, el empleo y los salarios. El principal resultado es que hay dos tipos de entidades en cuanto a condiciones de competitividad. Aquellas más competitivas cuentan con una economía más productiva y diversificada, además de tener mayores niveles de productividad y mejor capital humano, estimado a través de mayores salarios. Se trata de entidades económicamente más maduras como el Distrito Federal, Querétaro, el Estado de México, Jalisco y los estados de la frontera norte. Las de menor competitividad dependen de pocas actividades que alcanzan una mayor importancia local e intentan compensar la falta de productividad con bajos salarios, perjudicando aún más su situación al no disponer de capital humano para revertir las tendencias. Las medidas de productividad y salarios por estado se mantienen en el mismo orden entre 2003 y 2008. En otras palabras, las ganancias de productividad y mejores salarios se consolidan y transmiten en ambientes más modernos y homogéneos, creando un mejor escenario prospectivo para las entidades competitivas muy por encima de los avances moderados de los otros estados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135/371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta investigación propone una metodología para estimar los parámetros del modelo de volatilidad estocástica de Heston (1993) por medio de funciones cuadráticas de pérdida, las cuales minimizan el error entre precios de mercado y precios teóricos. Para ello se plantean tres clases de funciones de pérdida, de las cuales dos están asociadas a precios y otra a volatilidades implícitas. La metodología propuesta se aplica a un conjunto de precios de opciones sobre AMX-L, WALMEX-V y GMEXICO-B. Los resultados indican que para opciones de compra sobre AMX-L se generan volatilidades implícitas consistentes con las observadas con base en el criterio de la raíz de la pérdida del error cuadrático medio, mientras que para opciones de compra sobre WALMEX-V y GMEXICO-B se generan volatilidades implícitas consistentes con las observadas con base en el criterio de la raíz de la pérdida relativa del error cuadrático medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136/372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las participaciones del ingreso laboral en México que se estiman a partir del Sistema de Cuentas Nacionales son excepcionalmente reducidas —entre 0.25 y 0.33— comparadas con la evidencia internacional. En el presente artículo argumentamos que existe un severo problema de subregistro de los ingresos laborales debido al autoempleo y al nulo registro de ingresos laborales de los empleadores y los no remunerados. Proponemos tres criterios para corregir las participaciones, que van desde asignar el salario promedio de los remunerados hasta hacer estimaciones de ecuaciones mincerianas para predecir el costo de oportunidad de los individuos de acuerdo con sus atributos. Encontramos que, una vez hechos los ajustes, el peso de los ingresos laborales se encuentra entre 42 y 47% del valor agregado, y que las correcciones son especialmente grandes en la agricultura, construcción, comercio, restaurantes y servicios, sectores con alta incidencia de informalidad y de empresas pequeñas y micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137/373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A principios de 2012 la Organización para la Cooperación y el Desarrollo Económico (OCDE) publicó un estudio sobre las políticas y la regulación de las telecomunicaciones en México, estudio que fue severamente criticado por diversos consultores de América Móvil. La OCDE no respondió las objeciones, solamente señaló que su estudio se había realizado de acuerdo con los procedimientos usuales y que había sido aprobado por sus Estados miembro. El año pasado, EL TRIMESTRE ECONÓMICO dedicó un número especial a la controversia pendiente. Aparte de publicar traducciones de dos artículos de los consultores de América Móvil EL TRIMESTRE invitó a algunos expertos académicos a expresarse sobre el tema. El propósito de este artículo es demostrar que los autores invitados complicaron la materia innecesariamente y que los hallazgos del estudio de la OCDE son simplemente erróneos e inconsistentes. Para verlo no se requieren ejercicios econométricos sofisticados; una simple revisión de las cifras, algo de rigor analítico y una mirada escéptica a una gráfica de equilibrio parcial son suficientes para llegar a la conclusión de que los resultados de la OCDE están fuera de la realidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138/374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139/907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El producto potencial es un factor clave para el análisis de sustentabilidad de la deuda y para desarrollar estrategias de crecimiento. Sin embargo, es una variable inobservable. A través de tres metodologías (función de producción, cambio de régimen y estado-espacio), este documento calcula el potencial de producción en los países CAPRD (Centroamérica, Panamá y la República Dominicana) utilizando datos anuales. Los resultados principales son: i) el potencial de crecimiento de CAPRD es de alrededor de 4.4% mientras que la volatilidad de la brecha de producción asciende a 1.9% aproximadamente; ii) el país con mayor potencial de crecimiento es Panamá (6.5%), mientras que el país con menor crecimiento es El Salvador (2.6%); iii) el ciclo económico en CAPRD es de cerca de ocho años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140/908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudia el impacto de programas de masificación del uso de Tecnologías de la Información y la Comunicación (TIC) con fines pedagógicos en Chile. En particular, se mide el impacto de dos iniciativas del Ministerio de Educación (Mineduc), Fondos para Banda Ancha (2006-2010) y TIC en Aula (2007-2011), sobre el rendimiento de estudiantes del ciclo básico en las pruebas nacionales estandarizadas de lenguaje  y matemáticas, establecidas por el Sistema de Medición de la Calidad de la Educación (SIMCE) y disponibles desde 1998. Los resultados muestran que estos programas no han tenido efectos significativos en el rendimiento, ni individual ni conjuntamente, pero si fue posible identificar efectos positivos y significativos de TIC en Aula sobre grupos específicos en lenguaje, no así en matemáticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141/909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo del presente artículo es estudiar la estructura de la industria de telefonía móvil en los países latinoamericanos, identificando la existencia de grupos estratégicos así como analizando las diferencias de desempeño empresarial entre los mismos. El propósito final es identificar las ventajas competitivas de los grupos con mejor desempeño, así como las estrategias que les han llevado a conseguirlo. El análisis empírico se ha llevado a cabo utilizando datos de una muestra de las 22 empresas latinoamericanas con mayor capitalización bursátil de la industria en el año 2013. Los resultados revelan la existencia de cinco grupos estratégicos y la presencia de diferencias significativas en el desempeño empresarial intergrupal. Las variables determinantes de las ventajas competitivas de los grupos con mejor desempeño son la cuota de mercado, el número de suscriptores y la fidelidad de los clientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142/910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es realizar una imputación de ingresos a observaciones con ingresos faltantes en la Encuesta Nacional de Ocupaciones y Empleo (ENOE) y, posteriormente, analizar el posible sesgo en estimaciones de capital humano derivadas de ignorar esas observaciones. Se presenta una imputación por dos métodos y también una corrección de estimaciones por remuestreo para observaciones de ingreso reportado. Los resultados muestran diferencias en parámetros de capital humano sobre salarios y determinantes de pobreza laboral al no considerar las observaciones con ingreso faltante. Las diferencias son más significativas cuando se mide pobreza laboral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143/911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo estudiamos la relación entre la extensión de las unidades de producción de caña de azúcar en México y sus rendimientos. Mostramos, teórica y empíricamente, una asociación en forma de U entre estas variables. Presentamos evidencia que sugiere que dicha relación está determinada por el uso más intensivo de insumos en los predios de menor y mayor superficie relativos a los de tamaño medio: los de aproximadamente ocho hectáreas. Estos resultados contribuyen al debate sobre la relación entre el tamaño de las unidades de producción agrícola y su productividad; en el caso del campo mexicano, esta literatura es prácticamente inexistente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144/912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudio de la adaptación de los inmigrantes al país de destino es una tarea compleja, que exige considerar multitud de aspectos expresados desde la perspectiva socioeconómica en el concepto de aculturación. Frente a esto, la tenencia de vivienda en propiedad supone decisiones a largo plazo, vinculadas con un amplio conjunto de factores que para los inmigrantes expresan el éxito de sus proyectos de inmigración. Por ello, el artículo analiza los procesos de aculturación de los inmigrantes residentes en España mediante el estudio de sus decisiones de tenencia de vivienda en propiedad. Se concluye que ser extranjero reduce notablemente la probabilidad de ser propietario, siendo la variable central que explica las menores tasas de propiedad de este grupo de personas en comparación con los españoles nativos. Los procesos de aculturación de los inmigrantes, aproximados de esta forma, se basarían en los procesos de adquisición de información, que presentarían diferencias relevantes en función de la etnia a la que pertenecen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145/913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo se analiza, mediante el uso del concepto de información mutua, la relación existente entre el tipo de cambio nominal y los distintos componentes de la inflación. La medida de información propuesta capta la estructura de dependencia entre estas dos variables, lo que conlleva a nueva evidencia empírica no explorada por estudios previos. Entre estos resultados se encuentran: i) existencia de distribuciones bivariadas bimodales útiles para examinar cambios de régimen, y ii) aumento en la dependencia de las variables en periodos de poca volatilidad y caídas en su dependencia en ambientes de incertidumbre, previamente medido como pass-through. Asimismo, dichas distribuciones permiten estudiar las distintas velocidades de transmisión para cada componente de la inflación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los servicios de cuidado infantil para niños menores de cuatro años de edad han expandido su cobertura de forma importante en América Latina y el Caribe. Esta expansión ha buscado primordialmente facilitar el acceso de las mujeres al mercado laboral. El énfasis en la calidad de los servicios de cuidado durante los primeros años de la vida es fundamental. Este artículo sistematiza información sobre el diseño, la gestión, el financiamiento y la calidad de los servicios de cuidado infantil en la región. Entre sus principales hallazgos se encuentran los siguientes: i) existe evidencia de una inconsistencia entre el objetivo que mayoritariamente declaran perseguir estos programas —el desarrollo infantil integral— y el diseño de los servicios que brindan; ii) los programas que dependen de los municipios se destacan por tener mejores variables estructurales (asociadas, en general, con una mejor calidad del servicio), en comparación con aquellos de escala nacional, así como por un mayor nivel de inversión por niño atendido; y iii) existe variabilidad en el costo unitario de atención, lo cual es consistente no sólo con una considerable heterogeneidad en el servicio sino también con diferencias en el costo-efectividad de distintos modelos de provisión y de gestión. Asegurar servicios de cuidado de calidad para todos los niños que acuden a ellos y garantizar que la oferta pública de estos servicios alcance a los niños de las familias más pobres son dos prioridades importantes y todavía pendientes en la agenda de la política social regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166/898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza empíricamente la influencia de las Administradoras de Fondos de Pensión (AFP) como principales accionistas institucionales, sobre las decisiones de estructura de capital de la empresa chilena. Estos inversionistas pueden influir en la estructura de capital mediante distintos papeles como los de monitoreo a la gestión y de recopilación y transferencia de información al mercado. El análisis es desarrollado durante el periodo 2009-2011 para una muestra de 109 empresas chilenas que cotizan en la bolsa. Las AFP no sólo participan en el mercado accionario sino que también compiten por la deuda pública, por lo que nuestros resultados son relevantes al indicar la positiva influencia de este tipo de inversionistas en la contratación y emisión de deuda, particularmente la pública</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167/899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo ofrece una propuesta para conciliar el debate sobre la relación que existe entre la desigualdad en el ingreso y el crecimiento económico al proponer que las disparidades presentes en la mayoría de los estudios empíricos anteriores se derivan del hecho de que no se han tomado en cuenta los niveles de desigualdad como un factor que puede determinar el signo de la relación. Se demuestra una relación con forma de U invertida, lo cual indica que bajos niveles de desigualdad ejercen una correlación positiva con el crecimiento económico, mientras que altos niveles de desigualdad ejercen un efecto negativo sobre el mismo. Además, se demuestra la existencia de una Tasa Óptima de Desigualdad (TOD) que maximiza las tasas de crecimiento en comparación con otros niveles de desigualdad y libera a la economía de cualquier distorsión generada por los altos niveles de desigualdad o por los altos niveles de redistribución y los niveles de tributación conexos. Para fundamentar estas proposiciones, se presenta evidencia empírica tomada de un extenso panel de países, así como un análisis bibliométrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168/900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La desigualdad espacial de ingresos en los países de América Latina es un tema que ha despertado un reciente interés académico. En particular, Chile se destaca mundialmente por sus elevadas tasas de desigualdad espacial e individual. En este artículo se analiza la desigualdad espacial de ingresos en Chile durante 1992-2011 evaluando el papel de la localización espacial del capital humano (o spatial labor sorting). Los resultados confirman que el capital humano no se distribuye aleatoriamente en el espacio sino que su concentración en los grandes centros urbanos afecta significativamente en la desigualdad de ingresos entre comunas. Estos resultados motivan al análisis sobre la dimensión espacial de la desigualdad de ingresos y sugiere políticas de equidad espacial orientadas a reducir la concentración espacial de capital humano avanzado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169/901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estudia el impacto del sabotaje en el acceso a la red de Telmex sobre la competencia en el mercado mexicano de larga distancia nacional. Para ello, se desarrolla y calibra un modelo que analiza y determina la existencia de dicho impacto. Se encuentra que el sabotaje tuvo un impacto negativo y significativo sobre la competencia. Sin embargo, se estima que su magnitud fue baja, pues el sabotaje afectó solamente a una pequeña parte del mercado y su duración fue corta. Además, la intervención del regulador sectorial fue suficiente para detenerlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170/902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo evalúa el impacto en competencia de los acuerdos de distribución exclusiva. La literatura económica identifica estos acuerdos como un instrumento para alinear incentivos entre fabricantes y distribuidores, y optimizar las actividades de venta. También los identifica como un medio para reducir la competencia, pero esta posibilidad se observa sólo bajo condiciones específicas de mercado. Por su parte, la legislación mexicana prohíbe la distribución exclusiva cuando la establece una empresa dominante con el objeto o efecto de desplazar competidores, pero no señala criterios para identificar cuándo puede ocurrir. Lo anterior introduce incertidumbre de cuándo se considera ilegal y puede inhibir la conducta incluso cuando sea eficiente, o alentarla cuando sea anticompetitiva. Este artículo propone criterios para minimizar estos riesgos con base en una revisión de la literatura económica y de la experiencia internacional relevante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171/903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se argumenta que la corriente dominante en economía no es un bloque monolítico sino que, más bien, se compone de un núcleo ortodoxo en el que prevalece el pensamiento neoclásico y un conjunto de enfoques de vanguardia que comparten con la ortodoxia su interés por la modelación formal (matemática, computacional o estadística) y por el análisis del comportamiento micro para describir fenómenos agregados. Al revisar las fichas bibliográficas de la base de datos de RePEc (Research Papers in Economics) se encuentra, por un lado, que las investigaciones que se realizaron a nivel mundial con enfoques de vanguardia tuvieron un gran crecimiento en el periodo 2000-2012 y, por otro, que las investigaciones económicas de índole vanguardista en México son relativamente escasas. Esta falta de pluralidad también se refleja en los programas de licenciatura y posgrado de las universidades mexicanas, en donde la estructura curricular se limita la mayoría de las veces a planteamientos ortodoxos y en unos cuantos casos a tratamientos heterodoxos (es decir, que se ubican fuera de la corriente dominante)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197/888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El principal objetivo de este artículo es captar la influencia del cambio climático en la selección endógena de cultivos de los agricultores y los impactos sobre su ingreso esperado. El modelo se aplica a 110 227 productores en Perú. Los resultados muestran que la elección de cultivos se ve afectada por el clima. Se estima una caída de entre 8 y 13% de los ingresos esperados por hectárea. El cambio climático provocará una reducción de los ingresos condicionales para la alfalfa, el arroz, el café y el maíz amarillo duro y aumentos para la papa, el maíz amiláceo, el plátano y la uva; se presentan resultados mixtos para la yuca, dependiendo del modelo climático. El arroz y el café muestran las mayores pérdidas, mientras que la papa nativa obtiene la mayor ganancia. Se muestra que la probabilidad de elegir la cosecha de maíz y de plátano aumenta con los incrementos de temperatura y precipitación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176/889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se argumenta que, dada la fuerte concentración del ingreso en México y la estrechez de la base tributaria del ingreso, resulta muy difícil realizar una reforma tributaria que sea recaudatoria y redistributiva. Para ello se construyó un modelo de equilibrio general aplicado que incluye, entre otras cosas, una desagregación de los hogares en 10 niveles de ingreso, la estructura tributaria y de transferencias del país y las esferas productivas y de consumo. Los escenarios confirman que, lograr una recaudación adicional significativa, y mejorar al mismo tiempo la desigualdad del ingreso (medida por el coeficiente de Gini), implica aumentos de tasas o bases difíciles de lograr en las condiciones actuales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177/890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La penetración bancaria en México es de las más bajas de América Latina. Asimismo, la importancia relativa del crédito comercial es muy alta. Estos dos hechos llevan a muchos a interpretar que el desproporcionado peso del crédito de proveedores es reflejo de una banca que presta muy poco. Al mismo tiempo se considera que es ésta la razón por la cual los principales usuarios del crédito de proveedores son las empresas pequeñas, informales y con bajo acceso al financiamiento bancario. Con base en los datos de una encuesta nacional se muestra que estos estereotipos no necesariamente son los correctos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178/891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza el efecto del Tratado de Libre Comercio de América del Norte (TLCAN) sobre los márgenes de precio a costos marginales (MPCM) del sector manufacturero en México durante el periodo 1994-2003. Tomando en consideración la sensibilidad de cada industria a la rapidez con la que se eliminan los aranceles bajo el TLCAN, los resultados muestran que los MPCM cayeron inmediatamente después de que comenzó en México la segunda ronda de liberalización comercial en 1994. Sin embargo, en años subsecuentes, no emerge un patrón claro para estos MPCM. Adicionalmente, el estudio toma en cuenta la sensibilidad de cada industria al nivel inicial de su arancel y presenta evidencia que muestra que mientras que el TLCAN sí tuvo un efecto sobre los MPCM de aquellas industrias que liberalizaron en 10 años, no se encontró un efecto robusto sobre los MPCM de las industrias que liberalizaron en cinco años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179/892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se analizan estrategias de ajuste para hacer frente a choques hipotéticos de oferta y demanda utilizadas por 1 138 empresas mexicanas encuestadas por el Banco de México en 2012. Los resultados del análisis muestran que la respuesta de las empresas ante los dos tipos de choque en general no es simétrica y que éstas reaccionan combinando estrategias (principalmente eligen reducir costos), con lo cual moderan los ajustes a precios y producción. Más competencia hace que las empresas utilicen con más intensidad las estrategias de ajuste y favorece la flexibilidad de los precios. Ante cualquier choque, los costos que más se reducen son los no laborales y los que genera el empleo temporal. Una alta competencia y un mayor porcentaje de costos laborales intensifican el traspaso de los choques al empleo; por el contrario, los acuerdos colectivos de trabajo mitigan dicho traspaso. No se observa un traspaso de los choques a las percepciones salariales, lo cual, aunado a la baja incidencia de la reducción del salario base, evidencia rigidez en los salarios nominales de las empresas entrevistadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180/893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza la relación entre la inversión extranjera directa (IED), el crecimiento económico y la desigualdad de ingresos en América Latina. Con un panel de datos para 18 economías durante el periodo 1980-2009, se estiman dos ecuaciones que recogen la relación entre la IED y el crecimiento económico y la desigualdad de ingresos, respectivamente. Los principales resultados obtenidos confirman el impacto positivo de la IED sobre el crecimiento económico, y evidencian impactos significativos no lineales sobre la desigualdad de ingresos: si bien la IED provoca un incremento en la desigualdad, a partir de determinados niveles de IED (en porcentaje del PIB) induce a una mayor equidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181/894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudian las implicaciones de permitir la sustitución entre bienes de mercado y tiempo en el problema del impuesto óptimo. Se observa que cuanto mayor sea la elasticidad de sustitución entre bienes de mercado y tiempo en una determinada actividad, menor debería ser la tasa de impuesto óptima sobre los bienes de mercado. Este artículo contribuye con la literatura existente en dos dimensiones. En primer lugar, expresa la regla de Ramsey en términos de elasticidades de sustitución, que son más fáciles de estimar. Esto amplía el ámbito de aplicaciones de la regla de Ramsey en cuestiones de política. En segundo lugar, ilustra la regla de impuesto óptimo propuesta estimando las elasticidades de sustitución correspondientes utilizando datos de México. De acuerdo con el modelo y los datos, el impuesto al valor agregado óptimo de México en el año 2002 habría sido una tasa impositiva de 7% en los alimentos y de 5.5% en el resto de los bienes de mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182/895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta reseña aborda el libroRespuestas propias. 80 años del Trimestre Económico , una antología conmemorativa del aniversario de esta revista, realizada por Gustavo A. del Ángel Mobarak y Graciela Márquez. La reseña divide la historia de la revista, desde 1934 a la fecha, en cuatro periodos. Primero, desde su fundación hasta los años cincuenta, cuando todavía no era común la formación académica en economía aunque los colaboradores suplían esa carencia con intuición y sentido común. Segundo, hacia los años cincuenta, cuando proliferan perspectivas totalizadoras desde el subdesarrollo, como la teoría de la dependencia y otros modelos maximalistas que, pese a sus buenas intenciones, generaron errores de diagnóstico. Tercero, hacia los años setenta, cuando se privilegia la historia económica. Cuarto, desde mediados de los ochenta, cuando hay una actualización de los cuadros editoriales y la revista se inserta con mayor rigor y oportunidad en las corrientes de pensamiento y análisis económico global.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183/881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo aporta evidencia sobre el empleo público en América Latina durante el periodo 1992-2012, explotando una base de datos estandarizados de las encuestas de hogares de todos los países de la región. Estas encuestas constituyen una buena herramienta por su representatividad nacional, su frecuencia y su amplia cobertura sobre cuestiones de empleo y salarios, tanto en el sector público como en el privado, formal e informal. El trabajo documenta y analiza los cambios en los niveles de empleo y salarios de los empleados públicos latinoamericanos vis-à-vis el resto de los trabajadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184/882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este modelo, si bien las empresas exhiben rendimientos constantes a escala, la economía entera exhibe también crecientes rendimientos a escala debido a las externalidades positivas de la mano de obra calificada. Esto hace factible la existencia de estados estacionarios múltiples que pueden ordenarse en el sentido de Pareto, lo cual es útil para reflexionar sobre los problemas del desarrollo. Este modelo, al predecir que la productividad marginal del capital es igual en todos los países, resuelve el problema de asignación de capital (Lucas, 1990). Otra predicción del modelo es que la productividad de la mano de obra calificada es mayor en los países desarrollados que en los países subdesarrollados, lo cual aporta un factor importante para explicar la migración de la mano de obra calificada a los países ricos. También explica cómo es que un país que tiene agentes que no experimentan asimetrías de información, conductas irracionales ni restricciones crediticias puede estar atrapado en un punto fijo donde únicamente se invierten pequeñas cantidades de capital, se pagan bajos salarios, la productividad de la mano de obra calificada es baja y la mayoría de la fuerza laboral es no calificada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo examina el impacto del Seguro Popular (SP) en la utilización de servicios de salud, en el gasto de los hogares en salud y en el mercado laboral. El análisis se realiza por género y origen de la población (urbano y rural) utilizando datos longitudinales de la Encuesta Nacional sobre Niveles de Vida de los Hogares (ENNViH), y el método de emparejamiento de marcadores de propensión. En general, se observa que el SP no ha tenido un impacto en el número de hospitalizaciones y consultas externas, con excepción de las mujeres de origen urbano. El análisis por institución muestra que el SP ha provocado un incremento en la consulta ofrecida en establecimientos de la Secretaría de Salud (SSA) en poblaciones urbanas. Adicionalmente, se observa que el SP ha tenido un impacto negativo en la cobertura del Instituto Mexicano del Seguro Social (IMSS) y en el empleo formal de las mujeres de origen urbano, y de los hombres de origen rural. En el ámbito del hogar, no se encuentra ningún impacto en el gasto en salud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186/884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se revisa la regulación sobre transferencias de control vigente en el mundo y encontramos evidencia de que a nivel global la legislación está convergiendo desde la regla de mercado (MR, por sus siglas en inglés) hacia la regla de igualdad de oportunidad (EOR, por sus siglas en inglés). La literatura sobre la racionalidad económica de estas reglas muestra que los beneficios privados del control (BPC) afectan los cambios de control; en particular, la EOR tiene el potencial de bloquear transferencias ineficientes aunque también de ralentizar la actividad del mercado del control. Jurfest, Paredes y Riutort (2015) proponen un modelo que permite estimar los BPC bajo las distintas regulaciones, tomando como caso especial el conocido modelo del Block Premium de Barclay y Holderness (1989) y Dyck y Zingales (2004). Asimismo, se ilustra la aplicabilidad y consistencia de este modelo para estimar los BPC en los diferentes regímenes regulatorios vigentes y bajo distribuciones alternativas del poder de negociación del vendedor del control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187/885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es analizar los determinantes de las decisiones de participación laboral, convivencia en pareja y no maternidad de las mujeres en España. Para alcanzar este objetivo se ha explotado la Encuesta de Condiciones de Vida (EU-SILC, por sus siglas en inglés) (2005-2011) de la Oficina Europea de Estadística (Eurostat, por sus siglas en inglés). La estrategia empírica ha consistido en un modeloprobit trivariante,lo que permite estimar las tres variables dependientes de manera simultánea. Los resultados muestran, entre otros datos, que las mujeres con mayor nivel educativo tienen mayor probabilidad de participar en el mercado de trabajo y no tener hijos, así como una menor probabilidad de cohabitar en pareja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188/886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizando una base de microdatos para el área metropolitana de Buenos Aires, se analiza la reacción del consumo de electricidad de los hogares según sus características socioeconómicas, de equipamiento y de localización. Esto se estudia aplicando el método de regresión cuantílica a lo largo de todo el espectro de la distribución de consumo, lo que permite examinar las características mejor asociadas con niveles altos de consumo (condicionales a un modelo bien especificado) en donde potencialmente se encuentran hogares con niveles elevados de ineficiencia energética. Los dos principales resultados son la baja importancia del nivel de ingreso y la mayor importancia de la ausencia de acceso al gas natural, lo que indica que la falta de acceso a un energético (gas natural) deriva en ineficiencias en el consumo de otro (electricidad) y sugiere programas de eficiencia dirigidos a ese tipo de hogares. Otros resultados interesantes son la importancia de los equipos de aire acondicionado y la evidencia preliminar de que un movimiento desde casas a departamentos conlleva un menor consumo (y posiblemente una mejor eficiencia energética)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189/887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo tiene como objetivo dar evidencia de cómo las posiciones netas de los especuladores(order flow)transmiten información al tipo de cambio (peso mexicano/dólar) en el corto y largo plazo. Se utiliza un modelo SVAR cointegrado para demostrar que las posiciones netas de los especuladores aumentan el poder explicativo y la precisión del pronóstico del tipo de cambio, pero lo más importante es que éstas tienen información sobre los fundamentos y además se asocian con movimientos transitorios del tipo de cambio que se generan por noticias de política monetaria. Nuestros resultados, tanto en el largo como en el corto plazo, son coherentes con la visión monetaria de Bilson para la determinación del tipo de cambio, ya que los choques monetarios transitorios, en cierta medida, se transmiten mediante las posiciones netas de los especuladores en México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190/874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se examinan las políticas económicas y sus efectos en los cuatro gobiernos de la Concertación de Partidos por la Democracia, en 1990-2009. Se comprueba que en esos dos decenios se logró reducir significativamente la brecha de ingreso por habitante con las economías más desarrolladas y reducir, moderadamente, la desigualdad del ingreso heredadas de la dictadura. Sin embargo, la fuerte velocidad del progreso en los primeros años de retorno a la democracia (un crecimiento per cápita de 5.4% anual en 1990-1998), disminuyó de manera significativa en los años siguientes (a 2.3% en 1999-2009). La causa principal se sitúa en un cambio fundamental en las políticas macroeconómicas y en la persistente ausencia de políticas de desarrollo productivo, crecientemente relevantes al avanzar a través de etapas intermedias de desarrollo. Con todo, durante los dos decenios, el crecimiento per cápita fue notablemente superior al registrado durante la dictadura (1.3% en 1974-1989 con acrecentada desigualdad, versus 3.7% y cierta reducción de la desigualdad en 1990-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191/875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El principal objetivo de este artículo es estudiar la heterogeneidad regional en las restricciones financieras sufridas por la pequeña y mediana empresas (pyme). Para ello, se desarrolló una aplicación empírica con una muestra de pyme españolas, proponiendo un modelo de acceso financiero y diferenciando entre dos regiones. Las estimaciones se realizan mediante modelos probit dinámicos con datos de panel. Los resultados confirman la importancia de incluir esa diferenciación regional. En concreto, se encontró que en la región menos desarrollada, las características específicas de las empresas de reducido tamaño no son tan importantes para determinar la probabilidad de tener restricciones financieras como las propias condiciones regionales donde la empresa tenga su sede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192/876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es explicar el comportamiento de la inflación en Uruguay durante el largo plazo (1870-2010). Se utiliza un modelo de inflación monetaria, pues se entiende que la trayectoria de largo plazo de la inflación debería estar determinada por las condiciones de equilibrio en el mercado de dinero. Se estima una curva de Phillips del tipo forward-looking, que incluye como variable explicativa de las expectativas de inflación el crecimiento del núcleo monetario (definido como la tasa de crecimiento tendencial de la oferta nominal de dinero que excede al crecimiento de largo plazo de la demanda real de dinero, el que es guiado por la evolución del producto potencial (output adjusted core money, OACM). Se encuentra que el impacto del OACM en la inflación es positivo y significativo, aunque no se rechaza que en el corto plazo sea igual que otros efectos. Sin embargo, en el largo plazo, el OACM tiene un impacto unitario en la tasa de inflación. A partir de la comparación del OACM con la inflación, se construye un indicador de monetización que permite indagar sobre los procesos de desmonetización y remonetización que experimentó esta economía en los últimos 140 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193/877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza las distintas metodologías usadas en algunos países para estimar la tasa de descuento a largo plazo utilizada en proyectos públicos. Adicionalmente, estima, para Chile, la tasa de descuento, con base en dos metodologías: la primera es una variación del método de descuento gamma, propuesto por Weitzman (2001); la segunda usa la fórmula de Ramsey que se deriva de un modelo de crecimiento para estimar la tasa social de preferencia por el tiempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198/878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo busca caracterizar los flujos de comercio internacional de México durante el periodo de vigencia del Tratado de Libre Comercio de América del Norte(TLCAN). Las ecuaciones de importaciones y exportaciones se basan en el modelo debienes sustitutos imperfectos y son estimadas utilizando el enfoque de cointegración de Johansen, con datos mensuales para el periodo 1994-2014. De esta manera, se encuentra que todas las variables pueden describirse como procesos de tendencia estocástica y que existe una relación de cointegración para cada ecuación de comercio. En ambos casos, las elasticidades precio e ingreso de largo plazo estimadas son significativas y sus signos son consistentes con la teoría económica. En particular, ambos flujos de comercio son inelásticos respecto a los precios relativos, y parecen satisfacer la condición Marshall-Lerner. Por otra parte, las importaciones mexicanas son elásticas respecto al producto, lo cual es indicativo de la alta dependencia de insumos importados de la actividad económica mexicana. A diferencia de la literatura previa, se encuentra que las exportaciones son inelásticas respecto a la producción industrial de los Estados Unidos en este periodo, lo cual implica una mayor estabilidad de éstas ante fluctuaciones en el desempeño de la economía estadunidense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la actualidad existe un reconocimiento generalizado de que la inversión en formación inicial genera rendimientos para el individuo y la sociedad. Sin embargo, poco se sabe de los beneficios económicos de la formación en la edad adulta (adult learning o lifelong learning). El objetivo de este artículo es estimar el impacto del aprendizaje (formal o no formal) en la edad adulta sobre la empleabilidad de los individuos aplicando técnicas de emparejamiento (propensity score matching) a los datos de la Encuesta sobre la Participación de la Población Adulta en las Actividades de Aprendizaje (EADA). Los resultados muestran que el aprendizaje no formal tiene un impacto positivo, tanto para desempleados como para empleados. No obstante, este impacto no es homogéneo, y se han detectado diferencias significativas por sexo, edad y nivel de estudios inicial. Otros factores relacionados con la formación, como quién la financia y el motivo por el cual se realiza, también han mostrado ser muy significativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196/880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo examina la relación entre el potencial de mercado y los salarios de los trabajadores manufactureros en las entidades federativas de México, utilizando un modelo estándar de Nueva Geografía Económica (NGE). En la evaluación se considera un aspecto relevante en países en desarrollo, como lo es la distinción entre trabajadores formales e informales. Las estimaciones arrojan que, en general, la elasticidad del potencial de mercado sobre los salarios es de 0.082, la cual es robusta a diversas medidas relacionadas con las teorías de aglomeración urbana y a problemas de endogeneidad y autocorrelación espacial. También se encuentra que los salarios de los trabajadores informales son menos sensibles a cambios en el potencial de mercado en comparación con los salarios de los empleados formales y se benefician de externalidades generadas por la presencia de firmas extranjeras. Una simulación sugiere que hasta 10.7% de la diferencia salarial entre trabajadores de los estados fronterizos con los Estados Unidos y los localizados en el sur de México, puede atribuirse a la geografía económica; este efecto es menor para los trabajadores informales y para el caso de los formales se duplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199/864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo brindamos una interpretación del desempeño económico argentino entre 1930 y 2015, en la que el conflicto distributivo desempeña un papel protagónico. Nuestro argumento sostiene que el conflicto surge de la inconsistencia entre las aspiraciones económicas arraigadas en la sociedad y las posibilidades productivas de la economía. Presentamos dicha inconsistencia de un modo preciso: como una divergencia entre dos niveles de equilibrio del tipo de cambio real. El tipo de cambio real de equilibrio macroeconómico es aquel que permite a la economía mantener simultáneamente el pleno empleo y un balance de pagos sostenible. El tipo de cambio real de equilibrio social es aquel que emerge cuando los trabajadores plenamente ocupados alcanzan el salario real al que aspiran. Estos niveles de tipo de cambio real pueden no coincidir. De esta manera, existe un conflicto distributivo estructural cuando el tipo de cambio real de equilibrio macroeconómico es significativamente mayor al de equilibrio social. Asimismo, desarrollamos un modelo formal que representa de modo estilizado la estructura de la economía argentina y que permite brindar una definición precisa de los dos niveles de equilibrio del tipo de cambio real y del conflicto estructural. Posteriormente, utilizamos el modelo para caracterizar sintéticamente elperformancey la política económica en el periodo 1930-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200/865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo el principal objetivo es analizar tanto cualitativa como cuantitativamente el impacto del momento de una reforma tributaria, es decir, el aumento progresivo y avisado (en fases) de los impuestos en contraposición con una reforma de una sola vez. Los resultados indican que una reforma en fase debiera producir dos efectos: un efecto sustitución que impulsa a las empresas a adelantar inversión y con ello debiera aumentar el Producto Interno Bruto (PIB) y la inflación. La reacción del banco central debiera ser subir la tasa de interés. El otro efecto es negativo y consiste en un efecto riqueza que reduce el precio de las acciones y aumenta el tipo de cambio, Tomando como ejemplo el caso de Chile, que realizó una reforma en base recientemente (2014): se tiene que un aumento de 1% de los impuestos debería producir, producto de la distorsión intertemporal, un aumento de 0.17% en el PIB dentro del primer año del anuncio. No obstante, pueden existir otros elementos de naturaleza muy heterogénea que pueden influenciar negativamente la implementación de la reforma y, por tanto, cancelar por completo este efecto de sustitución intertemporal. Entre estos elementos negativos se tiene la falta de claridad de la reforma por parte del gobierno, al grado de virulencia de las discusiones en el Congreso y su influencia en las expectativas de los empresarios, la falta de credibilidad, por ejemplo, la incertidumbre de nuevas alzas de impuestos, etcétera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201/866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo analiza la demanda de vivienda en México a través del gasto en servicios de vivienda y el costo de uso del capital residencial de cada hogar representativo por percentil de ingreso. La hipótesis de ingreso permanente se considera como función de las características sociodemográficas y el grado de educación del jefe del hogar. Asimismo, se obtienen las elasticidades de ingreso, riqueza, edad del jefe de familia, tamaño del hogar y número de empleados, así como la semielasticidad del costo de uso de capital residencial. El gasto en vivienda es inelástico, aunque es más sensible al ingreso corriente que al permanente. También demostramos que existe una estructura regresiva en este mercado y se realiza un análisis de sensibilidad con el fin de medir el impacto en el gasto de vivienda ante ciertas variaciones del costo de uso residencial de largo plazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202/867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es analizar la distribución laboral femenina en el año 2012 en el mercado de trabajo español, planteada desde una doble perspectiva: el grado de expulsión o rechazo que padecen las mujeres en las ocupaciones masculinizadas, y el grado de atracción o concentración de dicho colectivo en las ocupaciones feminizadas. Para ello —utilizando como base de datos la Encuesta de Población Activa (EPA)—, la metodología utilizada se basa en la descomposición de Oaxaca-Blinder sobre las probabilidades que tienen hombres y mujeres de pertenecer a una ocupación masculinizada o feminizada. La conclusión principal es que el nivel de concentración de las mujeres en las ocupaciones femeninas supera notablemente el grado de expulsión o rechazo de las ocupaciones masculinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203/868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se estudia el efecto del aumento del empleo femenino sobre la distribución del ingreso en Uruguay entre 1991 y 2012; en particular se analizan los efectos sobre la desigualdad y la pobreza. Asimismo, se aplica la metodología de microdescomposición propuesta por Bourguignonet al.(1998), la cual permite capturar parcialmente el efecto del aumento de la tasa de empleo femenino. Esta metodología permite distinguir el efecto generado por cambios en la condición de empleo y el producido por modificaciones en las horas trabajadas. Los resultados obtenidos muestran que, a pesar de no ocupar un lugar central cuando se busca explicar la evolución de la distribución del ingreso, el aumento del empleo femenino ha tenido efectos significativos desde el punto de vista estadístico. Si bien algunos resultados sobre la distribución del ingreso son modestos, los cambios en el empleo femenino contribuyeron en todo momento a reducir los niveles de pobreza y la desigualdad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204/869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo reportamos los resultados de una encuesta representativa realizada a los estudiantes de economía de Chile, de pre y posgrado de cinco universidades sobre temas de pensamiento económico. Una comparación entre estudiantes de las universidades chilenas que imparten economía permite concluir diferencias entre éstos, con características propias que se estarían imprimiendo como un sello en los estudiantes de las distintas casas de estudio. Por último, una comparación entre los estudiantes de posgrado chilenos, europeos y estadunidenses permite verificar en varios sentidos las particularidades del pensamiento económico en los estudiantes de economía del país</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El gravísimo problema de caída de la actividad económica y desempleo en España encuentra un fiel reflejo en el círculo vicioso que genera el cierre de empresas, aproximado en este trabajo por la figura legal del concurso de acreedores. Este artículo se propone examinar el fenómeno desde un punto de vista geográfico para analizar el posible contagio entre provincias. Los resultados muestran que no hay efecto contagio del fracaso en el sector de la construcción, pero sí en el industrial. Es en este sector donde se contagia a la economía vista en su conjunto, pero sólo para los años anteriores a la crisis. En el periodo de recesión parece que tienen más fuerza los factores macroeconómicos negativos que afectan a la totalidad de las empresas que el contagio, que es un efecto particular que ejercen sobre cada compañía las empresas próximas con las que tiene relación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219/871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta reseña sobre el libro de Enrique Cárdenas El largo curso de la economía mexicana. De 1780 a nuestros días, resume un acercamiento a más de dos siglos de historia económica de México y destaca su ambición, alcance y utilidad.  De acuerdo a esta reseña, la visión panorámica de Cárdenas permite observar las distintas etapas de la economía mexicana a partir de las reformas borbónicas, continuando con los episodios de inestabilidad durante buena parte del sigo XIX, el periodo de paz y crecimiento porfirista, el estallido de la Revolución Mexicana, la etapa de construcción de instituciones y crecimiento con estabilidad, las crisis sucesivas de los años setenta, ochenta y noventa y hasta los procesos más recientes de modernización y reformas.  El libro de Cárdenas permite identificar constantes que han significado crisis y precariedad económica y contribuye a aprender del pasado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207/854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 2008, la Comisión Federal de Competencia (CFC) comisionó un estudio de los efectos distributivos del poder de mercado que ha influenciado la discusión nacional respecto a la política de competencia. En este artículo, intentamos reproducir sus resultados, los extendemos a años posteriores, identificamos y corregimos deficiencias en su análisis, y evaluamos su marco conceptual y metodológico. Documentamos que el método utilizado no produce resultados confiables. Además, usando el mismo método, estimamos una pérdida en bienestar de entre 0.8 y 2.1% del gasto total, dependiendo del decil de ingreso. Aunque se sostiene la conclusión de que los hogares de menores ingresos se ven más afectados por el ejercicio de poder de mercado, encontramos que, para los hogares de ingresos más bajos, este efecto es mayor en zonas urbanas que en zonas rurales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208/855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se presenta una crítica de la metodología utilizada en investigaciones previas que intentaron evaluar los efectos sobre el bienestar social derivados de la existencia de empresas con poder de mercado en México. Como resultado de la revisión metodológica, se estima el efecto provocado por una colusión hipotética de los principales competidores de diversos mercados de bienes de consumo, concluyendo que si bien las estimaciones que se obtienen de la pérdida social son significativamente inferiores a las obtenidas en esas otras investigaciones, no por ello se demerita la necesidad de fortalecer la aplicación de la política de competencia. Por el contrario, al sustentar esta política en un análisis económico más objetivo y riguroso, es posible aumentar su confiabilidad y efectividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209/856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo evalúa dos críticas recientes a los trabajos del autor sobre los efectos distributivos del poder de mercado en México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210/857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es verificar la presencia de asimetrías en la actuación del Banco Central Europeo (BCE) desde el inicio de su mandato hasta finales de 2014. La metodología utilizada es doble: la estimación, mediante el método de los momentos generalizado (MMG), de una regla de política monetaria óptima y de una regla que incluye variables ficticias multiplicativas capaces de detectar la presencia de comportamientos asimétricos. La crisis de crecimiento en la eurozona y los problemas de liquidez provocaron la puesta en marcha de medidas no convencionales de política monetaria después de 2008. Nuestros resultados muestran presencia de asimetría en la determinación de los tipos de interés por parte del BCE durante el periodo analizado, así como una reorientación de las decisiones de política monetaria más favorables al crecimiento económico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211/858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo describe el diseño de la regulación ambiental óptima cuando tanto firmas nacionales como multinacionales coexisten en una industria determinada. Para tal efecto, trabajamos en un modelo de equilibrio parcial e introducimos un contexto de país pequeño en el cual la inversión extranjera directa (IED) tiene lugar. Nuestros resultados muestran que, cuando las firmas nacionales actúan bajo condiciones no-competitivas y las firmas extranjeras bajo condiciones de competencia, respectivamente, tal regulación representa un impuesto-subsidio sobre el nivel de emisiones. Esto es el resultado de un “efecto producción”, el cual refleja la caída en bienestar asociada a una disminución en el nivel de producción de las firmas nacionales, y de un “efecto polución”, el cual refleja el incremento en bienestar relacionado a un nivel más bajo de emisiones. Además, cuando permitimos la posibilidad de que las firmas extranjeras experimenten un cambio tecnológico exógeno, generado por medio de sus casas matrices, con spillovers en favor de las firmas nacionales, encontramos que la nueva política óptima (con cambio tecnológico) podría ser mayor, igual, o menor que la política anterior (sin cambio tecnológico); por lo tanto, podemos concluir que el efecto de un cambio tecnológico exógeno sobre la regulación ambiental óptima es incierto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212/859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo se estudian diversas estructuras interindustriales nacionales aplicando medidas tradicionales input-output y análisis de redes. Su principal objetivo es avanzar en la comprensión de los procesos económicos centrándose en las estructuras interindustriales como un factor explicativo de las disparidades internacionales de desarrollo. El estudio de las relaciones intersectoriales muestra la existencia de una estructura fundamental o común y de diferencias estructurales entre grupos de países, de acuerdo con  sus niveles de desarrollo, en la especialización y en la posición de determinadas ramas, teniendo un impacto en sus desiguales procesos de des-arrollo. En este trabajo se muestra que ambas metodologías,input-outputy redes, son complementarias y permiten alcanzar explicaciones más ricas de los procesos de desarrollo. La aplicación de la teoría de redes permite una mejor comprensión de las diferencias estructurales, que puede ser relacionada con el crecimiento económico y el desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213/861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estudia las propiedades estocásticas de las tasas regionales de desempleo español usando datos trimestrales del periodo 1976(1)-2013(2). Para ello, se emplean los métodos Panel Analysis of Nonstationarity in Idiosyncratic and Common components (PANIC) de Bai y Ng (2004 y 2010), que permiten la descomposición de las series observadas de tasas de desempleo en un componente común y un componente idiosincrásico. Esto nos permite identificar con precisión la fuente subyacente en el comportamiento no estacionario del desempleo regional español. Nuestro análisis ofrece evidencia clara de la hipótesis de histéresis, que parece estar causada por una tendencia estocástica común que impulsa a las series de desempleo regionales. Estos resultados están respaldados por los obtenidos de la estimación insesgada en la mediana del parámetro de persistencia, que arroja un valor unitario para el factor común, y en menor medida por la estimación de la vida media obtenida a partir de funciones impulso-respuesta, que arroja un valor de 12.5 para el caso de las perturbaciones que afectan a la tendencia común. Este análisis de persistencia también ofrece evidencia de estacionariedad para la mayoría de las series idiosincrásicas (salvo para dos regiones), en la línea del análisis PANIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214/862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo se reporta el impacto de sorpresas económicas y anuncios de política monetaria no convencional en los factores de la estructura de tasas nominales en Brasil, Chile y México. Se evidencia que sorpresas locales de inflación y de política monetaria tienen mayor efecto en la forma de la estructura de tasas, además, se registran efectos asimétricos de dichas sorpresas en la estructura de tasas de las economías analizadas. Por otro lado, sorpresas externas tienen un impacto asimétrico, mientras que el efecto de anuncios de política no convencionales, tanto el Quantitative Easing como el Twist Operation son los anuncios que presentan mayor impacto en la estructura de tasas de interés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este artículo medimos los niveles de alfabetismo financiero en estudiantes preparatorianos entre 15 y 18 años de edad, utilizando una encuesta basada en las metodologías de la Organización para la Cooperación y el Desarrollo (OCDE) y de Lusardi y Mitchell, aplicada a estudiantes en la Zona Metropolitana del Valle de México. Nuestros resultados muestran bajos niveles de alfabetismo financiero. Utilizando las preguntas “L&amp;amp;M”, encontramos que 60% de los estudiantes encuestados entienden el concepto de inflación, 45.3% respondió de manera correcta a la pregunta sobre diversificación del riesgo y sólo 22.2% contestó correctamente la pregunta sobre interés compuesto. Resultados similares se obtuvieron cuando usamos la metodología de la OCDE. Finalmente, las diferencias en género fueron pequeñas, pero en favor de los hombres, mientras que las diferencias por tipo de escuela fueron mayores, favoreciendo a las escuelas privadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231/846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El incremento en la concentración de gases de efecto invernadero es tal que parece inevitable que se presenten cambios en el clima, los cuales forzarán al sector agrícola a tomar medidas de adaptación. Sin embargo, las capacidades de adaptación son limitadas y por lo tanto es muy probable que el cambio climático afecte la disponibilidad y acceso a alimentos e incremente la volatilidad de los precios. En este artículo se presenta una síntesis de la evidencia de los efectos del cambio climático sobre el sector, con énfasis en América Latina. La revisión deja en claro que los efectos serán heterogéneos y que además pueden ser sumamente cuantiosos. Resulta entonces necesario contar con políticas públicas enfocadas en la mitigación de los gases de efecto invernadero, promoviendo al mismo tiempo la adaptación ante el cambio climático. El artículo concluye con algunas consideraciones sobre temas para investigación futura que puedan contribuir al diseño de dichas políticas públicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232/847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuál es la relación entre escolaridad e informalidad laboral? Con las encuestas de hogares de México y otros 17 países de América Latina, separamos la evolución de la tasa de informalidad laboral en tres efectos: i) diferencias en los años de escolaridad de sucesivas generaciones de trabajadores, ii) tránsitos entre formalidad e informalidad durante el ciclo de vida laboral de cada generación, y iii) características del mercado de trabajo. Encontramos que en América Latina se ha observado una ligera reducción de la informalidad, asociada fundamentalmente al primer efecto: generaciones más recientes de trabajadores con más escolaridad experimentan menores tasas de informalidad que las anteriores. En el caso de México, también observamos que generaciones más recientes de trabajadores tienen más años de escolaridad que las previas; sin embargo, este efecto ha sido contrarrestado por el mercado laboral. Así, a pesar de que en México se han observado mayores avances en años de escolaridad que en el promedio de América Latina, el progreso para reducir la informalidad laboral ha sido nulo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233/848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los aumentos de precio de un recurso natural pueden generar renta, cuyo valor debiese ser recuperado por el Estado para minimizar ineficiencias en la economía, evitar discriminaciones arbitrarias entre ciudadanos y mantener una trayectoria sostenible. Como tema de estudio sobre apropiación privada de renta de recursos naturales, este artículo explora el caso del cobre en Chile desde 1990, analizando empíricamente si las principales mineras privadas han recuperado en valor presente más que su inversión. Los resultados del ejercicio, aplicable a otros recursos naturales, indican que algunas mineras sí lo han hecho, captando unos 40 000 millones de dólares hasta 2012. Elaborar una institucionalidad idónea para futuros yacimientos es un importante desafío para que Chile aproveche su potencial minero, así como para que cualquier país con una abundante base de recursos goce plenamente de su riqueza natural. Para tal efecto, se propone la concesión conocida como Mínimo Valor Presente de Ingresos (MVPI).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234/849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo estudia la competencia en el mercado mexicano de tarjetas de crédito. Deriva funciones de demanda de un modelo de elección discreta, y de tasas de interés de un modelo de competencia imperfecta, ambos con productos diferenciados. Estas funciones se estiman utilizando un panel de datos con 23 segmentos de límite de crédito y 18 bancos emisores entre junio del 2011 y junio del 2015. Los resultados indican que hay competencia imperfecta con productos diferenciados y que las tarjetas son sustitutas más cercanas cuando pertenecen a segmentos similares. Asimismo, revelan que las tasas responden a costos, aunque también reflejan márgenes supracompetitivos. El análisis asocia el poder de mercado con la antigüedad de la cuenta, lo que muestra posibles asimetrías de información o costos de traspaso. En general, menores límites de crédito tienen mayores tasas de interés, pero también mayores costos y menores márgenes. Los resultados también permiten evaluar posibles efectos de concentraciones entre bancos emisores. Finalmente, se hacen algunas recomendaciones de política con base en esta evidencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este artículo es definir si los productos internos brutos per cápita (PIBPC) de 145 economías tienen una raíz unitaria con rompimientos o si son estacionarios en tendencia con rompimientos durante el periodo 1950-2000, para, a partir de ello, establecer una relación con los modelos de crecimiento (endógenos y exógenos) y con los cambios, tanto en los fundamentos económicos como en el progreso tecnológico; situaciones que rompen las tendencias (intersecciones y pendientes) bajo la guía de Lau (1997). Adicionalmente, se identifican los cambios en las tendencias de crecimiento de largo plazo en una forma similar a lo hecho por Ben-David y Papell (1998) para 74 países, pero mediante la prueba panel de estacionariedad con rompimientos múltiples de Carrion-i-Silvestre et al. (2005). Con esto en mente, se definen doce diferentes tipos de rompimientos al comparar la tasa de crecimiento promedio prerrompimiento con la tasa de crecimiento promedio posrompimiento. Derivado de esta clasificación, se examina si la desaceleración en las economías de la Organización para la Cooperación y el Desarrollo Económicos (OCDE) ocurrió antes, durante o después de la desaceleración de las Economías Menos Desarrolladas (EMD). Asimismo, se plantean algunas de las causas de las desaceleraciones y las crisis en las Economías de América Latina (EAL), ya sea por factores internos, externos, comunes a varias economías o por factores particulares a alguna de ellas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236/851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta investigación presenta y aplica un nuevo procedimiento para jerarquizar espacialmente la pobreza. El método propuesto combina simultáneamente variables de magnitud e intensidad utilizando técnicas estadísticas recientes (remuestreo y autocorrelación espacial) y tradicionales, así como rutinas de superposición espacial de los Sistemas de Información Geográfica. Mientras magnitud e intensidad se refieren a datos absolutos y relativos, respectivamente, cada variable puede estar concentrada o aglomerada en el espacio. En este estudio, concentración es la presencia de valores globales altos, independientemente de su localización, y aglomeración es la concentración de valores locales altos espacialmente contiguos. Ambas, aglomeración y concentración, son fusionadas mediante un procedimiento de superposición geográfica para crear conglomerados de magnitud o intensidad de pobreza. Los casos al interior de estos conglomerados son clasificados por procedimientos gaussianos (discontinuidades naturales) o paretianos (puntas y colas) para crear una jerarquía espacial. Por primera vez en el estudio de la pobreza, la jerarquía espacial resultante es producto de la combinación simultánea de los procesos de concentración y aglomeración medidos en términos absolutos y relativos. Los beneficios del procedimiento en una política pública espacialmente orientada son ilustrados abordando la focalización espacial de la pobreza en los 2 456 municipios mexicanos en el 2010. La metodología propuesta en esta investigación puede adaptarse fácilmente para identificar los patrones espaciales de otros problemas sociales, tales como crimen, industria, enfermedades, contaminación o justicia ambiental en diferentes áreas o países.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237/852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo desarrolla un modelo estocástico macroeconómico útil para explicar los efectos que tienen los saltos inesperados en el gasto de gobierno per cápita y en variables demográficas en el crecimiento económico per cápita. Para ello se supone que las dinámicas estocásticas del gasto público y de la población son conducidas por procesos de difusión con saltos modulados por una cadena de Markov. Los resultados más importantes son que los saltos bruscos e inesperados en el gasto público per cápita y en el crecimiento de la población impactan negativamente la tasa de crecimiento per cápita del producto. En particular, si hay un salto brusco y repentino en la tasa de crecimiento de la población, entonces el capital per cápita disminuye repentinamente impactando con ello negativamente el producto per cápita. Por último, los resultados teóricos encontrados se complementan con evidencia empírica del caso mexicano obtenida mediante un modelo que toma en cuenta tanto la volatilidad de las tasas de crecimiento de la población y del gasto público per cápita así como las sorpresas en la intensidad de los saltos en esas variables.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238/853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente trabajo estima las externalidades del capital humano en México empleando los enfoques más utilizados en la literatura. Con el propósito de reducir el potencial sesgo de endogenedidad de la escolaridad individual y promedio realizamos estimaciones con variables instrumentales. Para lo cual empleamos como instrumento de la primera la reforma educativa de 1993 que promulgó la obligatoriedad de la educación secundaria. Para la segunda utilizamos la proporción de egresados de educación media superior y superior y la estructura de la población de los estados en un periodo previo. Los resultados muestran que existe una fuerte relación positiva y estadísticamente significativa entre experiencia, educación individual y educación promedio estatal con los salarios individuales. Asimismo, confirmamos por medio de la aplicación de los diversos enfoques a través de la coincidencia en los resultados encontrados que existen externalidades significativas del capital humano a nivel estatal en México para el periodo 2000-2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261/615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Recientemente, los agregados monetarios han desempeñado un papel menor en las deliberaciones de política monetaria en la mayoría de los bancos centrales. Esto es debido a que los modelos utilizados se concentran en las desviaciones de la inflación respecto a un nivel de estado estacionario dado exógenamente. La cantidad de dinero en la economía determina el nivel de precios en el largo plazo, pero no necesariamente influye en las desviaciones respecto a dicho nivel. Por lo tanto, los agregados monetarios han perdido relevancia en el análisis de corto plazo. Métodos: Se realiza un extenso análisis econométrico de la demanda de dinero a largo plazo para México utilizando el agregado monetario M1. Se estima la demanda del agregado monetario M1 mediante un modelo autorregresivo de rezagos distribuidos, con datos trimestrales para México para el periodo 2001-2014. El modelo se somete a una variedad de pruebas de especificación y diagnóstico, además se realiza un profundo análisis de la estabilidad de los parámetros. Con base en dicha demanda se calculan dos indicadores de presiones inflacionarias: la brecha del dinero y el indicador m*. Resultados: Este artículo muestra cómo se puede utilizar a los agregados monetarios como indicadores de presiones inflacionarias. Esto es posible ya que existe una relación a largo plazo entre dichos agregados y los precios. Específicamente, se obtienen dos indicadores. Por un lado, la brecha del dinero, la cual mide la desviación de M1 real de su relación con sus determinantes a largo plazo. Por otro lado, el indicador m* se basa en la estimación del índice de precios que es congruente con la cantidad de M1 en la economía, una vez que ésta se ajusta por la tendencia de largo plazo de sus determinantes tomando en cuenta sus coeficientes de largo plazo. Así, respecto a la tendencia a largo plazo de la inflación, el indicador m* sugiere que el crecimiento del dinero durante el régimen de metas de inflación: fue congruente con un importante esfuerzo de desinflación, y posteriormente converger a un crecimiento aproximado de 3%; esto es, hacia condiciones inflacionarias congruentes con la meta de inflación. Conclusiones: La política monetaria ha sido congruente con el objetivo de inflación del Banco de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262/653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Estudiamos cómo el nivel de empleo agregado se ajustó en la economía chilena, posterior a la llamada crisis asiática. Contrastamos distintas hipótesis que se han esgrimido en el debate público, y que no han sido probadas formalmente, sobre las razones por las cuales el nivel de empleo tardó tanto tiempo en recuperar los niveles precrisis. Métodos: Especificamos y estimamos un modelo de vectores autorregresivos con series de tiempo para el trimestre 1995.1-2007.4 y aplicamos el método de Johansen para identificar vectores de cointegración. Resultados: Estimamos un vector de cointegración que representa la función de demanda laboral. Realizamos las siguientes pruebas de hipótesis sobre esta función: homogeneidad de grado cero en precios, elasticidad producto de la demanda unitaria; quiebre estructural en el intercepto de esta función; cambio en la elasticidad producto de la demanda laboral de largo plazo entre subperiodos y existencia de costos de ajuste. Conclusiones: Inestabilidad en la elasticidad demanda del ingreso en la función de demanda por trabajo en Chile posterior a la crisis asiática, pero no en la dirección sugerida por el debate previo. Adicionalmente, el factor que contribuyó en forma más decisiva a la lenta recuperación del empleo posterior a la crisis fue el costo de ajuste presentes en la economía chilena.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263/654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: La economía regional y el crecimiento económico se enfocan en la pregunta de si el comercio conlleva a una mayor concentración de la actividad económica. No obstante, pocos trabajos empíricos han evaluado los impactos del comercio en la convergencia regional. Por lo tanto, este trabajo estudia la convergencia derivada del comercio de México después del Tratado de Libre Comercio de América Norte (TLCAN). A diferencia de trabajos previos, los datos a nivel municipal permiten observar mejor los patrones de convergencia en el espacio e identificar el efecto del TLCAN. Métodos: Se diseñaron un modelo de convergencia β condicional y un modelo de convergencia β condicional de clubes. Sin embargo, a diferencia de estudios empíricos anteriores, se utilizan datos municipales de panel para identificar con mayor claridad la relación entre el comercio y la convergencia regional, además se incluyen datos de los censos económicos de 2009 para observar si, después de 15 años de la entrada en vigor del TLCAN, la actividad económica se ha descentralizado y se ha trasladado de la Ciudad de México a las regiones fronterizas con los Estados Unidos. Resultados: Los resultados muestran que, después de la implementación del TLCAN, la convergencia entre regiones cercanas a la frontera con los Estados Unidos creció más rápidamente que en aquéllas cuya posición geográfica es más lejana. Sin embargo, hay una reducción significativa de los coeficientes β después del TLCAN, lo que indica una ralentización de la tasa de convergencia. Asimismo, se halla que los municipios del sur no se han integrado a los mercados del mundo; por el contrario, se han quedado rezagados con respecto a sus contrapartes después de la implementación del TLCAN.Conclusiones: A pesar de que las fuerzas centrífugas están empezando a funcionar, hay una reducción significativa del coeficiente β después de la entrada en vigor del TLCAN. Esto indica que se necesitan mejores políticas para controlar el aumento de las disparidades regionales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264/655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: La búsqueda de las tasas impositivas óptimas ha sido recurrente en las discusiones de política fiscal. En particular, la relación entre la estructura tributaria y el crecimiento económico ha hecho resurgir la hipótesis de Laffer que implica la existencia de una relación parabólica entre el nivel de impuestos y los ingresos obtenidos. Nuestra hipótesis es que las zonas urbanas tienen un impacto igualmente significativo sobre la disposición a pagar impuestos y puede existir igual o más heterogeneidad entre los tamaños urbanos que entre los diferentes territorios. Metodología: En este artículo se contrasta la hipótesis de Laffer para el caso español utilizando microdatos del Instituto de Estudios Fiscales (IEF) para el año 2009 en diferentes escenarios espaciales. Para ello, se utiliza una muestra de declarantes de corte transversal estimada con mínimos cuadrados ordinarios. Resultados: La presencia de una relación parabólica entre la carga tributaria y la recaudación de impuestos permite obtener una tasa impositiva que maximiza los ingresos fiscales en torno a 30%, el doble del promedio aplicado. Por regiones, hemos observado variaciones importantes que justifican la existencia de un alto grado de descentralización fiscal. Pero esta variabilidad es también importante según el tamaño de las ciudades. Los ingresos fiscales máximos de las dos principales ciudades, Madrid y Barcelona, se obtienen con una tasa impositiva de 34%, mientras que todas las demás ciudades alcanzan el máximo de ingresos fiscales a tasas similares.Conclusiones: Cuanto menor es el tamaño de la ciudad, menor es la tasa impositiva que maximiza los ingresos fiscales, abriendo una brecha más grande cuanto más pequeña es la ciudad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: La reforma energética del 2008 promueve la generación y el uso de las energías renovables. Métodos: El objetivo de este trabajo es evaluar la efectividad de una política ambiental que promueva la sustitución de energías fósiles, por energías renovables a través de una política fiscal, para ello se utiliza un modelo de equilibrio general. Resultados: Los resultados muestran que la eficacia de una política ambiental depende de la elasticidad de sustitución existente en la economía. Conclusiones: Resulta crucial invertir en la investigación y el desarrollo de tecnología que promueva el cambio tecnológico y propicie un mayor uso de las energías renovables, sobre todo en los sectores productivos más contaminantes en México. Asimismo, se muestra que es necesario acelerar una transición energética, que utilice fuentes de energía limpia, como parte de las políticas y estrategias de mitigación de gases de efecto invernadero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266/657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Para brindar herramientas que permitan a las personas desarrollar todo su potencial, la educación debería no sólo proveer conocimientos y aptitudes, sino también contribuir a la formación de actitudes, valores y disposiciones positivas. Los sistemas educativos deberían ser evaluados en función de este carácter multifacético de la educación, y la información disponible indica que los países difieren en la medida en que sus estudiantes adquieren tanto competencias cognitivas como no cognitivas. Interesa por ello comprender mejor el desarrollo de ambos tipos de logros, proceso complejo que depende de factores personales, familiares, escolares y contextuales. Mientras que la mayoría de las investigaciones empíricas orientadas a explicar la calidad educativa ha considerado únicamente los logros cognitivos, el presente trabajo pone el foco en los no cognitivos. Métodos: Se estima un modelo de regresión multinivel multivariado que analiza simultáneamente los determinantes de dos resultados alcanzados por los alumnos argentinos participantes del Programa para la Evaluación Internacional de Alumnos (PISA) 2012: uno cognitivo —la nota obtenida en la prueba de matemáticas— y uno no cognitivo —la apertura hacia la resolución de problemas—. Resultados: Se hallan diferencias en los factores explicativos entre los dos tipos de logros: los colegios parecen cumplir un papel más relevante en la determinación del desempeño escolar cognitivo que en la formación de resultados no cognitivos. No obstante, factores como el género o el nivel socioeconómico del hogar inciden significativamente en ambos casos. Asimismo, si bien los atributos escolares resultan menos relevantes que los individuales en la explicación de los dos resultados, se aprecia un margen para mejorar su desarrollo desde la escuela. Conclusiones: La inexistencia de homogeneidad respecto a las variables que determinan las dos clases de resultados estudiados sugiere que las políticas tendientes a mejorar unos u otros deberían ser diferentes. De todas formas, el desarrollo de ambos tipos de logros requiere principalmente que se mejoren las condiciones socioeducativas de los alumnos en sus hogares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267/661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: La desigualdad ha aumentado en los últimos años. Los avances recientes en las tecnologías de la información y la comunicación tienen un papel dominante entre las fuerzas explicativas. La razón es que tales avances facilitan ciertas formas de cooperación entre los agentes que cambian la división del excedente económico. Métodos: Para poder estudiar la manera en que diferentes formas de cooperación afectan la desigualdad se elaboró un modelo de cooperación entre agentes de talentos heterogéneos que permiten dos tipos de cooperación: entre tareas y dentro de tareas. La primera refleja la asignación de diferentes agentes para diferentes tareas. La segunda representa la reasignación de tareas en caso de que algún agente no cumpla. Los costos de esta forma de cooperación disminuyeron de manera sustancial debido a la difusión de Internet, el correo electrónico, los teléfonos celulares y la tecnología inalámbrica. La asignación del equilibrio es caracterizada, en particular la clasificación del equilibrio de agentes en cooperaciones y la concordancia entre agentes. Resultados: La cooperación lleva a una mayor desigualdad en la parte superior y a una menor desigualdad en la parte inferior de la distribución del talento en comparación con una situación hipotética sin ninguna división del trabajo. Además, se ha demostrado que la cooperación dentro de las tareas tiende a aumentar más la desigualdad que la cooperación entre las tareas. Por lo tanto, el modelo es capaz de generar el reciente incremento en la desigualdad de ingresos debido a la revolución de las TIC en los últimos años. Además, el modelo implica una correlación positiva entre los momentos más altos de la distribución del talento y la prima por cualificaciones que es coherente con la evidencia empírica y esclarece algunas evoluciones potenciales en la desigualdad debido a cambios en la distribución de la dificultad de las tareas a lo largo del tiempo.Conclusiones: Es probable que los recientes avances en las tecnologías de la información y la comunicación causen nuevos incrementos en la desigualdad. La sociedad debe estar consciente de esas tendencias para luchar contra la pobreza y la exclusión de sectores amplios de la sociedad cuando se trata de desarrollo económico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268/662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: La creación de la Asociación Transatlántica para el Comercio y la Inversión (TTIP, por sus siglas en inglés) que actualmente negocian los Estados Unidos y la Unión Europea tendrá importantes repercusiones en el comercio mundial, especialmente para aquellas economías con una elevada dependencia comercial de alguno de los bloques firmantes, como es el caso de México. Métodos: Este trabajo analiza los efectos de este acuerdo comercial para las exportaciones de los sectores manufactureros mexicanos dirigidas a los Estados Unidos por medio de un modelo múltiple de ecuaciones gravitatorias en dos posibles escenarios, ambicioso y limitado. Resultados: Los resultados muestran una caída significativa de las exportaciones manufactureras de México y un debilitamiento de su posición en las cadenas globales de valor, especialmente en aquellos sectores donde la Unión Europea presenta ventajas competitivas en su comercio con los Estados Unidos. Asimismo, los resultados muestran que los efectos de desviación de comercio se vivirían especialmente en aquellas industrias con una elevada dependencia de sus exportaciones con el mercado estadunidense, de entre las que destacan la maquinaria y los equipos de transporte. Conclusiones: La actualización de los acuerdos que México tiene con los Estados Unidos  y con la Unión Europea podría mitigar los potenciales efectos negativos del TTIP, siempre y cuando ésta suponga una aproximación a los estándares de las exportaciones europeas acordados en este nuevo acuerdo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302/663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: El objetivo de este artículo es analizar el crecimiento económico, la productividad y sus determinantes en cinco países de América Latina (Argentina, Brasil, Chile, Colombia y México) durante el periodo 1990-2010. Este análisis se aplica tanto a la economía agregada como a nueve sectores de actividad económica. Metodología: Se utiliza una nueva base de datos, LA-KLEMS, que servirá como herramienta fundamental para la investigación empírica y teórica en el área de crecimiento económico y productividad para América Latina. Las variables se organizan en torno a la metodología de contabilidad del crecimiento, que proporciona un marco conceptual claro para el análisis coherente de la interacción entre las variables. Las cifras de LA-KLEMS ponen de relieve las discrepancias entre los países y dan una nueva perspectiva para entender cómo evolucionan las series con el tiempo. Resultados: Los resultados muestran que el lento crecimiento económico se debe básicamente a la contribución negativa de la productividad total de los factores (PTF) en todos los países y en casi todos los sectores, a pesar de los esfuerzos de inversión realizados en los últimos 20 años. Los países latinoamericanos se enfrentan a un auténtico problema de productividad, como muestra el shift-share análisis. Conclusiones: Los problemas de la PTF son comunes a todos los sectores de actividad económica y no parecen estar impulsados por el cambio estructural, es decir, la reasignación de recursos de industrias de baja a alta productividad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303/664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Los sistemas de vales en educación se basan fundamentalmente en la capacidad de los padres para elegir la escuela de sus hijos. Sin embargo, esta capacidad se reduce cuando enfrentan costos de cambio. Método: Se identificaron los datos de los estudiantes que cursaban cuarto grado en 2000 y octavo grado en 2004, y se verificó si estos, habían cambiado de escuela. Además, comparamos la utilidad que reporta la escuela elegida con respecto a otras, no disponibles en 2000, determinando así la existencia de costos de cambio. Resultados: Encontramos que los costos de cambios son estadísticamente significativos y económicamente relevantes, además, afectan la decisión de cambiar de escuela. También mostramos qué cambios marginales en niveles de utilidad no son suficientemente significativos para cambiar de escuela identificando un eventual umbral. Conclusiones: La preocupación natural de los padres con respecto a la capacidad de reacción está condicionada por la existencia de costos de cambio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304/666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: El Buen Fin es un evento comercial de periodicidad anual que consiste en cuatro días de promoción y rebajas de productos y servicios durante la tercera semana del mes de noviembre en México. El evento ha incrementado su relevancia desde su primera edición en 2011. Sin embargo, no existe un análisis formal que evalúe el efecto del Buen Fin sobre los precios y las políticas de fijación de precios de las empresas, principalmente debido a la falta de información relevante. Métodos: Este artículo analiza la fijación de precios durante el Buen Fin para una muestra de establecimientos ubicados en áreas urbanas del país. Empleando la base de datos ¿Quién es quién en los precios? de la Procuraduría Federal del Consumidor (Profeco) se construye un panel no balanceado de precios semanales de productos electrónicos para 525 establecimientos durante 2010-2015. Posteriormente, se utiliza la metodología de estudio de eventos para analizar los efectos del Buen Fin en el nivel de precios promedio y en los precios específicos por producto y por cadena. Adicionalmente, se analizan las políticas de fijación estratégica de precios para las empresas participantes. Resultados: El Buen Fin reduce en promedio 7% los precios con respecto al precio observado en septiembre antes del evento. Sólo 52% de los productos analizados reduce efectivamente su precio en el Buen Fin. Restringiendo el análisis a productos descontados, se obtiene un descuento promedio de 15%. El aumento promedio de precios antes del evento es de 2%, evidencia de que algunos establecimientos han adoptado prácticas para hacer más evidentes las ofertas del Buen Fin. Conclusión: El Buen Fin no puede ser considerado como un evento de baja generalizada de precios. Los descuentos ofrecidos por distintas cadenas tienen diferencias considerables. En algunos casos, diversos establecimientos han adoptadoCAMPOS Y MEDINA, ¿Realmente bajan los precios en el Buen Fin? 339 prácticas estratégicas que permiten hacer más evidentes las ofertas ofrecidas durante el evento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305/667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: En los últimos años muchos países han realizado inversiones sustanciales en los programas Una Laptop por Niño (OLPC, por sus siglas en inglés), en tanto que otros están por implementar este tipo de intervenciones. Este artículo contribuye al estudio del efecto que tienen los programas OLPC en el desempeño de los estudiantes en lectura y matemáticas y, para ello, utiliza un diseño cuasi experimental basado en datos de Uruguay, el primer país en implementar un programa OLPC a escala nacional: el Plan CEIBAL. Métodos: Empleamos una estrategia de diferencias en diferencias (DiD) para estimar el impacto del Plan CEIBAL en el desempeño educativo. El análisis explota especialmente el hecho de que el despliegue del programa se basó en criterios geográficos y no en el rendimiento escolar de los estudiantes. Se cuenta con la fecha exacta en que se le entregó la laptop a cada estudiante de la muestra. Ello nos permite hacer una medición continua y sin margen de error del tratamiento con base en el número de días en que cada estudiante ha estado expuesto al Plan CEIBAL al llegar la fecha de seguimiento (normalizado a años). Se controla por las diferencias sistemáticas que se dan potencialmente a lo largo del tiempo respecto a un mejor aprovechamiento escolar entre las escuelas en la capital, Montevideo, y el resto de Uruguay. Resultados: Nuestros resultados sugieren que el programa no tuvo impacto en las calificaciones en lectura y matemáticas. Tampoco encontramos efectos heterogéneos entre alumnos cuyas madres poseen distintos niveles de educación. Al analizar la evidencia descriptiva sobre la frecuencia de uso de la laptop en clase, observamos que su uso diario no está generalizado en todas las escuelas públicas. Además, su principal uso en clase consiste en la búsqueda de información en internet y no en la capacitación mediante ejercicios o prácticas de repetición. Una característica particularmente importante del programa es que la capacitación a los docentes ha sido opcional hasta el momento. Conclusiones: Nuestros resultados sugieren que, en los primeros dos años de su implementación, el Plan CEIBAL no tuvo efecto en los puntajes de matemáticas y lectura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306/668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: El objetivo de este artículo es proveer un análisis empírico de los determinantes de la madurez de la deuda con plazo mayor a un año. La deuda analizada es aquella emitida como renta fija por empresas chilenas cotizadas en la Bolsa de Valores de Santiago, en Chile. La investigación se contextualiza en el marco de la teoría de costos de agencia, hipótesis fiscal y señalización por medio de la emisión de deuda. Métodos: Para llevar a cabo el análisis utilizaremos un panel de datos construido a partir de información financiera obtenida de Bloomberg, para un periodo comprendido entre los años 2002 y 2012. Con estos datos llevaremos a cabo una regresión agrupada, un modelo de datos de panel con efectos fijos y otro con efectos aleatorios. Resultados: Después de analizar una muestra de 434 observaciones para 50 empresas con 52.8% de su deuda con una madurez mayor a un año, una madurez de sus activos de 29.26 años y una tasa efectiva de impuestos de 18.2%, encontramos los siguientes resultados. La razón entre el valor de mercado y el valor en libros de la empresa es estadísticamente significativa y tiene el signo negativo esperado. También encontramos que tanto el tamaño como la regulación son estadísticamente significativos y tienen signo positivo. Los resultados obtenidos para la variable “Tasa efectiva de impuestos” no son estadísticamente significativos, lo que coincide con la evidencia internacional. Por otra parte, el coeficiente estimado para la madurez de los activos no es estadísticamente significativo, lo que contradice las ideas propuestas por Myers (1977). En cambio, la variable “calidad” es estadísticamente significativa a 5% de significancia en todas las regresiones; sin embargo, ésta no tiene el signo negativo que se esperaba. Finalmente, en su mayoría los resultados son consecuentes con la evidencia internacional, por lo que los determinantes de la madurez de la deuda en Chile son similares a aquellos que se encuentran en otros países como los Estados Unidos, Reino Unido y España. Conclusiones: Las empresas grandes con pocas oportunidades de crecimiento tienen una mayor proporción de deuda con un plazo de vencimiento mayor a un año. La evidencia también sugiere que las empresas expuestas a grandes asimetrías de información emiten proporcionalmente más deuda a corto plazo. Además, no encontramos evidencia de que las empresas busquen hacer coincidir la madurez de sus activos con la de sus pasivos, ni de que busquen emitir deuda con un vencimiento mayor a un año para aprovechar los beneficios fiscales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307/669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Este artículo presenta nueva evidencia sobre la frontera de posibilidades de desigualdad y la tasa de extracción (cuánto de la desigualdad potencial se convierte en desigualdad real) para América Latina (AL) en las últimas dos décadas. Asimismo, se explora la relevancia de la tasa de extracción (TE) en el análisis del conflicto social y la estabilidad institucional. Métodos: Cómputo de la TE y del coeficiente de Gini, para 18 países de AL en el periodo 1990-2013, usando encuestas de hogares. Se estiman modelos econométricos multivariados con efectos fijos para analizar la relación entre la distribución del ingreso e indicadores de conflicto social. Resultados: AL mejora dos posiciones en el ranking de desigualdad mundial al usar la TE en lugar del Gini. Dentro de AL existe un proceso de convergencia en niveles de desigualdad, aunque las medidas se comportan diferente: mientras que el Gini aumenta en los 90 y disminuye en los 2000, la TE mantiene una tendencia decreciente a lo largo de todo el periodo. Adicionalmente, se encuentra que la TE está positivamente relacionada con las situaciones de conflicto e inestabilidad política. Conclusiones: Según la TE, América Latina no es tan desigual como con el Gini. Asimismo, mayor TE está asociada a mayores niveles de conflicto social en AL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308/670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Durante el siglo XVIII surgió un estilo distintivo de arte, el Rococó, expresión de frivolidad y juicio “conocedor”, donde hubo pocos avances en materia visual. El principal objetivo de este trabajo es establecer un modelo teórico que relacione la caída en el mecenazgo real para las artes con una disminución en la creatividad impregnada a las obras. Métodos: Se presenta un modelo teórico sobre la interacción entre artistas plásticos y galeristas del siglo XVIII, el cual permite estudiar el nivel de creatividad óptimo que los artistas impregnaban a sus obras de arte. Resultado: El modelo predice una relación positiva entre patronazgo real y nivel de creatividad. Conclusiones: La muerte del Rey Luis XIV y la consecuente reducción en el mecenazgo real podrían explicar la caída, documentada por los historiadores del arte, en el nivel de complejidad de las obras producidas durante el periodo Rococó.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277/790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este artículo presenta resultados sobre el impacto de la política fiscal en la desigualdad y la pobreza en dieciséispaíses de América Latina para alrededor del año 2010.Los países que más redistribuyen son Argentina, Brasil, Costa Rica y Uruguay, y los que menos, Guatemala, Honduras y Perú. A mayor gasto social, mayor redistribución pero países con un nivel de gasto social similar muestran diferentes niveles de redistribución lo cual sugiere que otros factores tales como la composición y focalización del gasto intervienen en determinar el efecto redistributivo más allá del tamaño. La política fiscal reduce la pobreza extrema en doce países.. Sin embargo, la incidencia de la pobreza después de impuestos, subsidios y transferencias monetarias es mayor que la incidencia para el ingreso de mercado en Bolivia, Guatemala, Honduras y Nicaragua, aun cuando la política fiscal reduce la desigualdad.Además, aun cuando la incidencia de la pobreza y la desigualdad se reducen, con la nueva medida de Empobrecimiento Fiscal se puede observar que en Brasil y México un tercio de la población pobre medida con el ingreso consumible fue empobrecida: es decir, pasó de pobre a ser más pobre o de no pobre a ser pobre.El gasto en educación pre-escolar y primaria es igualador y pro-pobre en todos los países. El gasto en educación secundaria es igualador en todos los países y también pro-pobre en algunos pero no en todos. El gasto en educación terciaria nunca es pro-pobre pero es igualador a excepción de Guatemala, donde es regresivo y desigualador y en Venezuela, donde su efecto redistributivo es cero.El gasto en salud siempre es igualador pero es pro-pobre solamente en Argentina, Brasil, Chile, Costa Rica, Ecuador, República Dominicana, Uruguay y Venezuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508/791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Este trabajo evalúa la sostenibilidad del modelo de desarrollo económico español en el periodo 1980-2010. Asimismo, realiza un análisis comparativo con las grandes economías europeas: Alemania, Francia, Italia y Reino Unido. Metodología: Para alcanzar el objetivo del trabajo se han empleado técnicas de cointegración. Mediante estas técnicas se analiza la relación a largo plazo del consumo de energías renovables y no renovables con el desarrollo económico y la contaminación en el periodo 1980-2010. Tras un proceso de selección de variables, para España se ha utilizado el Producto Interno Bruto (PIB) y la Formación Bruta de Capital, para medir el crecimiento, el Índice de Desarrollo Humano y el Capital Social, para el desarrollo, las emisiones de CO2 para la contaminación, el consumo de energía renovable en el sistema eléctrico y el consumo de petróleo para el consumo de energía renovable y no renovable, respectivamente. En segundo lugar, se han comparado los resultados obtenidos para la economía española con las cuatro economías más grandes de la Unión Europea: Alemania, Francia, Italia y Reino Unido. Dada la disponibilidad de datos, para estos países se ha excluido del análisis la Formación Bruta de Capital y el Índice de Desarrollo Humano.Resultados: En primer lugar, para los cinco países analizados se comprueba un impacto positivo del consumo de energía renovable y no renovable sobre el crecimiento y el desarrollo, con un impacto mayor de las energías no renovables. Para los tres países en los que se han incluido las emisiones de CO2 (España, Francia y Reino Unido), el efecto reductor de las renovables sobre las emisiones de CO2 es menor que el efecto contaminante de las no renovables. En segundo lugar, para España, Alemania y Francia se aprecia un proceso de retroalimentación entre el consumo de no renovables, el crecimiento y el desarrollo, que no se observa con el consumo de energía renovable. Conclusiones: Para conciliar el objetivo de crecimiento con el de reducción de la contaminación se precisan tasas de crecimiento más moderadas. El modelo de crecimiento de los países analizados estimula el consumo de energía no renovable, pero no el de las renovables. Esto apunta hacía la necesidad de diseñar políticas que estimulen la sustitución de energía no renovable por renovable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">509/792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: La pobreza continúa siendo uno de los grandes retos internacionales como constatan los compromisos asumidos por las Naciones Unidas en la Agenda 2030. Para luchar contra ella, las agencias de desarrollo han impulsado procesos de descentralización por todo el mundo. De esta forma, el análisis del impacto de la descentralización fiscal en la pobreza se ha convertido en un área de extraordinario interés académico pero con hallazgos contradictorios. Este artículo analiza los efectos sobre la pobreza de la descentralización fiscal del gasto en educación, salud, vivienda y protección social. Métodos: Estimamos un modelo de efectos fijos mediante Mínimos Cuadrados Generalizados Factibles usando un panel de datos no-balanceado de países. Resultados: La descentralización del gasto tiene un efecto diferenciado sobre la pobreza. La descentralización de las políticas sanitaria y de vivienda contribuye a reducir la pobreza; mientras que la de la protección social estimula el incremento de la pobreza. Conclusiones: Se confirma la hipótesis de la teoría clásica sobre la descentralización en las áreas sanitaria y de vivienda. Por otro lado, se ratifica la predicción de la teoría normativa de la economía pública en el área de la protección social. Por tanto, para cada país ha de examinarse con detenimiento las áreas de política social que se descentralizan y la asignación de recursos entre jurisdicciones para evitar problemas de selección, rendición de cuentas y asignación de responsabilidades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510/793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: En este artículo retomo el análisis de la competitividad económica de las 32 entidades del país para el 2013, mismo que antes se había hecho con los Censos Económicos 2003 y 2008. Método: Tomamos las 81 actividades que representan poco más de 96% de la actividad del país en 2013 y se calcula la competitividad con base en dos dimensiones: la productividad laboral y los salarios. Mediante la técnica de análisis de cluster dicotómico se hace la distinción entre estados competitivos y no competitivos. Resultados: El principal resultado es que se conservan los dos tipos de entidades antes vistas en el 2008 en cuanto a condiciones de competitividad, pero integrando dos nuevas entidades. Ahora las 13 entidades más competitivas cuentan con una economía más productiva, más diversificada y con mayores niveles de productividad y salarios. Se trata de entidades económicamente más maduras como Nuevo León, la Ciudad de México, Querétaro, el Estado de México, Jalisco, Guanajuato y San Luis Potosí, y los estados de la frontera norte. Los otros 19 estados con atraso relativo intentan compensar la falta de productividad con el castigo a los salarios. La condición más crítica se observa en estados del sursureste y otros de la costa Pacífico. Conclusiones: La conclusión principal es que, a pesar del alcance al grupo competitivo por estados del Bajío como Guanajuato y San Luis Potosí, la convergencia entre entidades no se dará por mero tránsito del tiempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206/794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El riesgo de longevidad, que es la posibilidad de que las personas sobrevivan más allá de lo esperado, puede dañar a los sistemas gubernamentales de pensiones de beneficio definido, ya que se traduce en una potencial subestimación de las reservas para cumplir las obligaciones de pago futuro. Este fenómeno tiene una connotación positiva para los proveedores de seguros de vida, ya que de realizarse el riesgo de longevidad, habría un diferimiento en sus obligaciones financieras. En este artículo se analiza, estructura y se simula un swap de longevidad como mecanismo para reducir la exposición del gobierno federal mexicano al riesgo de longevidad, usando elhedgenatural de las posiciones respecto a la longevidad entre las dos instituciones mencionadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511/795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: A partir de un caso empírico se estudia la decisión de las personas para participar voluntariamente como funcionarios de casilla el día de la jornada electoral en México. Al respecto, interesaba analizar si esa participación era motivada por un comportamiento prosocial, donde el ciudadano contribuía a la existencia de un bien público: la democracia. De ser el caso, se descartaría el comportamiento de Homo Economicus. Métodos: Ante la falta de información para hacer este estudio a nivel individual, se decidió hacerlo a nivel más agregado, a nivel municipal. Por medio de una regresión logística se exploró la probabilidad de que un municipio tuviera una alta tasa de aceptación para participar en la jornada electoral como funcionarios de casilla. Específicamente, se estudió en qué medida la variable dependiente se explica por variables asociadas a un comportamiento prosocial o a un comportamiento de Homo Economicus. Resultados: Los resultados muestran que, efectivamente, una parte de la participación es motivada por la responsabilidad ciudadana y el compromiso social, es decir, un comportamiento divergente del Homo Economicus. En tanto que la otra parte de la participación responde a incentivos no explícitos que estarían asociados al self-interest. Conclusiones: En este artículo se concluye que una parte de quienes aceptan la invitación para participar como funcionarios de casilla, lo hacen respondiendo a un comportamiento prosocial, pero para el resto no es posible descartar un comportamiento de Homo Economicus. Todo ello apunta a la necesidad de seguir trabajando para consolidar la calidad de la democracia mexicana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512/796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: Los estudios referentes a la optimización de los recursos provenientes de la producción petrolera son un tema de fundamental importancia para México. La constitución de fondos de distintas características (como los fondos soberanos), los cuales sirvan para administrar y cubrir esta riqueza es una tarea primordial que ha emprendido el gobierno federal. Metodología: El objetivo del presente trabajo es proponer un modelo de optimización estocástica que pueda servir para el soporte y análisis de las políticas de decisión sobre los fondos constituidos provenientes del petróleo. Dicho modelo maximiza la utilidad de un inversionista sujeto a una restricción de riqueza integrada por una dotación petrolera y un activo financiero, con sus coberturas de opciones financieras y bonos utilizando la técnica HJB. Resultados: Después de aplicar la herramienta se hace una análisis sobre el cambio en los valores de las ponderaciones invertidas en cada uno de los activos al variar los parámetros. Conclusión: En general se puede decir que la cartera propuesta es de cobertura más que especulativa y los resultados obtenidos en el análisis de sensibilidad de los ponderadores de los activos son consistentes con la intuición esperado y la política pública.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">605/940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El profesor Kenneth Arrow murió el 21 de febrero de 2017 a la edad de 95 años. Era universalmente considerado (junto con Paul Samuelson, John Hicks y posiblemente —dependiendo de los gustos— John Maynard Keynes, Milton Friedman y Gary Becker) como uno de los economistas más extraordinarios del siglo XX. También fue mi economista favorito de todos los tiempos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606/941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Para contribuir al control de la epidemia de sobrepeso y obesidad en México, se implementó, a partir de enero de 2014, una estrategia integral que incluye un impuesto a bebidas azucaradas y a un grupo de alimentos con alto contenido calórico, entre los que se encuentran las botanas. En este artículo analizamos cómo se comportan los precios de las botanas ante el incremento de los impuestos y estimamos el posible impacto del incremento en precios en el consumo.Métodos:Para el análisis de precios aplicamos un modelo de datos panel con tres escenarios y un modelo de series de tiempo interrumpidas. Para la estimación del posible impacto del incremento en precios en el consumo desarrollamos escenarios de elasticidad y tasas de impuesto. En ambos casos usamos información pública del INEGI.Resultados:Del análisis de precios, los resultados indican que la industria transfirió el impuesto al precio en las botanas en su totalidad. Asimismo muestran que el impuesto vigente de 2014 a 2016 generó una disminución moderada del consumo. Las estimaciones del impacto en el consumo indican que una mayor tasa impositiva generaría mayores disminuciones de consumo y que la medida impositiva sería más efectiva si las demandas son elásticas.Conclusiones:Los resultados proporcionan información para replantear el nivel de tasa impositiva y alertar sobre la necesidad de evaluar la estrategia en su conjunto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">607/942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Los encargados de políticas públicas ambientales han pasado por alto la relevancia de los ecosistemas urbanos, a pesar de que estos ecosistemas son particularmente importantes para la provisión de servicios que benefician directamente la salud, seguridad y recreación de las personas. La valoración económica de los ecosistemas urbanos es útil para informar los análisis costo-beneficio —que son urgentes en ciudades de países en desarrollo ya que son las que contienen los bosques periurbanos más deteriorados. En este documento, se estima el valor recreativo del Parque Natural Desierto de los Leones y del Parque de los Dinamos— ambos, sitios recreativos periurbanos localizados en la periferia de la Ciudad de México.Métodos:Se implementa el método del costo del viaje. Este método estima el valor de uso de un sitio recreativo al inferir la demanda anual de viajes al lugar. La demanda se ha estimado mediante un Modelo de Conteo en su versión de Clases Latentes, lo cual permite controlar por la heterogeneidad en preferencias evidenciada por la presencia de una proporción de visitantes que concurren los lugares recreativos frecuentemente.Resultados:El Desierto de los Leones recibe dos tipos de visitantes. Cada tipo de visitante asigna a cada viaje un valor recreativo de 33 dólares (del 2008) y 12 dólares (del 2008), respectivamente. El valor recreativo ponderado del Desierto de los Leones es de 223 dólares (del 2008) anuales por persona. El Parque de los Dinamos es visitado por tres tipos de visitantes. Un tipo de visitante representa un tercio de los visitantes totales, y no parece responder a cambios en costos de viaje. El segundo y tercer tipos de visitantes asignan valores recreativos de, respectivamente, 2 dólares y 6 dólares por viaje. El valor recreativo ponderado del Parque de los Dinamos es de 158 dólares (del 2008) anuales por persona.Conclusiones:Sugerimos interpretar las estimaciones reportadas como cotas mínimas del valor recreativo de los parques bajo estudio. Esto, debido a que, durante los últimos años, la Ciudad de México se ha expandido aún más, su población se ha incrementado, y las condiciones económicas de los habitantes han mejorado en promedio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">608/943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Existe una amplia diferencia en el costo total de los avances en efectivo que se ofrecen en Chile. Un escaso conocimiento del costo total de los avances en efectivo indica un consumidor vulnerable que puede ser incapaz de estar al tanto de cuándo y con cuál institución financiera adquirir un avance en efectivo.Metodología:Este trabajo busca averiguar las características de los consumidores y de las instituciones financieras que pueden estar relacionadas a un mayor o menor conocimiento del costo total pagado en los avances en efectivo.Resultados:Los resultados de una regresión logística jerárquica muestran que el bajo conocimiento del costo total pagado en los avances en efectivo está asociado a segmentos de consumidores que no usan el costo total del avance en efectivo como señal de calidad, los consumidores de mayor edad, las mujeres y los que no son clientes de la institución financiera que ofrece el avance en efectivo. Los resultados también sugieren que la publicidad del costo total pagado en los avances en efectivo es sólo efectiva para los consumidores con un bajo uso del costo total pagado como señal de calidad (efecto interacción). Las otras variables examinadas no fueron significativas.Conclusiones:Este artículo muestra que el bajo conocimiento en el costo total pagado en los avances en efectivo no es homogéneo entre los consumidores y las instituciones financieras que ofrecen estos avances en efectivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609/944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Una de las contribuciones más sobresalientes de la teoría estructuralista es la hipótesis de la devaluación contractiva. La misma fue desarrollada en un contexto de tipos de cambios fijos o semifijos y poca movilidad de capitales. Aunque la literatura ha incorporado nuevos problemas como los efectos “hoja de balance”, aún no se han examinado los problemas que la hipótesis plantea para la administración de un régimen de metas de inflación.Métodos:Analizamos las condiciones de estabilidad de un modelo estilizado, cuyas ecuaciones describen economías como las de América Latina, combinando los efectos contractivos de la devaluación con reglas de política monetaria.Resultados:En presencia de efectos contractivos de la devaluación existen efectos desestabilizadores asociados a los movimientos del tipo de cambio. La estabilidad es más probable si el Banco Central renuncia a estabilizar el producto. Las políticas de acumulación de reservas incrementan la probabilidad de obtener un sistema estable.Conclusiones:El carácter contractivo de la devaluación dificulta el manejo de la política monetaria bajo un esquema de metas de inflación. Las políticas que regulan los flujos de capitales, junto con la intervención cambiaria, pueden jugar un papel relevante en la administración exitosa de dicho régimen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">610/945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Una herramienta que ha sido ampliamente usada para identificar el estado que guardan las condiciones financieras en un país son los índices de condiciones financieras. Éstos sintetizan la información de diferentes variables en un solo indicador, lo que permite identificar el comportamiento general de las condiciones financieras de manera oportuna y condensada.Metodología:Construimos y analizamos, mediante la metodología de componentes principales, un índice de condiciones financieras (ICF) para México. Para ello incluimos 30 variables relacionadas con el comportamiento de los mercados financieros, clasificadas en nueve grupos: tasas de corto y largo plazos; mercado cambiario, mercado bursátil, mercado de derivados y mercado crediticio; primas de riesgo; deuda privada; y expectativas de inflación.Resultados:Los resultados muestran que este ICF capta adecuadamente momentos de astringencia en los mercados financieros en México, como la crisis financiera de 2008-2009, la crisis en Europa a mediados de 2011, el inicio de la discusión del retiro del estímulo monetario en los Estados Unidos en la segunda mitad de 2013, entre otros.Conclusión:El ICF propuesto para México funciona como herramienta para monitorear la evolución del estrés financiero e identificar en qué componentes de los mercados financieros existen señales de astringencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">611/946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:El uso de instrumentos derivados como política corporativa de cobertura de riesgos financieros genera un impacto positivo en el valor de la empresa. Sin embargo, en países caracterizados por una débil protección legal al inversionista y alta concentración de la propiedad, como es el caso de Chile, los accionistas mayoritarios pudiesen utilizar esta política para extraer riqueza a los accionistas minoritarios.Método:Haciendo uso del Método Generalizado de los Momentos (GMM), este trabajo analiza un panel de 133 empresas no financieras que cotizan en la Bolsa de Comercio de Santiago de Chile, entre los años 2008 y 2013.Resultados:Los resultados indican una relación positiva y estadísticamente significativa entre el uso de instrumentos derivados y valor de la empresa. No obstante, esta evidencia se condiciona cuando el(los) principal(es) accionista(s) posee(n) el control de la compañía. Si el accionista principal o los tres accionistas más importantes concentran más de 67% de la propiedad, entonces la relación entre monto de derivados utilizados y valor de la firma es negativa.Conclusiones:Al analizar la dinámica entre la concentración de la propiedad y el uso de instrumentos derivados, encontramos que el principal y los tres accionistas más importantes, al alcanzar la súper mayoría de votos, utilizan los derivados para resguardar su propia riqueza, estrategia que es valorada negativamente por el mercado y que entrega evidencia en favor de la hipótesis de redistribución de riqueza entre los accionistas controladores y los minoritarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658/1009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El cúmulo de reformas implementadas y en proceso desde el año 2005 en Uruguay tiene un carácter estructural y conforma un cambio sustancial de las reglas de juego generales de la economía y de la sociedad uruguaya. Adicionalmente, el soporte organizacional imprescindible para que esa nueva estructura de incentivos opere efectivamente ha conducido a una reestructuración en múltiples áreas de la institucionalidad del Estado.Se hace necesario explicar por qué fue factible en Uruguay desplegar un conjunto tan relevante de reformas profundas en un corto lapso. Se aplica un enfoque de economía institucional para describir las transformaciones organizacionales y para entender cómo la institucionalidad política y el proceso de diseño e implementación afectan los resultados de las políticas públicas, además de comprender cómo esta implementación altera las condiciones y las reglas del juego original, así como el papel, los incentivos y el poder relativo de sus principales jugadores. Las reformas que apuntaron a generar nuevas estructuras de incentivos y una institucionalidad acorde para su cumplimiento tienen en su base un enfoque político-ideológico acerca del papel del Estado. Mitigar las asimetrías de información y la desigual distribución de poder económico demandan un papel compensatorio desde el aparato estatal. En la medida en que la discrecionalidad da paso a estructuras de estímulos e incentivos predeterminadas, el manejo clientelístico y elitista del poder da paso al acceso más democrático, transparente y abierto a reglas mejor especificadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659/1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Investigaciones recientes muestran que en México el color de piel es relevante para resultados de vida y para la movilidad social. Un canal de transmisión es la discriminación explícita. Otro posible canal supone que sean menores el esfuerzo y las aspiraciones de personas sujetas a estereotipos negativos por su color de piel. Ya que la sociedad valora ciertos rasgos físicos (identidad social), los individuos afectados pueden modificar su conducta y ajustar sus expectativas.Método:Realizamos un experimento de campo con estudiantes en secundarias de la Ciudad de México. Cada estudiante resolvió una prueba para medir habilidades cognitivas y un cuestionario sobre aspiraciones futuras. El diseño experimental consistió en revelar información de manera aleatoria antes de realizar la prueba. El grupo de control no recibió ninguna información. El tratamiento 1 recibió 12 imágenes de personajes públicos con tez clara antes de la prueba, el tratamiento 2 recibió una paleta de colores para autoevaluar el tono de piel, y el tratamiento 3 recibió ambas, el mosaico de imágenes y la paleta de colores.Resultados:Los resultados señalan que la identidad social y los estereotipos de color de piel afectan las aspiraciones y el desempeño de los jóvenes en México. El grupo que recibió la intervención, invocando la identificación social por tono de piel y su posible relación con resultados de vida, presentó un menor nivel de aspiraciones hacia el futuro (0.26 desviaciones estándar), comparado con los estudiantes en el grupo de control. Estos efectos provienen de las mujeres, lo que sugiere que son más sensibles al efecto negativo de los estereotipos.Conclusiones:Los resultados implican que aspectos culturales en la sociedad mexicana afectan el modo en que los jóvenes se comportan y toman decisiones. Por tanto, diferencias en resultados de vida y movilidad social en México para individuos similares, pero con tonos de piel distintos, también podrían explicarse por la existencia de estereotipos de color de piel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660/1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:En este trabajo se analiza el papel de la trayectoria nutricional y las habilidades no cognitivas en el abandono escolar y la repetición en enseñanza media en Uruguay. Varios trabajos han dado cuenta de la relevancia que a lo largo del ciclo de vida tienen los desempeños en la primera infancia y del papel que juegan las intervenciones tempranas (Behrmanet al.,2009; Conti y Heckman, 2012; Daelmanset al.,2016). En los países en desarrollo muchos trabajos han analizado cómo se asocia la situación nutricional con el resto de los desempeños vitales y, en particular, con los escolares (Behrman y Wolfe, 1987). Sin embargo, el papel de las habilidades no cognitivas ha sido escasamente abordado.Métodos:Se trabajó con dos olas de un panel de niños que cursaban primer año de enseñanza primaria en escuelas públicas en 2004. Los adolescentes estudiados estuvieron expuestos durante los primeros años de vida a una aguda crisis económica (1999-2003). Para las estimaciones de la probabilidad de repetir, se explota la naturaleza longitudinal de la fuente de datos aplicando efectos fijos. En el caso del abandono del sistema escolar las estimaciones se realizan por Mínimos Cuadrados Ordinarios (MCO) y Mínimos Cuadrados en dos Etapas (MC2E). En este último caso se corrigen los problemas de endogeneidad por considerar como variable explicativa del abandono los eventos previos de repetición del adolescente.Resultados:Se encontró que la talla para la edad y el ingreso del hogar al inicio del ciclo primario son fuertes predictores de la repetición. Un mal desempeño en las escalas psicométricas del cuestionario de fortalezas y dificultades (SDQ, por sus siglas en inglés) (síntomas emocionales, problemas de conducta, hiperactividad y actitud prosocial) se correlaciona con haber experimentado algún episodio de repetición. A la vez, ésta predice fuertemente el abandono.Conclusiones:Estos hallazgos se encuentran en línea con la literatura que sostiene que el desarrollo en etapas tempranas condiciona los desempeños en la adolescencia. Se encuentra una fuerte inercia en las condiciones de partida de los adolescentes, lo que sugiere la necesidad de apoyar a los hogares con intervenciones desde las edades tempranas como una manera de acompañar todo el ciclo vital. Identificar la configuración de privaciones iniciales que condicionan el desempeño educativo constituye un insumo para el diseño de las políticas de combate contra la privación presente y futura. Los hallazgos también reafirman la importancia de lograr una mayor comprensión de la forma en que interactúan la repetición escolar y el abandono, con el propósito de abatir las altas tasas de abandono escolar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661/1013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:La inversión es clave para analizar el crecimiento de una economía, porque aumenta su capacidad productiva, por ampliación del capital o incorporación de nueva tecnología que hace más eficiente el proceso productivo. En Uruguay, la inversión se ha incrementado sustancialmente en los últimos años, tanto global como sectorialmente. Esto habría ocurrido como resultado del fuerte crecimiento en el periodo, con políticas gubernamentales de promoción de inversiones. El impacto de la inversión en el crecimiento y el empleo han sido estudiadas en profundidad, con resultados empíricos que apoyan que la inversión precede el crecimiento, como la causalidad inversa.Métodos:A través de un modelo de vectores con corrección de error (VECM por sus siglas en inglés) se analiza el PIB sin actividad primaria, la inversión y el empleo urbano en Uruguay.Resultados:Con base en este modelo, observamos que hay una relación positiva entre el PIB y las otras dos variables, y que en ella el PIB precede tanto a los trabajadores urbanos como a la inversión.Conclusiones:La relación entre el empleo y la inversión no es tan clara y, en algunos casos, parece ser negativa, lo que podría estar mostrando un fenómeno de inversión ahorradora de trabajo, o inversión en sectores menos intensivos en mano de obra. Uruguay, como una pequeña economía abierta depende de la IED para aumentar la inversión, y este tipo de inversión es atraído sobre todo por altas tasas de crecimiento económico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662/1014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Se contrasta la hipótesis de existencia de una prima salarial con el uso de computadora en el trabajo. Hasta ahora la mayoría de los estudios se han enfocado en países desarrollados y muy pocos en países en desarrollo.Métodos:Se estiman ecuaciones salariales con efectos mixtos que incorporan características de trabajadores y empleadores que controlan la heterogeneidad regional de los mercados laborales. También se utiliza un método alternativo para calcular las diferencias salariales mediante técnicas de emparejamiento.Resultados:La evidencia, con información de 2006 y 2014, es favorable a la hipótesis. Las estimaciones más modestas indican una prima entre 17 y 19% para los usuarios más intensivos.Conclusiones:La aceptación significa que la computadora es parte del cambio tecnológico que aumenta la productividad, lo que incentiva a empleadores a pagar una prima a los trabajadores habilitados. Indica, además, para el país la importancia de reducir la brecha digital tanto en trabajadores capacitados como en empresas que adopten la tecnología.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663/1015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Se ha documentado que la persistencia de la inflación en México ha experimentado un comportamiento inestable a lo largo del tiempo en la distribución de la media condicional. Sin embargo, su comportamiento no ha sido explorado en sus cuantiles condicionales.Métodos:Este estudio determina los periodos en que la persistencia de la inflación en México presentó un cambio estructural en su distribución, usando el método de regresión cuantílica. Adicionalmente, el artículo examina para cada uno de los periodos encontrados si la inflación sigue un comportamiento estacionario, valiéndose de la prueba cuantílica de Kolmogorov-Smirnov; además estima la persistencia de los choques a la inflación y analiza si la inflación se encuentra convergiendo hacia la meta de inflación de largo plazo de 3% impuesta por el Banco Central.Resultados:Los episodios encontrados coinciden con periodos en los que las políticas económicas de México experimentaron cambios drásticos que alteraron el proceso de formación de precios. La evidencia indica que los choques a la inflación presentan un comportamiento asimétrico, pues mientras los choques negativos de magnitud alta se desvanecen de manera rápida, los choques positivos de magnitud alta se caracterizan por tener un efecto duradero. La inflación convergió en un proceso estacionario en todos sus cuantiles condicionales bajo el régimen de objetivos de inflación. Además, a partir de 2009 no se puede rechazar estadísticamente que la inflación general ajustada por efectos estacionales se encuentre dentro del rango de variabilidad de ± 1% del objetivo de largo plazo de la inflación ubicado en 3%.Conclusión:La regresión cuantílica es una herramienta estadística útil y conveniente para analizar la persistencia de la inflación. Particularmente, da una idea clara acerca de los periodos en los cuales la persistencia en la inflación cambió y del impacto de los choques a la inflación en un cuantil específico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">664/1016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:El Fondo de Aportaciones para la Infraestructura Social (FAIS), instituido a partir de 1998, es una transferencia condicionada que distribuye el gobierno federal mexicano entre los estados y municipios para reducir la pobreza. La fórmula de asignación usada hasta 2013 distribuía este fondo de acuerdo con la pobreza relativa de cada estado en relación con la nacional. Este diseño no generaba los incentivos adecuados para reducir la pobreza.Métodos:Con base en un modelo agente-principal, y considerando explícitamente la asimetría de información entre los órdenes de gobierno federal y subnacional, en este artículo se propone una fórmula de asignación del FAIS, que tiene dos características fundamentales: se distribuye con base en la pobreza relativa de los estados/municipios; y contiene un componente para evitar el incentivo perverso de la fórmula de distribución que se usó hasta 2013.Resultados:Se diseña un mecanismo que se usa como fundamento teórico en la construcción de una fórmula para distribuir la transferencia.Conclusiones:Para lograr el impacto deseado de los programas gubernamentales que se financian con transferencias federales es importante diseñar e implementar mecanismos que alineen los incentivos de los diferentes niveles de gobierno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">676/1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Se revisan las expectativas asociadas al Tratado de Libre Comercio de América del Norte (TLCAN) en lo comercial y en la atracción de inversión extranjera directa (IED). La literatura de la década de 1990 establecía que el TLCAN promovería el comercio, la inversión extranjera y el acceso a la tecnología de punta.Método:Tomamos 46 actividades que agrupan todas las ramas industriales (cuatro dígitos) en 15 subsectores a tres dígitos y 31 ramas individuales a cuatro dígitos, desde el Censo Económico de 2014. Se estiman la importancia del valor agregado asociado a la taxonomía de Pavitt (1984) en cuatro grupos de naturaleza tecnológica y también las exportaciones desde esos grupos. Mediante la técnica de análisis declusterdicotómico se hace la distinción entre estados de acuerdo con el grado de actividades con presencia tecnológica.Resultados:El principal resultado es que hay dos tipos de entidades cuyo desempeño en el desarrollo de actividades de base tecnológica se traduce también en capacidad de exportar. Esto es, que los estados con estructuras industriales menos sesgadas y con mayor presencia de industrias de base tecnológica logran un mejor desempeño exportador. El impacto del TLCAN en favor de las actividades de innovación de largo aliento ha sido limitado.Conclusiones:Se destaca la limitada influencia del TLCAN sobre el desarrollo de capacidades tecnológicas en el país. Se observa un rezago permanente de la inversión en investigación y desarrollo (I&amp;amp;D) y el producto interno bruto (PIB) manufacturero privilegia las industrias relativamente maduras dejando también rezagadas a las de base tecnológica. Esto a pesar de que los estados con mayor inclinación por las actividades tecnológicas tienen un mejor desempeño económico y de exportaciones. Los estados que destacan son los de la frontera norte, los del centro del país y algunos del Bajío.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279/1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Este trabajo estudia el efecto de la variabilidad de los ingresos fiscales —inducidos por volatilidad en precios de productos relacionados con recursos naturales— sobre el ahorro público en el caso de economías dependientes de recursos naturales.Metodología:Se utiliza un modelo teórico que extiende el trabajo de Van der Ploeg y Venables (2011). Posteriormente, se realiza un estudio econométrico con datos de paneles de dos muestras de datos distintas. Se encuentra evidencia a favor de la hipótesis planteada.Resultados:Se encuentra que a mayor varianza en ingresos fiscales mayor debe ser el nivel de activos netos del fisco, debido a razones de ahorro precautorio.Conclusiones:La volatilidad de ingresos fiscales en países expuestos acommoditieslleva a los gobiernos a realizar ahorro precautorio y a tener mayores niveles de ahorros fiscales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310/1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:El presente artículo calcula la productividad laboral al nivel más desagregado posible para 150 actividades industriales de 28 países de diferentes ámbitos geográficos y niveles de desarrollo para periodos recientes. Se plantea responder dos interrogantes centrales: ¿existe un bono estructural en el crecimiento de la productividad laboral en la industria a nivel global? y, en caso de haberlo, ¿en qué países o sectores se produce?Método:Mediante una técnica de tiposhift-share,utilizada por otros estudios empíricos similares, se descompone la evolución del indicador en efectos estructurales de reubicación del empleo y en un componente intrínseco asociado al cambio tecnológico y organizativo en el interior de cada actividad.Resultados:El principal resultado es confirmar la inexistencia de forma agregada de un bono estructural en el crecimiento de la productividad laboral en la industria a nivel global. Cuando los efectos estructurales tienen un peso significativo en la evolución del indicador, el hecho parece estar relacionado con el desarrollo de estructuras atrasadas o con patrones productivos sumamente especializados. Asimismo, la evidencia estadística muestra el mayor dinamismo internacional en términos de eficiencia de las actividades químicas y automotrices.Conclusiones:La innovación y la emergencia de nuevos sectores han desencadenado una transformación estructural cuyas posibilidades se han visto parcialmente bloqueadas, en especial en países en vías de desarrollo, tanto por la escasa difusión de las innovaciones como por la incapacidad de los sectores más dinámicos para incrementar su participación en el empleo total.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322/1004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:La incertidumbre que enfrentan las familias mexicanas sobre sus ingresos futuros y las expectativas sobre la política de inclusión financiera mantienen el foco de atención en los estudios del financiamiento del consumo. Caracterizar el comportamiento del ahorro y el crédito de los hogares es fundamental en la estrategia de desarrollo financiero.Método:Apoyado en un panel sintético, este artículo modela en forma semiparamétrica los perfiles de ahorro y pago de deuda de las familias a lo largo del ciclo de vida.Resultados:Se muestra que el inicio de la vida familiar depende en mayor proporción del crédito, mientras que al final existe un perfil de ahorro elevado, sostenido y distinto a la reducción predicha por el modelo del ciclo de vida. Capital humano e ingresos explican las principales disimilitudes en los patrones de financiamiento de los hogares.Conclusiones:Los resultados evidencian la persistencia de grandes desigualdades en el proceso de financiamiento; con ello, se plantea la urgencia de la educación financiera e incentivos efectivos para la promoción del ahorro en la estrategia de inclusión del país.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">342/1005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introducción:Esta investigación examina la relación entre el uso de energía (UEN) y la formación bruta de capital (FBC) fijo con la tasa de crecimiento del producto interno bruto (PIB) en 73 países. Los países se agrupan con la clasificación del Banco Mundial sobre el ingreso: alto (30 países), medio alto (21 países) y medio bajo (22 países); se excluyen los países con nivel de ingreso bajo dado que no existen datos suficientes. La razón por la que se incluye la FBC es para ver cómo influye ésta en conjunción con el UEN en el crecimiento del PIB, ya que la FBC considera maquinaria y bienes de equipo que requieren energía.Métodos : Se realizan pruebas de raíz unitaria y de cointegración de datos de panel, así como estimaciones de mínimos cuadrados ordinarios totalmente modificados (FMOLS) y mínimos cuadrados ordinarios dinámicos (DOLS) de datos de panel.Resultados:Los hallazgos empíricos son que el crecimiento del PIB es explicado por el UEN y la FBC a corto y largo plazos, excepto para el grupo con ingreso medio-alto, en el que a corto plazo el UEN no es significativo, mientras que la FBC sí lo es. También, en todos los grupos, a largo plazo, la FBC es explicada por el crecimiento del PIB y el UEN. Se destaca que en todos los grupos, a corto plazo, no existe relación causal entre el UEN y la FBC. Sorprendentemente, las economías con ingreso alto y medio-bajo presentan resultados similares. Por último, con una reclasificación como productores y no de petróleo para los primeros, a corto plazo, el crecimiento económico tiene una relación unidireccional hacia el UEN y la FBC, mientras que a largo plazo no hay relación alguna. Por el contrario, para los países no productores de petróleo, a corto y largo plazos, el crecimiento del PIB tiene una relación bidireccional con la FBC; sin embargo, a corto plazo sólo el UEN es explicado por el crecimiento económico.Conclusiones:Las diversas relaciones, a corto y largo plazos, obtenidas entre el UEN, la FBC y el crecimiento económico que empíricamente se encontraron proporcionan elementos sustanciales para el diseño de la política energética en 73 países.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">349/1006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:El modelo canónico del mercado de trabajo (Acemoglu, 2002), con dos grupos de mano de obra cualificada que realizan dos tareas distintas e imperfectamente sustituibles, ha demostrado ser incapaz de explicar algunas características del mercado de trabajo. Se evalúa si hay suficientes evidencias que respalden la hipótesis de que existe una polarización en el caso del mercado laboral colombiano.Métodos:Se utilizan descripciones de ocupaciones para construir intensidades de tareas relacionadas con el uso de la tecnología y se las pone en correspondencia con series de secciones representativas de encuestas aplicadas en los hogares para evaluar hasta qué grado la reasignación de trabajadores por medio de ocupaciones que requieren diferentes intensidades de tareas es consistente con la hipótesis de la polarización.Resultados:Se encontró un incremento del empleo en los extremos de la distribución de los salarios y/o las ocupaciones cualificadas, particularmente pronunciado en el periodo en el que aumentó la disponibilidad de tecnologías, y los precios de éstas disminuyeron considerablemente.Conclusiones:En general, los resultados aportan evidencia a favor de la hipótesis de la polarización del mercado laboral en Colombia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542/1007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Siguiendo a Kaldor (1978) y a Thirlwall (1979), McCombie (1985) propone un supermultiplicador de las exportaciones en el que éstas afectan positivamente a los componentes de la demanda agregada en el contexto de una economía restringida por la balanza de pagos. En este artículo demostramos que elstockneto de capital también ejerce un efecto supermultiplicador que, a diferencia del anterior, es independiente del valor de la elasticidad ingreso de la demanda de importaciones.Método:Desarrollamos un modelo teórico en el que, dados los niveles de las exportaciones y delstockneto de capital, el nivel de ingreso se ajusta para equilibrar la balanza comercial. Asimismo, realizamos estimaciones econométricas mediante la técnica de efectos fijos usando paneles no balanceados con el fin de calcular las elasticidades del producto interno bruto (PIB) y de la producción para el mercado doméstico con respecto a las exportaciones y alstockneto de capital. Utilizamos datos correspondientes a seis países latinoamericanos para el periodo 1951-2015 y para los subperiodos antes y después de la liberalización económica.Resultados:Tanto el PIB como la producción para consumo doméstico exhiben una mayor elasticidad respecto a la acumulación neta de capital que en relación con las exportaciones.Conclusiones:La acumulación de capital puede afectar positivamente a la balanza comercial mediante la creación de capacidad productiva y la sustitución de importaciones. En consecuencia, tal como lo postuló Hicks (1950), la acumulación tiene un efecto supermultiplicador al permitir el incremento del resto de la demanda agregada, independientemente del valor de la elasticidad ingreso de la demanda de importaciones. El supermultiplicador de las exportaciones (McCombie, 1985) sólo es válido si la elasticidad ingreso de la absorción total de bienes y servicios es menor que la unidad. Además, si la elasticidad ingreso de la demanda de importaciones es mayor que la unidad, un incremento de las exportaciones implica la necesidad de reducir otros componentes de la demanda agregada con el fin de mantener el equilibrio dinámico de la balanza de pagos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">627/1008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">716/1018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:la categoría “clase media” no tiene un significado único y consistente. La complejidad de su abordaje en términos conceptuales y metodológicos, similar al de la pobreza, la ubican desde diversas disciplinas como uno de los aspectos conceptuales sin consenso en la literatura. Se realiza una revisión comprehensiva de la literatura, con énfasis en las metodologías multidimensional y unidimensional del ingreso y se identifican áreas de no consensos en umbrales y dimensiones utilizadas.Metodología:se realiza la identificación de la clase media mexicana desde una perspectiva multidimensional, consistente con el método de medición multidimensional de la pobreza del Coneval (2009), según el cual el ingreso es condición necesaria pero no suficiente de seguridad y no vulnerabilidad. Se construyen clases latentes con base en los indicadores de derechos y bienestar de Coneval que identificaron la proporción de población en clases medias. Se obtienen cinco categorías: población en pobreza multidimensional, población vulnerable por ingreso, población vulnerable por carencias sociales, clases medias y población rica.Resultados:entre los principales hallazgos se encuentra evidencia de que México sigue siendo un país de pobres, más que de clases medias. La cantidad de personas en condición de pobreza es 2.3 veces mayor que lo que representa la clase media; por lo tanto, el estatus y las condiciones de vida garantes de la seguridad y no vulnerabilidad económica, características de la clase media, sólo se garantizan para poco más de un cuarto del total de la población, 27.5%. El artículo presenta resultados sobre la evolución de la clase media, la cual crece entre 2000 y 2006, hasta antes de la crisis alimentaria y económico-financiera de 2006 y 2008, pero nunca llega a niveles superiores a 50%. Tras la crisis, comienza nuevamente su descenso a niveles similares a los de 1994, condición que muestra su vulnerabilidad ante situaciones de crisis oshocks .Conclusiones:el artículo concluye que la sostenibilidad de las clases medias en el tiempo depende tanto de políticas públicas efectivas y eficientes de combate a la pobreza, como de políticas dirigidas a las denominadas clases medias, lo cual en México y países de América Latina no existe. Ello implica que las más amplias capas de población, de la misma manera que en los países desarrollados, tengan acceso a un salario mínimo digno que garantice el bienestar, servicios efectivos de salud adecuados, educación de calidad, acceso al mercado de créditos y el sistema financiero, así como pensiones adecuadas y dignas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259/1019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:la cadena de valor global (GVC, por sus siglas en inglés) es un enfoque muy recurrido para analizar los cambios en la geografía productiva en el sector de autopartes. Con este enfoque, determinadas regiones tienen poder de decisión en la coordinación de actividades productivas y de innovación tecnológica. Como este modelo espacial es dinámico, es posible cambiar el estatus inicial de una región dentro de la GVC. Este artículo tiene como objetivo analizar las claves de la evolución de México en el sector de autopartes bajo la perspectiva de la GVC y pone el foco en el desarrollo de las empresas domésticas y en el papel de las instituciones.Metodología:se combina un análisis cuantitativo y cualitativo para comparar variables clave de las empresas domésticas e instituciones de una región mexicana (el Bajío) con las de una región de España, con un estatus intermedio dentro de la GVC (región noroeste).Resultados:el grado de multinacionalización de las empresas mexicanas, entendido como la presencia de multinacionales domésticas líderes en el sector, es muy bajo comparado con el de las empresas españolas. Además, las empresas mexicanas presentan actividades con menor valor añadido y complejidad, y son mayoritariamente proveedores simples de componentes o materias primas no posicionadas en los primeros niveles de suministro de la GVC. Esto merma la innovación tecnológica y repercute en una escasa diversificación en conocimiento de la región mexicana, con competencias y capacidades comparativamente más simples.Conclusiones:la multinacionalización y la capacidad de innovación tecnológica de las empresas domésticas son clave para que México evolucione en la GVC del sector. En la medida en que las instituciones públicas mejoren el desempeño de algunas de las infraestructuras de innovación y el fomento de las políticas públicas hacia la multinacionalización y la innovación tecnológica de las empresas domésticas, se favorecerá la evolución de México dentro de la GVC del sector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311/1020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:como estrategia encaminada a conservar la energía y reducir las emisiones de gases de efecto invernadero (GEI), se ha utilizado de manera intensiva la política de cambio de horario de verano (DST por sus siglas en inglés). En lo que respecta a Argentina, las experiencias más recientes con el horario de verano tuvieron lugar durante el periodo de verano austral de 2007-2008 y de 2008-2009, al término del cual se optó finalmente por desechar la política. Sin embargo, los beneficios que trajo el horario de verano y la proporción de los ahorros energéticos (potenciales) aún constituyen factores por considerar en el marco de la discusión en curso que se sostiene en un país donde los subsidios al consumo de energía implican una pesada carga fiscal.Metodología:por medio de la técnica de diferencia en diferencias (DID), la cual aprovecha a fondo los elementos inherentes a la naturaleza cuasiexperimental del programa implementado, empleamos datos obtenidos en intervalos de una hora para el periodo 2005-2010, ubicándonos a nivel provincial, y estimamos el impacto del DST sobre el consumo de electricidad y la demanda pico.Resultados:la aplicación del cambio de horario de verano significó un incremento del consumo total de electricidad de 0.4 a 0.6%, aunque a la vez trajo consigo un descenso a escala nacional de la demanda pico de 2.4 a 2.9%. En términos monetarios, representó costos de generación extra que ascendieron a 10.9 millonesUSD y 18 millones USD durante los veranos de 2007-2008 y 2008-2009, respectivamente. Por último, la aplicación del cambio de horario de verano provocó en dichos periodos un aumento en las emisiones de agentes contaminantes del aire.Conclusión:no deja de ser cuestionable el fundamento para la aplicación del DST. Considerados en términos del consumo energético y la demanda pico, los frutos obtenidos por esta política parecen ser de lo más dispares, al menos a juzgar por las últimas experiencias registradas en Argentina. En ese sentido, lo más razonable parece ser un estudio caso por caso, y este trabajo representa una pieza más de evidencia empírica que contribuye al debate aún abierto sobre este tema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316/1021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:Chile ha sido un caso paradójico en su cometido económico en las últimas décadas. Aunque este país implementó importantes reformas de modernización pro mercado, tiene una tasa de participación femenina inesperadamente baja, por lo que se desaprovecha una fuente importante del crecimiento económico. Diversos estudios indican que la causa de esta baja participación laboral femenina en Chile es una baja conciliación entre familias y el mercado laboral. Esta es una lección importante para otras economías en desarrollo que deseen implementar reformas similares.Metodología:en este artículo estimamos un modelo de equilibrio general con econometría bayesiana para cuantificar los efectos de la conciliación familiar y el trabajo a nivel agregado, por el efecto de los jardines infantiles.Resultados:las estimaciones econométricas indican que hay importantes ganancias si aumenta la conciliación, debido a un aumento en la productividad más que a un aumento en la oferta laboral.Conclusiones:la principal consecuencia en política económica para otras economías en desarrollo o emergentes es que aumentar los niveles de conciliación tiene importantes efectos sobre la actividad, pues se superan los costos de su financiamiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">596/1022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:una característica deseable en los instrumentos de regulación ambiental es que fomenten la adopción de tecnologías de abatimiento más limpias. Es natural asumir que políticas de regulación más estrictas incentivan una mayor adopción de dichas tecnologías. Sin embargo, se ha demostrado que, bajo competencia perfecta, esto no siempre es así.Metodología:este artículo ofrece un estudio teórico sobre los incentivos de tres instrumentos de regulación ambiental (impuestos, permisos comerciables y estándares de emisión) en la adopción de una nueva tecnología de abatimiento para un oligopolio de Cournot.Resultados:al igual que en competencia perfecta, si las curvas de costo de abatimiento marginal de dos tecnologías (una más deseable que la otra) se cruzan y las firmas tienen costos de adopción diferentes, es posible que los impuestos altos, pocos permisos comerciables y un estándar de emisión pequeño (políticas estrictas) desincentiven la adopción de tecnologías nuevas.Conclusiones:al elegir un instrumento regulatorio es importante considerar la estructura de las tecnologías de abatimiento disponibles. De no hacerlo, en lugar de fomentar el uso de tecnologías más limpias, el regulador puede hacer lo contrario si las políticas son muy estrictas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399/1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:son escasas las investigaciones que examinan los patrones de comercio que exhiben los países alrededor del mundo, y lo son aún más para países en desarrollo. .A donde es factible que las empresas exporten?, ¿por qué las firmas prefieren un destino de venta en lugar de otro?, ¿qué firmas venden más una vez que exportan y cuantas de ellas comercian en los mercados foráneos? Éstas son preguntas que tienen implicaciones de política pública, tanto en el incremento en las ventas externas como en la diversificación de las exportaciones en mercados foráneos.Metodología:mediante un modelo de equilibrio parcial de firmas heterogéneas inspirado en Melitz (2003) se derivan distintas hipótesis para dar respuesta a las interrogantes. La evaluación se realiza utilizando un panel construido con información sobre los flujos comercio y datos de producción de una muestra de empresas manufactureras localizadas en México de 2004 a 2010. Cardoso-Vargas, Un análisis con firmas manufactureras localizadas en México 603Resultados:es más probable que los exportadores vendan a grandes mercados, aunque esa posibilidad se ve restringida por los costos de transporte para llegar a esos destinos: firmas con mayor productividad y tamaño tienen mayor probabilidad de exportar a más países. La selección del destino de exportación de la firma se ve influenciada por el tamaño y la productividad de la empresa, así como por la demanda en el país de destino y la experiencia exportadora en un mercado en particular. Un crecimiento de 10% en la productividad aumentaría en 4.2% la posibilidad de las firmas de elegir al mercado latinoamericano en lugar del norteamericano; con esa alza sería posible que incrementara en 2.5 o 2.4% la probabilidad de exportar a Europa o Asia, en lugar de seleccionar América del Norte. Por su parte, un incremento de 10% en la demanda externa global ocasionaría una disminución entre 2.8 y 12.2% en la probabilidad de seleccionar a otros destinos de venta con respecto al mercado norteamericano.Conclusiones:aumentos en la productividad y el tamaño de las firmas exportadoras presupondría un aumento en su nivel de ventas en el exterior. En términos de diversificación de las ventas externas, el sustituir el comercio con el mercado de Norteamérica es complicado; no obstante, los destinos más razonables serian Europa y Asia. La estrategia para ampliar las exportaciones a otros países en empresas pequeñas y medianas debería enfocarse en incrementar tanto su productividad y tamaño como en mejorar su acceso a esas áreas; para empresas más grandes, mejorar el acceso seria no solo una estrategia indispensable, sino la que muy posiblemente podría dar resultados en un menor tiempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">523/1024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:en México, las mujeres obtienen un menor salario en promedio que los hombres. Si bien la discriminación explica parte de esta brecha, en este artículo mostramos que existen otras causales que contribuyen a ella.Metodología:implementamos un experimento de laboratorio controlado con 404 personas en el que se aplican los juegos del ultimátum y la negociación salarial. El experimento consta de tres etapas: primero se realiza una negociación anónima, después se revela al contrincante con una fotografía y finalmente se realiza la negociación frente a frente. Se desea estimar si existen diferencias en preferencias por negociación entre hombres y mujeres.Resultados:primero, no se observan diferencias por género en el monto que el proponente envía al respondente en ambos tipos de juegos. Segundo, la composición de género del juego resulta relevante para estudiar el proceso de negociación. Cuando se conoce el sexo del respondente, las mujeres muestran “solidaridad” al ofrecer un mejor salario a mujeres que a hombres trabajadores. Tercero, las mujeres rechazan menos ofertas que los hombres, especialmente en el juego del ultimátum. Por último, en el juego de negociación salarial, las mujeres contraofertan menos que los hombres, además de que los hombres trabajadores negocian de manera más agresiva en contra de empresas mujeres.Conclusiones:los estereotipos de género pueden explicar estos resultados. Dichos estereotipos determinan cómo debe comportarse cada género ante diferentes situaciones sociales o asumir atributos negativos en contra de mujeres en posiciones de poder. En este sentido, cabe mencionar que los resultados son relevantes para la elaboración de políticas públicas que resalten normas sociales sobre la importancia de la equidad de género.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771/1036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes: las revistas académicas de economía pueden decirnos mucho acerca del estatus de la ciencia económica. En este artículo analizamos la presencia de las mujeres, las redes interuniversitarias y los temas que se han tratado de 2000 a 2017.Metodología:tomando datos para seis de las principales revistas arbitradas de economía en México de 2000 a 2017, analizamos tanto a los autores como los temas tratados en ellas. Utilizamos la información de esos autores para estudiar la manera en que ha evolucionado la presencia de las mujeres en estas publicaciones y para conocer las interacciones entre investigadores de distintas instituciones. Con base en los resúmenes de cada artículo analizamos las menciones de palabras clave de temas importantes para la economía mexicana y, también, para grupos en situación de vulnerabilidad.Resultados: en primera instancia observamos que las mujeres han adquirido una mayor presencia a lo largo de estos últimos 17 años, medida tanto en porcentaje de artículos al menos con una autora (un aumento de 31 p. p.) como en el porcentaje de autoras que representan a las mujeres en cada año (un aumento de 14 p. p.). En lo referente a las redes de colaboración, nuestro análisis muestra que las colaboraciones entre investigadores de diferentes instituciones son poco comunes: launamtiene su vínculo más estrecho con elipn,y con investigadores de esta institución se dan tan sólo 7.7% de sus colaboraciones. Finalmente, tanto los temas relevantes para la economía mexicana como los grupos vulnerables son mencionados con una frecuencia muy baja en los resúmenes de los artículos.Conclusiones: las publicaciones arbitradas en economía pueden mejorar. Dado que la ciencia se beneficia de la diversidad, sería deseable ver tanto a más mujeres publicando como un mayor número de colaboraciones interuniversitarias. Por otro lado, los temas abordados en las revistas científicas mexicanas de economía no están necesariamente relacionados con los principales retos económicos de México y tampoco nos ayudan a comprender mejor a los grupos en situación de vulnerabilidad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">699/1037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:el desempeño de la estructura de la economía mexicana, especialmente la de su sector manufacturero, es muy dependiente del mercado norteamericano. Las dificultades del proceso de renegociación del Tratado de Libre Comercio de América del Norte (tlcan) han alimentado la incertidumbre acerca del futuro de las relaciones comerciales entre los países participantes en el mismo. En estas circunstancias resulta indispensable evaluar los impactos potenciales sobre la economía mexicana de diferentes escenarios posibles de política comercial.Metodología:se emplea un modelo de equilibrio general aplicado (mega) como base de las estimaciones, el cual está sustentado en una matriz de contabilidad social (mcs), valuada a precios de mercado (2008). Se trata de la primera mcs con esta característica que se produce en México.Resultados:en el modelo a corto plazo, en el cual se consideran únicamente los efectos de las variaciones esperadas en los aranceles, se observa un impacto reducido en el producto interno bruto (pib) agregado y de mayor consideración en algunos sectores exportadores. En el modelo de largo plazo, que adicionalmente contempla una contracción en los montos de inversión extranjera directa (ied), las consecuencias serían de mayor magnitud, incluso a nivel global, con una caída superior a 3.5% en el pib, una contracción más significativa en las exportaciones e impactos sectoriales considerables en las actividades productivas con mayor orientación al mercado externo. Estos impactos adversos se magnifican si México responde con la imposición de aranceles de nación más favorecida (nmf) a las importaciones provenientes de los Estados Unidos.Conclusiones:si se consideran únicamente las variaciones en los aranceles, la eventual cancelación del tlcan tendría efectos económicos moderados sobre la economía mexicana, pues entrarían en vigencia los aranceles de nmf, acordados por cada país ante la omc (Organización Mundial de Comercio), los cuales, en su mayoría, son reducidos. Por desgracia, un cambio de esta relevancia puede afectar sensiblemente los flujos de la inversión extranjera directa (ied), en cuyo caso las repercusiones serían de mayor envergadura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">717/1038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:la contaminación atmosférica proveniente del transporte en las urbes y sus impactos a la salud y el bienestar de las personas son preocupaciones crecientes en la región de América Latina. Existen muy pocos análisis que esclarezcan la relación entre los niveles de ingreso y contaminación proveniente del transporte a nivel microeconómico, con un gran vacío en ciudades de países en desarrollo.Metodología:se corrió un modelo de mínimos cuadrados ordinarios (MCO) lineal, cuadrático y cúbico del modelo típico de Kuznets para conocer la relación existente entre el ingreso y las variables de contaminación atmosférica. Se construyó una base de datos con información de 2010, 2012 y 2014, con datos del Módulo de Condiciones Socioeconómicas (MCS) del Instituto Nacional de Estadística, Geografía e Informática (INEGI) para una muestra representativa de 1 582 hogares, con datos de ingreso anual e ingreso per cápita por hogar, así como sobre la ubicación del hogar, el número y modelo de los vehículos que éste posee y un estimado propio sobre distancias recorridas, para ponderar las emisiones con el modelo moves-México, que utiliza las mediciones de monitoreo atmosférico existentes en la Zona Metropolitana del Valle de México (ZMVM).Resultados:existe una relación monotónica (lineal positiva) entre el monóxido de carbono (CO) y el dióxido de carbono equivalente (CO 2 eq), y cuadrática (U invertida) para los óxidos de nitrógeno (NOx), por mucho, los menos abundantes de los tres gases.Conclusiones:inclusive a niveles de ingreso por encima de los puntos de inflexión observados en la literatura, los hogares más ricos siguen sin internalizar el costo social de contaminar. Los resultados sugieren el diseño urgente de políticas públicas que promuevan un cambio en los modos de transporte en la ZMVM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">537/1039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:las telecomunicaciones son servicios que se prestan con infraestructura de carácter multifactorial, la cual resulta relevante por su impacto sobre el desempeño económico y el nivel de vida de la población. No hay una propuesta que mida de manera exclusiva la infraestructura sectorial y que sea aplicada a nivel local, por lo que se hace necesario contar con una métrica con ese objetivo.Metodología:el estudio se estima a través del promedio ponderado de diversos indicadores, ensayando la idoneidad de la muestra mediante pruebas y técnicas de análisis multivariado, y calculando los pesos específicos de cada indicador a través de componentes principales. Además, presenta una estratificación de los mismos con base en su nivel relativo de equipamiento. Se valida la propuesta por medio de la estimación econométrica de una relación positiva y significativa con tres indicadores de progreso económico.Resultados:el índice compuesto que se estima genera una medida diseñada exclusivamente para detectar el avance o rezago en la dotación de infraestructura.Conclusiones:se aporta un índice cuantitativo para determinar la infraestructura de telecomunicaciones con que cuentan las entidades de México, el cual es útil para el diseño de políticas públicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292/1040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:la evaluación de habilidades de selectividad,market timingy liderazgo en inversiones ejercido por los multifondos dependientes de las Administradoras de Fondos de Pensiones (AFP) es un tema de particular interés para los trabajadores en Chile, en especial luego de la implementación del primer proceso de licitación de cartera de nuevos afiliados.Metodología:haciendo uso del modelo de mercado cuadrático, con ventanas móviles de tiempo, junto con pruebas de causalidad de Granger, este artículo analiza el desempeño y liderazgo en políticas de inversión de seisAFPen los cinco multifondos existentes en Chile, durante el periodo que va desde septiembre de 2010 hasta marzo de 2016.Resultados:se indica que los multifondos muestran habilidades que no alcanzan a compensar las comisiones cobradas. Sin embargo, en términos de desempeño neto de comisiones, en comparación con el promedio de la industria destacan en todos los multifondos lasAFPModelo y Habitat, respectivamente. Además, no se detecta relación entre liderazgo en inversiones y desempeño.Conclusiones:el artículo finaliza destacando la importancia de las comisiones en el desempeño neto de los multifondos y en el potencial efecto que una mayor cantidad de competidores tendría en la industria. En este sentido, destaca la AFP Modelo, la cual muestra aproximadamente 1.63% de mejor desempeño que el promedio de la industria, debido a su más baja comisión detectada en el periodo completo de análisis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">521/1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:en los últimos siete años la economía española ha tratado de reducir el ratio de déficit público-pib de 11.1% en 2009 a 3%. Este valor es un compromiso  registrado en el Pacto de Estabilidad y Crecimiento firmado por todos los países miembros de la Unión Europea (UE), que desde 2010 ha determinado las políticas económicas implementadas por el gobierno español. El propósito de este trabajo es evaluar el coste asociado a una reducción de 1.5 puntos porcentuales en la proporción de déficit público-pib en las principales variables macroeconómicas utilizando distintas políticas fiscales.Metodología:se ha empleado un modelo de equilibrio general aplicado (MEGA) estático desagregado, que incluye todos los elementos necesarios para evaluar los efectos a corto plazo de las políticas fiscales destinadas a reducir el déficit público. El modelo capta el flujo circular de la renta e incluye hogares, sociedades, gobierno y sector exterior.Resultados:se sugiere que los efectos generados por la disminución del gasto público en materia de inversión, administraciones públicas y servicios sociales son menos dañinos que los derivados de un incremento en el iva y en las tasas del impuesto sobre la renta.Conclusiones:no obstante, a pesar de estos resultados, hay que tener en cuenta que el modelo no incluye los efectos de largo plazo de la reducción de la inversión pública o de los recortes en servicios sociales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">355/1042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes:España es un país altamente descentralizado. Recientemente, el debate sobre la descentralización se ha visto reforzado por la reclamación de independencia liderada por las autoridades del gobierno de Cataluña. Además, las declaraciones de algunos políticos a favor y en contra de avanzar en el proceso de descentralización han contribuido a la polémica del debate. La asignación de infraestructura pública no es ajena a este discurso.Metodología:se especifica una ecuación no lineal que permite controlar por los criterios tradicionales para la asignación de infraestructura pública: el desarrollo regional, las necesidades especiales de infraestructura, la eficiencia o la productividad delstockde capital público y efectos políticos.Resultados:la autonomía financiera y las competencias traspasadas afectan positivamente la acumulación de infraestructura pública regional. No obstante, sus contribuciones marginales son decrecientes.Conclusiones:la evidencia empírica podría sugerir umbrales en el proceso de descentralización. Por un lado, los resultados relacionados con la autonomía financiera son mucho más fuertes para las comunidades autónomas consideradas como las más rezagadas en el proceso de descentralización fiscal. Por otro lado, el resto de las comunidades presentan resultados más fuertes respecto de la descentralización administrativa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">764/1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este trabajo se presenta un análisis preliminar del impacto de la reforma fiscal llevada a cabo al inicio del gobierno de Enrique Peña Nieto. En primer lugar se exponen las debilidades de la hacienda pública a las que se enfrentaba el nuevo gobierno, relacionadas con los ingresos —que dependían fuertemente de los recursos petroleros— y con los gastos. Debido a esas debilidades era indispensable una reforma fiscal que elevara las tasas impositivas, disminuyera la evasión y promoviera la formalización, entre otras medidas. En segundo lugar se describen los elementos centrales de la reforma presidencial y se revisan sus impactos en diversas variables. Son de especial relevancia la caída del precio del petróleo y la decisión del gobierno de mantener fijo el precio final de las gasolinas para evitar que disminuyeran sus ingresos, así como las repetidas fallas de los pronósticos de la economía que realizó. Se concluye que, aunque es insuficiente aún, la reforma fue exitosa en cuanto al aumento de la carga fiscal, el más elevado en un periodo tan corto, pues pasó de 8.4% del PIB en 2012 a 13.1% en 2017. No obstante, la reforma no evitó el uso de los remanentes de operación del Banco de México, ni el aumento de la deuda pública en casi 10 puntos del PIB.</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2758,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3179,19 +3179,16 @@
       <c r="A38" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="C38" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>2</v>
@@ -3199,10 +3196,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>2</v>
@@ -3210,10 +3207,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>2</v>
@@ -3221,10 +3218,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>2</v>
@@ -3232,10 +3229,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>2</v>
@@ -3243,10 +3240,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>2</v>
@@ -3254,10 +3251,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>2</v>
@@ -3265,10 +3262,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>2</v>
@@ -3276,10 +3273,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>2</v>
@@ -3287,10 +3284,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>2</v>
@@ -3298,10 +3295,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>2</v>
@@ -3309,10 +3306,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>2</v>
@@ -3320,10 +3317,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>2</v>
@@ -3331,10 +3328,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>2</v>
@@ -3342,10 +3339,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>2</v>
@@ -3353,10 +3350,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>2</v>
@@ -3364,10 +3361,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>2</v>
@@ -3375,10 +3372,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>2</v>
@@ -3386,10 +3383,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>2</v>
@@ -3397,10 +3394,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>2</v>
@@ -3408,10 +3405,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>2</v>
@@ -3419,10 +3416,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>2</v>
@@ -3430,10 +3427,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>2</v>
@@ -3441,10 +3438,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>2</v>
@@ -3452,10 +3449,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>2</v>
@@ -3463,10 +3460,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>2</v>
@@ -3474,10 +3471,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>2</v>
@@ -3485,10 +3482,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>2</v>
@@ -3496,10 +3493,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>2</v>
@@ -3507,10 +3504,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>2</v>
@@ -3518,10 +3515,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>2</v>
@@ -3529,10 +3526,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>2</v>
@@ -3540,10 +3537,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>2</v>
@@ -3551,10 +3548,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>2</v>
@@ -3562,10 +3559,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>146</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>2</v>
@@ -3573,10 +3570,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>2</v>
@@ -3584,10 +3581,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>2</v>
@@ -3595,10 +3592,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>2</v>
@@ -3606,10 +3603,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>2</v>
@@ -3617,10 +3614,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>2</v>
@@ -3628,10 +3625,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>2</v>
@@ -3639,10 +3636,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>2</v>
@@ -3650,10 +3647,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>2</v>
@@ -3661,10 +3658,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>2</v>
@@ -3672,10 +3669,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>2</v>
@@ -3683,10 +3680,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>2</v>
@@ -3694,10 +3691,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>2</v>
@@ -3705,10 +3702,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>2</v>
@@ -3716,10 +3713,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>2</v>
@@ -3727,10 +3724,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>2</v>
@@ -3738,10 +3735,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>2</v>
@@ -3749,10 +3746,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>2</v>
@@ -3760,10 +3757,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>2</v>
@@ -3771,10 +3768,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>2</v>
@@ -3782,10 +3779,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>2</v>
@@ -3793,10 +3790,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>2</v>
@@ -3804,10 +3801,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>2</v>
@@ -3815,10 +3812,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>2</v>
@@ -3826,10 +3823,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>2</v>
@@ -3837,10 +3834,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>2</v>
@@ -3848,10 +3845,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>2</v>
@@ -3859,10 +3856,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>2</v>
@@ -3870,10 +3867,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>2</v>
@@ -3881,10 +3878,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>2</v>
@@ -3892,10 +3889,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>2</v>
@@ -3903,10 +3900,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>2</v>
@@ -3914,10 +3911,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>2</v>
@@ -3925,10 +3922,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>2</v>
@@ -3936,10 +3933,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>2</v>
@@ -3947,10 +3944,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>2</v>
@@ -3958,10 +3955,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>2</v>
@@ -3969,10 +3966,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>2</v>
@@ -3980,10 +3977,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>2</v>
@@ -3991,10 +3988,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>2</v>
@@ -4002,10 +3999,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>2</v>
@@ -4013,10 +4010,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>2</v>
@@ -4024,10 +4021,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>2</v>
@@ -4035,10 +4032,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>232</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>2</v>
@@ -4046,10 +4043,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>2</v>
@@ -4057,10 +4054,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>236</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>2</v>
@@ -4068,10 +4065,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>2</v>
@@ -4079,10 +4076,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>2</v>
@@ -4090,10 +4087,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>2</v>
@@ -4101,10 +4098,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>2</v>
@@ -4112,10 +4109,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>2</v>
@@ -4123,10 +4120,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>248</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>2</v>
@@ -4134,10 +4131,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>2</v>
@@ -4145,10 +4142,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>252</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>2</v>
@@ -4156,10 +4153,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>254</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>2</v>
@@ -4167,10 +4164,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>256</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>2</v>
@@ -4178,10 +4175,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>258</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>2</v>
@@ -4189,10 +4186,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>260</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>2</v>
@@ -4200,10 +4197,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>262</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>2</v>
@@ -4211,10 +4208,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>2</v>
@@ -4222,10 +4219,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>2</v>
@@ -4233,10 +4230,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>2</v>
@@ -4244,10 +4241,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>2</v>
@@ -4255,10 +4252,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>272</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>2</v>
@@ -4266,10 +4263,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>2</v>
@@ -4277,10 +4274,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>2</v>
@@ -4288,10 +4285,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>2</v>
@@ -4299,10 +4296,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>2</v>
@@ -4310,10 +4307,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>2</v>
@@ -4321,10 +4318,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>2</v>
@@ -4332,10 +4329,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>2</v>
@@ -4343,10 +4340,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>2</v>
@@ -4354,10 +4351,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>290</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>2</v>
@@ -4365,10 +4362,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>292</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>2</v>
@@ -4376,10 +4373,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>2</v>
@@ -4387,10 +4384,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>296</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>2</v>
@@ -4398,10 +4395,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>2</v>
@@ -4409,10 +4406,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>2</v>
@@ -4420,10 +4417,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>2</v>
@@ -4431,10 +4428,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>2</v>
@@ -4442,10 +4439,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>2</v>
@@ -4453,10 +4450,10 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>2</v>
@@ -4464,10 +4461,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>310</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>2</v>
@@ -4475,10 +4472,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>2</v>
@@ -4486,10 +4483,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>2</v>
@@ -4497,10 +4494,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>316</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>2</v>
@@ -4508,10 +4505,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>318</v>
       </c>
       <c r="C159" s="0" t="s">
         <v>2</v>
@@ -4519,10 +4516,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>320</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>2</v>
@@ -4530,10 +4527,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>322</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>2</v>
@@ -4541,10 +4538,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>2</v>
@@ -4552,10 +4549,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>2</v>
@@ -4563,10 +4560,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>2</v>
@@ -4574,10 +4571,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>2</v>
@@ -4585,10 +4582,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>332</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>2</v>
@@ -4596,10 +4593,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>2</v>
@@ -4607,10 +4604,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>336</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>2</v>
@@ -4618,10 +4615,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>338</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>2</v>
@@ -4629,10 +4626,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>340</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>2</v>
@@ -4640,10 +4637,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>2</v>
@@ -4651,10 +4648,10 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>344</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>2</v>
@@ -4662,10 +4659,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>2</v>
@@ -4673,10 +4670,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>348</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>2</v>
@@ -4684,10 +4681,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>2</v>
@@ -4695,10 +4692,10 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>352</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>2</v>
@@ -4706,10 +4703,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>354</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>2</v>
@@ -4717,10 +4714,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>356</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>2</v>
@@ -4728,10 +4725,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>358</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>2</v>
@@ -4739,10 +4736,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>359</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>360</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>2</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>362</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>2</v>
@@ -4761,10 +4758,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>364</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>2</v>
@@ -4772,10 +4769,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>2</v>
@@ -4783,10 +4780,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>2</v>
@@ -4794,10 +4791,10 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>370</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>2</v>
@@ -4805,10 +4802,10 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>2</v>
@@ -4816,10 +4813,10 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>2</v>
@@ -4827,10 +4824,10 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>2</v>
@@ -4838,10 +4835,10 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>378</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>2</v>
@@ -4849,10 +4846,10 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>2</v>
@@ -4860,10 +4857,10 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>2</v>
@@ -4871,10 +4868,10 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>2</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>2</v>
@@ -4893,10 +4890,10 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>388</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>2</v>
@@ -4904,10 +4901,10 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>390</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>2</v>
@@ -4915,10 +4912,10 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>392</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>2</v>
@@ -4926,10 +4923,10 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>2</v>
@@ -4937,10 +4934,10 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>396</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>2</v>
@@ -4948,10 +4945,10 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>2</v>
@@ -4959,10 +4956,10 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>2</v>
@@ -4970,10 +4967,10 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>2</v>
@@ -4981,10 +4978,10 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>2</v>
@@ -4992,10 +4989,10 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>406</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>2</v>
@@ -5003,10 +5000,10 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>2</v>
@@ -5014,10 +5011,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>2</v>
@@ -5025,10 +5022,10 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>412</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>2</v>
@@ -5036,10 +5033,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>2</v>
@@ -5047,10 +5044,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>416</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>2</v>
@@ -5058,10 +5055,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>2</v>
@@ -5069,10 +5066,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>2</v>
@@ -5080,10 +5077,10 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>2</v>
@@ -5091,10 +5088,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>2</v>
@@ -5102,10 +5099,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>2</v>
@@ -5113,10 +5110,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>428</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>2</v>
@@ -5124,10 +5121,10 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>2</v>
@@ -5135,10 +5132,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>432</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>2</v>
@@ -5146,10 +5143,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>434</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>2</v>
@@ -5157,10 +5154,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>2</v>
@@ -5168,10 +5165,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>438</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>2</v>
@@ -5179,10 +5176,10 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>2</v>
@@ -5190,10 +5187,10 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>442</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>2</v>
@@ -5201,10 +5198,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>444</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>2</v>
@@ -5212,10 +5209,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>446</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>2</v>
@@ -5223,10 +5220,10 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>2</v>
@@ -5234,10 +5231,10 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>450</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>2</v>
@@ -5245,10 +5242,10 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>2</v>
@@ -5256,10 +5253,10 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>454</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>2</v>
@@ -5267,10 +5264,10 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="0" t="s">
         <v>455</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>456</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>2</v>
@@ -5278,10 +5275,10 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>458</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>2</v>
@@ -5289,10 +5286,10 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>460</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>2</v>
@@ -5300,10 +5297,10 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>2</v>
@@ -5311,10 +5308,10 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>2</v>
@@ -5322,10 +5319,10 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>2</v>
@@ -5333,10 +5330,10 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>2</v>
@@ -5344,10 +5341,10 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>2</v>
@@ -5355,10 +5352,10 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>472</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>2</v>
@@ -5366,10 +5363,10 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>2</v>
@@ -5377,10 +5374,10 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>476</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>2</v>
@@ -5388,10 +5385,10 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>478</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>2</v>
@@ -5399,10 +5396,10 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>2</v>
@@ -5410,10 +5407,10 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>2</v>
@@ -5421,10 +5418,10 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>484</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>2</v>
@@ -5432,10 +5429,10 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>485</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>486</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>2</v>
@@ -5443,10 +5440,10 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>488</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>2</v>
@@ -5454,10 +5451,10 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>489</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>490</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>2</v>
@@ -5465,10 +5462,10 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>2</v>
@@ -5476,10 +5473,10 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>2</v>
@@ -5487,10 +5484,10 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>2</v>
@@ -5498,10 +5495,10 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>2</v>
@@ -5509,10 +5506,10 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>500</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>2</v>
@@ -5520,10 +5517,10 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>502</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>2</v>
@@ -5531,10 +5528,10 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>503</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>504</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>2</v>
@@ -5542,10 +5539,10 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>2</v>
@@ -5553,10 +5550,10 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>507</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>508</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>2</v>
@@ -5564,10 +5561,10 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>2</v>
@@ -5575,10 +5572,10 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="C256" s="0" t="s">
         <v>2</v>
@@ -5586,10 +5583,10 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>514</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>2</v>
@@ -5597,10 +5594,10 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>516</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>2</v>
@@ -5608,10 +5605,10 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>518</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>2</v>
@@ -5619,10 +5616,10 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>2</v>
@@ -5630,10 +5627,10 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>521</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>522</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>2</v>
@@ -5641,10 +5638,10 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="C262" s="0" t="s">
         <v>2</v>
@@ -5652,10 +5649,10 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>526</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>2</v>
@@ -5663,10 +5660,10 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>2</v>
@@ -5674,10 +5671,10 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>530</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>2</v>
@@ -5685,10 +5682,10 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>532</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>2</v>
@@ -5696,10 +5693,10 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>534</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>2</v>
@@ -5707,10 +5704,10 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>536</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>2</v>
@@ -5718,10 +5715,10 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>2</v>
@@ -5729,10 +5726,10 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>2</v>
@@ -5740,10 +5737,10 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>541</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>542</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>2</v>
@@ -5751,10 +5748,10 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>544</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>2</v>
@@ -5762,10 +5759,10 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>546</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>2</v>
@@ -5773,10 +5770,10 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>547</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>548</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>2</v>
@@ -5784,10 +5781,10 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>549</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>550</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>2</v>
@@ -5795,10 +5792,10 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>551</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>552</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>2</v>
@@ -5806,10 +5803,10 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>553</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>554</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>2</v>
@@ -5817,10 +5814,10 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>556</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>2</v>
@@ -5828,10 +5825,10 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>557</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>558</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>2</v>
@@ -5839,10 +5836,10 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>559</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>560</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>2</v>
@@ -5850,10 +5847,10 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>562</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>2</v>
@@ -5861,10 +5858,10 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>564</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>2</v>
@@ -5872,10 +5869,10 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>2</v>
@@ -5883,10 +5880,10 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>568</v>
       </c>
       <c r="C284" s="0" t="s">
         <v>2</v>
@@ -5894,10 +5891,10 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>569</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>570</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>2</v>
@@ -5905,10 +5902,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>572</v>
       </c>
       <c r="C286" s="0" t="s">
         <v>2</v>
@@ -5916,10 +5913,10 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>574</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>2</v>
@@ -5927,10 +5924,10 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>575</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>576</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>2</v>
@@ -5938,10 +5935,10 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>578</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>2</v>
@@ -5949,10 +5946,10 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>579</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>580</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>2</v>
@@ -5960,10 +5957,10 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>581</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>582</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>2</v>
@@ -5971,10 +5968,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>584</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>2</v>
@@ -5982,10 +5979,10 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>2</v>
@@ -5993,10 +5990,10 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="0" t="s">
         <v>587</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>588</v>
       </c>
       <c r="C294" s="0" t="s">
         <v>2</v>
@@ -6004,10 +6001,10 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>589</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>590</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>2</v>
@@ -6015,10 +6012,10 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>592</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>2</v>
@@ -6026,10 +6023,10 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>594</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>2</v>
@@ -6037,10 +6034,10 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>596</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>2</v>
@@ -6048,10 +6045,10 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>598</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>2</v>
@@ -6059,10 +6056,10 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>599</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>600</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>2</v>
@@ -6070,10 +6067,10 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>602</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>2</v>
@@ -6081,10 +6078,10 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>604</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>2</v>
@@ -6092,10 +6089,10 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>606</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>2</v>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>608</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>2</v>
@@ -6114,10 +6111,10 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>2</v>
@@ -6125,10 +6122,10 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>2</v>
@@ -6136,10 +6133,10 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>613</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>614</v>
       </c>
       <c r="C307" s="0" t="s">
         <v>2</v>
@@ -6147,10 +6144,10 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>615</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>616</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>2</v>
@@ -6158,10 +6155,10 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>2</v>
@@ -6169,10 +6166,10 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="0" t="s">
         <v>619</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>620</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>2</v>
@@ -6180,10 +6177,10 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>621</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>622</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>2</v>
@@ -6191,10 +6188,10 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" s="0" t="s">
         <v>623</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>624</v>
       </c>
       <c r="C312" s="0" t="s">
         <v>2</v>
@@ -6202,10 +6199,10 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>626</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>2</v>
@@ -6213,10 +6210,10 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" s="0" t="s">
         <v>627</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>628</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>2</v>
@@ -6224,10 +6221,10 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>630</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>2</v>
@@ -6235,10 +6232,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>632</v>
       </c>
       <c r="C316" s="0" t="s">
         <v>2</v>
@@ -6246,6 +6243,9 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="0" t="s">
         <v>633</v>
       </c>
       <c r="C317" s="0" t="s">
@@ -6938,19 +6938,16 @@
       <c r="A380" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="B380" s="0" t="s">
-        <v>759</v>
-      </c>
       <c r="C380" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B381" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>761</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>2</v>
@@ -6958,10 +6955,10 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B382" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>763</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>2</v>
@@ -6969,10 +6966,10 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B383" s="0" t="s">
         <v>764</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>765</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>2</v>
@@ -6980,10 +6977,10 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B384" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>767</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>2</v>
@@ -6991,10 +6988,10 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B385" s="0" t="s">
         <v>768</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>769</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>2</v>
@@ -7002,10 +6999,10 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B386" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>2</v>
@@ -7013,10 +7010,10 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B387" s="0" t="s">
         <v>772</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>773</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>2</v>
@@ -7024,10 +7021,10 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B388" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>2</v>
@@ -7035,10 +7032,10 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B389" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="C389" s="0" t="s">
         <v>2</v>
@@ -7046,10 +7043,10 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B390" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>2</v>
@@ -7057,10 +7054,10 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B391" s="0" t="s">
         <v>780</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>781</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>2</v>
@@ -7068,10 +7065,10 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B392" s="0" t="s">
         <v>782</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>783</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>2</v>
@@ -7079,10 +7076,10 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B393" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>2</v>
@@ -7090,10 +7087,10 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B394" s="0" t="s">
         <v>786</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>787</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>2</v>
@@ -7101,10 +7098,10 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B395" s="0" t="s">
         <v>788</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>789</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>2</v>
@@ -7112,10 +7109,10 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="B396" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>791</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>2</v>
@@ -7123,10 +7120,10 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B397" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>2</v>
@@ -7134,10 +7131,10 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B398" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>795</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>2</v>
@@ -7145,10 +7142,10 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="B399" s="0" t="s">
         <v>796</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>797</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>2</v>
@@ -7156,10 +7153,10 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="B400" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>799</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>2</v>
@@ -7167,10 +7164,10 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B401" s="0" t="s">
         <v>800</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>801</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>2</v>
@@ -7178,10 +7175,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B402" s="0" t="s">
         <v>802</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>803</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>2</v>
@@ -7189,10 +7186,10 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B403" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>805</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>2</v>
@@ -7200,10 +7197,10 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B404" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>807</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>2</v>
@@ -7211,10 +7208,10 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B405" s="0" t="s">
         <v>808</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>809</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>2</v>
@@ -7222,10 +7219,10 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="B406" s="0" t="s">
         <v>810</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>811</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>2</v>
@@ -7233,10 +7230,10 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B407" s="0" t="s">
         <v>812</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>813</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>2</v>
@@ -7244,10 +7241,10 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B408" s="0" t="s">
         <v>814</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>815</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>2</v>
@@ -7255,10 +7252,10 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B409" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>817</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>2</v>
@@ -7266,10 +7263,10 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="B410" s="0" t="s">
         <v>818</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>819</v>
       </c>
       <c r="C410" s="0" t="s">
         <v>2</v>
@@ -7277,10 +7274,10 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B411" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>821</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>2</v>
@@ -7288,10 +7285,10 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="B412" s="0" t="s">
         <v>822</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>823</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>2</v>
@@ -7299,10 +7296,10 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B413" s="0" t="s">
         <v>824</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>825</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>2</v>
@@ -7310,10 +7307,10 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="B414" s="0" t="s">
         <v>826</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>827</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>2</v>
@@ -7321,10 +7318,10 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B415" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>2</v>
@@ -7332,10 +7329,10 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B416" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>831</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>2</v>
@@ -7343,10 +7340,10 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B417" s="0" t="s">
         <v>832</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>833</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>2</v>
@@ -7354,10 +7351,10 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B418" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>835</v>
       </c>
       <c r="C418" s="0" t="s">
         <v>2</v>
@@ -7365,10 +7362,10 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B419" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>837</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>2</v>
@@ -7376,10 +7373,10 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="B420" s="0" t="s">
         <v>838</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>839</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>2</v>
@@ -7387,10 +7384,10 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="B421" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>841</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>2</v>
@@ -7398,6 +7395,9 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B422" s="0" t="s">
         <v>842</v>
       </c>
       <c r="C422" s="0" t="s">
